--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2422993-5727-4B2A-817F-AD46F134D74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E6973-C894-455E-BCC9-4A2E827D9D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,234 @@
   <si>
     <t xml:space="preserve">Qu'il lui reste quelques boîtes </t>
   </si>
+  <si>
+    <t>DKR Plateau</t>
+  </si>
+  <si>
+    <t>Marwane</t>
+  </si>
+  <si>
+    <t>Grand Boutique</t>
+  </si>
+  <si>
+    <t>Les produits sont intéressants mais il n'a pas d'argent</t>
+  </si>
+  <si>
+    <t>ABDALLAH</t>
+  </si>
+  <si>
+    <t>Il lui reste 3 cartons café stick Refraish, les café pots 50g et 200g en quantité indéterminé</t>
+  </si>
+  <si>
+    <t>Il lui reste 50 cartons café stick Refraish</t>
+  </si>
+  <si>
+    <t>PAPE ABDOULAKHATE THIAM</t>
+  </si>
+  <si>
+    <t>C'est un nouveau grossite je lui ai proposé les produits il est entrain d'y réfléchir</t>
+  </si>
+  <si>
+    <t>Diamniadio</t>
+  </si>
+  <si>
+    <t>Alpha Diallo</t>
+  </si>
+  <si>
+    <t>Il dit que s'il est intéressé il va appeler</t>
+  </si>
+  <si>
+    <t>Serigne Touré</t>
+  </si>
+  <si>
+    <t>Il n'était pas présent mais son assistant a dit qu'ils ont d'autres produits en stock</t>
+  </si>
+  <si>
+    <t>Yally et Frères</t>
+  </si>
+  <si>
+    <t>Il a toujours le café stick mais il a fini le lait 18g kamlac mais il préfère attendre un peu pour faire une commande</t>
+  </si>
+  <si>
+    <t>Cheikh Touré</t>
+  </si>
+  <si>
+    <t>Il attend ses deux cartons</t>
+  </si>
+  <si>
+    <t>Abdou Karim</t>
+  </si>
+  <si>
+    <t>Il a d'autres produits en stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste toujours de café pot </t>
+  </si>
+  <si>
+    <t>Café pot Refraish 50g</t>
+  </si>
+  <si>
+    <t>Lait Kamlac sachet 18gx100</t>
+  </si>
+  <si>
+    <t>Khalifa</t>
+  </si>
+  <si>
+    <t>Il est toujours en voyage</t>
+  </si>
+  <si>
+    <t>Sow et Frères</t>
+  </si>
+  <si>
+    <t>Il veut essayer le lait en poudre</t>
+  </si>
+  <si>
+    <t>Bilal Fall</t>
+  </si>
+  <si>
+    <t>Cheikh Kounta</t>
+  </si>
+  <si>
+    <t>S'il est intéressé il va appeler</t>
+  </si>
+  <si>
+    <t>Mouhamed Aïdara</t>
+  </si>
+  <si>
+    <t>Il est intéressé par le 200g refaish</t>
+  </si>
+  <si>
+    <t>Gningue et Frères</t>
+  </si>
+  <si>
+    <t>Il dit d'attendre la prochaine fois</t>
+  </si>
+  <si>
+    <t>Mbaye Gningue</t>
+  </si>
+  <si>
+    <t>Il veut essayer le lait</t>
+  </si>
+  <si>
+    <t>Yahya Mamadou Sow</t>
+  </si>
+  <si>
+    <t>Il veut essayer les produits.va me rappeler pour confirmer</t>
+  </si>
+  <si>
+    <t>MATAR LY</t>
+  </si>
+  <si>
+    <t>Se plaind de retard de livraison</t>
+  </si>
+  <si>
+    <t>Baldé</t>
+  </si>
+  <si>
+    <t>Il veut l'essayer</t>
+  </si>
+  <si>
+    <t>OUSMANE BA</t>
+  </si>
+  <si>
+    <t>Il a fini son stock de café stick Altimo mais est en voyage on attend son retour pour commander</t>
+  </si>
+  <si>
+    <t>Pikine Sandika</t>
+  </si>
+  <si>
+    <t>Ismiala</t>
+  </si>
+  <si>
+    <t>liu  est fermé</t>
+  </si>
+  <si>
+    <t>MAMADOU SALIOU DIALLO</t>
+  </si>
+  <si>
+    <t>Baye zale</t>
+  </si>
+  <si>
+    <t>Demande de revenir une prochaine fois</t>
+  </si>
+  <si>
+    <t>Omar Ndaiye</t>
+  </si>
+  <si>
+    <t>Li le reste du produit</t>
+  </si>
+  <si>
+    <t>Billo salle</t>
+  </si>
+  <si>
+    <t>Siradio</t>
+  </si>
+  <si>
+    <t>liu  m'avait commander 25carton de referais safari un mois</t>
+  </si>
+  <si>
+    <t>Itilere</t>
+  </si>
+  <si>
+    <t>Kalé</t>
+  </si>
+  <si>
+    <t>liu reste du stock Altimo mais c'est trop lent</t>
+  </si>
+  <si>
+    <t>Yerno</t>
+  </si>
+  <si>
+    <t>liu est parti en voyage</t>
+  </si>
+  <si>
+    <t>Sidy Dieng</t>
+  </si>
+  <si>
+    <t>Intéressé par l'évaporé</t>
+  </si>
+  <si>
+    <t>Abdou laye</t>
+  </si>
+  <si>
+    <t>Abadou Diallo</t>
+  </si>
+  <si>
+    <t>liu est parti</t>
+  </si>
+  <si>
+    <t>PA NIANG</t>
+  </si>
+  <si>
+    <t>Ne vend pas de café</t>
+  </si>
+  <si>
+    <t>liu  aussi est</t>
+  </si>
+  <si>
+    <t>THIERNO GUISSE</t>
+  </si>
+  <si>
+    <t>Il lui reste du 6 boites café stick Refraish, du café pots 100g en quantité indéterminé, 4 pots café pots 200g Refraish</t>
+  </si>
+  <si>
+    <t>Salle Pikine</t>
+  </si>
+  <si>
+    <t>liu dit descendre le produit est disponible je rappelle</t>
+  </si>
+  <si>
+    <t>Memedou Ba</t>
+  </si>
+  <si>
+    <t>Li attend son commande 25carton de referais</t>
+  </si>
+  <si>
+    <t>Aliou Ba</t>
+  </si>
+  <si>
+    <t>liu attend c'est 50 carton de referais depuis le mio passé</t>
+  </si>
 </sst>
 </file>
 
@@ -733,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,6 +1043,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,6 +1080,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -858,18 +1094,6 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1180,6 +1404,15 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
@@ -1239,6 +1472,9 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -48334,32 +48570,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R42" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:R42" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R82" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:R82" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F85C405C-E78B-4DA6-8568-08107D7551E4}" name="Date" dataDxfId="47"/>
     <tableColumn id="2" xr3:uid="{24A95AD6-D6B8-4864-9451-50BFB3565C62}" name="Prenom_Nom_RZ"/>
     <tableColumn id="4" xr3:uid="{72E50CE0-52B1-4C49-9D23-C97154D649A5}" name="zone"/>
-    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{8F76EC1A-EDA8-4334-9D9A-F7A4396347FF}" name="Precisez" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{3363B50E-E9D9-49C9-9A87-B883B61A5A6B}" name="Mois 1" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{E26577ED-9647-48EE-BE53-9D2F344CB36B}" name="secteur" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{43164A48-AFB0-417D-94C4-5347A67ACD14}" name="Nom_du_magasin" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{8F76EC1A-EDA8-4334-9D9A-F7A4396347FF}" name="Precisez" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3363B50E-E9D9-49C9-9A87-B883B61A5A6B}" name="Mois 1" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="33">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="34">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="32">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48368,13 +48604,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="N4:O16" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(#REF!="(vide)",#REF!=0,Tableau1[[#This Row],[Quantités]]=""),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="28">
       <calculatedColumnFormula>IF(#REF!=0,"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48383,13 +48619,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A35:B47" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48736,10 +48972,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48852,11 +49088,11 @@
       </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="46" t="str">
+      <c r="Q2" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R2" s="46" t="str">
+      <c r="R2" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -48894,11 +49130,11 @@
       </c>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3" s="46" t="str">
+      <c r="Q3" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R3" s="46" t="str">
+      <c r="R3" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -48936,11 +49172,11 @@
       </c>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4" s="46" t="str">
+      <c r="Q4" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R4" s="46" t="str">
+      <c r="R4" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -48978,11 +49214,11 @@
       </c>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" s="46" t="str">
+      <c r="Q5" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R5" s="46" t="str">
+      <c r="R5" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49030,11 +49266,11 @@
       <c r="P6">
         <v>300000</v>
       </c>
-      <c r="Q6" s="46" t="str">
+      <c r="Q6" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R6" s="46" t="str">
+      <c r="R6" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49072,11 +49308,11 @@
       </c>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7" s="46" t="str">
+      <c r="Q7" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R7" s="46" t="str">
+      <c r="R7" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49114,11 +49350,11 @@
       </c>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" s="46" t="str">
+      <c r="Q8" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R8" s="46" t="str">
+      <c r="R8" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49156,11 +49392,11 @@
       </c>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9" s="46" t="str">
+      <c r="Q9" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R9" s="46" t="str">
+      <c r="R9" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49198,11 +49434,11 @@
       </c>
       <c r="O10"/>
       <c r="P10"/>
-      <c r="Q10" s="46" t="str">
+      <c r="Q10" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R10" s="46" t="str">
+      <c r="R10" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49240,11 +49476,11 @@
       </c>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11" s="46" t="str">
+      <c r="Q11" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R11" s="46" t="str">
+      <c r="R11" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49282,11 +49518,11 @@
       </c>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12" s="46" t="str">
+      <c r="Q12" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R12" s="46" t="str">
+      <c r="R12" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49324,11 +49560,11 @@
       </c>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13" s="46" t="str">
+      <c r="Q13" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R13" s="46" t="str">
+      <c r="R13" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49366,11 +49602,11 @@
       </c>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14" s="46" t="str">
+      <c r="Q14" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R14" s="46" t="str">
+      <c r="R14" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49418,11 +49654,11 @@
       <c r="P15">
         <v>2600000</v>
       </c>
-      <c r="Q15" s="46" t="str">
+      <c r="Q15" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R15" s="46" t="str">
+      <c r="R15" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49460,11 +49696,11 @@
       </c>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16" s="46" t="str">
+      <c r="Q16" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R16" s="46" t="str">
+      <c r="R16" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49502,11 +49738,11 @@
       </c>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17" s="46" t="str">
+      <c r="Q17" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R17" s="46" t="str">
+      <c r="R17" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49544,11 +49780,11 @@
       </c>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18" s="46" t="str">
+      <c r="Q18" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R18" s="46" t="str">
+      <c r="R18" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49586,11 +49822,11 @@
       </c>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19" s="46" t="str">
+      <c r="Q19" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R19" s="46" t="str">
+      <c r="R19" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49628,11 +49864,11 @@
       </c>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20" s="46" t="str">
+      <c r="Q20" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R20" s="46" t="str">
+      <c r="R20" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49670,11 +49906,11 @@
       </c>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" s="46" t="str">
+      <c r="Q21" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R21" s="46" t="str">
+      <c r="R21" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49712,11 +49948,11 @@
       </c>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22" s="46" t="str">
+      <c r="Q22" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R22" s="46" t="str">
+      <c r="R22" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49754,11 +49990,11 @@
       </c>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" s="46" t="str">
+      <c r="Q23" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R23" s="46" t="str">
+      <c r="R23" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49796,11 +50032,11 @@
       </c>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" s="46" t="str">
+      <c r="Q24" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R24" s="46" t="str">
+      <c r="R24" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49838,11 +50074,11 @@
       </c>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25" s="46" t="str">
+      <c r="Q25" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R25" s="46" t="str">
+      <c r="R25" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49890,11 +50126,11 @@
       <c r="P26">
         <v>130000</v>
       </c>
-      <c r="Q26" s="46" t="str">
+      <c r="Q26" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R26" s="46" t="str">
+      <c r="R26" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49932,11 +50168,11 @@
       </c>
       <c r="O27"/>
       <c r="P27"/>
-      <c r="Q27" s="46" t="str">
+      <c r="Q27" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R27" s="46" t="str">
+      <c r="R27" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -49974,11 +50210,11 @@
       </c>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28" s="46" t="str">
+      <c r="Q28" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R28" s="46" t="str">
+      <c r="R28" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50016,11 +50252,11 @@
       </c>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29" s="46" t="str">
+      <c r="Q29" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R29" s="46" t="str">
+      <c r="R29" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50058,11 +50294,11 @@
       </c>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30" s="46" t="str">
+      <c r="Q30" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R30" s="46" t="str">
+      <c r="R30" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50110,11 +50346,11 @@
       <c r="P31">
         <v>650000</v>
       </c>
-      <c r="Q31" s="46" t="str">
+      <c r="Q31" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R31" s="46" t="str">
+      <c r="R31" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50152,11 +50388,11 @@
       </c>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32" s="46" t="str">
+      <c r="Q32" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R32" s="46" t="str">
+      <c r="R32" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50194,11 +50430,11 @@
       </c>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33" s="46" t="str">
+      <c r="Q33" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R33" s="46" t="str">
+      <c r="R33" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50236,11 +50472,11 @@
       </c>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="Q34" s="46" t="str">
+      <c r="Q34" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R34" s="46" t="str">
+      <c r="R34" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50291,11 +50527,11 @@
       <c r="P35">
         <v>520000</v>
       </c>
-      <c r="Q35" s="46" t="str">
+      <c r="Q35" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R35" s="46" t="str">
+      <c r="R35" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50333,11 +50569,11 @@
       </c>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36" s="46" t="str">
+      <c r="Q36" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R36" s="46" t="str">
+      <c r="R36" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50375,11 +50611,11 @@
       </c>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37" s="46" t="str">
+      <c r="Q37" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R37" s="46" t="str">
+      <c r="R37" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50417,11 +50653,11 @@
       </c>
       <c r="O38"/>
       <c r="P38"/>
-      <c r="Q38" s="46" t="str">
+      <c r="Q38" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R38" s="46" t="str">
+      <c r="R38" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50459,11 +50695,11 @@
       </c>
       <c r="O39"/>
       <c r="P39"/>
-      <c r="Q39" s="46" t="str">
+      <c r="Q39" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R39" s="46" t="str">
+      <c r="R39" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50514,11 +50750,11 @@
       <c r="P40">
         <v>1550000</v>
       </c>
-      <c r="Q40" s="46" t="str">
+      <c r="Q40" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R40" s="46" t="str">
+      <c r="R40" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50569,11 +50805,11 @@
       <c r="P41">
         <v>1300000</v>
       </c>
-      <c r="Q41" s="46" t="str">
+      <c r="Q41" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R41" s="46" t="str">
+      <c r="R41" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50611,11 +50847,1899 @@
       </c>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42" s="46" t="str">
+      <c r="Q42" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R42" s="46" t="str">
+      <c r="R42" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="47">
+        <v>772540776</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R43" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="47">
+        <v>786312198</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="47"/>
+      <c r="L44" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R44" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="47">
+        <v>781282357</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R45" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="47">
+        <v>773759809</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="47"/>
+      <c r="L46" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R46" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="47">
+        <v>773635629</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="47"/>
+      <c r="L47" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R47" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="47">
+        <v>775602589</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R48" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="47">
+        <v>784227996</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="47"/>
+      <c r="L49" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R49" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="47">
+        <v>760224535</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="47"/>
+      <c r="L50" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="M50" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="47">
+        <v>2</v>
+      </c>
+      <c r="O50" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P50" s="49">
+        <v>52000</v>
+      </c>
+      <c r="Q50" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R50" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="47">
+        <v>774330364</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="47"/>
+      <c r="L51" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R51" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="47">
+        <v>771377243</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="47"/>
+      <c r="L52" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="M52" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="N52" s="47">
+        <v>2</v>
+      </c>
+      <c r="O52" s="49">
+        <v>10250</v>
+      </c>
+      <c r="P52" s="49">
+        <v>20500</v>
+      </c>
+      <c r="Q52" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R52" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="47">
+        <v>771377243</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="47"/>
+      <c r="L53" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="M53" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="N53" s="47">
+        <v>1</v>
+      </c>
+      <c r="O53" s="49">
+        <v>7500</v>
+      </c>
+      <c r="P53" s="49">
+        <v>7500</v>
+      </c>
+      <c r="Q53" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R53" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="47">
+        <v>778000021</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="47"/>
+      <c r="L54" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R54" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="47">
+        <v>779763759</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="47"/>
+      <c r="L55" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R55" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="47">
+        <v>771023656</v>
+      </c>
+      <c r="G56" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="47"/>
+      <c r="L56" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R56" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="47">
+        <v>784267292</v>
+      </c>
+      <c r="G57" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="47"/>
+      <c r="L57" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R57" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="47">
+        <v>707077072</v>
+      </c>
+      <c r="G58" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="47"/>
+      <c r="L58" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R58" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="47">
+        <v>773523587</v>
+      </c>
+      <c r="G59" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="47"/>
+      <c r="L59" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R59" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="47">
+        <v>775601949</v>
+      </c>
+      <c r="G60" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="47"/>
+      <c r="L60" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R60" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="47">
+        <v>778579191</v>
+      </c>
+      <c r="G61" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="47"/>
+      <c r="L61" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R61" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="47">
+        <v>773531341</v>
+      </c>
+      <c r="G62" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="47"/>
+      <c r="L62" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M62" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="47">
+        <v>200</v>
+      </c>
+      <c r="O62" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P62" s="49">
+        <v>5200000</v>
+      </c>
+      <c r="Q62" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R62" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="47">
+        <v>761209176</v>
+      </c>
+      <c r="G63" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="47"/>
+      <c r="L63" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="M63" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="47">
+        <v>1</v>
+      </c>
+      <c r="O63" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P63" s="49">
+        <v>26000</v>
+      </c>
+      <c r="Q63" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R63" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" s="47">
+        <v>770290375</v>
+      </c>
+      <c r="G64" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="47"/>
+      <c r="L64" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R64" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="47">
+        <v>774161282</v>
+      </c>
+      <c r="G65" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="47"/>
+      <c r="L65" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R65" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" s="47">
+        <v>776162965</v>
+      </c>
+      <c r="G66" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="47"/>
+      <c r="L66" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="47">
+        <v>5</v>
+      </c>
+      <c r="O66" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P66" s="49">
+        <v>130000</v>
+      </c>
+      <c r="Q66" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R66" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="47">
+        <v>779497650</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="47"/>
+      <c r="L67" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R67" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="47">
+        <v>774521295</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="47"/>
+      <c r="L68" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R68" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="47">
+        <v>775361612</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="47"/>
+      <c r="L69" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R69" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="47">
+        <v>771355863</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="47"/>
+      <c r="L70" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R70" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="47">
+        <v>774445778</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="47"/>
+      <c r="L71" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R71" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="47">
+        <v>775586319</v>
+      </c>
+      <c r="G72" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="47"/>
+      <c r="L72" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R72" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="47">
+        <v>778147708</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="47"/>
+      <c r="L73" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R73" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="47">
+        <v>779976996</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="47"/>
+      <c r="L74" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R74" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="47">
+        <v>775717613</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="47"/>
+      <c r="L75" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R75" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="47">
+        <v>771570266</v>
+      </c>
+      <c r="G76" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="47"/>
+      <c r="L76" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R76" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" s="47">
+        <v>776294931</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="47"/>
+      <c r="L77" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R77" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" s="47">
+        <v>776193016</v>
+      </c>
+      <c r="G78" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="47"/>
+      <c r="L78" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R78" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="47">
+        <v>777132186</v>
+      </c>
+      <c r="G79" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="47"/>
+      <c r="L79" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R79" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80" s="47">
+        <v>770188596</v>
+      </c>
+      <c r="G80" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="47"/>
+      <c r="L80" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R80" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="47">
+        <v>774714382</v>
+      </c>
+      <c r="G81" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="47"/>
+      <c r="L81" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R81" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82" s="47">
+        <v>774061052</v>
+      </c>
+      <c r="G82" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="47"/>
+      <c r="L82" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R82" s="50" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50664,71 +52788,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="36" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
@@ -50757,10 +52881,10 @@
         <v>49</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="14" t="s">
         <v>73</v>
       </c>
@@ -50806,11 +52930,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="27"/>
-      <c r="K5" s="35">
+      <c r="K5" s="36">
         <f>IFERROR(GETPIVOTDATA("Prix Total",#REF!,"Operation","Commande"),0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="28">
         <f>IFERROR(H5/K5,0)</f>
         <v>0</v>
@@ -51769,46 +53893,46 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51918,72 +54042,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
@@ -52014,10 +54138,10 @@
         <v>49</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="14" t="s">
         <v>73</v>
       </c>
@@ -52068,11 +54192,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="27"/>
-      <c r="K5" s="35">
+      <c r="K5" s="36">
         <f>IFERROR(GETPIVOTDATA("Prix Total",#REF!,"Operation","Commande"),0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="28" t="e">
         <f>H5/K5</f>
         <v>#DIV/0!</v>
@@ -52905,10 +55029,10 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -53782,46 +55906,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E6973-C894-455E-BCC9-4A2E827D9D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBEE1E2-0775-405C-96B7-F1BD4F2D17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>Oumar Diallo</t>
-  </si>
-  <si>
-    <t>Commande non livré</t>
   </si>
   <si>
     <t>Matar</t>
@@ -737,6 +734,9 @@
   <si>
     <t>liu attend c'est 50 carton de referais depuis le mio passé</t>
   </si>
+  <si>
+    <t>Commande non livré de 100 Café stick Refraish 1,5gx09boites</t>
+  </si>
 </sst>
 </file>
 
@@ -961,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,14 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -48974,8 +48966,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:P82"/>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49084,7 +49076,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -49153,7 +49145,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>776634479</v>
@@ -49168,7 +49160,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -49195,7 +49187,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>773199049</v>
@@ -49210,7 +49202,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -49252,10 +49244,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -49304,7 +49296,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -49346,7 +49338,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -49541,7 +49533,7 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>772900705</v>
@@ -49556,7 +49548,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -49611,7 +49603,7 @@
         <v>août</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45873</v>
       </c>
@@ -49625,7 +49617,7 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>338559599</v>
@@ -49637,23 +49629,13 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15">
-        <v>100</v>
-      </c>
-      <c r="O15">
-        <v>26000</v>
-      </c>
-      <c r="P15">
-        <v>2600000</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
       <c r="Q15" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
@@ -49692,7 +49674,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O16"/>
       <c r="P16"/>
@@ -49734,7 +49716,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
@@ -49761,7 +49743,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18">
         <v>784494590</v>
@@ -49776,7 +49758,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -49818,7 +49800,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
@@ -49860,7 +49842,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -49887,7 +49869,7 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>775160533</v>
@@ -49902,7 +49884,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
@@ -49929,7 +49911,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22">
         <v>775884054</v>
@@ -49986,7 +49968,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
@@ -50013,7 +49995,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24">
         <v>778276533</v>
@@ -50070,7 +50052,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O25"/>
       <c r="P25"/>
@@ -50149,7 +50131,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27">
         <v>773942143</v>
@@ -50191,7 +50173,7 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28">
         <v>776923531</v>
@@ -50206,7 +50188,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
@@ -50233,7 +50215,7 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29">
         <v>775467226</v>
@@ -50248,7 +50230,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
@@ -50275,7 +50257,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30">
         <v>776194079</v>
@@ -50332,7 +50314,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s">
         <v>29</v>
@@ -50384,7 +50366,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
@@ -50411,7 +50393,7 @@
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>776503464</v>
@@ -50426,7 +50408,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
@@ -50468,7 +50450,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -50495,7 +50477,7 @@
         <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35">
         <v>778494608</v>
@@ -50510,7 +50492,7 @@
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>28</v>
@@ -50550,7 +50532,7 @@
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36">
         <v>776179093</v>
@@ -50565,7 +50547,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
@@ -50592,7 +50574,7 @@
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>776367168</v>
@@ -50607,7 +50589,7 @@
         <v>18</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
@@ -50676,7 +50658,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39">
         <v>775538380</v>
@@ -50691,7 +50673,7 @@
         <v>18</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O39"/>
       <c r="P39"/>
@@ -50718,7 +50700,7 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40">
         <v>778494608</v>
@@ -50733,7 +50715,7 @@
         <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>28</v>
@@ -50788,7 +50770,7 @@
         <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>28</v>
@@ -50828,7 +50810,7 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42">
         <v>773248259</v>
@@ -50843,7 +50825,7 @@
         <v>18</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
@@ -50866,38 +50848,32 @@
       <c r="C43" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="F43">
+        <v>772540776</v>
+      </c>
+      <c r="G43" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="47">
-        <v>772540776</v>
-      </c>
-      <c r="G43" s="47" t="s">
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="50" t="str">
+      <c r="Q43" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R43" s="50" t="str">
+      <c r="R43" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50912,38 +50888,32 @@
       <c r="C44" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44">
+        <v>786312198</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="47">
-        <v>786312198</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="50" t="str">
+      <c r="Q44" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R44" s="50" t="str">
+      <c r="R44" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -50958,38 +50928,32 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45">
         <v>781282357</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G45" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47" t="s">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="50" t="str">
+      <c r="L45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q45" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R45" s="50" t="str">
+      <c r="R45" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51004,38 +50968,32 @@
       <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46">
+        <v>773759809</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F46" s="47">
-        <v>773759809</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="47"/>
-      <c r="L46" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50" t="str">
+      <c r="Q46" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R46" s="50" t="str">
+      <c r="R46" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51050,38 +51008,32 @@
       <c r="C47" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="F47">
+        <v>773635629</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="47">
-        <v>773635629</v>
-      </c>
-      <c r="G47" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="50" t="str">
+      <c r="Q47" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R47" s="50" t="str">
+      <c r="R47" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51096,38 +51048,32 @@
       <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="47" t="s">
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48">
+        <v>775602589</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="47">
-        <v>775602589</v>
-      </c>
-      <c r="G48" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="47"/>
-      <c r="L48" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="50" t="str">
+      <c r="Q48" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R48" s="50" t="str">
+      <c r="R48" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51142,38 +51088,32 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="47" t="s">
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49">
+        <v>784227996</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="47">
-        <v>784227996</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="50" t="str">
+      <c r="Q49" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R49" s="50" t="str">
+      <c r="R49" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51188,46 +51128,44 @@
       <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="47" t="s">
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50">
+        <v>760224535</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="47">
-        <v>760224535</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="47"/>
-      <c r="L50" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="M50" s="47" t="s">
+      <c r="M50" t="s">
         <v>29</v>
       </c>
-      <c r="N50" s="47">
+      <c r="N50">
         <v>2</v>
       </c>
-      <c r="O50" s="49">
+      <c r="O50" s="5">
         <v>26000</v>
       </c>
-      <c r="P50" s="49">
+      <c r="P50" s="5">
         <v>52000</v>
       </c>
-      <c r="Q50" s="50" t="str">
+      <c r="Q50" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R50" s="50" t="str">
+      <c r="R50" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51242,38 +51180,32 @@
       <c r="C51" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="47" t="s">
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51">
+        <v>774330364</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F51" s="47">
-        <v>774330364</v>
-      </c>
-      <c r="G51" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="50" t="str">
+      <c r="Q51" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R51" s="50" t="str">
+      <c r="R51" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51288,46 +51220,44 @@
       <c r="C52" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="47" t="s">
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52">
         <v>771377243</v>
       </c>
-      <c r="G52" s="47" t="s">
+      <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47" t="s">
+      <c r="I52" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="47" t="s">
+      <c r="J52" t="s">
         <v>30</v>
       </c>
-      <c r="K52" s="47"/>
-      <c r="L52" s="48" t="s">
+      <c r="L52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M52" t="s">
         <v>168</v>
       </c>
-      <c r="M52" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="N52" s="47">
+      <c r="N52">
         <v>2</v>
       </c>
-      <c r="O52" s="49">
+      <c r="O52" s="5">
         <v>10250</v>
       </c>
-      <c r="P52" s="49">
+      <c r="P52" s="5">
         <v>20500</v>
       </c>
-      <c r="Q52" s="50" t="str">
+      <c r="Q52" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R52" s="50" t="str">
+      <c r="R52" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51342,46 +51272,44 @@
       <c r="C53" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="47" t="s">
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53">
         <v>771377243</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47" t="s">
+      <c r="I53" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="47"/>
-      <c r="L53" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="M53" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="N53" s="47">
+      <c r="L53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M53" t="s">
+        <v>169</v>
+      </c>
+      <c r="N53">
         <v>1</v>
       </c>
-      <c r="O53" s="49">
+      <c r="O53" s="5">
         <v>7500</v>
       </c>
-      <c r="P53" s="49">
+      <c r="P53" s="5">
         <v>7500</v>
       </c>
-      <c r="Q53" s="50" t="str">
+      <c r="Q53" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R53" s="50" t="str">
+      <c r="R53" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51396,38 +51324,32 @@
       <c r="C54" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="47" t="s">
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54">
+        <v>778000021</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="47">
-        <v>778000021</v>
-      </c>
-      <c r="G54" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="47"/>
-      <c r="L54" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="50" t="str">
+      <c r="Q54" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R54" s="50" t="str">
+      <c r="R54" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51442,38 +51364,32 @@
       <c r="C55" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="47" t="s">
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55">
+        <v>779763759</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F55" s="47">
-        <v>779763759</v>
-      </c>
-      <c r="G55" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="47"/>
-      <c r="L55" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="50" t="str">
+      <c r="Q55" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R55" s="50" t="str">
+      <c r="R55" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51488,38 +51404,32 @@
       <c r="C56" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="F56" s="47">
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56">
         <v>771023656</v>
       </c>
-      <c r="G56" s="47" t="s">
+      <c r="G56" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47" t="s">
+      <c r="I56" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="47" t="s">
+      <c r="J56" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="47"/>
-      <c r="L56" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="50" t="str">
+      <c r="L56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R56" s="50" t="str">
+      <c r="R56" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51534,38 +51444,32 @@
       <c r="C57" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="47" t="s">
+      <c r="D57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57">
+        <v>784267292</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="47">
-        <v>784267292</v>
-      </c>
-      <c r="G57" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="47"/>
-      <c r="L57" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="50" t="str">
+      <c r="Q57" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R57" s="50" t="str">
+      <c r="R57" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51580,38 +51484,32 @@
       <c r="C58" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="47" t="s">
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58">
+        <v>707077072</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="47">
-        <v>707077072</v>
-      </c>
-      <c r="G58" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="47"/>
-      <c r="L58" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="50" t="str">
+      <c r="Q58" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R58" s="50" t="str">
+      <c r="R58" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51626,38 +51524,32 @@
       <c r="C59" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="47" t="s">
+      <c r="D59" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59">
+        <v>773523587</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="47">
-        <v>773523587</v>
-      </c>
-      <c r="G59" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="47"/>
-      <c r="L59" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="50" t="str">
+      <c r="Q59" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R59" s="50" t="str">
+      <c r="R59" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51672,38 +51564,32 @@
       <c r="C60" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="47" t="s">
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60">
+        <v>775601949</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="47">
-        <v>775601949</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="47"/>
-      <c r="L60" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="50" t="str">
+      <c r="Q60" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R60" s="50" t="str">
+      <c r="R60" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51718,38 +51604,32 @@
       <c r="C61" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="47" t="s">
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61">
+        <v>778579191</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F61" s="47">
-        <v>778579191</v>
-      </c>
-      <c r="G61" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="50" t="str">
+      <c r="Q61" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R61" s="50" t="str">
+      <c r="R61" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51764,46 +51644,44 @@
       <c r="C62" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D62" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62">
+        <v>773531341</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="47">
-        <v>773531341</v>
-      </c>
-      <c r="G62" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="47"/>
-      <c r="L62" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="M62" s="47" t="s">
+      <c r="M62" t="s">
         <v>29</v>
       </c>
-      <c r="N62" s="47">
+      <c r="N62">
         <v>200</v>
       </c>
-      <c r="O62" s="49">
+      <c r="O62" s="5">
         <v>26000</v>
       </c>
-      <c r="P62" s="49">
+      <c r="P62" s="5">
         <v>5200000</v>
       </c>
-      <c r="Q62" s="50" t="str">
+      <c r="Q62" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R62" s="50" t="str">
+      <c r="R62" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51818,46 +51696,44 @@
       <c r="C63" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="47" t="s">
+      <c r="D63" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63">
+        <v>761209176</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="47">
-        <v>761209176</v>
-      </c>
-      <c r="G63" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="47"/>
-      <c r="L63" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="M63" s="47" t="s">
+      <c r="M63" t="s">
         <v>29</v>
       </c>
-      <c r="N63" s="47">
+      <c r="N63">
         <v>1</v>
       </c>
-      <c r="O63" s="49">
+      <c r="O63" s="5">
         <v>26000</v>
       </c>
-      <c r="P63" s="49">
+      <c r="P63" s="5">
         <v>26000</v>
       </c>
-      <c r="Q63" s="50" t="str">
+      <c r="Q63" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R63" s="50" t="str">
+      <c r="R63" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51872,38 +51748,32 @@
       <c r="C64" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64">
+        <v>770290375</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F64" s="47">
-        <v>770290375</v>
-      </c>
-      <c r="G64" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="47"/>
-      <c r="L64" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="50" t="str">
+      <c r="Q64" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R64" s="50" t="str">
+      <c r="R64" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51918,38 +51788,32 @@
       <c r="C65" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="F65">
+        <v>774161282</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="47">
-        <v>774161282</v>
-      </c>
-      <c r="G65" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="47"/>
-      <c r="L65" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="50" t="str">
+      <c r="Q65" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R65" s="50" t="str">
+      <c r="R65" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -51964,46 +51828,44 @@
       <c r="C66" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="F66" s="47">
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66">
         <v>776162965</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47" t="s">
+      <c r="I66" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="47"/>
-      <c r="L66" s="48" t="s">
+      <c r="L66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M66" s="47" t="s">
+      <c r="M66" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="47">
+      <c r="N66">
         <v>5</v>
       </c>
-      <c r="O66" s="49">
+      <c r="O66" s="5">
         <v>26000</v>
       </c>
-      <c r="P66" s="49">
+      <c r="P66" s="5">
         <v>130000</v>
       </c>
-      <c r="Q66" s="50" t="str">
+      <c r="Q66" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R66" s="50" t="str">
+      <c r="R66" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52018,38 +51880,32 @@
       <c r="C67" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="47" t="s">
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67">
+        <v>779497650</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F67" s="47">
-        <v>779497650</v>
-      </c>
-      <c r="G67" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="47"/>
-      <c r="L67" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="50" t="str">
+      <c r="Q67" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R67" s="50" t="str">
+      <c r="R67" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52064,38 +51920,32 @@
       <c r="C68" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="47" t="s">
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68">
+        <v>774521295</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="47">
-        <v>774521295</v>
-      </c>
-      <c r="G68" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="47"/>
-      <c r="L68" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="50" t="str">
+      <c r="Q68" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R68" s="50" t="str">
+      <c r="R68" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52110,38 +51960,32 @@
       <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="47">
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69">
         <v>775361612</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G69" t="s">
         <v>23</v>
       </c>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47" t="s">
+      <c r="I69" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="47" t="s">
+      <c r="J69" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="48" t="s">
+      <c r="L69" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="50" t="str">
+      <c r="Q69" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R69" s="50" t="str">
+      <c r="R69" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52156,38 +52000,32 @@
       <c r="C70" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="47" t="s">
+      <c r="D70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70">
+        <v>771355863</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="47">
-        <v>771355863</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="47"/>
-      <c r="L70" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="50" t="str">
+      <c r="Q70" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R70" s="50" t="str">
+      <c r="R70" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52202,38 +52040,32 @@
       <c r="C71" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71" s="47">
+      <c r="D71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71">
         <v>774445778</v>
       </c>
-      <c r="G71" s="47" t="s">
+      <c r="G71" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47" t="s">
+      <c r="I71" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="47" t="s">
+      <c r="J71" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="47"/>
-      <c r="L71" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="50" t="str">
+      <c r="L71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q71" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R71" s="50" t="str">
+      <c r="R71" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52248,38 +52080,32 @@
       <c r="C72" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E72" s="47" t="s">
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72">
+        <v>775586319</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F72" s="47">
-        <v>775586319</v>
-      </c>
-      <c r="G72" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="47"/>
-      <c r="L72" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="50" t="str">
+      <c r="Q72" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R72" s="50" t="str">
+      <c r="R72" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52294,38 +52120,32 @@
       <c r="C73" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73" s="47" t="s">
+      <c r="D73" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73">
+        <v>778147708</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F73" s="47">
-        <v>778147708</v>
-      </c>
-      <c r="G73" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="47"/>
-      <c r="L73" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="50" t="str">
+      <c r="Q73" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R73" s="50" t="str">
+      <c r="R73" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52340,38 +52160,32 @@
       <c r="C74" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="47" t="s">
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74">
+        <v>779976996</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F74" s="47">
-        <v>779976996</v>
-      </c>
-      <c r="G74" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="47"/>
-      <c r="L74" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="50" t="str">
+      <c r="Q74" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R74" s="50" t="str">
+      <c r="R74" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52386,38 +52200,32 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="47">
+      <c r="D75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75">
         <v>775717613</v>
       </c>
-      <c r="G75" s="47" t="s">
+      <c r="G75" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47" t="s">
+      <c r="I75" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="47" t="s">
+      <c r="J75" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="47"/>
-      <c r="L75" s="48" t="s">
+      <c r="L75" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="50" t="str">
+      <c r="Q75" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R75" s="50" t="str">
+      <c r="R75" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52432,38 +52240,32 @@
       <c r="C76" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="47" t="s">
+      <c r="D76" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76">
+        <v>771570266</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F76" s="47">
-        <v>771570266</v>
-      </c>
-      <c r="G76" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="47"/>
-      <c r="L76" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="50" t="str">
+      <c r="Q76" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R76" s="50" t="str">
+      <c r="R76" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52478,38 +52280,32 @@
       <c r="C77" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" t="s">
         <v>40</v>
       </c>
-      <c r="E77" s="47" t="s">
+      <c r="E77" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77">
+        <v>776294931</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F77" s="47">
-        <v>776294931</v>
-      </c>
-      <c r="G77" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" s="47"/>
-      <c r="L77" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="50" t="str">
+      <c r="Q77" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R77" s="50" t="str">
+      <c r="R77" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52524,38 +52320,32 @@
       <c r="C78" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F78" s="47">
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78">
         <v>776193016</v>
       </c>
-      <c r="G78" s="47" t="s">
+      <c r="G78" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47" t="s">
+      <c r="I78" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="47" t="s">
+      <c r="J78" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="47"/>
-      <c r="L78" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="50" t="str">
+      <c r="L78" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q78" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R78" s="50" t="str">
+      <c r="R78" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52570,38 +52360,32 @@
       <c r="C79" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D79" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="47" t="s">
+      <c r="E79" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79">
+        <v>777132186</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F79" s="47">
-        <v>777132186</v>
-      </c>
-      <c r="G79" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="47"/>
-      <c r="L79" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="50" t="str">
+      <c r="Q79" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R79" s="50" t="str">
+      <c r="R79" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52616,38 +52400,32 @@
       <c r="C80" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="47" t="s">
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" t="s">
+        <v>217</v>
+      </c>
+      <c r="F80">
+        <v>770188596</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F80" s="47">
-        <v>770188596</v>
-      </c>
-      <c r="G80" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="47"/>
-      <c r="L80" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="50" t="str">
+      <c r="Q80" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R80" s="50" t="str">
+      <c r="R80" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52662,38 +52440,32 @@
       <c r="C81" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="47" t="s">
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" t="s">
+        <v>219</v>
+      </c>
+      <c r="F81">
+        <v>774714382</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F81" s="47">
-        <v>774714382</v>
-      </c>
-      <c r="G81" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K81" s="47"/>
-      <c r="L81" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="49"/>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="50" t="str">
+      <c r="Q81" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R81" s="50" t="str">
+      <c r="R81" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52708,38 +52480,32 @@
       <c r="C82" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E82" s="47" t="s">
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82">
+        <v>774061052</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F82" s="47">
-        <v>774061052</v>
-      </c>
-      <c r="G82" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" s="47"/>
-      <c r="L82" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="50" t="str">
+      <c r="Q82" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R82" s="50" t="str">
+      <c r="R82" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBEE1E2-0775-405C-96B7-F1BD4F2D17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77160C40-6A7B-4ECE-AA60-2C263B9411B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="283">
   <si>
     <t>Date</t>
   </si>
@@ -737,6 +737,183 @@
   <si>
     <t>Commande non livré de 100 Café stick Refraish 1,5gx09boites</t>
   </si>
+  <si>
+    <t>Tournal Yeumbeul</t>
+  </si>
+  <si>
+    <t>DJILI SENE</t>
+  </si>
+  <si>
+    <t>Ne vend que God energie</t>
+  </si>
+  <si>
+    <t>Pikine Tally Bou Mak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall kebe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu reste du stock </t>
+  </si>
+  <si>
+    <t>SALIOU BA</t>
+  </si>
+  <si>
+    <t>Reste 3 cartons café stick Refraish</t>
+  </si>
+  <si>
+    <t>Wahape Diallo</t>
+  </si>
+  <si>
+    <t>Cheikh</t>
+  </si>
+  <si>
+    <t>Mouhem Diallo</t>
+  </si>
+  <si>
+    <t>Mouhem.</t>
+  </si>
+  <si>
+    <t>Alimentation bobo sy</t>
+  </si>
+  <si>
+    <t>Commande non livré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamarana Ba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu attend son commande </t>
+  </si>
+  <si>
+    <t>Café pot Refraish 200g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moutare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu attend son commande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu reste du produit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbaye Diop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li me demande le kamlac </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atou Ndiaye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li attend son commande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chercher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">je repasser une autre jour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li me demande le lait  concentré  c'est  combien </t>
+  </si>
+  <si>
+    <t>Sakina Distribution suARL</t>
+  </si>
+  <si>
+    <t>Médina</t>
+  </si>
+  <si>
+    <t>Amadou</t>
+  </si>
+  <si>
+    <t>Juillet</t>
+  </si>
+  <si>
+    <t>Commande reçue</t>
+  </si>
+  <si>
+    <t>Yeumbeul Mbéde Sass</t>
+  </si>
+  <si>
+    <t>CHEIKH DIOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il veut dépot vente </t>
+  </si>
+  <si>
+    <t>Il a reçu sa commande avec un retard de 10jours alors que le produit n'est pas en rupture de stock.</t>
+  </si>
+  <si>
+    <t>PA DIOP</t>
+  </si>
+  <si>
+    <t>Ne vend pas de café ou lait</t>
+  </si>
+  <si>
+    <t>MODOU WADE</t>
+  </si>
+  <si>
+    <t>MOUHAMED DIALLO</t>
+  </si>
+  <si>
+    <t>Il lui reste 2 boites café stick Altimo, et 1 carton 50g Refraish</t>
+  </si>
+  <si>
+    <t>MOUSSA BA</t>
+  </si>
+  <si>
+    <t>Io ne peut pas commander car il est en chantier</t>
+  </si>
+  <si>
+    <t>ALPHA DIALLO</t>
+  </si>
+  <si>
+    <t>Il lui reste 2 cartons café stick Refraish</t>
+  </si>
+  <si>
+    <t>MAMADOU DIA</t>
+  </si>
+  <si>
+    <t>Il lui reste du café stick Altimo et du café pot 50g en quantité indéterminée</t>
+  </si>
+  <si>
+    <t>LY ET FRERE</t>
+  </si>
+  <si>
+    <t>Il lui reste 3 cartons café pot 200g et veut du 50g Refraish mais n'a pas assez d'argent</t>
+  </si>
+  <si>
+    <t>SEYNABOU BA</t>
+  </si>
+  <si>
+    <t>Reste 8 cartons café stick Refraish</t>
+  </si>
+  <si>
+    <t>NAFAR BOUTIQUE</t>
+  </si>
+  <si>
+    <t>Se plaind de sa commande non livrée</t>
+  </si>
+  <si>
+    <t>PAPE DIOP</t>
+  </si>
+  <si>
+    <t>Reste 12 cartons café stick Refraish</t>
+  </si>
+  <si>
+    <t>S.K.L</t>
+  </si>
+  <si>
+    <t>Il a commandé 100 cartons refraish mais il a reçu seulement 50cartons .il attend les autres 50cartons pour la semaine prochaine inchallah</t>
+  </si>
 </sst>
 </file>
 
@@ -961,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,6 +1256,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -48562,8 +48747,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R82" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:R82" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R113" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:R113" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -48964,10 +49149,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:P113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -52506,6 +52691,1494 @@
         <v>S32</v>
       </c>
       <c r="R82" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="47">
+        <v>755253232</v>
+      </c>
+      <c r="G83" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="47"/>
+      <c r="L83" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R83" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" s="47">
+        <v>775724732</v>
+      </c>
+      <c r="G84" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="47"/>
+      <c r="L84" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R84" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="47">
+        <v>772884203</v>
+      </c>
+      <c r="G85" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="47"/>
+      <c r="L85" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R85" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="47">
+        <v>774698440</v>
+      </c>
+      <c r="G86" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="47"/>
+      <c r="L86" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R86" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="47">
+        <v>781457464</v>
+      </c>
+      <c r="G87" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="47"/>
+      <c r="L87" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R87" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="47">
+        <v>778080570</v>
+      </c>
+      <c r="G88" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="47"/>
+      <c r="L88" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R88" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="47">
+        <v>777186384</v>
+      </c>
+      <c r="G89" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="47"/>
+      <c r="L89" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R89" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F90" s="47">
+        <v>774445965</v>
+      </c>
+      <c r="G90" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="47"/>
+      <c r="L90" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="M90" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="47">
+        <v>25</v>
+      </c>
+      <c r="O90" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P90" s="49">
+        <v>650000</v>
+      </c>
+      <c r="Q90" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R90" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" s="47">
+        <v>788260347</v>
+      </c>
+      <c r="G91" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="47"/>
+      <c r="L91" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="M91" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="N91" s="47">
+        <v>2</v>
+      </c>
+      <c r="O91" s="49">
+        <v>19500</v>
+      </c>
+      <c r="P91" s="49">
+        <v>39000</v>
+      </c>
+      <c r="Q91" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R91" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F92" s="47">
+        <v>778080493</v>
+      </c>
+      <c r="G92" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K92" s="47"/>
+      <c r="L92" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="M92" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="47">
+        <v>1</v>
+      </c>
+      <c r="O92" s="49">
+        <v>31000</v>
+      </c>
+      <c r="P92" s="49">
+        <v>31000</v>
+      </c>
+      <c r="Q92" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R92" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E93" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="47">
+        <v>778080493</v>
+      </c>
+      <c r="G93" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K93" s="47"/>
+      <c r="L93" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="M93" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N93" s="47">
+        <v>1</v>
+      </c>
+      <c r="O93" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P93" s="49">
+        <v>26000</v>
+      </c>
+      <c r="Q93" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R93" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" s="47">
+        <v>784872626</v>
+      </c>
+      <c r="G94" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="47"/>
+      <c r="L94" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R94" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="F95" s="47">
+        <v>772401517</v>
+      </c>
+      <c r="G95" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="47"/>
+      <c r="L95" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R95" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="F96" s="47">
+        <v>774230518</v>
+      </c>
+      <c r="G96" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="47"/>
+      <c r="L96" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M96" s="47"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R96" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="47">
+        <v>707523461</v>
+      </c>
+      <c r="G97" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="47"/>
+      <c r="L97" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="M97" s="47"/>
+      <c r="N97" s="47"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R97" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F98" s="47">
+        <v>774580822</v>
+      </c>
+      <c r="G98" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="47"/>
+      <c r="L98" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="M98" s="47"/>
+      <c r="N98" s="47"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R98" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" s="47">
+        <v>338559477</v>
+      </c>
+      <c r="G99" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="47"/>
+      <c r="L99" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M99" s="47"/>
+      <c r="N99" s="47"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R99" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" s="47">
+        <v>776256670</v>
+      </c>
+      <c r="G100" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L100" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="M100" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="N100" s="47">
+        <v>25</v>
+      </c>
+      <c r="O100" s="49">
+        <v>19500</v>
+      </c>
+      <c r="P100" s="49">
+        <v>487500</v>
+      </c>
+      <c r="Q100" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R100" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="F101" s="47">
+        <v>775792864</v>
+      </c>
+      <c r="G101" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="47"/>
+      <c r="L101" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="M101" s="47"/>
+      <c r="N101" s="47"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R101" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="47">
+        <v>778096419</v>
+      </c>
+      <c r="G102" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L102" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M102" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="N102" s="47">
+        <v>5</v>
+      </c>
+      <c r="O102" s="49">
+        <v>60000</v>
+      </c>
+      <c r="P102" s="49">
+        <v>300000</v>
+      </c>
+      <c r="Q102" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R102" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E103" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F103" s="47">
+        <v>764881522</v>
+      </c>
+      <c r="G103" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="47"/>
+      <c r="L103" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M103" s="47"/>
+      <c r="N103" s="47"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R103" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="F104" s="47">
+        <v>762625997</v>
+      </c>
+      <c r="G104" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="47"/>
+      <c r="L104" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M104" s="47"/>
+      <c r="N104" s="47"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R104" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="F105" s="47">
+        <v>774747772</v>
+      </c>
+      <c r="G105" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="47"/>
+      <c r="L105" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="M105" s="47"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R105" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E106" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" s="47">
+        <v>781532059</v>
+      </c>
+      <c r="G106" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="47"/>
+      <c r="L106" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="M106" s="47"/>
+      <c r="N106" s="47"/>
+      <c r="O106" s="49"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R106" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="F107" s="47">
+        <v>773340367</v>
+      </c>
+      <c r="G107" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="47"/>
+      <c r="L107" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="M107" s="47"/>
+      <c r="N107" s="47"/>
+      <c r="O107" s="49"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R107" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E108" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="F108" s="47">
+        <v>768059355</v>
+      </c>
+      <c r="G108" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="47"/>
+      <c r="L108" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="M108" s="47"/>
+      <c r="N108" s="47"/>
+      <c r="O108" s="49"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R108" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E109" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="F109" s="47">
+        <v>772713019</v>
+      </c>
+      <c r="G109" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="47"/>
+      <c r="L109" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="M109" s="47"/>
+      <c r="N109" s="47"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R109" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E110" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F110" s="47">
+        <v>779420909</v>
+      </c>
+      <c r="G110" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="47"/>
+      <c r="L110" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="49"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R110" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E111" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F111" s="47">
+        <v>762974040</v>
+      </c>
+      <c r="G111" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="47"/>
+      <c r="L111" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R111" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E112" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F112" s="47">
+        <v>775213948</v>
+      </c>
+      <c r="G112" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="47"/>
+      <c r="L112" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R112" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F113" s="47">
+        <v>778195274</v>
+      </c>
+      <c r="G113" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K113" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L113" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="M113" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N113" s="47">
+        <v>50</v>
+      </c>
+      <c r="O113" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P113" s="49">
+        <v>1300000</v>
+      </c>
+      <c r="Q113" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R113" s="50" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77160C40-6A7B-4ECE-AA60-2C263B9411B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E6A27-248F-446C-9041-989E988F72B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="318">
   <si>
     <t>Date</t>
   </si>
@@ -913,6 +913,112 @@
   </si>
   <si>
     <t>Il a commandé 100 cartons refraish mais il a reçu seulement 50cartons .il attend les autres 50cartons pour la semaine prochaine inchallah</t>
+  </si>
+  <si>
+    <t>Ben Tally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndiaye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma demande de repasser pour qu'il y réfléchir </t>
+  </si>
+  <si>
+    <t>Yeumbeul Tally Diallo</t>
+  </si>
+  <si>
+    <t>DAME GAYE</t>
+  </si>
+  <si>
+    <t>Il a déja terminer notre produit mais ne veux pas recommander car il a vu un nouveau produit moins cher que la notre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapha </t>
+  </si>
+  <si>
+    <t>TAPHA DIOP</t>
+  </si>
+  <si>
+    <t>Il est en contrat avec Nestlé c'est pour cela qu'il ne vend que leurs produits</t>
+  </si>
+  <si>
+    <t>NIANG ET FRERE</t>
+  </si>
+  <si>
+    <t>Il veux acheter du janus mais il lui reste une grande quatitée de stock du café goutte énergie</t>
+  </si>
+  <si>
+    <t>YACINE DIALLO</t>
+  </si>
+  <si>
+    <t>Elle veux du café janus mais elle n'a pas encore de l'argent</t>
+  </si>
+  <si>
+    <t>ABDOULAYE DIALLO</t>
+  </si>
+  <si>
+    <t>Il a dit q'il commande 25cartons stick refraish si c'est plus café et non plus jus  car il ne veux pas de jus</t>
+  </si>
+  <si>
+    <t>MOUSSA DIOP</t>
+  </si>
+  <si>
+    <t>Il n'était pas présent dans les lieux aujourd' hui</t>
+  </si>
+  <si>
+    <t>ABOUBACARI DJIBRIL SARR</t>
+  </si>
+  <si>
+    <t>Ne vend que du café nescafé.
+Les produits laitiers lui ont été proposés mais il dit que ces produits lui sont inconnus pour le moment et il va y réfléchir pour nous revenir plus tard</t>
+  </si>
+  <si>
+    <t>OUSMANE SARR</t>
+  </si>
+  <si>
+    <t>Detient un stock restant: café pot refraish 50g  et café stick refraish  50g</t>
+  </si>
+  <si>
+    <t>YORO DIAGNE</t>
+  </si>
+  <si>
+    <t>Il vendait du café janus mais il l'a mis en pause depuis que le prix a été augmenté</t>
+  </si>
+  <si>
+    <t>MOR GEUYE</t>
+  </si>
+  <si>
+    <t>Contient un stock restant de 2 cartons 200g</t>
+  </si>
+  <si>
+    <t>Commande reçue.merci</t>
+  </si>
+  <si>
+    <t>Il lui reste une commande de 100cartons refraish.il veut qu'on lui livre ça Lundi inchallah</t>
+  </si>
+  <si>
+    <t>Sow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mame cheikh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elage Diallo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndongo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma demande de repasser qu'il est entrain de faire un inventaire </t>
+  </si>
+  <si>
+    <t>Grand Dakar</t>
+  </si>
+  <si>
+    <t>Wane</t>
   </si>
 </sst>
 </file>
@@ -48747,8 +48853,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R113" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:R113" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R133" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:R133" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -49149,10 +49255,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:P113"/>
+    <sheetView tabSelected="1" topLeftCell="L110" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -52705,38 +52811,32 @@
       <c r="C83" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D83" t="s">
         <v>224</v>
       </c>
-      <c r="E83" s="47" t="s">
+      <c r="E83" t="s">
         <v>225</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83">
         <v>755253232</v>
       </c>
-      <c r="G83" s="47" t="s">
+      <c r="G83" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47" t="s">
+      <c r="I83" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="47" t="s">
+      <c r="J83" t="s">
         <v>18</v>
       </c>
-      <c r="K83" s="47"/>
-      <c r="L83" s="48" t="s">
+      <c r="L83" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="50" t="str">
+      <c r="Q83" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R83" s="50" t="str">
+      <c r="R83" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52751,38 +52851,32 @@
       <c r="C84" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="D84" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="47" t="s">
+      <c r="E84" t="s">
         <v>228</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84">
         <v>775724732</v>
       </c>
-      <c r="G84" s="47" t="s">
+      <c r="G84" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47" t="s">
+      <c r="I84" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="47" t="s">
+      <c r="J84" t="s">
         <v>18</v>
       </c>
-      <c r="K84" s="47"/>
-      <c r="L84" s="48" t="s">
+      <c r="L84" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="50" t="str">
+      <c r="Q84" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R84" s="50" t="str">
+      <c r="R84" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52797,38 +52891,32 @@
       <c r="C85" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D85" t="s">
         <v>224</v>
       </c>
-      <c r="E85" s="47" t="s">
+      <c r="E85" t="s">
         <v>230</v>
       </c>
-      <c r="F85" s="47">
+      <c r="F85">
         <v>772884203</v>
       </c>
-      <c r="G85" s="47" t="s">
+      <c r="G85" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47" t="s">
+      <c r="I85" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="47" t="s">
+      <c r="J85" t="s">
         <v>18</v>
       </c>
-      <c r="K85" s="47"/>
-      <c r="L85" s="48" t="s">
+      <c r="L85" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M85" s="47"/>
-      <c r="N85" s="47"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="50" t="str">
+      <c r="Q85" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R85" s="50" t="str">
+      <c r="R85" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52843,38 +52931,32 @@
       <c r="C86" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="47" t="s">
+      <c r="E86" t="s">
         <v>232</v>
       </c>
-      <c r="F86" s="47">
+      <c r="F86">
         <v>774698440</v>
       </c>
-      <c r="G86" s="47" t="s">
+      <c r="G86" t="s">
         <v>23</v>
       </c>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47" t="s">
+      <c r="I86" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="47" t="s">
+      <c r="J86" t="s">
         <v>18</v>
       </c>
-      <c r="K86" s="47"/>
-      <c r="L86" s="48" t="s">
+      <c r="L86" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="50" t="str">
+      <c r="Q86" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R86" s="50" t="str">
+      <c r="R86" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52889,38 +52971,32 @@
       <c r="C87" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D87" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="47" t="s">
+      <c r="E87" t="s">
         <v>233</v>
       </c>
-      <c r="F87" s="47">
+      <c r="F87">
         <v>781457464</v>
       </c>
-      <c r="G87" s="47" t="s">
+      <c r="G87" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47" t="s">
+      <c r="I87" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="47" t="s">
+      <c r="J87" t="s">
         <v>18</v>
       </c>
-      <c r="K87" s="47"/>
-      <c r="L87" s="48" t="s">
+      <c r="L87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M87" s="47"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="50" t="str">
+      <c r="Q87" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R87" s="50" t="str">
+      <c r="R87" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52935,38 +53011,32 @@
       <c r="C88" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="47" t="s">
+      <c r="D88" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="47" t="s">
+      <c r="E88" t="s">
         <v>234</v>
       </c>
-      <c r="F88" s="47">
+      <c r="F88">
         <v>778080570</v>
       </c>
-      <c r="G88" s="47" t="s">
+      <c r="G88" t="s">
         <v>23</v>
       </c>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47" t="s">
+      <c r="I88" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="47" t="s">
+      <c r="J88" t="s">
         <v>18</v>
       </c>
-      <c r="K88" s="47"/>
-      <c r="L88" s="48" t="s">
+      <c r="L88" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="49"/>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="50" t="str">
+      <c r="Q88" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R88" s="50" t="str">
+      <c r="R88" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -52981,38 +53051,32 @@
       <c r="C89" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="47" t="s">
+      <c r="D89" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="47" t="s">
+      <c r="E89" t="s">
         <v>235</v>
       </c>
-      <c r="F89" s="47">
+      <c r="F89">
         <v>777186384</v>
       </c>
-      <c r="G89" s="47" t="s">
+      <c r="G89" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47" t="s">
+      <c r="I89" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="47" t="s">
+      <c r="J89" t="s">
         <v>18</v>
       </c>
-      <c r="K89" s="47"/>
-      <c r="L89" s="48" t="s">
+      <c r="L89" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="50" t="str">
+      <c r="Q89" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R89" s="50" t="str">
+      <c r="R89" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53027,46 +53091,44 @@
       <c r="C90" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="D90" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" t="s">
         <v>236</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90">
         <v>774445965</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" t="s">
         <v>23</v>
       </c>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47" t="s">
+      <c r="I90" t="s">
         <v>20</v>
       </c>
-      <c r="J90" s="47" t="s">
+      <c r="J90" t="s">
         <v>30</v>
       </c>
-      <c r="K90" s="47"/>
-      <c r="L90" s="48" t="s">
+      <c r="L90" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M90" s="47" t="s">
+      <c r="M90" t="s">
         <v>29</v>
       </c>
-      <c r="N90" s="47">
+      <c r="N90">
         <v>25</v>
       </c>
-      <c r="O90" s="49">
+      <c r="O90" s="5">
         <v>26000</v>
       </c>
-      <c r="P90" s="49">
+      <c r="P90" s="5">
         <v>650000</v>
       </c>
-      <c r="Q90" s="50" t="str">
+      <c r="Q90" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R90" s="50" t="str">
+      <c r="R90" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53081,46 +53143,44 @@
       <c r="C91" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D91" t="s">
         <v>227</v>
       </c>
-      <c r="E91" s="47" t="s">
+      <c r="E91" t="s">
         <v>238</v>
       </c>
-      <c r="F91" s="47">
+      <c r="F91">
         <v>788260347</v>
       </c>
-      <c r="G91" s="47" t="s">
+      <c r="G91" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47" t="s">
+      <c r="I91" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="47" t="s">
+      <c r="J91" t="s">
         <v>30</v>
       </c>
-      <c r="K91" s="47"/>
-      <c r="L91" s="48" t="s">
+      <c r="L91" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="M91" s="47" t="s">
+      <c r="M91" t="s">
         <v>240</v>
       </c>
-      <c r="N91" s="47">
+      <c r="N91">
         <v>2</v>
       </c>
-      <c r="O91" s="49">
+      <c r="O91" s="5">
         <v>19500</v>
       </c>
-      <c r="P91" s="49">
+      <c r="P91" s="5">
         <v>39000</v>
       </c>
-      <c r="Q91" s="50" t="str">
+      <c r="Q91" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R91" s="50" t="str">
+      <c r="R91" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53135,46 +53195,44 @@
       <c r="C92" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" t="s">
         <v>227</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" t="s">
         <v>241</v>
       </c>
-      <c r="F92" s="47">
+      <c r="F92">
         <v>778080493</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G92" t="s">
         <v>23</v>
       </c>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47" t="s">
+      <c r="I92" t="s">
         <v>20</v>
       </c>
-      <c r="J92" s="47" t="s">
+      <c r="J92" t="s">
         <v>30</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="48" t="s">
+      <c r="L92" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M92" s="47" t="s">
+      <c r="M92" t="s">
         <v>27</v>
       </c>
-      <c r="N92" s="47">
+      <c r="N92">
         <v>1</v>
       </c>
-      <c r="O92" s="49">
+      <c r="O92" s="5">
         <v>31000</v>
       </c>
-      <c r="P92" s="49">
+      <c r="P92" s="5">
         <v>31000</v>
       </c>
-      <c r="Q92" s="50" t="str">
+      <c r="Q92" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R92" s="50" t="str">
+      <c r="R92" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53189,46 +53247,44 @@
       <c r="C93" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="D93" t="s">
         <v>227</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="E93" t="s">
         <v>241</v>
       </c>
-      <c r="F93" s="47">
+      <c r="F93">
         <v>778080493</v>
       </c>
-      <c r="G93" s="47" t="s">
+      <c r="G93" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47" t="s">
+      <c r="I93" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="47" t="s">
+      <c r="J93" t="s">
         <v>30</v>
       </c>
-      <c r="K93" s="47"/>
-      <c r="L93" s="48" t="s">
+      <c r="L93" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M93" s="47" t="s">
+      <c r="M93" t="s">
         <v>29</v>
       </c>
-      <c r="N93" s="47">
+      <c r="N93">
         <v>1</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="5">
         <v>26000</v>
       </c>
-      <c r="P93" s="49">
+      <c r="P93" s="5">
         <v>26000</v>
       </c>
-      <c r="Q93" s="50" t="str">
+      <c r="Q93" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R93" s="50" t="str">
+      <c r="R93" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53243,38 +53299,32 @@
       <c r="C94" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="47" t="s">
+      <c r="D94" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" t="s">
         <v>243</v>
       </c>
-      <c r="F94" s="47">
+      <c r="F94">
         <v>784872626</v>
       </c>
-      <c r="G94" s="47" t="s">
+      <c r="G94" t="s">
         <v>23</v>
       </c>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47" t="s">
+      <c r="I94" t="s">
         <v>20</v>
       </c>
-      <c r="J94" s="47" t="s">
+      <c r="J94" t="s">
         <v>18</v>
       </c>
-      <c r="K94" s="47"/>
-      <c r="L94" s="48" t="s">
+      <c r="L94" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="49"/>
-      <c r="P94" s="49"/>
-      <c r="Q94" s="50" t="str">
+      <c r="Q94" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R94" s="50" t="str">
+      <c r="R94" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53289,38 +53339,32 @@
       <c r="C95" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D95" t="s">
         <v>227</v>
       </c>
-      <c r="E95" s="47" t="s">
+      <c r="E95" t="s">
         <v>245</v>
       </c>
-      <c r="F95" s="47">
+      <c r="F95">
         <v>772401517</v>
       </c>
-      <c r="G95" s="47" t="s">
+      <c r="G95" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47" t="s">
+      <c r="I95" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="47" t="s">
+      <c r="J95" t="s">
         <v>18</v>
       </c>
-      <c r="K95" s="47"/>
-      <c r="L95" s="48" t="s">
+      <c r="L95" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="49"/>
-      <c r="P95" s="49"/>
-      <c r="Q95" s="50" t="str">
+      <c r="Q95" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R95" s="50" t="str">
+      <c r="R95" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53335,38 +53379,32 @@
       <c r="C96" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" t="s">
         <v>227</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" t="s">
         <v>247</v>
       </c>
-      <c r="F96" s="47">
+      <c r="F96">
         <v>774230518</v>
       </c>
-      <c r="G96" s="47" t="s">
+      <c r="G96" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47" t="s">
+      <c r="I96" t="s">
         <v>20</v>
       </c>
-      <c r="J96" s="47" t="s">
+      <c r="J96" t="s">
         <v>18</v>
       </c>
-      <c r="K96" s="47"/>
-      <c r="L96" s="48" t="s">
+      <c r="L96" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="M96" s="47"/>
-      <c r="N96" s="47"/>
-      <c r="O96" s="49"/>
-      <c r="P96" s="49"/>
-      <c r="Q96" s="50" t="str">
+      <c r="Q96" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R96" s="50" t="str">
+      <c r="R96" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53381,38 +53419,32 @@
       <c r="C97" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D97" t="s">
         <v>227</v>
       </c>
-      <c r="E97" s="47" t="s">
+      <c r="E97" t="s">
         <v>249</v>
       </c>
-      <c r="F97" s="47">
+      <c r="F97">
         <v>707523461</v>
       </c>
-      <c r="G97" s="47" t="s">
+      <c r="G97" t="s">
         <v>16</v>
       </c>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47" t="s">
+      <c r="I97" t="s">
         <v>20</v>
       </c>
-      <c r="J97" s="47" t="s">
+      <c r="J97" t="s">
         <v>18</v>
       </c>
-      <c r="K97" s="47"/>
-      <c r="L97" s="48" t="s">
+      <c r="L97" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="49"/>
-      <c r="P97" s="49"/>
-      <c r="Q97" s="50" t="str">
+      <c r="Q97" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R97" s="50" t="str">
+      <c r="R97" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53427,38 +53459,32 @@
       <c r="C98" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="47" t="s">
+      <c r="D98" t="s">
         <v>227</v>
       </c>
-      <c r="E98" s="47" t="s">
+      <c r="E98" t="s">
         <v>251</v>
       </c>
-      <c r="F98" s="47">
+      <c r="F98">
         <v>774580822</v>
       </c>
-      <c r="G98" s="47" t="s">
+      <c r="G98" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47" t="s">
+      <c r="I98" t="s">
         <v>20</v>
       </c>
-      <c r="J98" s="47" t="s">
+      <c r="J98" t="s">
         <v>18</v>
       </c>
-      <c r="K98" s="47"/>
-      <c r="L98" s="48" t="s">
+      <c r="L98" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="M98" s="47"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="49"/>
-      <c r="P98" s="49"/>
-      <c r="Q98" s="50" t="str">
+      <c r="Q98" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R98" s="50" t="str">
+      <c r="R98" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53473,38 +53499,32 @@
       <c r="C99" t="s">
         <v>36</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" t="s">
         <v>39</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" t="s">
         <v>253</v>
       </c>
-      <c r="F99" s="47">
+      <c r="F99">
         <v>338559477</v>
       </c>
-      <c r="G99" s="47" t="s">
+      <c r="G99" t="s">
         <v>23</v>
       </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47" t="s">
+      <c r="I99" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="47" t="s">
+      <c r="J99" t="s">
         <v>18</v>
       </c>
-      <c r="K99" s="47"/>
-      <c r="L99" s="48" t="s">
+      <c r="L99" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M99" s="47"/>
-      <c r="N99" s="47"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="50" t="str">
+      <c r="Q99" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R99" s="50" t="str">
+      <c r="R99" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53519,48 +53539,47 @@
       <c r="C100" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" t="s">
         <v>254</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" t="s">
         <v>255</v>
       </c>
-      <c r="F100" s="47">
+      <c r="F100">
         <v>776256670</v>
       </c>
-      <c r="G100" s="47" t="s">
+      <c r="G100" t="s">
         <v>23</v>
       </c>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47" t="s">
+      <c r="I100" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="47" t="s">
+      <c r="J100" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="47" t="s">
+      <c r="K100" t="s">
         <v>256</v>
       </c>
-      <c r="L100" s="48" t="s">
+      <c r="L100" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="M100" s="47" t="s">
+      <c r="M100" t="s">
         <v>240</v>
       </c>
-      <c r="N100" s="47">
+      <c r="N100">
         <v>25</v>
       </c>
-      <c r="O100" s="49">
+      <c r="O100" s="5">
         <v>19500</v>
       </c>
-      <c r="P100" s="49">
+      <c r="P100" s="5">
         <v>487500</v>
       </c>
-      <c r="Q100" s="50" t="str">
+      <c r="Q100" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R100" s="50" t="str">
+      <c r="R100" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53575,38 +53594,32 @@
       <c r="C101" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="D101" t="s">
         <v>258</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="47">
+      <c r="F101">
         <v>775792864</v>
       </c>
-      <c r="G101" s="47" t="s">
+      <c r="G101" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47" t="s">
+      <c r="I101" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="47" t="s">
+      <c r="J101" t="s">
         <v>18</v>
       </c>
-      <c r="K101" s="47"/>
-      <c r="L101" s="48" t="s">
+      <c r="L101" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="M101" s="47"/>
-      <c r="N101" s="47"/>
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
-      <c r="Q101" s="50" t="str">
+      <c r="Q101" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R101" s="50" t="str">
+      <c r="R101" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53621,48 +53634,47 @@
       <c r="C102" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="47" t="s">
+      <c r="D102" t="s">
         <v>62</v>
       </c>
-      <c r="E102" s="47" t="s">
+      <c r="E102" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="47">
+      <c r="F102">
         <v>778096419</v>
       </c>
-      <c r="G102" s="47" t="s">
+      <c r="G102" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47" t="s">
+      <c r="I102" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="47" t="s">
+      <c r="J102" t="s">
         <v>24</v>
       </c>
-      <c r="K102" s="47" t="s">
+      <c r="K102" t="s">
         <v>256</v>
       </c>
-      <c r="L102" s="48" t="s">
+      <c r="L102" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="M102" s="47" t="s">
+      <c r="M102" t="s">
         <v>109</v>
       </c>
-      <c r="N102" s="47">
+      <c r="N102">
         <v>5</v>
       </c>
-      <c r="O102" s="49">
+      <c r="O102" s="5">
         <v>60000</v>
       </c>
-      <c r="P102" s="49">
+      <c r="P102" s="5">
         <v>300000</v>
       </c>
-      <c r="Q102" s="50" t="str">
+      <c r="Q102" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R102" s="50" t="str">
+      <c r="R102" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53677,38 +53689,32 @@
       <c r="C103" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="47" t="s">
+      <c r="D103" t="s">
         <v>224</v>
       </c>
-      <c r="E103" s="47" t="s">
+      <c r="E103" t="s">
         <v>262</v>
       </c>
-      <c r="F103" s="47">
+      <c r="F103">
         <v>764881522</v>
       </c>
-      <c r="G103" s="47" t="s">
+      <c r="G103" t="s">
         <v>16</v>
       </c>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47" t="s">
+      <c r="I103" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="47" t="s">
+      <c r="J103" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="47"/>
-      <c r="L103" s="48" t="s">
+      <c r="L103" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="M103" s="47"/>
-      <c r="N103" s="47"/>
-      <c r="O103" s="49"/>
-      <c r="P103" s="49"/>
-      <c r="Q103" s="50" t="str">
+      <c r="Q103" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R103" s="50" t="str">
+      <c r="R103" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53723,38 +53729,32 @@
       <c r="C104" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="47" t="s">
+      <c r="D104" t="s">
         <v>224</v>
       </c>
-      <c r="E104" s="47" t="s">
+      <c r="E104" t="s">
         <v>264</v>
       </c>
-      <c r="F104" s="47">
+      <c r="F104">
         <v>762625997</v>
       </c>
-      <c r="G104" s="47" t="s">
+      <c r="G104" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47" t="s">
+      <c r="I104" t="s">
         <v>17</v>
       </c>
-      <c r="J104" s="47" t="s">
+      <c r="J104" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="47"/>
-      <c r="L104" s="48" t="s">
+      <c r="L104" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="M104" s="47"/>
-      <c r="N104" s="47"/>
-      <c r="O104" s="49"/>
-      <c r="P104" s="49"/>
-      <c r="Q104" s="50" t="str">
+      <c r="Q104" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R104" s="50" t="str">
+      <c r="R104" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53769,38 +53769,32 @@
       <c r="C105" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="47" t="s">
+      <c r="D105" t="s">
         <v>224</v>
       </c>
-      <c r="E105" s="47" t="s">
+      <c r="E105" t="s">
         <v>265</v>
       </c>
-      <c r="F105" s="47">
+      <c r="F105">
         <v>774747772</v>
       </c>
-      <c r="G105" s="47" t="s">
+      <c r="G105" t="s">
         <v>16</v>
       </c>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47" t="s">
+      <c r="I105" t="s">
         <v>20</v>
       </c>
-      <c r="J105" s="47" t="s">
+      <c r="J105" t="s">
         <v>18</v>
       </c>
-      <c r="K105" s="47"/>
-      <c r="L105" s="48" t="s">
+      <c r="L105" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M105" s="47"/>
-      <c r="N105" s="47"/>
-      <c r="O105" s="49"/>
-      <c r="P105" s="49"/>
-      <c r="Q105" s="50" t="str">
+      <c r="Q105" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R105" s="50" t="str">
+      <c r="R105" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53815,38 +53809,32 @@
       <c r="C106" t="s">
         <v>26</v>
       </c>
-      <c r="D106" s="47" t="s">
+      <c r="D106" t="s">
         <v>258</v>
       </c>
-      <c r="E106" s="47" t="s">
+      <c r="E106" t="s">
         <v>267</v>
       </c>
-      <c r="F106" s="47">
+      <c r="F106">
         <v>781532059</v>
       </c>
-      <c r="G106" s="47" t="s">
+      <c r="G106" t="s">
         <v>16</v>
       </c>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47" t="s">
+      <c r="I106" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="47" t="s">
+      <c r="J106" t="s">
         <v>18</v>
       </c>
-      <c r="K106" s="47"/>
-      <c r="L106" s="48" t="s">
+      <c r="L106" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="M106" s="47"/>
-      <c r="N106" s="47"/>
-      <c r="O106" s="49"/>
-      <c r="P106" s="49"/>
-      <c r="Q106" s="50" t="str">
+      <c r="Q106" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R106" s="50" t="str">
+      <c r="R106" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53861,38 +53849,32 @@
       <c r="C107" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="47" t="s">
+      <c r="D107" t="s">
         <v>258</v>
       </c>
-      <c r="E107" s="47" t="s">
+      <c r="E107" t="s">
         <v>269</v>
       </c>
-      <c r="F107" s="47">
+      <c r="F107">
         <v>773340367</v>
       </c>
-      <c r="G107" s="47" t="s">
+      <c r="G107" t="s">
         <v>23</v>
       </c>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47" t="s">
+      <c r="I107" t="s">
         <v>20</v>
       </c>
-      <c r="J107" s="47" t="s">
+      <c r="J107" t="s">
         <v>18</v>
       </c>
-      <c r="K107" s="47"/>
-      <c r="L107" s="48" t="s">
+      <c r="L107" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="M107" s="47"/>
-      <c r="N107" s="47"/>
-      <c r="O107" s="49"/>
-      <c r="P107" s="49"/>
-      <c r="Q107" s="50" t="str">
+      <c r="Q107" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R107" s="50" t="str">
+      <c r="R107" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53907,38 +53889,32 @@
       <c r="C108" t="s">
         <v>26</v>
       </c>
-      <c r="D108" s="47" t="s">
+      <c r="D108" t="s">
         <v>258</v>
       </c>
-      <c r="E108" s="47" t="s">
+      <c r="E108" t="s">
         <v>271</v>
       </c>
-      <c r="F108" s="47">
+      <c r="F108">
         <v>768059355</v>
       </c>
-      <c r="G108" s="47" t="s">
+      <c r="G108" t="s">
         <v>23</v>
       </c>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47" t="s">
+      <c r="I108" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="47" t="s">
+      <c r="J108" t="s">
         <v>18</v>
       </c>
-      <c r="K108" s="47"/>
-      <c r="L108" s="48" t="s">
+      <c r="L108" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M108" s="47"/>
-      <c r="N108" s="47"/>
-      <c r="O108" s="49"/>
-      <c r="P108" s="49"/>
-      <c r="Q108" s="50" t="str">
+      <c r="Q108" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R108" s="50" t="str">
+      <c r="R108" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53953,38 +53929,32 @@
       <c r="C109" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="47" t="s">
+      <c r="D109" t="s">
         <v>258</v>
       </c>
-      <c r="E109" s="47" t="s">
+      <c r="E109" t="s">
         <v>273</v>
       </c>
-      <c r="F109" s="47">
+      <c r="F109">
         <v>772713019</v>
       </c>
-      <c r="G109" s="47" t="s">
+      <c r="G109" t="s">
         <v>23</v>
       </c>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47" t="s">
+      <c r="I109" t="s">
         <v>20</v>
       </c>
-      <c r="J109" s="47" t="s">
+      <c r="J109" t="s">
         <v>18</v>
       </c>
-      <c r="K109" s="47"/>
-      <c r="L109" s="48" t="s">
+      <c r="L109" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M109" s="47"/>
-      <c r="N109" s="47"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
-      <c r="Q109" s="50" t="str">
+      <c r="Q109" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R109" s="50" t="str">
+      <c r="R109" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -53999,38 +53969,32 @@
       <c r="C110" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="47" t="s">
+      <c r="D110" t="s">
         <v>258</v>
       </c>
-      <c r="E110" s="47" t="s">
+      <c r="E110" t="s">
         <v>275</v>
       </c>
-      <c r="F110" s="47">
+      <c r="F110">
         <v>779420909</v>
       </c>
-      <c r="G110" s="47" t="s">
+      <c r="G110" t="s">
         <v>16</v>
       </c>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47" t="s">
+      <c r="I110" t="s">
         <v>20</v>
       </c>
-      <c r="J110" s="47" t="s">
+      <c r="J110" t="s">
         <v>18</v>
       </c>
-      <c r="K110" s="47"/>
-      <c r="L110" s="48" t="s">
+      <c r="L110" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="M110" s="47"/>
-      <c r="N110" s="47"/>
-      <c r="O110" s="49"/>
-      <c r="P110" s="49"/>
-      <c r="Q110" s="50" t="str">
+      <c r="Q110" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R110" s="50" t="str">
+      <c r="R110" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -54045,38 +54009,32 @@
       <c r="C111" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" t="s">
         <v>258</v>
       </c>
-      <c r="E111" s="47" t="s">
+      <c r="E111" t="s">
         <v>277</v>
       </c>
-      <c r="F111" s="47">
+      <c r="F111">
         <v>762974040</v>
       </c>
-      <c r="G111" s="47" t="s">
+      <c r="G111" t="s">
         <v>23</v>
       </c>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47" t="s">
+      <c r="I111" t="s">
         <v>20</v>
       </c>
-      <c r="J111" s="47" t="s">
+      <c r="J111" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="47"/>
-      <c r="L111" s="48" t="s">
+      <c r="L111" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M111" s="47"/>
-      <c r="N111" s="47"/>
-      <c r="O111" s="49"/>
-      <c r="P111" s="49"/>
-      <c r="Q111" s="50" t="str">
+      <c r="Q111" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R111" s="50" t="str">
+      <c r="R111" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -54091,38 +54049,32 @@
       <c r="C112" t="s">
         <v>26</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="D112" t="s">
         <v>258</v>
       </c>
-      <c r="E112" s="47" t="s">
+      <c r="E112" t="s">
         <v>279</v>
       </c>
-      <c r="F112" s="47">
+      <c r="F112">
         <v>775213948</v>
       </c>
-      <c r="G112" s="47" t="s">
+      <c r="G112" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47" t="s">
+      <c r="I112" t="s">
         <v>20</v>
       </c>
-      <c r="J112" s="47" t="s">
+      <c r="J112" t="s">
         <v>18</v>
       </c>
-      <c r="K112" s="47"/>
-      <c r="L112" s="48" t="s">
+      <c r="L112" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="M112" s="47"/>
-      <c r="N112" s="47"/>
-      <c r="O112" s="49"/>
-      <c r="P112" s="49"/>
-      <c r="Q112" s="50" t="str">
+      <c r="Q112" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R112" s="50" t="str">
+      <c r="R112" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -54137,48 +54089,1003 @@
       <c r="C113" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="47" t="s">
+      <c r="D113" t="s">
         <v>147</v>
       </c>
-      <c r="E113" s="47" t="s">
+      <c r="E113" t="s">
         <v>281</v>
       </c>
-      <c r="F113" s="47">
+      <c r="F113">
         <v>778195274</v>
       </c>
-      <c r="G113" s="47" t="s">
+      <c r="G113" t="s">
         <v>23</v>
       </c>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47" t="s">
+      <c r="I113" t="s">
         <v>20</v>
       </c>
-      <c r="J113" s="47" t="s">
+      <c r="J113" t="s">
         <v>24</v>
       </c>
-      <c r="K113" s="47" t="s">
+      <c r="K113" t="s">
         <v>256</v>
       </c>
-      <c r="L113" s="48" t="s">
+      <c r="L113" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M113" s="47" t="s">
+      <c r="M113" t="s">
         <v>29</v>
       </c>
-      <c r="N113" s="47">
+      <c r="N113">
         <v>50</v>
       </c>
-      <c r="O113" s="49">
+      <c r="O113" s="5">
         <v>26000</v>
       </c>
-      <c r="P113" s="49">
+      <c r="P113" s="5">
         <v>1300000</v>
       </c>
-      <c r="Q113" s="50" t="str">
+      <c r="Q113" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R113" s="50" t="str">
+      <c r="R113" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F114" s="47">
+        <v>777631935</v>
+      </c>
+      <c r="G114" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="47"/>
+      <c r="L114" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="M114" s="47"/>
+      <c r="N114" s="47"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R114" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E115" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" s="47">
+        <v>776156373</v>
+      </c>
+      <c r="G115" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="47"/>
+      <c r="L115" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R115" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" s="47">
+        <v>784464768</v>
+      </c>
+      <c r="G116" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="47"/>
+      <c r="I116" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="47"/>
+      <c r="L116" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M116" s="47"/>
+      <c r="N116" s="47"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R116" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="F117" s="47">
+        <v>773633030</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="47"/>
+      <c r="L117" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="M117" s="47"/>
+      <c r="N117" s="47"/>
+      <c r="O117" s="49"/>
+      <c r="P117" s="49"/>
+      <c r="Q117" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R117" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E118" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="F118" s="47">
+        <v>338727194</v>
+      </c>
+      <c r="G118" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="47"/>
+      <c r="L118" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M118" s="47"/>
+      <c r="N118" s="47"/>
+      <c r="O118" s="49"/>
+      <c r="P118" s="49"/>
+      <c r="Q118" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R118" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="F119" s="47">
+        <v>764631568</v>
+      </c>
+      <c r="G119" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="47"/>
+      <c r="L119" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="M119" s="47"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="49"/>
+      <c r="P119" s="49"/>
+      <c r="Q119" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R119" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F120" s="47">
+        <v>778056161</v>
+      </c>
+      <c r="G120" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="47"/>
+      <c r="L120" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="M120" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" s="47">
+        <v>25</v>
+      </c>
+      <c r="O120" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P120" s="49">
+        <v>650000</v>
+      </c>
+      <c r="Q120" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R120" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E121" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F121" s="47">
+        <v>775356725</v>
+      </c>
+      <c r="G121" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="47"/>
+      <c r="L121" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="M121" s="47"/>
+      <c r="N121" s="47"/>
+      <c r="O121" s="49"/>
+      <c r="P121" s="49"/>
+      <c r="Q121" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R121" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E122" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F122" s="47">
+        <v>774004542</v>
+      </c>
+      <c r="G122" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="47"/>
+      <c r="L122" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="M122" s="47"/>
+      <c r="N122" s="47"/>
+      <c r="O122" s="49"/>
+      <c r="P122" s="49"/>
+      <c r="Q122" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R122" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E123" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="F123" s="47">
+        <v>785158696</v>
+      </c>
+      <c r="G123" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="47"/>
+      <c r="L123" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="M123" s="47"/>
+      <c r="N123" s="47"/>
+      <c r="O123" s="49"/>
+      <c r="P123" s="49"/>
+      <c r="Q123" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R123" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E124" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F124" s="47">
+        <v>775513483</v>
+      </c>
+      <c r="G124" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="47"/>
+      <c r="L124" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="M124" s="47"/>
+      <c r="N124" s="47"/>
+      <c r="O124" s="49"/>
+      <c r="P124" s="49"/>
+      <c r="Q124" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R124" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E125" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="F125" s="47">
+        <v>776108351</v>
+      </c>
+      <c r="G125" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="47"/>
+      <c r="L125" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="M125" s="47"/>
+      <c r="N125" s="47"/>
+      <c r="O125" s="49"/>
+      <c r="P125" s="49"/>
+      <c r="Q125" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R125" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F126" s="47">
+        <v>778195274</v>
+      </c>
+      <c r="G126" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" s="47"/>
+      <c r="I126" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L126" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="M126" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N126" s="47">
+        <v>50</v>
+      </c>
+      <c r="O126" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P126" s="49">
+        <v>1300000</v>
+      </c>
+      <c r="Q126" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R126" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F127" s="47">
+        <v>778195274</v>
+      </c>
+      <c r="G127" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="47"/>
+      <c r="L127" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="M127" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N127" s="47">
+        <v>100</v>
+      </c>
+      <c r="O127" s="49">
+        <v>26000</v>
+      </c>
+      <c r="P127" s="49">
+        <v>2600000</v>
+      </c>
+      <c r="Q127" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R127" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E128" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" s="47">
+        <v>772788635</v>
+      </c>
+      <c r="G128" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="47"/>
+      <c r="L128" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M128" s="47"/>
+      <c r="N128" s="47"/>
+      <c r="O128" s="49"/>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R128" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E129" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F129" s="47">
+        <v>776167544</v>
+      </c>
+      <c r="G129" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="47"/>
+      <c r="L129" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M129" s="47"/>
+      <c r="N129" s="47"/>
+      <c r="O129" s="49"/>
+      <c r="P129" s="49"/>
+      <c r="Q129" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R129" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F130" s="47">
+        <v>785943768</v>
+      </c>
+      <c r="G130" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="47"/>
+      <c r="L130" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M130" s="47"/>
+      <c r="N130" s="47"/>
+      <c r="O130" s="49"/>
+      <c r="P130" s="49"/>
+      <c r="Q130" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R130" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E131" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="F131" s="47">
+        <v>776885310</v>
+      </c>
+      <c r="G131" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="47"/>
+      <c r="L131" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M131" s="47"/>
+      <c r="N131" s="47"/>
+      <c r="O131" s="49"/>
+      <c r="P131" s="49"/>
+      <c r="Q131" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R131" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E132" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F132" s="47">
+        <v>775197108</v>
+      </c>
+      <c r="G132" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" s="47"/>
+      <c r="L132" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="M132" s="47"/>
+      <c r="N132" s="47"/>
+      <c r="O132" s="49"/>
+      <c r="P132" s="49"/>
+      <c r="Q132" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R132" s="50" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E133" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="F133" s="47">
+        <v>775411988</v>
+      </c>
+      <c r="G133" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L133" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="M133" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="N133" s="47">
+        <v>25</v>
+      </c>
+      <c r="O133" s="49">
+        <v>9750</v>
+      </c>
+      <c r="P133" s="49">
+        <v>243750</v>
+      </c>
+      <c r="Q133" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R133" s="50" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E6A27-248F-446C-9041-989E988F72B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4286C-EAEF-43DC-8BF3-CEF18EB29566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="380">
   <si>
     <t>Date</t>
   </si>
@@ -1020,6 +1020,193 @@
   <si>
     <t>Wane</t>
   </si>
+  <si>
+    <t>Zone de captage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamadou Diallo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Va rappeler en cas de besoin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amadou </t>
+  </si>
+  <si>
+    <t>Khar Yalla</t>
+  </si>
+  <si>
+    <t>Amadou Bah</t>
+  </si>
+  <si>
+    <t>Alimentation Générale</t>
+  </si>
+  <si>
+    <t>Mbaye</t>
+  </si>
+  <si>
+    <t>Ets ilane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle demande de revenir après Magal inchallah </t>
+  </si>
+  <si>
+    <t>Amadou Diallo</t>
+  </si>
+  <si>
+    <t>Aladji Boye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il demande de revenir après Magal inchallah </t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste du stock de lait Janus </t>
+  </si>
+  <si>
+    <t>Guinaw Rail</t>
+  </si>
+  <si>
+    <t>THIERNO KANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baye Diouf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouhamed Diallo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babacar Mbaye Kébé </t>
+  </si>
+  <si>
+    <t>Grand Yoff</t>
+  </si>
+  <si>
+    <t>Moussa ndao</t>
+  </si>
+  <si>
+    <t>Rad</t>
+  </si>
+  <si>
+    <t>Abdou Diallo</t>
+  </si>
+  <si>
+    <t>Alune</t>
+  </si>
+  <si>
+    <t>Lamine Diallo</t>
+  </si>
+  <si>
+    <t>Dame Diop</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Il connaît non produit</t>
+  </si>
+  <si>
+    <t>Babacar Diop</t>
+  </si>
+  <si>
+    <t>Abdourama salle</t>
+  </si>
+  <si>
+    <t>Adama</t>
+  </si>
+  <si>
+    <t>Cheikh na</t>
+  </si>
+  <si>
+    <t>Issa bah</t>
+  </si>
+  <si>
+    <t>Alayi Diallo</t>
+  </si>
+  <si>
+    <t>Commande livre</t>
+  </si>
+  <si>
+    <t>Ibrahima Diallo</t>
+  </si>
+  <si>
+    <t>Marché Bou Bess</t>
+  </si>
+  <si>
+    <t>Abdourhamam Ba</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Lait Janus 400gx10</t>
+  </si>
+  <si>
+    <t>Liberté 5</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock de café  janus et lait 
+Demande de revenir prochainement</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock de lait Janus</t>
+  </si>
+  <si>
+    <t>Modou</t>
+  </si>
+  <si>
+    <t>Il lui reste du stock</t>
+  </si>
+  <si>
+    <t>Moussa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste du stock acheté chez les promoteurs </t>
+  </si>
+  <si>
+    <t>Va rappeler en cas de besoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karamoko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le toro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu'il attend que ses clients passent commende d'abord </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamarana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daouda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu'il attend que ses clients le demande </t>
+  </si>
+  <si>
+    <t>Fatoumata TRAORE</t>
+  </si>
+  <si>
+    <t>KEUR MASSAR</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Abdou sow</t>
+  </si>
 </sst>
 </file>
 
@@ -1244,7 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,11 +1550,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -48853,8 +49035,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R133" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:R133" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R177" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:R177" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -49255,10 +49437,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L110" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:P133"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54136,7 +54318,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
@@ -54144,91 +54326,83 @@
       <c r="C114" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E114" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="F114" s="47">
-        <v>777631935</v>
-      </c>
-      <c r="G114" s="47" t="s">
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" t="s">
+        <v>319</v>
+      </c>
+      <c r="F114">
+        <v>770571683</v>
+      </c>
+      <c r="G114" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47" t="s">
+      <c r="I114" t="s">
         <v>17</v>
       </c>
-      <c r="J114" s="47" t="s">
+      <c r="J114" t="s">
         <v>18</v>
       </c>
-      <c r="K114" s="47"/>
-      <c r="L114" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="M114" s="47"/>
-      <c r="N114" s="47"/>
-      <c r="O114" s="49"/>
-      <c r="P114" s="49"/>
-      <c r="Q114" s="50" t="str">
+      <c r="L114" t="s">
+        <v>104</v>
+      </c>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R114" s="50" t="str">
+      <c r="R114" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E115" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="F115" s="47">
-        <v>776156373</v>
-      </c>
-      <c r="G115" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" s="47"/>
-      <c r="I115" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J115" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" t="s">
+        <v>320</v>
+      </c>
+      <c r="F115">
+        <v>775598302</v>
+      </c>
+      <c r="G115" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" t="s">
         <v>18</v>
       </c>
-      <c r="K115" s="47"/>
-      <c r="L115" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="M115" s="47"/>
-      <c r="N115" s="47"/>
-      <c r="O115" s="49"/>
-      <c r="P115" s="49"/>
-      <c r="Q115" s="50" t="str">
+      <c r="L115" t="s">
+        <v>321</v>
+      </c>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R115" s="50" t="str">
+      <c r="R115" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
@@ -54236,421 +54410,377 @@
       <c r="C116" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E116" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="F116" s="47">
-        <v>784464768</v>
-      </c>
-      <c r="G116" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J116" s="47" t="s">
+      <c r="D116" t="s">
+        <v>318</v>
+      </c>
+      <c r="E116" t="s">
+        <v>322</v>
+      </c>
+      <c r="F116">
+        <v>783844775</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" t="s">
         <v>18</v>
       </c>
-      <c r="K116" s="47"/>
-      <c r="L116" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="M116" s="47"/>
-      <c r="N116" s="47"/>
-      <c r="O116" s="49"/>
-      <c r="P116" s="49"/>
-      <c r="Q116" s="50" t="str">
+      <c r="L116" t="s">
+        <v>77</v>
+      </c>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R116" s="50" t="str">
+      <c r="R116" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E117" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="F117" s="47">
-        <v>773633030</v>
-      </c>
-      <c r="G117" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117">
+        <v>773140899</v>
+      </c>
+      <c r="G117" t="s">
+        <v>149</v>
+      </c>
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
         <v>18</v>
       </c>
-      <c r="K117" s="47"/>
-      <c r="L117" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="49"/>
-      <c r="P117" s="49"/>
-      <c r="Q117" s="50" t="str">
+      <c r="L117" t="s">
+        <v>31</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R117" s="50" t="str">
+      <c r="R117" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E118" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="F118" s="47">
-        <v>338727194</v>
-      </c>
-      <c r="G118" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="47"/>
-      <c r="I118" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>323</v>
+      </c>
+      <c r="E118" t="s">
+        <v>324</v>
+      </c>
+      <c r="F118">
+        <v>777427919</v>
+      </c>
+      <c r="G118" t="s">
+        <v>149</v>
+      </c>
+      <c r="I118" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="47" t="s">
+      <c r="J118" t="s">
         <v>18</v>
       </c>
-      <c r="K118" s="47"/>
-      <c r="L118" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="M118" s="47"/>
-      <c r="N118" s="47"/>
-      <c r="O118" s="49"/>
-      <c r="P118" s="49"/>
-      <c r="Q118" s="50" t="str">
+      <c r="L118" t="s">
+        <v>31</v>
+      </c>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R118" s="50" t="str">
+      <c r="R118" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E119" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="F119" s="47">
-        <v>764631568</v>
-      </c>
-      <c r="G119" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E119" t="s">
+        <v>325</v>
+      </c>
+      <c r="F119">
+        <v>779072194</v>
+      </c>
+      <c r="G119" t="s">
+        <v>149</v>
+      </c>
+      <c r="I119" t="s">
         <v>20</v>
       </c>
-      <c r="J119" s="47" t="s">
+      <c r="J119" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="47"/>
-      <c r="L119" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="M119" s="47"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="49"/>
-      <c r="P119" s="49"/>
-      <c r="Q119" s="50" t="str">
+      <c r="L119" t="s">
+        <v>31</v>
+      </c>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R119" s="50" t="str">
+      <c r="R119" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E120" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F120" s="47">
-        <v>778056161</v>
-      </c>
-      <c r="G120" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" s="47"/>
-      <c r="I120" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J120" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="47"/>
-      <c r="L120" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="M120" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="N120" s="47">
-        <v>25</v>
-      </c>
-      <c r="O120" s="49">
-        <v>26000</v>
-      </c>
-      <c r="P120" s="49">
-        <v>650000</v>
-      </c>
-      <c r="Q120" s="50" t="str">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s">
+        <v>323</v>
+      </c>
+      <c r="E120" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120">
+        <v>771191320</v>
+      </c>
+      <c r="G120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L120" t="s">
+        <v>56</v>
+      </c>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R120" s="50" t="str">
+      <c r="R120" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E121" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="F121" s="47">
-        <v>775356725</v>
-      </c>
-      <c r="G121" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" t="s">
+        <v>327</v>
+      </c>
+      <c r="F121">
+        <v>781276269</v>
+      </c>
+      <c r="G121" t="s">
         <v>23</v>
       </c>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J121" s="47" t="s">
+      <c r="I121" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="47"/>
-      <c r="L121" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="M121" s="47"/>
-      <c r="N121" s="47"/>
-      <c r="O121" s="49"/>
-      <c r="P121" s="49"/>
-      <c r="Q121" s="50" t="str">
+      <c r="L121" t="s">
+        <v>328</v>
+      </c>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R121" s="50" t="str">
+      <c r="R121" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E122" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F122" s="47">
-        <v>774004542</v>
-      </c>
-      <c r="G122" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="47"/>
-      <c r="I122" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s">
+        <v>323</v>
+      </c>
+      <c r="E122" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122">
+        <v>780137992</v>
+      </c>
+      <c r="G122" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="47" t="s">
+      <c r="J122" t="s">
         <v>18</v>
       </c>
-      <c r="K122" s="47"/>
-      <c r="L122" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="M122" s="47"/>
-      <c r="N122" s="47"/>
-      <c r="O122" s="49"/>
-      <c r="P122" s="49"/>
-      <c r="Q122" s="50" t="str">
+      <c r="L122" t="s">
+        <v>56</v>
+      </c>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R122" s="50" t="str">
+      <c r="R122" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
-      </c>
-      <c r="D123" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E123" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="F123" s="47">
-        <v>785158696</v>
-      </c>
-      <c r="G123" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J123" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" t="s">
+        <v>330</v>
+      </c>
+      <c r="F123">
+        <v>779676016</v>
+      </c>
+      <c r="G123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" t="s">
         <v>18</v>
       </c>
-      <c r="K123" s="47"/>
-      <c r="L123" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="M123" s="47"/>
-      <c r="N123" s="47"/>
-      <c r="O123" s="49"/>
-      <c r="P123" s="49"/>
-      <c r="Q123" s="50" t="str">
+      <c r="L123" t="s">
+        <v>331</v>
+      </c>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R123" s="50" t="str">
+      <c r="R123" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E124" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="F124" s="47">
-        <v>775513483</v>
-      </c>
-      <c r="G124" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" t="s">
+        <v>332</v>
+      </c>
+      <c r="F124">
+        <v>776622000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>23</v>
+      </c>
+      <c r="I124" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" t="s">
         <v>18</v>
       </c>
-      <c r="K124" s="47"/>
-      <c r="L124" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="M124" s="47"/>
-      <c r="N124" s="47"/>
-      <c r="O124" s="49"/>
-      <c r="P124" s="49"/>
-      <c r="Q124" s="50" t="str">
+      <c r="L124" t="s">
+        <v>333</v>
+      </c>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R124" s="50" t="str">
+      <c r="R124" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
@@ -54658,155 +54788,138 @@
       <c r="C125" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E125" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="F125" s="47">
-        <v>776108351</v>
-      </c>
-      <c r="G125" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47" t="s">
+      <c r="D125" t="s">
+        <v>334</v>
+      </c>
+      <c r="E125" t="s">
+        <v>335</v>
+      </c>
+      <c r="F125">
+        <v>775171537</v>
+      </c>
+      <c r="G125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
         <v>20</v>
       </c>
-      <c r="J125" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K125" s="47"/>
-      <c r="L125" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="M125" s="47"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="49"/>
-      <c r="P125" s="49"/>
-      <c r="Q125" s="50" t="str">
+      <c r="J125" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" t="s">
+        <v>117</v>
+      </c>
+      <c r="L125" t="s">
+        <v>28</v>
+      </c>
+      <c r="M125" t="s">
+        <v>240</v>
+      </c>
+      <c r="N125">
+        <v>25</v>
+      </c>
+      <c r="O125">
+        <v>19500</v>
+      </c>
+      <c r="P125">
+        <v>487500</v>
+      </c>
+      <c r="Q125" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R125" s="50" t="str">
+      <c r="R125" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E126" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="F126" s="47">
-        <v>778195274</v>
-      </c>
-      <c r="G126" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H126" s="47"/>
-      <c r="I126" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J126" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K126" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="L126" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="M126" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="N126" s="47">
-        <v>50</v>
-      </c>
-      <c r="O126" s="49">
-        <v>26000</v>
-      </c>
-      <c r="P126" s="49">
-        <v>1300000</v>
-      </c>
-      <c r="Q126" s="50" t="str">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E126" t="s">
+        <v>336</v>
+      </c>
+      <c r="F126">
+        <v>783844997</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" t="s">
+        <v>77</v>
+      </c>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R126" s="50" t="str">
+      <c r="R126" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="F127" s="47">
-        <v>778195274</v>
-      </c>
-      <c r="G127" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" s="47"/>
-      <c r="I127" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="47"/>
-      <c r="L127" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="M127" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="N127" s="47">
-        <v>100</v>
-      </c>
-      <c r="O127" s="49">
-        <v>26000</v>
-      </c>
-      <c r="P127" s="49">
-        <v>2600000</v>
-      </c>
-      <c r="Q127" s="50" t="str">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>318</v>
+      </c>
+      <c r="E127" t="s">
+        <v>337</v>
+      </c>
+      <c r="F127">
+        <v>783740441</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" t="s">
+        <v>77</v>
+      </c>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R127" s="50" t="str">
+      <c r="R127" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B128" t="s">
         <v>14</v>
@@ -54814,278 +54927,2223 @@
       <c r="C128" t="s">
         <v>15</v>
       </c>
-      <c r="D128" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E128" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="F128" s="47">
-        <v>772788635</v>
-      </c>
-      <c r="G128" s="47" t="s">
+      <c r="D128" t="s">
+        <v>318</v>
+      </c>
+      <c r="E128" t="s">
+        <v>338</v>
+      </c>
+      <c r="F128">
+        <v>773739328</v>
+      </c>
+      <c r="G128" t="s">
         <v>16</v>
       </c>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47" t="s">
+      <c r="I128" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="47" t="s">
+      <c r="J128" t="s">
         <v>18</v>
       </c>
-      <c r="K128" s="47"/>
-      <c r="L128" s="48" t="s">
+      <c r="L128" t="s">
         <v>77</v>
       </c>
-      <c r="M128" s="47"/>
-      <c r="N128" s="47"/>
-      <c r="O128" s="49"/>
-      <c r="P128" s="49"/>
-      <c r="Q128" s="50" t="str">
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R128" s="50" t="str">
+      <c r="R128" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E129" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="F129" s="47">
-        <v>776167544</v>
-      </c>
-      <c r="G129" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129" t="s">
+        <v>339</v>
+      </c>
+      <c r="F129">
+        <v>776169696</v>
+      </c>
+      <c r="G129" t="s">
         <v>23</v>
       </c>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47" t="s">
+      <c r="I129" t="s">
         <v>20</v>
       </c>
-      <c r="J129" s="47" t="s">
+      <c r="J129" t="s">
         <v>18</v>
       </c>
-      <c r="K129" s="47"/>
-      <c r="L129" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="M129" s="47"/>
-      <c r="N129" s="47"/>
-      <c r="O129" s="49"/>
-      <c r="P129" s="49"/>
-      <c r="Q129" s="50" t="str">
+      <c r="L129" t="s">
+        <v>331</v>
+      </c>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R129" s="50" t="str">
+      <c r="R129" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E130" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="F130" s="47">
-        <v>785943768</v>
-      </c>
-      <c r="G130" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J130" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s">
+        <v>340</v>
+      </c>
+      <c r="E130" t="s">
+        <v>341</v>
+      </c>
+      <c r="F130">
+        <v>770338306</v>
+      </c>
+      <c r="G130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I130" t="s">
+        <v>20</v>
+      </c>
+      <c r="J130" t="s">
         <v>18</v>
       </c>
-      <c r="K130" s="47"/>
-      <c r="L130" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="M130" s="47"/>
-      <c r="N130" s="47"/>
-      <c r="O130" s="49"/>
-      <c r="P130" s="49"/>
-      <c r="Q130" s="50" t="str">
+      <c r="L130" t="s">
+        <v>342</v>
+      </c>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R130" s="50" t="str">
+      <c r="R130" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E131" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="F131" s="47">
-        <v>776885310</v>
-      </c>
-      <c r="G131" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s">
+        <v>340</v>
+      </c>
+      <c r="E131" t="s">
+        <v>343</v>
+      </c>
+      <c r="F131">
+        <v>775250570</v>
+      </c>
+      <c r="G131" t="s">
         <v>23</v>
       </c>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J131" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K131" s="47"/>
-      <c r="L131" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="M131" s="47"/>
-      <c r="N131" s="47"/>
-      <c r="O131" s="49"/>
-      <c r="P131" s="49"/>
-      <c r="Q131" s="50" t="str">
+      <c r="I131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131" t="s">
+        <v>237</v>
+      </c>
+      <c r="M131" t="s">
+        <v>29</v>
+      </c>
+      <c r="N131">
+        <v>10</v>
+      </c>
+      <c r="O131">
+        <v>26000</v>
+      </c>
+      <c r="P131">
+        <v>260000</v>
+      </c>
+      <c r="Q131" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R131" s="50" t="str">
+      <c r="R131" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E132" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="F132" s="47">
-        <v>775197108</v>
-      </c>
-      <c r="G132" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s">
+        <v>340</v>
+      </c>
+      <c r="E132" t="s">
+        <v>344</v>
+      </c>
+      <c r="F132">
+        <v>785180746</v>
+      </c>
+      <c r="G132" t="s">
         <v>23</v>
       </c>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J132" s="47" t="s">
+      <c r="I132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J132" t="s">
         <v>18</v>
       </c>
-      <c r="K132" s="47"/>
-      <c r="L132" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="M132" s="47"/>
-      <c r="N132" s="47"/>
-      <c r="O132" s="49"/>
-      <c r="P132" s="49"/>
-      <c r="Q132" s="50" t="str">
+      <c r="L132" t="s">
+        <v>31</v>
+      </c>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R132" s="50" t="str">
+      <c r="R132" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="E133" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="F133" s="47">
-        <v>775411988</v>
-      </c>
-      <c r="G133" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s">
+        <v>340</v>
+      </c>
+      <c r="E133" t="s">
+        <v>345</v>
+      </c>
+      <c r="F133">
+        <v>781297575</v>
+      </c>
+      <c r="G133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I133" t="s">
         <v>20</v>
       </c>
-      <c r="J133" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K133" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="L133" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="M133" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="N133" s="47">
-        <v>25</v>
-      </c>
-      <c r="O133" s="49">
-        <v>9750</v>
-      </c>
-      <c r="P133" s="49">
-        <v>243750</v>
-      </c>
-      <c r="Q133" s="50" t="str">
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" t="s">
+        <v>31</v>
+      </c>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R133" s="50" t="str">
+      <c r="R133" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s">
+        <v>340</v>
+      </c>
+      <c r="E134" t="s">
+        <v>346</v>
+      </c>
+      <c r="F134">
+        <v>774216339</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="I134" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" t="s">
+        <v>31</v>
+      </c>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R134" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s">
+        <v>340</v>
+      </c>
+      <c r="E135" t="s">
+        <v>347</v>
+      </c>
+      <c r="F135">
+        <v>785180746</v>
+      </c>
+      <c r="G135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135" t="s">
+        <v>348</v>
+      </c>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R135" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s">
+        <v>340</v>
+      </c>
+      <c r="E136" t="s">
+        <v>349</v>
+      </c>
+      <c r="F136">
+        <v>781280978</v>
+      </c>
+      <c r="G136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="L136" t="s">
+        <v>342</v>
+      </c>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R136" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s">
+        <v>340</v>
+      </c>
+      <c r="E137" t="s">
+        <v>350</v>
+      </c>
+      <c r="F137">
+        <v>773233617</v>
+      </c>
+      <c r="G137" t="s">
+        <v>23</v>
+      </c>
+      <c r="I137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" t="s">
+        <v>18</v>
+      </c>
+      <c r="L137" t="s">
+        <v>56</v>
+      </c>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R137" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E138" t="s">
+        <v>351</v>
+      </c>
+      <c r="F138">
+        <v>705121758</v>
+      </c>
+      <c r="G138" t="s">
+        <v>23</v>
+      </c>
+      <c r="I138" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" t="s">
+        <v>31</v>
+      </c>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R138" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s">
+        <v>340</v>
+      </c>
+      <c r="E139" t="s">
+        <v>352</v>
+      </c>
+      <c r="F139">
+        <v>774820232</v>
+      </c>
+      <c r="G139" t="s">
+        <v>23</v>
+      </c>
+      <c r="I139" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" t="s">
+        <v>31</v>
+      </c>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R139" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>340</v>
+      </c>
+      <c r="E140" t="s">
+        <v>353</v>
+      </c>
+      <c r="F140">
+        <v>774886110</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="I140" t="s">
+        <v>20</v>
+      </c>
+      <c r="J140" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" t="s">
+        <v>31</v>
+      </c>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R140" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" t="s">
+        <v>354</v>
+      </c>
+      <c r="F141">
+        <v>784770870</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+      <c r="I141" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>24</v>
+      </c>
+      <c r="K141" t="s">
+        <v>117</v>
+      </c>
+      <c r="L141" t="s">
+        <v>355</v>
+      </c>
+      <c r="M141" t="s">
+        <v>240</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
+        <v>19500</v>
+      </c>
+      <c r="P141">
+        <v>58500</v>
+      </c>
+      <c r="Q141" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R141" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s">
+        <v>340</v>
+      </c>
+      <c r="E142" t="s">
+        <v>356</v>
+      </c>
+      <c r="F142">
+        <v>775784714</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="I142" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142" t="s">
+        <v>56</v>
+      </c>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R142" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>357</v>
+      </c>
+      <c r="E143" t="s">
+        <v>358</v>
+      </c>
+      <c r="F143">
+        <v>773546192</v>
+      </c>
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s">
+        <v>24</v>
+      </c>
+      <c r="K143" t="s">
+        <v>117</v>
+      </c>
+      <c r="L143" t="s">
+        <v>359</v>
+      </c>
+      <c r="M143" t="s">
+        <v>360</v>
+      </c>
+      <c r="N143">
+        <v>6</v>
+      </c>
+      <c r="O143">
+        <v>12250</v>
+      </c>
+      <c r="P143">
+        <v>73500</v>
+      </c>
+      <c r="Q143" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R143" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B144" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" t="s">
+        <v>354</v>
+      </c>
+      <c r="F144">
+        <v>784770870</v>
+      </c>
+      <c r="G144" t="s">
+        <v>23</v>
+      </c>
+      <c r="I144" t="s">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" t="s">
+        <v>117</v>
+      </c>
+      <c r="L144" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" t="s">
+        <v>168</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>10520</v>
+      </c>
+      <c r="P144">
+        <v>21040</v>
+      </c>
+      <c r="Q144" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R144" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>361</v>
+      </c>
+      <c r="E145" t="s">
+        <v>362</v>
+      </c>
+      <c r="F145">
+        <v>773170826</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145" t="s">
+        <v>77</v>
+      </c>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R145" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>62</v>
+      </c>
+      <c r="E146" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146">
+        <v>778096419</v>
+      </c>
+      <c r="G146" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" t="s">
+        <v>363</v>
+      </c>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R146" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" t="s">
+        <v>62</v>
+      </c>
+      <c r="E147" t="s">
+        <v>103</v>
+      </c>
+      <c r="F147">
+        <v>773199049</v>
+      </c>
+      <c r="G147" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" t="s">
+        <v>364</v>
+      </c>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R147" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" t="s">
+        <v>365</v>
+      </c>
+      <c r="F148">
+        <v>767379110</v>
+      </c>
+      <c r="G148" t="s">
+        <v>23</v>
+      </c>
+      <c r="I148" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" t="s">
+        <v>117</v>
+      </c>
+      <c r="L148" t="s">
+        <v>31</v>
+      </c>
+      <c r="M148" t="s">
+        <v>29</v>
+      </c>
+      <c r="N148">
+        <v>25</v>
+      </c>
+      <c r="O148">
+        <v>26000</v>
+      </c>
+      <c r="P148">
+        <v>650000</v>
+      </c>
+      <c r="Q148" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R148" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>62</v>
+      </c>
+      <c r="E149" t="s">
+        <v>65</v>
+      </c>
+      <c r="F149">
+        <v>773125434</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" t="s">
+        <v>18</v>
+      </c>
+      <c r="L149" t="s">
+        <v>366</v>
+      </c>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R149" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>361</v>
+      </c>
+      <c r="E150" t="s">
+        <v>367</v>
+      </c>
+      <c r="F150">
+        <v>771837885</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" t="s">
+        <v>368</v>
+      </c>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R150" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>62</v>
+      </c>
+      <c r="E151" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151">
+        <v>773661109</v>
+      </c>
+      <c r="G151" t="s">
+        <v>23</v>
+      </c>
+      <c r="I151" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151" t="s">
+        <v>369</v>
+      </c>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R151" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A152" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>361</v>
+      </c>
+      <c r="E152" t="s">
+        <v>370</v>
+      </c>
+      <c r="F152">
+        <v>771327935</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>18</v>
+      </c>
+      <c r="L152" t="s">
+        <v>107</v>
+      </c>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R152" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A153" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>361</v>
+      </c>
+      <c r="E153" t="s">
+        <v>371</v>
+      </c>
+      <c r="F153">
+        <v>338643675</v>
+      </c>
+      <c r="G153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="L153" t="s">
+        <v>372</v>
+      </c>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R153" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>361</v>
+      </c>
+      <c r="E154" t="s">
+        <v>373</v>
+      </c>
+      <c r="F154">
+        <v>773247171</v>
+      </c>
+      <c r="G154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>18</v>
+      </c>
+      <c r="L154" t="s">
+        <v>86</v>
+      </c>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R154" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A155" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>361</v>
+      </c>
+      <c r="E155" t="s">
+        <v>374</v>
+      </c>
+      <c r="F155">
+        <v>781400202</v>
+      </c>
+      <c r="G155" t="s">
+        <v>23</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155" t="s">
+        <v>375</v>
+      </c>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R155" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>334</v>
+      </c>
+      <c r="E156" t="s">
+        <v>335</v>
+      </c>
+      <c r="F156">
+        <v>775171537</v>
+      </c>
+      <c r="G156" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" t="s">
+        <v>20</v>
+      </c>
+      <c r="J156" t="s">
+        <v>30</v>
+      </c>
+      <c r="L156" t="s">
+        <v>359</v>
+      </c>
+      <c r="M156" t="s">
+        <v>240</v>
+      </c>
+      <c r="N156">
+        <v>25</v>
+      </c>
+      <c r="O156">
+        <v>19500</v>
+      </c>
+      <c r="P156">
+        <v>487500</v>
+      </c>
+      <c r="Q156" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R156" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>286</v>
+      </c>
+      <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157">
+        <v>776108351</v>
+      </c>
+      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" t="s">
+        <v>18</v>
+      </c>
+      <c r="L157" t="s">
+        <v>307</v>
+      </c>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R157" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B158" t="s">
+        <v>376</v>
+      </c>
+      <c r="C158" t="s">
+        <v>377</v>
+      </c>
+      <c r="D158" t="s">
+        <v>378</v>
+      </c>
+      <c r="E158" t="s">
+        <v>379</v>
+      </c>
+      <c r="F158">
+        <v>779646150</v>
+      </c>
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+      <c r="I158" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" t="s">
+        <v>24</v>
+      </c>
+      <c r="K158" t="s">
+        <v>117</v>
+      </c>
+      <c r="L158" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" t="s">
+        <v>168</v>
+      </c>
+      <c r="N158">
+        <v>25</v>
+      </c>
+      <c r="O158">
+        <v>9750</v>
+      </c>
+      <c r="P158">
+        <v>243750</v>
+      </c>
+      <c r="Q158" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R158" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>286</v>
+      </c>
+      <c r="E159" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159">
+        <v>773633030</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>18</v>
+      </c>
+      <c r="L159" t="s">
+        <v>291</v>
+      </c>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R159" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160">
+        <v>338727194</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>18</v>
+      </c>
+      <c r="L160" t="s">
+        <v>293</v>
+      </c>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R160" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A161" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>286</v>
+      </c>
+      <c r="E161" t="s">
+        <v>304</v>
+      </c>
+      <c r="F161">
+        <v>775513483</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" t="s">
+        <v>305</v>
+      </c>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R161" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" t="s">
+        <v>286</v>
+      </c>
+      <c r="E162" t="s">
+        <v>294</v>
+      </c>
+      <c r="F162">
+        <v>764631568</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" t="s">
+        <v>20</v>
+      </c>
+      <c r="J162" t="s">
+        <v>18</v>
+      </c>
+      <c r="L162" t="s">
+        <v>295</v>
+      </c>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R162" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>286</v>
+      </c>
+      <c r="E163" t="s">
+        <v>296</v>
+      </c>
+      <c r="F163">
+        <v>778056161</v>
+      </c>
+      <c r="G163" t="s">
+        <v>23</v>
+      </c>
+      <c r="I163" t="s">
+        <v>20</v>
+      </c>
+      <c r="J163" t="s">
+        <v>30</v>
+      </c>
+      <c r="L163" t="s">
+        <v>297</v>
+      </c>
+      <c r="M163" t="s">
+        <v>29</v>
+      </c>
+      <c r="N163">
+        <v>25</v>
+      </c>
+      <c r="O163">
+        <v>26000</v>
+      </c>
+      <c r="P163">
+        <v>650000</v>
+      </c>
+      <c r="Q163" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R163" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" t="s">
+        <v>286</v>
+      </c>
+      <c r="E164" t="s">
+        <v>300</v>
+      </c>
+      <c r="F164">
+        <v>774004542</v>
+      </c>
+      <c r="G164" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>18</v>
+      </c>
+      <c r="L164" t="s">
+        <v>301</v>
+      </c>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R164" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A165" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>286</v>
+      </c>
+      <c r="E165" t="s">
+        <v>302</v>
+      </c>
+      <c r="F165">
+        <v>785158696</v>
+      </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>18</v>
+      </c>
+      <c r="L165" t="s">
+        <v>303</v>
+      </c>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R165" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>286</v>
+      </c>
+      <c r="E166" t="s">
+        <v>287</v>
+      </c>
+      <c r="F166">
+        <v>776156373</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166" t="s">
+        <v>288</v>
+      </c>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R166" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A167" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" t="s">
+        <v>286</v>
+      </c>
+      <c r="E167" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167">
+        <v>775356725</v>
+      </c>
+      <c r="G167" t="s">
+        <v>23</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="L167" t="s">
+        <v>299</v>
+      </c>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R167" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>316</v>
+      </c>
+      <c r="E168" t="s">
+        <v>317</v>
+      </c>
+      <c r="F168">
+        <v>775411988</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>20</v>
+      </c>
+      <c r="J168" t="s">
+        <v>24</v>
+      </c>
+      <c r="K168" t="s">
+        <v>256</v>
+      </c>
+      <c r="L168" t="s">
+        <v>308</v>
+      </c>
+      <c r="M168" t="s">
+        <v>168</v>
+      </c>
+      <c r="N168">
+        <v>25</v>
+      </c>
+      <c r="O168">
+        <v>9750</v>
+      </c>
+      <c r="P168">
+        <v>243750</v>
+      </c>
+      <c r="Q168" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R168" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A169" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" t="s">
+        <v>147</v>
+      </c>
+      <c r="E169" t="s">
+        <v>281</v>
+      </c>
+      <c r="F169">
+        <v>778195274</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
+      <c r="I169" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" t="s">
+        <v>30</v>
+      </c>
+      <c r="L169" t="s">
+        <v>309</v>
+      </c>
+      <c r="M169" t="s">
+        <v>29</v>
+      </c>
+      <c r="N169">
+        <v>100</v>
+      </c>
+      <c r="O169">
+        <v>26000</v>
+      </c>
+      <c r="P169">
+        <v>2600000</v>
+      </c>
+      <c r="Q169" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R169" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>283</v>
+      </c>
+      <c r="E170" t="s">
+        <v>284</v>
+      </c>
+      <c r="F170">
+        <v>777631935</v>
+      </c>
+      <c r="G170" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="L170" t="s">
+        <v>285</v>
+      </c>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R170" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>283</v>
+      </c>
+      <c r="E171" t="s">
+        <v>310</v>
+      </c>
+      <c r="F171">
+        <v>772788635</v>
+      </c>
+      <c r="G171" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171" t="s">
+        <v>77</v>
+      </c>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R171" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>283</v>
+      </c>
+      <c r="E172" t="s">
+        <v>311</v>
+      </c>
+      <c r="F172">
+        <v>776167544</v>
+      </c>
+      <c r="G172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172" t="s">
+        <v>20</v>
+      </c>
+      <c r="J172" t="s">
+        <v>18</v>
+      </c>
+      <c r="L172" t="s">
+        <v>104</v>
+      </c>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R172" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A173" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>283</v>
+      </c>
+      <c r="E173" t="s">
+        <v>312</v>
+      </c>
+      <c r="F173">
+        <v>785943768</v>
+      </c>
+      <c r="G173" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>18</v>
+      </c>
+      <c r="L173" t="s">
+        <v>107</v>
+      </c>
+      <c r="O173"/>
+      <c r="P173"/>
+      <c r="Q173" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R173" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>283</v>
+      </c>
+      <c r="E174" t="s">
+        <v>313</v>
+      </c>
+      <c r="F174">
+        <v>776885310</v>
+      </c>
+      <c r="G174" t="s">
+        <v>23</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" t="s">
+        <v>18</v>
+      </c>
+      <c r="L174" t="s">
+        <v>104</v>
+      </c>
+      <c r="O174"/>
+      <c r="P174"/>
+      <c r="Q174" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R174" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A175" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>283</v>
+      </c>
+      <c r="E175" t="s">
+        <v>314</v>
+      </c>
+      <c r="F175">
+        <v>775197108</v>
+      </c>
+      <c r="G175" t="s">
+        <v>23</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+      <c r="L175" t="s">
+        <v>315</v>
+      </c>
+      <c r="O175"/>
+      <c r="P175"/>
+      <c r="Q175" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R175" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>283</v>
+      </c>
+      <c r="E176" t="s">
+        <v>289</v>
+      </c>
+      <c r="F176">
+        <v>784464768</v>
+      </c>
+      <c r="G176" t="s">
+        <v>23</v>
+      </c>
+      <c r="I176" t="s">
+        <v>20</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="L176" t="s">
+        <v>104</v>
+      </c>
+      <c r="O176"/>
+      <c r="P176"/>
+      <c r="Q176" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R176" s="47" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A177" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" t="s">
+        <v>147</v>
+      </c>
+      <c r="E177" t="s">
+        <v>281</v>
+      </c>
+      <c r="F177">
+        <v>778195274</v>
+      </c>
+      <c r="G177" t="s">
+        <v>23</v>
+      </c>
+      <c r="I177" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" t="s">
+        <v>24</v>
+      </c>
+      <c r="K177" t="s">
+        <v>256</v>
+      </c>
+      <c r="L177" t="s">
+        <v>308</v>
+      </c>
+      <c r="M177" t="s">
+        <v>29</v>
+      </c>
+      <c r="N177">
+        <v>50</v>
+      </c>
+      <c r="O177">
+        <v>26000</v>
+      </c>
+      <c r="P177">
+        <v>1300000</v>
+      </c>
+      <c r="Q177" s="47" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R177" s="47" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4286C-EAEF-43DC-8BF3-CEF18EB29566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC856563-CD20-47EC-AC83-B43B9CD2578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Tableau de Bord RZ_" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="Tableau de Bord" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Segment_Mois1">#N/A</definedName>
     <definedName name="Segment_Operation">#N/A</definedName>
@@ -31,18 +34,18 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="0" r:id="rId5"/>
+        <pivotCache cacheId="16" r:id="rId6"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="380">
   <si>
     <t>Date</t>
   </si>
@@ -1431,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,6 +1553,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1559,6 +1567,22 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="57">
+    <dxf>
+      <font>
+        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1814,22 +1838,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -9474,6 +9482,34 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Semaine 1"/>
+      <sheetName val="Données Traitées"/>
+      <sheetName val="Tableau de Bord"/>
+      <sheetName val="Tableau de Bord RZ"/>
+      <sheetName val="Données TATA"/>
+      <sheetName val="Données traitées Tata"/>
+      <sheetName val="Tableau de bord TATA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="NDAO ABDOULAYE" refreshedDate="45871.915894675927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1895" xr:uid="{A600CF17-0A34-41AB-BE0D-19B720328AD6}">
   <cacheSource type="worksheet">
@@ -49035,8 +49071,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R177" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:R177" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:R178" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:R178" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -49057,11 +49093,11 @@
     <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="36"/>
     <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="35"/>
     <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="33">
-      <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
+      <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="32">
-      <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
+      <calculatedColumnFormula>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -49069,13 +49105,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="N4:O16" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="31">
       <calculatedColumnFormula>IF(OR(#REF!="(vide)",#REF!=0,Tableau1[[#This Row],[Quantités]]=""),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="30">
       <calculatedColumnFormula>IF(#REF!=0,"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49084,13 +49120,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A35:B47" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49437,10 +49473,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:P177"/>
+    <sheetView tabSelected="1" topLeftCell="J161" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:R178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49554,11 +49590,11 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R2" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49596,11 +49632,11 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R3" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49638,11 +49674,11 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49680,11 +49716,11 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R5" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49732,11 +49768,11 @@
         <v>300000</v>
       </c>
       <c r="Q6" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R6" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49774,11 +49810,11 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R7" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49816,11 +49852,11 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R8" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49858,11 +49894,11 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R9" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49900,11 +49936,11 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R10" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49942,11 +49978,11 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R11" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49984,11 +50020,11 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R12" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50026,11 +50062,11 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R13" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50068,11 +50104,11 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R14" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50110,11 +50146,11 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R15" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50152,11 +50188,11 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R16" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50194,11 +50230,11 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R17" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50236,11 +50272,11 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R18" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50278,11 +50314,11 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R19" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50320,11 +50356,11 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R20" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50362,11 +50398,11 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R21" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50404,11 +50440,11 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R22" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50446,11 +50482,11 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R23" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50488,11 +50524,11 @@
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R24" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50530,11 +50566,11 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R25" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50582,11 +50618,11 @@
         <v>130000</v>
       </c>
       <c r="Q26" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R26" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50624,11 +50660,11 @@
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R27" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50666,11 +50702,11 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R28" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50708,11 +50744,11 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R29" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50750,11 +50786,11 @@
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R30" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50802,11 +50838,11 @@
         <v>650000</v>
       </c>
       <c r="Q31" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R31" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50844,11 +50880,11 @@
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R32" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50886,11 +50922,11 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R33" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50928,11 +50964,11 @@
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R34" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50983,11 +51019,11 @@
         <v>520000</v>
       </c>
       <c r="Q35" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R35" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51025,11 +51061,11 @@
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R36" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51067,11 +51103,11 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R37" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51109,11 +51145,11 @@
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R38" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51151,11 +51187,11 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R39" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51206,11 +51242,11 @@
         <v>1550000</v>
       </c>
       <c r="Q40" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R40" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51261,11 +51297,11 @@
         <v>1300000</v>
       </c>
       <c r="Q41" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R41" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51303,11 +51339,11 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R42" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51343,11 +51379,11 @@
         <v>150</v>
       </c>
       <c r="Q43" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R43" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51383,11 +51419,11 @@
         <v>152</v>
       </c>
       <c r="Q44" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R44" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51423,11 +51459,11 @@
         <v>153</v>
       </c>
       <c r="Q45" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R45" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51463,11 +51499,11 @@
         <v>155</v>
       </c>
       <c r="Q46" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R46" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51503,11 +51539,11 @@
         <v>158</v>
       </c>
       <c r="Q47" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R47" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51543,11 +51579,11 @@
         <v>160</v>
       </c>
       <c r="Q48" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R48" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51583,11 +51619,11 @@
         <v>162</v>
       </c>
       <c r="Q49" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R49" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51635,11 +51671,11 @@
         <v>52000</v>
       </c>
       <c r="Q50" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R50" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51675,11 +51711,11 @@
         <v>166</v>
       </c>
       <c r="Q51" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R51" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51727,11 +51763,11 @@
         <v>20500</v>
       </c>
       <c r="Q52" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R52" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51779,11 +51815,11 @@
         <v>7500</v>
       </c>
       <c r="Q53" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R53" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51819,11 +51855,11 @@
         <v>171</v>
       </c>
       <c r="Q54" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R54" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51859,11 +51895,11 @@
         <v>173</v>
       </c>
       <c r="Q55" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R55" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51899,11 +51935,11 @@
         <v>166</v>
       </c>
       <c r="Q56" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R56" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51939,11 +51975,11 @@
         <v>176</v>
       </c>
       <c r="Q57" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R57" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51979,11 +52015,11 @@
         <v>178</v>
       </c>
       <c r="Q58" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R58" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52019,11 +52055,11 @@
         <v>180</v>
       </c>
       <c r="Q59" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R59" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52059,11 +52095,11 @@
         <v>182</v>
       </c>
       <c r="Q60" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R60" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52099,11 +52135,11 @@
         <v>184</v>
       </c>
       <c r="Q61" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R61" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52151,11 +52187,11 @@
         <v>5200000</v>
       </c>
       <c r="Q62" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R62" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52203,11 +52239,11 @@
         <v>26000</v>
       </c>
       <c r="Q63" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R63" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52243,11 +52279,11 @@
         <v>190</v>
       </c>
       <c r="Q64" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R64" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52283,11 +52319,11 @@
         <v>193</v>
       </c>
       <c r="Q65" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R65" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52335,11 +52371,11 @@
         <v>130000</v>
       </c>
       <c r="Q66" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R66" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52375,11 +52411,11 @@
         <v>196</v>
       </c>
       <c r="Q67" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R67" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52415,11 +52451,11 @@
         <v>198</v>
       </c>
       <c r="Q68" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R68" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52455,11 +52491,11 @@
         <v>94</v>
       </c>
       <c r="Q69" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R69" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52495,11 +52531,11 @@
         <v>201</v>
       </c>
       <c r="Q70" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R70" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52535,11 +52571,11 @@
         <v>108</v>
       </c>
       <c r="Q71" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R71" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52575,11 +52611,11 @@
         <v>204</v>
       </c>
       <c r="Q72" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R72" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52615,11 +52651,11 @@
         <v>206</v>
       </c>
       <c r="Q73" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R73" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52655,11 +52691,11 @@
         <v>208</v>
       </c>
       <c r="Q74" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R74" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52695,11 +52731,11 @@
         <v>93</v>
       </c>
       <c r="Q75" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R75" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52735,11 +52771,11 @@
         <v>211</v>
       </c>
       <c r="Q76" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R76" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52775,11 +52811,11 @@
         <v>213</v>
       </c>
       <c r="Q77" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R77" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52815,11 +52851,11 @@
         <v>214</v>
       </c>
       <c r="Q78" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R78" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52855,11 +52891,11 @@
         <v>216</v>
       </c>
       <c r="Q79" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R79" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52895,11 +52931,11 @@
         <v>218</v>
       </c>
       <c r="Q80" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R80" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52935,11 +52971,11 @@
         <v>220</v>
       </c>
       <c r="Q81" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R81" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52975,11 +53011,11 @@
         <v>222</v>
       </c>
       <c r="Q82" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R82" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53015,11 +53051,11 @@
         <v>226</v>
       </c>
       <c r="Q83" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R83" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53055,11 +53091,11 @@
         <v>229</v>
       </c>
       <c r="Q84" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R84" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53095,11 +53131,11 @@
         <v>231</v>
       </c>
       <c r="Q85" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R85" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53135,11 +53171,11 @@
         <v>31</v>
       </c>
       <c r="Q86" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R86" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53175,11 +53211,11 @@
         <v>31</v>
       </c>
       <c r="Q87" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R87" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53215,11 +53251,11 @@
         <v>31</v>
       </c>
       <c r="Q88" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R88" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53255,11 +53291,11 @@
         <v>56</v>
       </c>
       <c r="Q89" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R89" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53307,11 +53343,11 @@
         <v>650000</v>
       </c>
       <c r="Q90" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R90" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53359,11 +53395,11 @@
         <v>39000</v>
       </c>
       <c r="Q91" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R91" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53411,11 +53447,11 @@
         <v>31000</v>
       </c>
       <c r="Q92" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R92" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53463,11 +53499,11 @@
         <v>26000</v>
       </c>
       <c r="Q93" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R93" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53503,11 +53539,11 @@
         <v>244</v>
       </c>
       <c r="Q94" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R94" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53543,11 +53579,11 @@
         <v>246</v>
       </c>
       <c r="Q95" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R95" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53583,11 +53619,11 @@
         <v>248</v>
       </c>
       <c r="Q96" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R96" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53623,11 +53659,11 @@
         <v>250</v>
       </c>
       <c r="Q97" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R97" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53663,11 +53699,11 @@
         <v>252</v>
       </c>
       <c r="Q98" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R98" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53703,11 +53739,11 @@
         <v>56</v>
       </c>
       <c r="Q99" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R99" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53758,11 +53794,11 @@
         <v>487500</v>
       </c>
       <c r="Q100" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R100" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53798,11 +53834,11 @@
         <v>260</v>
       </c>
       <c r="Q101" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R101" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53853,11 +53889,11 @@
         <v>300000</v>
       </c>
       <c r="Q102" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R102" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53893,11 +53929,11 @@
         <v>263</v>
       </c>
       <c r="Q103" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R103" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53933,11 +53969,11 @@
         <v>263</v>
       </c>
       <c r="Q104" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R104" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -53973,11 +54009,11 @@
         <v>266</v>
       </c>
       <c r="Q105" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R105" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54013,11 +54049,11 @@
         <v>268</v>
       </c>
       <c r="Q106" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R106" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54053,11 +54089,11 @@
         <v>270</v>
       </c>
       <c r="Q107" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R107" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54093,11 +54129,11 @@
         <v>272</v>
       </c>
       <c r="Q108" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R108" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54133,11 +54169,11 @@
         <v>274</v>
       </c>
       <c r="Q109" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R109" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54173,11 +54209,11 @@
         <v>276</v>
       </c>
       <c r="Q110" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R110" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54213,11 +54249,11 @@
         <v>278</v>
       </c>
       <c r="Q111" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R111" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54253,11 +54289,11 @@
         <v>280</v>
       </c>
       <c r="Q112" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R112" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54308,11 +54344,11 @@
         <v>1300000</v>
       </c>
       <c r="Q113" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R113" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54350,11 +54386,11 @@
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R114" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54392,11 +54428,11 @@
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R115" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54434,11 +54470,11 @@
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R116" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54476,11 +54512,11 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R117" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54518,11 +54554,11 @@
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R118" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54560,11 +54596,11 @@
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R119" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54602,11 +54638,11 @@
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R120" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54644,11 +54680,11 @@
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R121" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54686,11 +54722,11 @@
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R122" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54728,11 +54764,11 @@
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R123" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54770,11 +54806,11 @@
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R124" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54825,11 +54861,11 @@
         <v>487500</v>
       </c>
       <c r="Q125" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R125" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54867,11 +54903,11 @@
       <c r="O126"/>
       <c r="P126"/>
       <c r="Q126" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R126" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54909,11 +54945,11 @@
       <c r="O127"/>
       <c r="P127"/>
       <c r="Q127" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R127" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54951,11 +54987,11 @@
       <c r="O128"/>
       <c r="P128"/>
       <c r="Q128" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R128" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -54993,11 +55029,11 @@
       <c r="O129"/>
       <c r="P129"/>
       <c r="Q129" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R129" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55035,11 +55071,11 @@
       <c r="O130"/>
       <c r="P130"/>
       <c r="Q130" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R130" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55087,11 +55123,11 @@
         <v>260000</v>
       </c>
       <c r="Q131" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R131" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55129,11 +55165,11 @@
       <c r="O132"/>
       <c r="P132"/>
       <c r="Q132" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R132" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55171,11 +55207,11 @@
       <c r="O133"/>
       <c r="P133"/>
       <c r="Q133" s="35" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
       <c r="R133" s="35" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55212,12 +55248,12 @@
       </c>
       <c r="O134"/>
       <c r="P134"/>
-      <c r="Q134" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q134" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R134" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R134" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55254,12 +55290,12 @@
       </c>
       <c r="O135"/>
       <c r="P135"/>
-      <c r="Q135" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q135" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R135" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R135" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55296,12 +55332,12 @@
       </c>
       <c r="O136"/>
       <c r="P136"/>
-      <c r="Q136" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q136" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R136" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R136" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55338,12 +55374,12 @@
       </c>
       <c r="O137"/>
       <c r="P137"/>
-      <c r="Q137" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q137" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R137" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R137" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55380,12 +55416,12 @@
       </c>
       <c r="O138"/>
       <c r="P138"/>
-      <c r="Q138" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q138" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R138" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R138" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55422,12 +55458,12 @@
       </c>
       <c r="O139"/>
       <c r="P139"/>
-      <c r="Q139" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q139" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R139" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R139" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55464,12 +55500,12 @@
       </c>
       <c r="O140"/>
       <c r="P140"/>
-      <c r="Q140" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q140" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R140" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R140" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55519,12 +55555,12 @@
       <c r="P141">
         <v>58500</v>
       </c>
-      <c r="Q141" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q141" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R141" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R141" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55561,12 +55597,12 @@
       </c>
       <c r="O142"/>
       <c r="P142"/>
-      <c r="Q142" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q142" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R142" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R142" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55616,12 +55652,12 @@
       <c r="P143">
         <v>73500</v>
       </c>
-      <c r="Q143" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q143" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R143" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R143" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55671,12 +55707,12 @@
       <c r="P144">
         <v>21040</v>
       </c>
-      <c r="Q144" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q144" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R144" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R144" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55713,12 +55749,12 @@
       </c>
       <c r="O145"/>
       <c r="P145"/>
-      <c r="Q145" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q145" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R145" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R145" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55755,12 +55791,12 @@
       </c>
       <c r="O146"/>
       <c r="P146"/>
-      <c r="Q146" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q146" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R146" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R146" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55797,12 +55833,12 @@
       </c>
       <c r="O147"/>
       <c r="P147"/>
-      <c r="Q147" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q147" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R147" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R147" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55852,12 +55888,12 @@
       <c r="P148">
         <v>650000</v>
       </c>
-      <c r="Q148" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q148" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R148" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R148" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55894,12 +55930,12 @@
       </c>
       <c r="O149"/>
       <c r="P149"/>
-      <c r="Q149" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q149" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R149" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R149" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55936,12 +55972,12 @@
       </c>
       <c r="O150"/>
       <c r="P150"/>
-      <c r="Q150" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q150" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R150" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R150" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -55978,12 +56014,12 @@
       </c>
       <c r="O151"/>
       <c r="P151"/>
-      <c r="Q151" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q151" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R151" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R151" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56020,12 +56056,12 @@
       </c>
       <c r="O152"/>
       <c r="P152"/>
-      <c r="Q152" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q152" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R152" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R152" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56062,12 +56098,12 @@
       </c>
       <c r="O153"/>
       <c r="P153"/>
-      <c r="Q153" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q153" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R153" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R153" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56104,12 +56140,12 @@
       </c>
       <c r="O154"/>
       <c r="P154"/>
-      <c r="Q154" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q154" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R154" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R154" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56146,12 +56182,12 @@
       </c>
       <c r="O155"/>
       <c r="P155"/>
-      <c r="Q155" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q155" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R155" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R155" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56198,12 +56234,12 @@
       <c r="P156">
         <v>487500</v>
       </c>
-      <c r="Q156" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q156" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R156" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R156" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56240,12 +56276,12 @@
       </c>
       <c r="O157"/>
       <c r="P157"/>
-      <c r="Q157" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q157" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R157" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R157" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56295,12 +56331,12 @@
       <c r="P158">
         <v>243750</v>
       </c>
-      <c r="Q158" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q158" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R158" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R158" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56337,12 +56373,12 @@
       </c>
       <c r="O159"/>
       <c r="P159"/>
-      <c r="Q159" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q159" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R159" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R159" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56379,12 +56415,12 @@
       </c>
       <c r="O160"/>
       <c r="P160"/>
-      <c r="Q160" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q160" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R160" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R160" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56421,12 +56457,12 @@
       </c>
       <c r="O161"/>
       <c r="P161"/>
-      <c r="Q161" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q161" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R161" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R161" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56463,12 +56499,12 @@
       </c>
       <c r="O162"/>
       <c r="P162"/>
-      <c r="Q162" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q162" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R162" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R162" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56515,12 +56551,12 @@
       <c r="P163">
         <v>650000</v>
       </c>
-      <c r="Q163" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q163" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R163" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R163" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56557,12 +56593,12 @@
       </c>
       <c r="O164"/>
       <c r="P164"/>
-      <c r="Q164" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q164" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R164" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R164" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56599,12 +56635,12 @@
       </c>
       <c r="O165"/>
       <c r="P165"/>
-      <c r="Q165" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q165" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R165" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R165" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56641,12 +56677,12 @@
       </c>
       <c r="O166"/>
       <c r="P166"/>
-      <c r="Q166" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q166" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R166" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R166" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56683,12 +56719,12 @@
       </c>
       <c r="O167"/>
       <c r="P167"/>
-      <c r="Q167" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q167" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R167" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R167" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56738,12 +56774,12 @@
       <c r="P168">
         <v>243750</v>
       </c>
-      <c r="Q168" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q168" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R168" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R168" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56790,12 +56826,12 @@
       <c r="P169">
         <v>2600000</v>
       </c>
-      <c r="Q169" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q169" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R169" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R169" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56832,12 +56868,12 @@
       </c>
       <c r="O170"/>
       <c r="P170"/>
-      <c r="Q170" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q170" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R170" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R170" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56874,12 +56910,12 @@
       </c>
       <c r="O171"/>
       <c r="P171"/>
-      <c r="Q171" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q171" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R171" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R171" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56916,12 +56952,12 @@
       </c>
       <c r="O172"/>
       <c r="P172"/>
-      <c r="Q172" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q172" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R172" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R172" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -56958,12 +56994,12 @@
       </c>
       <c r="O173"/>
       <c r="P173"/>
-      <c r="Q173" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q173" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R173" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R173" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -57000,12 +57036,12 @@
       </c>
       <c r="O174"/>
       <c r="P174"/>
-      <c r="Q174" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q174" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R174" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R174" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -57042,12 +57078,12 @@
       </c>
       <c r="O175"/>
       <c r="P175"/>
-      <c r="Q175" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q175" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R175" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R175" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -57084,12 +57120,12 @@
       </c>
       <c r="O176"/>
       <c r="P176"/>
-      <c r="Q176" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q176" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R176" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R176" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -57139,12 +57175,68 @@
       <c r="P177">
         <v>1300000</v>
       </c>
-      <c r="Q177" s="47" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+      <c r="Q177" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R177" s="47" t="str">
-        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+      <c r="R177" s="35" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B178" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" t="s">
+        <v>36</v>
+      </c>
+      <c r="D178" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" s="47">
+        <v>784770871</v>
+      </c>
+      <c r="G178" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" s="47"/>
+      <c r="I178" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K178" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="L178" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="M178" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="N178" s="47">
+        <v>1</v>
+      </c>
+      <c r="O178" s="49">
+        <v>7500</v>
+      </c>
+      <c r="P178" s="49">
+        <v>7500</v>
+      </c>
+      <c r="Q178" s="50" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <v>S32</v>
+      </c>
+      <c r="R178" s="50" t="str">
+        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -58297,46 +58389,46 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60310,46 +60402,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC856563-CD20-47EC-AC83-B43B9CD2578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B6847-2BD5-4425-B827-F93B3A81B115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="16" r:id="rId6"/>
+        <pivotCache cacheId="40" r:id="rId6"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1434,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,36 +1553,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="57">
-    <dxf>
-      <font>
-        <b/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1838,6 +1814,22 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -49093,10 +49085,10 @@
     <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="36"/>
     <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="35"/>
     <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="33">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="32">
       <calculatedColumnFormula>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49105,13 +49097,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="N4:O16" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(#REF!="(vide)",#REF!=0,Tableau1[[#This Row],[Quantités]]=""),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="28">
       <calculatedColumnFormula>IF(#REF!=0,"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49120,13 +49112,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A35:B47" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49475,8 +49467,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J161" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:R178"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57186,7 +57178,7 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
-        <v>45878</v>
+        <v>45877</v>
       </c>
       <c r="B178" t="s">
         <v>35</v>
@@ -57194,48 +57186,47 @@
       <c r="C178" t="s">
         <v>36</v>
       </c>
-      <c r="D178" s="47" t="s">
+      <c r="D178" t="s">
         <v>39</v>
       </c>
-      <c r="E178" s="47" t="s">
+      <c r="E178" t="s">
         <v>354</v>
       </c>
-      <c r="F178" s="47">
+      <c r="F178">
         <v>784770871</v>
       </c>
-      <c r="G178" s="47" t="s">
+      <c r="G178" t="s">
         <v>23</v>
       </c>
-      <c r="H178" s="47"/>
-      <c r="I178" s="47" t="s">
+      <c r="I178" t="s">
         <v>20</v>
       </c>
-      <c r="J178" s="47" t="s">
+      <c r="J178" t="s">
         <v>24</v>
       </c>
-      <c r="K178" s="47" t="s">
+      <c r="K178" t="s">
         <v>117</v>
       </c>
-      <c r="L178" s="48" t="s">
+      <c r="L178" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="M178" s="47" t="s">
+      <c r="M178" t="s">
         <v>169</v>
       </c>
-      <c r="N178" s="47">
+      <c r="N178">
         <v>1</v>
       </c>
-      <c r="O178" s="49">
+      <c r="O178" s="5">
         <v>7500</v>
       </c>
-      <c r="P178" s="49">
+      <c r="P178" s="5">
         <v>7500</v>
       </c>
-      <c r="Q178" s="50" t="str">
+      <c r="Q178" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
         <v>S32</v>
       </c>
-      <c r="R178" s="50" t="str">
+      <c r="R178" s="35" t="str">
         <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58389,46 +58380,46 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60402,46 +60393,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2CDBB-7FC4-4E3E-8DE9-79E3877CE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C91AD0-F8BF-4589-ABFC-51EE93004915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Tableau de Bord RZ_" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="Tableau de Bord" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Segment_Mois1">#N/A</definedName>
     <definedName name="Segment_Operation">#N/A</definedName>
@@ -34,18 +31,18 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="128" r:id="rId6"/>
+        <pivotCache cacheId="0" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
-        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="313">
   <si>
     <t>Date</t>
   </si>
@@ -719,6 +716,294 @@
   <si>
     <t xml:space="preserve">il lui reste des point </t>
   </si>
+  <si>
+    <t>Grand Mbao</t>
+  </si>
+  <si>
+    <t>Ibrahima Fall</t>
+  </si>
+  <si>
+    <t>Superette</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas présent</t>
+  </si>
+  <si>
+    <t>Bargny</t>
+  </si>
+  <si>
+    <t>Wakeur Alpha Thiombane</t>
+  </si>
+  <si>
+    <t>Il veut essayer le lait 25 kg mais il veut voir le contenu d'abord</t>
+  </si>
+  <si>
+    <t>Café pot Refraish 200g</t>
+  </si>
+  <si>
+    <t>Commande livre Aujourd'hui</t>
+  </si>
+  <si>
+    <t>Ibrahima Diallo</t>
+  </si>
+  <si>
+    <t>Modou boye</t>
+  </si>
+  <si>
+    <t>Dame</t>
+  </si>
+  <si>
+    <t>Moustapha Baldé</t>
+  </si>
+  <si>
+    <t>Il a le café pot refraish 200g</t>
+  </si>
+  <si>
+    <t>Korka Diallo</t>
+  </si>
+  <si>
+    <t>Il a nos produits vendu par Abdourahmane baldé</t>
+  </si>
+  <si>
+    <t>Mame Coumba Fall</t>
+  </si>
+  <si>
+    <t>Il avait le lait évaporé depuis elle n'a plus acheté nos produits</t>
+  </si>
+  <si>
+    <t>Pape Sylla</t>
+  </si>
+  <si>
+    <t>Il a le café pot 200g livré par WAT</t>
+  </si>
+  <si>
+    <t>Il dit qu'il a toujours le Nescafé et le téranga en stock</t>
+  </si>
+  <si>
+    <t>Abdou Rakhmane Baldé</t>
+  </si>
+  <si>
+    <t>Il dit pour essayer le sac de lait 25 kg il faut le diminuer</t>
+  </si>
+  <si>
+    <t>Modou Ndiaye</t>
+  </si>
+  <si>
+    <t>Pour le café pot refaish 200g s'il n'est pas encore diminué</t>
+  </si>
+  <si>
+    <t>Baye Modou</t>
+  </si>
+  <si>
+    <t>Asse</t>
+  </si>
+  <si>
+    <t>Il dit qu'il vas appeler demain pour commander du refaish 1,5</t>
+  </si>
+  <si>
+    <t>Moussa Cisse</t>
+  </si>
+  <si>
+    <t>Il est servi par WAT</t>
+  </si>
+  <si>
+    <t>Marche Sahm</t>
+  </si>
+  <si>
+    <t>MAGUONÉ NIANG</t>
+  </si>
+  <si>
+    <t>Ne vend pas de café et de lait</t>
+  </si>
+  <si>
+    <t>WOURI DIALLO</t>
+  </si>
+  <si>
+    <t>Il vend seulement du Nescafé mais veut essayer nos produit ultérieurement</t>
+  </si>
+  <si>
+    <t>MAMADOU SALIOU DIALLO</t>
+  </si>
+  <si>
+    <t>Il a fini ses stocks de café qu'il avait acheté chez mon client partenaire mais Matar Ly mais lui aussi il a fini ses stock et à déjà passer commande depuis longtemp</t>
+  </si>
+  <si>
+    <t>TAPAHA GAYE</t>
+  </si>
+  <si>
+    <t>OUSMANE BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ma commandé 1 carton café stick Altimo et je l'ai pris chez mon client partenaire Wouri Ba </t>
+  </si>
+  <si>
+    <t>TAPHA GUEYE</t>
+  </si>
+  <si>
+    <t>Ne vend plus de café et de lait</t>
+  </si>
+  <si>
+    <t>MATAR LY</t>
+  </si>
+  <si>
+    <t>PAPE LAHATE THIAM</t>
+  </si>
+  <si>
+    <t>Il a un autre café stick mais est intéressé par nos café et le lait et dit qu'il va bientot passé commande</t>
+  </si>
+  <si>
+    <t>Yamar Gueye</t>
+  </si>
+  <si>
+    <t>Va rappeler en cas de besoin</t>
+  </si>
+  <si>
+    <t>Cheikh</t>
+  </si>
+  <si>
+    <t>THIERNO GUISSE</t>
+  </si>
+  <si>
+    <t>Il a fini son stock de café stick qu'il avait et en veux mais le jus ne l'arrange pas, il lui reste des pots de café pot Altimo 100g et Refraish 200g</t>
+  </si>
+  <si>
+    <t>Zone de captage</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Supermarché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle importe ses propres produits </t>
+  </si>
+  <si>
+    <t>Pikine Sandika</t>
+  </si>
+  <si>
+    <t>Omar Ndaiye</t>
+  </si>
+  <si>
+    <t>Elage</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Il dit de revenir une prochaine fois quand il sera prêt il fera sa commande</t>
+  </si>
+  <si>
+    <t>Mohamed Lamine Ly</t>
+  </si>
+  <si>
+    <t>N'a pas encore commencé les autres produits.pour l'instant il vend que des biscuits</t>
+  </si>
+  <si>
+    <t>Khassim</t>
+  </si>
+  <si>
+    <t>Bassir Diallo</t>
+  </si>
+  <si>
+    <t>Le patron est en voyage</t>
+  </si>
+  <si>
+    <t>Ismaëla</t>
+  </si>
+  <si>
+    <t>Alpha Omar Diallo</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas là le matin</t>
+  </si>
+  <si>
+    <t>Va me rappeler en cas de besoin</t>
+  </si>
+  <si>
+    <t>Elhadj Thiaw</t>
+  </si>
+  <si>
+    <t>Siradio  Barry</t>
+  </si>
+  <si>
+    <t>Il m'avait commander 25 carton de refraish sa fait maintenant 2mois aujourd'hui j'étais réparties là bas il a rejeté le commande par ce qu'ils  avait commander le café tandis que nous l'avons pas  livré le produit il dit qu'il a d'autre  café stick de 25fr ya Royal,Promax. En plus il dit que méthode qu'on a adopté 25+1carton jus il vas pas acheter par qu,il ne vend pas le jus</t>
+  </si>
+  <si>
+    <t>Yerno  Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu dit que je repasser une autre semaine </t>
+  </si>
+  <si>
+    <t>Amadou DIALLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu attend son commande depuis 1 mois </t>
+  </si>
+  <si>
+    <t>Gale GOLE</t>
+  </si>
+  <si>
+    <t>Comptoir Commercial Ba et Frères</t>
+  </si>
+  <si>
+    <t>Salle Pikine</t>
+  </si>
+  <si>
+    <t>Mamadou Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il avait commandé 1 carton refraish non livré </t>
+  </si>
+  <si>
+    <t>Itilere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li liu reste du produit mais il est sorti </t>
+  </si>
+  <si>
+    <t>Baye Diouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu'il va me rappeler </t>
+  </si>
+  <si>
+    <t>Mouhamed Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu'il y réfléchir car nos produits ne manche pas très bien là-bas </t>
+  </si>
+  <si>
+    <t>Ibrahima   Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu reste 4 pots </t>
+  </si>
+  <si>
+    <t>Abdoulaye  Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elle dit des autres kafe </t>
+  </si>
+  <si>
+    <t>Ismiala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JE REPASSER UNE AUTRE SEMAINE </t>
+  </si>
+  <si>
+    <t>Billo salle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu dit que tu commande ont tes Livres par </t>
+  </si>
+  <si>
+    <t>Sow</t>
+  </si>
+  <si>
+    <t>Aliou Ba</t>
+  </si>
 </sst>
 </file>
 
@@ -1072,6 +1357,40 @@
   </cellStyles>
   <dxfs count="55">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color auto="1"/>
@@ -1351,40 +1670,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -8970,34 +9255,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Semaine 1"/>
-      <sheetName val="Données Traitées"/>
-      <sheetName val="Tableau de Bord"/>
-      <sheetName val="Tableau de Bord RZ"/>
-      <sheetName val="Données TATA"/>
-      <sheetName val="Données traitées Tata"/>
-      <sheetName val="Tableau de bord TATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="NDAO ABDOULAYE" refreshedDate="45871.915894675927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1895" xr:uid="{A600CF17-0A34-41AB-BE0D-19B720328AD6}">
   <cacheSource type="worksheet">
@@ -48559,8 +48816,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P182" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:P182" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P153" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:P153" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -48573,17 +48830,17 @@
     <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="42"/>
     <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="41"/>
     <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="1">
-      <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="5">
+      <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="0">
-      <calculatedColumnFormula>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="4">
+      <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -48591,13 +48848,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="N4:O16" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="35">
       <calculatedColumnFormula>IF(OR(#REF!="(vide)",#REF!=0,Tableau1[[#This Row],[Quantités]]=""),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="34">
       <calculatedColumnFormula>IF(#REF!=0,"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48606,13 +48863,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A35:B47" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="31">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="30">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48959,10 +49216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P87"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49074,15 +49331,15 @@
       <c r="M2">
         <v>26000</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>52000</v>
       </c>
       <c r="O2" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P2" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49118,13 +49375,12 @@
         <v>110</v>
       </c>
       <c r="M3"/>
-      <c r="N3"/>
       <c r="O3" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P3" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49160,13 +49416,12 @@
         <v>112</v>
       </c>
       <c r="M4"/>
-      <c r="N4"/>
       <c r="O4" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P4" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49202,13 +49457,12 @@
         <v>114</v>
       </c>
       <c r="M5"/>
-      <c r="N5"/>
       <c r="O5" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P5" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49244,13 +49498,12 @@
         <v>115</v>
       </c>
       <c r="M6"/>
-      <c r="N6"/>
       <c r="O6" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P6" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49286,13 +49539,12 @@
         <v>116</v>
       </c>
       <c r="M7"/>
-      <c r="N7"/>
       <c r="O7" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P7" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49328,13 +49580,12 @@
         <v>118</v>
       </c>
       <c r="M8"/>
-      <c r="N8"/>
       <c r="O8" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P8" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49370,13 +49621,12 @@
         <v>119</v>
       </c>
       <c r="M9"/>
-      <c r="N9"/>
       <c r="O9" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P9" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49412,13 +49662,12 @@
         <v>120</v>
       </c>
       <c r="M10"/>
-      <c r="N10"/>
       <c r="O10" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P10" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49454,13 +49703,12 @@
         <v>121</v>
       </c>
       <c r="M11"/>
-      <c r="N11"/>
       <c r="O11" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P11" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49496,13 +49744,12 @@
         <v>120</v>
       </c>
       <c r="M12"/>
-      <c r="N12"/>
       <c r="O12" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P12" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49538,13 +49785,12 @@
         <v>122</v>
       </c>
       <c r="M13"/>
-      <c r="N13"/>
       <c r="O13" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P13" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49580,13 +49826,12 @@
         <v>123</v>
       </c>
       <c r="M14"/>
-      <c r="N14"/>
       <c r="O14" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P14" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49622,13 +49867,12 @@
         <v>124</v>
       </c>
       <c r="M15"/>
-      <c r="N15"/>
       <c r="O15" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P15" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49664,13 +49908,12 @@
         <v>125</v>
       </c>
       <c r="M16"/>
-      <c r="N16"/>
       <c r="O16" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P16" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49706,13 +49949,12 @@
         <v>126</v>
       </c>
       <c r="M17"/>
-      <c r="N17"/>
       <c r="O17" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P17" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49748,13 +49990,12 @@
         <v>127</v>
       </c>
       <c r="M18"/>
-      <c r="N18"/>
       <c r="O18" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P18" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49790,13 +50031,12 @@
         <v>129</v>
       </c>
       <c r="M19"/>
-      <c r="N19"/>
       <c r="O19" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P19" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49832,13 +50072,12 @@
         <v>67</v>
       </c>
       <c r="M20"/>
-      <c r="N20"/>
       <c r="O20" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P20" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49874,13 +50113,12 @@
         <v>67</v>
       </c>
       <c r="M21"/>
-      <c r="N21"/>
       <c r="O21" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P21" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49916,13 +50154,12 @@
         <v>103</v>
       </c>
       <c r="M22"/>
-      <c r="N22"/>
       <c r="O22" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P22" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -49966,15 +50203,15 @@
       <c r="M23">
         <v>26000</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>650000</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P23" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50010,13 +50247,12 @@
         <v>133</v>
       </c>
       <c r="M24"/>
-      <c r="N24"/>
       <c r="O24" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P24" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50052,13 +50288,12 @@
         <v>135</v>
       </c>
       <c r="M25"/>
-      <c r="N25"/>
       <c r="O25" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P25" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50094,13 +50329,12 @@
         <v>51</v>
       </c>
       <c r="M26"/>
-      <c r="N26"/>
       <c r="O26" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P26" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50136,13 +50370,12 @@
         <v>138</v>
       </c>
       <c r="M27"/>
-      <c r="N27"/>
       <c r="O27" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P27" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50178,13 +50411,12 @@
         <v>140</v>
       </c>
       <c r="M28"/>
-      <c r="N28"/>
       <c r="O28" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P28" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50220,13 +50452,12 @@
         <v>142</v>
       </c>
       <c r="M29"/>
-      <c r="N29"/>
       <c r="O29" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P29" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50262,13 +50493,12 @@
         <v>144</v>
       </c>
       <c r="M30"/>
-      <c r="N30"/>
       <c r="O30" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P30" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50304,13 +50534,12 @@
         <v>146</v>
       </c>
       <c r="M31"/>
-      <c r="N31"/>
       <c r="O31" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P31" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50354,15 +50583,15 @@
       <c r="M32">
         <v>26000</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="5">
         <v>260000</v>
       </c>
       <c r="O32" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P32" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50406,15 +50635,15 @@
       <c r="M33">
         <v>26000</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="5">
         <v>2600000</v>
       </c>
       <c r="O33" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P33" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50450,13 +50679,12 @@
         <v>150</v>
       </c>
       <c r="M34"/>
-      <c r="N34"/>
       <c r="O34" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P34" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50492,13 +50720,12 @@
         <v>151</v>
       </c>
       <c r="M35"/>
-      <c r="N35"/>
       <c r="O35" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P35" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50534,13 +50761,12 @@
         <v>153</v>
       </c>
       <c r="M36"/>
-      <c r="N36"/>
       <c r="O36" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P36" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50576,13 +50802,12 @@
         <v>155</v>
       </c>
       <c r="M37"/>
-      <c r="N37"/>
       <c r="O37" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P37" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50618,13 +50843,12 @@
         <v>157</v>
       </c>
       <c r="M38"/>
-      <c r="N38"/>
       <c r="O38" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P38" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50660,13 +50884,12 @@
         <v>159</v>
       </c>
       <c r="M39"/>
-      <c r="N39"/>
       <c r="O39" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P39" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50702,13 +50925,12 @@
         <v>161</v>
       </c>
       <c r="M40"/>
-      <c r="N40"/>
       <c r="O40" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P40" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50744,13 +50966,12 @@
         <v>163</v>
       </c>
       <c r="M41"/>
-      <c r="N41"/>
       <c r="O41" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P41" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50786,13 +51007,12 @@
         <v>164</v>
       </c>
       <c r="M42"/>
-      <c r="N42"/>
       <c r="O42" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P42" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50828,13 +51048,12 @@
         <v>99</v>
       </c>
       <c r="M43"/>
-      <c r="N43"/>
       <c r="O43" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P43" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50870,13 +51089,12 @@
         <v>67</v>
       </c>
       <c r="M44"/>
-      <c r="N44"/>
       <c r="O44" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P44" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50912,13 +51130,12 @@
         <v>167</v>
       </c>
       <c r="M45"/>
-      <c r="N45"/>
       <c r="O45" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P45" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50954,13 +51171,12 @@
         <v>169</v>
       </c>
       <c r="M46"/>
-      <c r="N46"/>
       <c r="O46" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P46" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -50996,13 +51212,12 @@
         <v>101</v>
       </c>
       <c r="M47"/>
-      <c r="N47"/>
       <c r="O47" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P47" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51038,13 +51253,12 @@
         <v>106</v>
       </c>
       <c r="M48"/>
-      <c r="N48"/>
       <c r="O48" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P48" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51080,13 +51294,12 @@
         <v>29</v>
       </c>
       <c r="M49"/>
-      <c r="N49"/>
       <c r="O49" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P49" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51122,13 +51335,12 @@
         <v>29</v>
       </c>
       <c r="M50"/>
-      <c r="N50"/>
       <c r="O50" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P50" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51164,13 +51376,12 @@
         <v>174</v>
       </c>
       <c r="M51"/>
-      <c r="N51"/>
       <c r="O51" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P51" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51214,15 +51425,15 @@
       <c r="M52">
         <v>10250</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="5">
         <v>10250</v>
       </c>
       <c r="O52" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P52" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51258,13 +51469,12 @@
         <v>177</v>
       </c>
       <c r="M53"/>
-      <c r="N53"/>
       <c r="O53" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P53" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51300,13 +51510,12 @@
         <v>178</v>
       </c>
       <c r="M54"/>
-      <c r="N54"/>
       <c r="O54" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P54" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51342,13 +51551,12 @@
         <v>180</v>
       </c>
       <c r="M55"/>
-      <c r="N55"/>
       <c r="O55" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P55" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51384,13 +51592,12 @@
         <v>181</v>
       </c>
       <c r="M56"/>
-      <c r="N56"/>
       <c r="O56" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P56" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51426,13 +51633,12 @@
         <v>178</v>
       </c>
       <c r="M57"/>
-      <c r="N57"/>
       <c r="O57" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P57" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51468,13 +51674,12 @@
         <v>180</v>
       </c>
       <c r="M58"/>
-      <c r="N58"/>
       <c r="O58" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P58" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51510,13 +51715,12 @@
         <v>184</v>
       </c>
       <c r="M59"/>
-      <c r="N59"/>
       <c r="O59" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P59" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51552,13 +51756,12 @@
         <v>67</v>
       </c>
       <c r="M60"/>
-      <c r="N60"/>
       <c r="O60" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P60" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51594,13 +51797,12 @@
         <v>186</v>
       </c>
       <c r="M61"/>
-      <c r="N61"/>
       <c r="O61" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P61" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51636,13 +51838,12 @@
         <v>106</v>
       </c>
       <c r="M62"/>
-      <c r="N62"/>
       <c r="O62" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P62" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51678,13 +51879,12 @@
         <v>106</v>
       </c>
       <c r="M63"/>
-      <c r="N63"/>
       <c r="O63" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P63" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51720,13 +51920,12 @@
         <v>51</v>
       </c>
       <c r="M64"/>
-      <c r="N64"/>
       <c r="O64" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P64" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51762,13 +51961,12 @@
         <v>29</v>
       </c>
       <c r="M65"/>
-      <c r="N65"/>
       <c r="O65" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P65" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51804,13 +52002,12 @@
         <v>29</v>
       </c>
       <c r="M66"/>
-      <c r="N66"/>
       <c r="O66" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P66" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51846,13 +52043,12 @@
         <v>101</v>
       </c>
       <c r="M67"/>
-      <c r="N67"/>
       <c r="O67" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P67" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51888,13 +52084,12 @@
         <v>106</v>
       </c>
       <c r="M68"/>
-      <c r="N68"/>
       <c r="O68" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P68" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51938,15 +52133,15 @@
       <c r="M69">
         <v>26000</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="5">
         <v>26000</v>
       </c>
       <c r="O69" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P69" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -51982,13 +52177,12 @@
         <v>195</v>
       </c>
       <c r="M70"/>
-      <c r="N70"/>
       <c r="O70" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P70" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52024,13 +52218,12 @@
         <v>197</v>
       </c>
       <c r="M71"/>
-      <c r="N71"/>
       <c r="O71" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P71" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52066,13 +52259,12 @@
         <v>67</v>
       </c>
       <c r="M72"/>
-      <c r="N72"/>
       <c r="O72" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P72" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52108,13 +52300,12 @@
         <v>200</v>
       </c>
       <c r="M73"/>
-      <c r="N73"/>
       <c r="O73" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P73" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52150,13 +52341,12 @@
         <v>67</v>
       </c>
       <c r="M74"/>
-      <c r="N74"/>
       <c r="O74" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P74" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52192,13 +52382,12 @@
         <v>83</v>
       </c>
       <c r="M75"/>
-      <c r="N75"/>
       <c r="O75" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P75" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52234,13 +52423,12 @@
         <v>83</v>
       </c>
       <c r="M76"/>
-      <c r="N76"/>
       <c r="O76" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P76" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52276,13 +52464,12 @@
         <v>205</v>
       </c>
       <c r="M77"/>
-      <c r="N77"/>
       <c r="O77" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P77" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52326,15 +52513,15 @@
       <c r="M78">
         <v>10750</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="5">
         <v>10750</v>
       </c>
       <c r="O78" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P78" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52370,13 +52557,12 @@
         <v>208</v>
       </c>
       <c r="M79"/>
-      <c r="N79"/>
       <c r="O79" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P79" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52420,15 +52606,15 @@
       <c r="M80">
         <v>26000</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="5">
         <v>130000</v>
       </c>
       <c r="O80" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P80" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52472,15 +52658,15 @@
       <c r="M81">
         <v>26000</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="5">
         <v>26000</v>
       </c>
       <c r="O81" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P81" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52516,13 +52702,12 @@
         <v>83</v>
       </c>
       <c r="M82"/>
-      <c r="N82"/>
       <c r="O82" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P82" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52558,13 +52743,12 @@
         <v>213</v>
       </c>
       <c r="M83"/>
-      <c r="N83"/>
       <c r="O83" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P83" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52600,13 +52784,12 @@
         <v>215</v>
       </c>
       <c r="M84"/>
-      <c r="N84"/>
       <c r="O84" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P84" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52650,15 +52833,15 @@
       <c r="M85">
         <v>10750</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="5">
         <v>10750</v>
       </c>
       <c r="O85" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P85" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52702,15 +52885,15 @@
       <c r="M86">
         <v>26000</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="5">
         <v>26000</v>
       </c>
       <c r="O86" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P86" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
@@ -52746,1258 +52929,2905 @@
         <v>216</v>
       </c>
       <c r="M87"/>
-      <c r="N87"/>
       <c r="O87" s="36" t="str">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
       <c r="P87" s="36" t="str">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A88" s="1"/>
-      <c r="O88" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P88" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A88" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88">
+        <v>784520555</v>
+      </c>
+      <c r="G88" t="s">
+        <v>219</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O88" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P88" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A89" s="1"/>
-      <c r="O89" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P89" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="89" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89">
+        <v>783758073</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K89" t="s">
+        <v>224</v>
+      </c>
+      <c r="L89">
+        <v>25</v>
+      </c>
+      <c r="M89" s="5">
+        <v>19500</v>
+      </c>
+      <c r="N89" s="5">
+        <v>487500</v>
+      </c>
+      <c r="O89" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P89" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A90" s="1"/>
-      <c r="O90" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P90" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A90" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90">
+        <v>775218959</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K90" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" s="5">
+        <v>10250</v>
+      </c>
+      <c r="N90" s="5">
+        <v>10250</v>
+      </c>
+      <c r="O90" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P90" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A91" s="1"/>
-      <c r="O91" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P91" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A91" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91">
+        <v>772325282</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P91" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A92" s="1"/>
-      <c r="O92" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P92" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A92" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92">
+        <v>770343860</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O92" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P92" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A93" s="1"/>
-      <c r="O93" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P93" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A93" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93">
+        <v>763739110</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P93" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A94" s="1"/>
-      <c r="O94" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P94" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A94" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>226</v>
+      </c>
+      <c r="F94">
+        <v>763795076</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K94" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94">
+        <v>25</v>
+      </c>
+      <c r="M94" s="5">
+        <v>26000</v>
+      </c>
+      <c r="N94" s="5">
+        <v>650000</v>
+      </c>
+      <c r="O94" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P94" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A95" s="1"/>
-      <c r="O95" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P95" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A95" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95">
+        <v>763795076</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O95" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P95" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A96" s="1"/>
-      <c r="O96" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P96" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A96" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96">
+        <v>767379110</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O96" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P96" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A97" s="1"/>
-      <c r="O97" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P97" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A97" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97">
+        <v>768136454</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P97" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A98" s="1"/>
-      <c r="O98" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P98" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A98" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98">
+        <v>772773318</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O98" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P98" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A99" s="1"/>
-      <c r="O99" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P99" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A99" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99">
+        <v>786543737</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O99" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P99" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A100" s="1"/>
-      <c r="O100" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P100" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="100" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100">
+        <v>778722043</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="O100" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P100" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A101" s="1"/>
-      <c r="O101" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P101" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A101" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101">
+        <v>773752191</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O101" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P101" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A102" s="1"/>
-      <c r="O102" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P102" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="102" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
+        <v>228</v>
+      </c>
+      <c r="F102">
+        <v>775669353</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O102" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P102" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A103" s="1"/>
-      <c r="O103" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P103" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="103" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103">
+        <v>774993694</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K103" t="s">
+        <v>224</v>
+      </c>
+      <c r="L103">
+        <v>25</v>
+      </c>
+      <c r="M103" s="5">
+        <v>19500</v>
+      </c>
+      <c r="N103" s="5">
+        <v>487500</v>
+      </c>
+      <c r="O103" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P103" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A104" s="1"/>
-      <c r="O104" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P104" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="104" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="F104">
+        <v>774415358</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O104" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P104" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A105" s="1"/>
-      <c r="O105" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P105" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A105" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>242</v>
+      </c>
+      <c r="F105">
+        <v>760169386</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L105">
+        <v>25</v>
+      </c>
+      <c r="M105" s="5">
+        <v>26000</v>
+      </c>
+      <c r="N105" s="5">
+        <v>650000</v>
+      </c>
+      <c r="O105" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P105" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A106" s="1"/>
-      <c r="O106" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P106" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="106" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106">
+        <v>774289051</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O106" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P106" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A107" s="1"/>
-      <c r="O107" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P107" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A107" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>245</v>
+      </c>
+      <c r="F107">
+        <v>775793242</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O107" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P107" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A108" s="1"/>
-      <c r="O108" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P108" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A108" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" t="s">
+        <v>248</v>
+      </c>
+      <c r="F108">
+        <v>776294931</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O108" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P108" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A109" s="1"/>
-      <c r="O109" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P109" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="109" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109">
+        <v>770957258</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="O109" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P109" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A110" s="1"/>
-      <c r="O110" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P110" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="110" spans="1:16" ht="57" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110">
+        <v>778610692</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O110" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P110" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A111" s="1"/>
-      <c r="O111" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P111" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A111" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>247</v>
+      </c>
+      <c r="E111" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111">
+        <v>781282357</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111">
+        <v>50</v>
+      </c>
+      <c r="M111" s="5">
+        <v>26000</v>
+      </c>
+      <c r="N111" s="5">
+        <v>1300000</v>
+      </c>
+      <c r="O111" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P111" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A112" s="1"/>
-      <c r="O112" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P112" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="112" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" t="s">
+        <v>255</v>
+      </c>
+      <c r="F112">
+        <v>770290375</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O112" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P112" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A113" s="1"/>
-      <c r="O113" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P113" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A113" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" t="s">
+        <v>257</v>
+      </c>
+      <c r="F113">
+        <v>774190976</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O113" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P113" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A114" s="1"/>
-      <c r="J114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P114" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A114" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" t="s">
+        <v>259</v>
+      </c>
+      <c r="F114">
+        <v>773531341</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" t="s">
+        <v>224</v>
+      </c>
+      <c r="L114">
+        <v>25</v>
+      </c>
+      <c r="M114">
+        <v>19500</v>
+      </c>
+      <c r="N114" s="5">
+        <v>487500</v>
+      </c>
+      <c r="O114" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P114" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A115" s="1"/>
-      <c r="J115"/>
+    <row r="115" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" t="s">
+        <v>247</v>
+      </c>
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115">
+        <v>773759880</v>
+      </c>
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P115" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O115" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P115" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A116" s="1"/>
-      <c r="J116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P116" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A116" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" t="s">
+        <v>147</v>
+      </c>
+      <c r="F116">
+        <v>776180875</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <v>26000</v>
+      </c>
+      <c r="N116" s="5">
+        <v>260000</v>
+      </c>
+      <c r="O116" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P116" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A117" s="1"/>
-      <c r="J117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P117" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A117" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117">
+        <v>774245132</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L117">
+        <v>25</v>
+      </c>
+      <c r="M117">
+        <v>26000</v>
+      </c>
+      <c r="N117" s="5">
+        <v>650000</v>
+      </c>
+      <c r="O117" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P117" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A118" s="1"/>
-      <c r="J118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P118" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A118" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" t="s">
+        <v>247</v>
+      </c>
+      <c r="E118" t="s">
+        <v>259</v>
+      </c>
+      <c r="F118">
+        <v>773531341</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" t="s">
+        <v>224</v>
+      </c>
+      <c r="L118">
+        <v>25</v>
+      </c>
+      <c r="M118">
+        <v>19500</v>
+      </c>
+      <c r="N118" s="5">
+        <v>487500</v>
+      </c>
+      <c r="O118" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P118" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A119" s="1"/>
-      <c r="J119"/>
+      <c r="A119" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>217</v>
+      </c>
+      <c r="E119" t="s">
+        <v>262</v>
+      </c>
+      <c r="F119">
+        <v>775564814</v>
+      </c>
+      <c r="G119" t="s">
+        <v>219</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P119" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O119" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P119" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A120" s="1"/>
-      <c r="J120"/>
+      <c r="A120" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" t="s">
+        <v>264</v>
+      </c>
+      <c r="F120">
+        <v>781757464</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P120" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O120" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P120" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A121" s="1"/>
-      <c r="J121"/>
+    <row r="121" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" t="s">
+        <v>265</v>
+      </c>
+      <c r="F121">
+        <v>777132186</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="M121"/>
-      <c r="N121"/>
-      <c r="O121" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P121" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O121" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P121" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A122" s="1"/>
-      <c r="J122"/>
+      <c r="A122" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" t="s">
+        <v>268</v>
+      </c>
+      <c r="F122">
+        <v>778420348</v>
+      </c>
+      <c r="G122" t="s">
+        <v>269</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P122" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O122" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P122" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A123" s="1"/>
-      <c r="J123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P123" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A123" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123">
+        <v>774521282</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>28</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L123">
+        <v>9</v>
+      </c>
+      <c r="M123">
+        <v>26000</v>
+      </c>
+      <c r="N123" s="5">
+        <v>234000</v>
+      </c>
+      <c r="O123" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P123" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A124" s="1"/>
-      <c r="J124"/>
+      <c r="A124" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124" t="s">
+        <v>273</v>
+      </c>
+      <c r="F124">
+        <v>773739328</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P124" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O124" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P124" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A125" s="1"/>
-      <c r="J125"/>
+    <row r="125" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125" t="s">
+        <v>274</v>
+      </c>
+      <c r="F125">
+        <v>772304013</v>
+      </c>
+      <c r="G125" t="s">
+        <v>219</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P125" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O125" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P125" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A126" s="1"/>
-      <c r="J126"/>
+    <row r="126" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" t="s">
+        <v>276</v>
+      </c>
+      <c r="F126">
+        <v>784364814</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P126" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O126" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P126" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A127" s="1"/>
-      <c r="J127"/>
+      <c r="A127" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" t="s">
+        <v>217</v>
+      </c>
+      <c r="E127" t="s">
+        <v>278</v>
+      </c>
+      <c r="F127">
+        <v>775038524</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M127"/>
-      <c r="N127"/>
-      <c r="O127" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P127" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O127" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P127" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A128" s="1"/>
-      <c r="J128"/>
+      <c r="A128" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>217</v>
+      </c>
+      <c r="E128" t="s">
+        <v>279</v>
+      </c>
+      <c r="F128">
+        <v>773641828</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="M128"/>
-      <c r="N128"/>
-      <c r="O128" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P128" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O128" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P128" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A129" s="1"/>
-      <c r="J129"/>
+      <c r="A129" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>217</v>
+      </c>
+      <c r="E129" t="s">
+        <v>183</v>
+      </c>
+      <c r="F129">
+        <v>763198632</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P129" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O129" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P129" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A130" s="1"/>
-      <c r="J130"/>
+      <c r="A130" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" t="s">
+        <v>281</v>
+      </c>
+      <c r="F130">
+        <v>784551637</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P130" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O130" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P130" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A131" s="1"/>
-      <c r="J131"/>
+      <c r="A131" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131">
+        <v>777929047</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P131" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O131" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P131" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A132" s="1"/>
-      <c r="J132"/>
+      <c r="A132" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>217</v>
+      </c>
+      <c r="E132" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132">
+        <v>770509812</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P132" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O132" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P132" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A133" s="1"/>
-      <c r="J133"/>
+      <c r="A133" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>217</v>
+      </c>
+      <c r="E133" t="s">
+        <v>285</v>
+      </c>
+      <c r="F133">
+        <v>775649041</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M133"/>
-      <c r="N133"/>
-      <c r="O133" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P133" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O133" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P133" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A134" s="1"/>
-      <c r="J134"/>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P134" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+    <row r="134" spans="1:16" ht="114" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" t="s">
+        <v>271</v>
+      </c>
+      <c r="E134" t="s">
+        <v>286</v>
+      </c>
+      <c r="F134">
+        <v>771355863</v>
+      </c>
+      <c r="G134" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>28</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K134" t="s">
+        <v>27</v>
+      </c>
+      <c r="L134">
+        <v>25</v>
+      </c>
+      <c r="M134">
+        <v>26000</v>
+      </c>
+      <c r="N134" s="5">
+        <v>650000</v>
+      </c>
+      <c r="O134" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P134" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A135" s="1"/>
-      <c r="J135"/>
+      <c r="A135" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" t="s">
+        <v>271</v>
+      </c>
+      <c r="E135" t="s">
+        <v>288</v>
+      </c>
+      <c r="F135">
+        <v>778147708</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P135" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O135" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P135" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A136" s="1"/>
-      <c r="J136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P136" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A136" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>31</v>
+      </c>
+      <c r="D136" t="s">
+        <v>271</v>
+      </c>
+      <c r="E136" t="s">
+        <v>290</v>
+      </c>
+      <c r="F136">
+        <v>776193016</v>
+      </c>
+      <c r="G136" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>28</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K136" t="s">
+        <v>27</v>
+      </c>
+      <c r="L136">
+        <v>25</v>
+      </c>
+      <c r="M136">
+        <v>26000</v>
+      </c>
+      <c r="N136" s="5">
+        <v>650000</v>
+      </c>
+      <c r="O136" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P136" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A137" s="1"/>
-      <c r="J137"/>
+      <c r="A137" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137" t="s">
+        <v>271</v>
+      </c>
+      <c r="E137" t="s">
+        <v>292</v>
+      </c>
+      <c r="F137">
+        <v>775586319</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P137" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O137" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P137" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A138" s="1"/>
-      <c r="J138"/>
+      <c r="A138" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" t="s">
+        <v>217</v>
+      </c>
+      <c r="E138" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138">
+        <v>781627979</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P138" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O138" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P138" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A139" s="1"/>
-      <c r="J139"/>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P139" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A139" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>31</v>
+      </c>
+      <c r="D139" t="s">
+        <v>271</v>
+      </c>
+      <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139">
+        <v>774521282</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" t="s">
+        <v>28</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K139" t="s">
+        <v>224</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>19500</v>
+      </c>
+      <c r="N139" s="5">
+        <v>19500</v>
+      </c>
+      <c r="O139" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P139" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A140" s="1"/>
-      <c r="J140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P140" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A140" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" t="s">
+        <v>294</v>
+      </c>
+      <c r="F140">
+        <v>770188526</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>28</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K140" t="s">
+        <v>27</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>26000</v>
+      </c>
+      <c r="N140" s="5">
+        <v>26000</v>
+      </c>
+      <c r="O140" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P140" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A141" s="1"/>
-      <c r="J141"/>
+      <c r="A141" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>267</v>
+      </c>
+      <c r="E141" t="s">
+        <v>295</v>
+      </c>
+      <c r="F141">
+        <v>781681995</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="M141"/>
-      <c r="N141"/>
-      <c r="O141" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P141" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O141" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P141" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A142" s="1"/>
-      <c r="J142"/>
+      <c r="A142" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" t="s">
+        <v>271</v>
+      </c>
+      <c r="E142" t="s">
+        <v>297</v>
+      </c>
+      <c r="F142">
+        <v>774445778</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P142" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O142" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P142" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A143" s="1"/>
-      <c r="J143"/>
+      <c r="A143" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>267</v>
+      </c>
+      <c r="E143" t="s">
+        <v>299</v>
+      </c>
+      <c r="F143">
+        <v>783844997</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="M143"/>
-      <c r="N143"/>
-      <c r="O143" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P143" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O143" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P143" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A144" s="1"/>
-      <c r="J144"/>
+      <c r="A144" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>267</v>
+      </c>
+      <c r="E144" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144">
+        <v>770571683</v>
+      </c>
+      <c r="G144" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P144" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O144" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P144" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A145" s="1"/>
-      <c r="J145"/>
+    <row r="145" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>267</v>
+      </c>
+      <c r="E145" t="s">
+        <v>301</v>
+      </c>
+      <c r="F145">
+        <v>783740441</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="M145"/>
-      <c r="N145"/>
-      <c r="O145" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P145" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O145" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P145" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A146" s="1"/>
-      <c r="J146"/>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P146" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A146" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" t="s">
+        <v>271</v>
+      </c>
+      <c r="E146" t="s">
+        <v>294</v>
+      </c>
+      <c r="F146">
+        <v>770188526</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>28</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K146" t="s">
+        <v>224</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>19500</v>
+      </c>
+      <c r="N146" s="5">
+        <v>19500</v>
+      </c>
+      <c r="O146" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P146" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A147" s="1"/>
-      <c r="J147"/>
+      <c r="A147" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" t="s">
+        <v>271</v>
+      </c>
+      <c r="E147" t="s">
+        <v>303</v>
+      </c>
+      <c r="F147">
+        <v>777422663</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P147" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O147" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P147" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A148" s="1"/>
-      <c r="J148"/>
+      <c r="A148" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" t="s">
+        <v>271</v>
+      </c>
+      <c r="E148" t="s">
+        <v>305</v>
+      </c>
+      <c r="F148">
+        <v>771570266</v>
+      </c>
+      <c r="G148" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="M148"/>
-      <c r="N148"/>
-      <c r="O148" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P148" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O148" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P148" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A149" s="1"/>
-      <c r="J149"/>
+      <c r="A149" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" t="s">
+        <v>271</v>
+      </c>
+      <c r="E149" t="s">
+        <v>307</v>
+      </c>
+      <c r="F149">
+        <v>774161282</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="M149"/>
-      <c r="N149"/>
-      <c r="O149" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P149" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O149" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P149" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A150" s="1"/>
-      <c r="J150"/>
+      <c r="A150" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" t="s">
+        <v>271</v>
+      </c>
+      <c r="E150" t="s">
+        <v>309</v>
+      </c>
+      <c r="F150">
+        <v>775361612</v>
+      </c>
+      <c r="G150" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P150" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O150" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P150" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A151" s="1"/>
-      <c r="J151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P151" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A151" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" t="s">
+        <v>271</v>
+      </c>
+      <c r="E151" t="s">
+        <v>305</v>
+      </c>
+      <c r="F151">
+        <v>775717613</v>
+      </c>
+      <c r="G151" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" t="s">
+        <v>28</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K151" t="s">
+        <v>27</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>26000</v>
+      </c>
+      <c r="N151" s="5">
+        <v>52000</v>
+      </c>
+      <c r="O151" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P151" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A152" s="1"/>
-      <c r="J152"/>
+      <c r="A152" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" t="s">
+        <v>271</v>
+      </c>
+      <c r="E152" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152">
+        <v>771961441</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P152" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="O152" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P152" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A153" s="1"/>
-      <c r="J153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P153" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A154" s="1"/>
-      <c r="J154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P154" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A155" s="1"/>
-      <c r="J155"/>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P155" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A156" s="1"/>
-      <c r="J156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P156" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A157" s="1"/>
-      <c r="J157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P157" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A158" s="1"/>
-      <c r="J158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P158" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A159" s="1"/>
-      <c r="J159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P159" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A160" s="1"/>
-      <c r="J160"/>
-      <c r="M160"/>
-      <c r="N160"/>
-      <c r="O160" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P160" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A161" s="1"/>
-      <c r="J161"/>
-      <c r="M161"/>
-      <c r="N161"/>
-      <c r="O161" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P161" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A162" s="1"/>
-      <c r="J162"/>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P162" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A163" s="1"/>
-      <c r="J163"/>
-      <c r="M163"/>
-      <c r="N163"/>
-      <c r="O163" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P163" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A164" s="1"/>
-      <c r="J164"/>
-      <c r="M164"/>
-      <c r="N164"/>
-      <c r="O164" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P164" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A165" s="1"/>
-      <c r="J165"/>
-      <c r="M165"/>
-      <c r="N165"/>
-      <c r="O165" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P165" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A166" s="1"/>
-      <c r="J166"/>
-      <c r="M166"/>
-      <c r="N166"/>
-      <c r="O166" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P166" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A167" s="1"/>
-      <c r="J167"/>
-      <c r="M167"/>
-      <c r="N167"/>
-      <c r="O167" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P167" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A168" s="1"/>
-      <c r="J168"/>
-      <c r="M168"/>
-      <c r="N168"/>
-      <c r="O168" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P168" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A169" s="1"/>
-      <c r="J169"/>
-      <c r="M169"/>
-      <c r="N169"/>
-      <c r="O169" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P169" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A170" s="1"/>
-      <c r="J170"/>
-      <c r="M170"/>
-      <c r="N170"/>
-      <c r="O170" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P170" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A171" s="1"/>
-      <c r="J171"/>
-      <c r="M171"/>
-      <c r="N171"/>
-      <c r="O171" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P171" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A172" s="1"/>
-      <c r="J172"/>
-      <c r="M172"/>
-      <c r="N172"/>
-      <c r="O172" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P172" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A173" s="1"/>
-      <c r="J173"/>
-      <c r="M173"/>
-      <c r="N173"/>
-      <c r="O173" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P173" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A174" s="1"/>
-      <c r="J174"/>
-      <c r="M174"/>
-      <c r="N174"/>
-      <c r="O174" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P174" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A175" s="1"/>
-      <c r="J175"/>
-      <c r="M175"/>
-      <c r="N175"/>
-      <c r="O175" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P175" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A176" s="1"/>
-      <c r="J176"/>
-      <c r="M176"/>
-      <c r="N176"/>
-      <c r="O176" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P176" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A177" s="1"/>
-      <c r="J177"/>
-      <c r="M177"/>
-      <c r="N177"/>
-      <c r="O177" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P177" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A178" s="1"/>
-      <c r="O178" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P178" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A179" s="1"/>
-      <c r="O179" s="35" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P179" s="35" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A180" s="1"/>
-      <c r="O180" s="36" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P180" s="36" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A181" s="1"/>
-      <c r="O181" s="36" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P181" s="36" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A182" s="1"/>
-      <c r="O182" s="36" t="e">
-        <f>"S"&amp;_xlfn.ISOWEEKNUM([1]!Semaine_1[[#This Row],[Date]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P182" s="36" t="e">
-        <f>TEXT([1]!Semaine_1[[#This Row],[Date]],"MMMM")</f>
-        <v>#VALUE!</v>
+      <c r="A153" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
+        <v>271</v>
+      </c>
+      <c r="E153" t="s">
+        <v>312</v>
+      </c>
+      <c r="F153">
+        <v>774061052</v>
+      </c>
+      <c r="G153" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>28</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K153" t="s">
+        <v>27</v>
+      </c>
+      <c r="L153">
+        <v>50</v>
+      </c>
+      <c r="M153">
+        <v>26000</v>
+      </c>
+      <c r="N153" s="5">
+        <v>1300000</v>
+      </c>
+      <c r="O153" s="35" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P153" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -55142,46 +56972,46 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57155,46 +58985,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C91AD0-F8BF-4589-ABFC-51EE93004915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6223A-13BC-4039-800F-13AB5898F689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="0" r:id="rId5"/>
+        <pivotCache cacheId="16" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="437">
   <si>
     <t>Date</t>
   </si>
@@ -1004,6 +1004,378 @@
   <si>
     <t>Aliou Ba</t>
   </si>
+  <si>
+    <t>Pikine Tally Bou Mak</t>
+  </si>
+  <si>
+    <t>Atou Ndiaye</t>
+  </si>
+  <si>
+    <t>Li dit que je repasser une autre semaine</t>
+  </si>
+  <si>
+    <t>Mor tala</t>
+  </si>
+  <si>
+    <t>Son estok n'est pas terminé</t>
+  </si>
+  <si>
+    <t>Moutare</t>
+  </si>
+  <si>
+    <t>liu interece sur les pots 200g et 50g  mais je repasser une autre semaine</t>
+  </si>
+  <si>
+    <t>Fallou  kebe</t>
+  </si>
+  <si>
+    <t>Son estoc nepa encore fini</t>
+  </si>
+  <si>
+    <t>Li n'avait pas de programmes</t>
+  </si>
+  <si>
+    <t>Cheikh Tidiane</t>
+  </si>
+  <si>
+    <t>il toujours à touba</t>
+  </si>
+  <si>
+    <t>Modou Gueye</t>
+  </si>
+  <si>
+    <t>Li ne interece pas du produit</t>
+  </si>
+  <si>
+    <t>Baye zale</t>
+  </si>
+  <si>
+    <t>Pour essayer</t>
+  </si>
+  <si>
+    <t>liu dit que je repasser à demain inchalah</t>
+  </si>
+  <si>
+    <t>Grand Dakar</t>
+  </si>
+  <si>
+    <t>Wane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commande à livrer le jeudi 21 Août inchallah </t>
+  </si>
+  <si>
+    <t>Sakina Distribution</t>
+  </si>
+  <si>
+    <t>Fallou</t>
+  </si>
+  <si>
+    <t>Bobo Diallo</t>
+  </si>
+  <si>
+    <t>Oumar Diallo</t>
+  </si>
+  <si>
+    <t>Yéne</t>
+  </si>
+  <si>
+    <t>Dieng et Frères</t>
+  </si>
+  <si>
+    <t>Il y'a deux de nos produits achetés chez ndiaye et fréres et dit que c'est moins chère</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Pour le café il préfère les autres qui sont moins chère</t>
+  </si>
+  <si>
+    <t>Abdallah Aïdara</t>
+  </si>
+  <si>
+    <t>Il a le Nescafé et Ginny en stock</t>
+  </si>
+  <si>
+    <t>Ousmane</t>
+  </si>
+  <si>
+    <t>Pour les pots de café il préfère les autres les moins chère</t>
+  </si>
+  <si>
+    <t>Il avait commandé quelques cartons de refaish 1,5 et 200et 50g</t>
+  </si>
+  <si>
+    <t>Ismaïla</t>
+  </si>
+  <si>
+    <t>En ce moment il a le café Ginny en stock et refraish 1,5</t>
+  </si>
+  <si>
+    <t>Badou</t>
+  </si>
+  <si>
+    <t>Il est fourni par Ousmane</t>
+  </si>
+  <si>
+    <t>Il veut commander mais de l'argent</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Il a toujours de stock de nos produits</t>
+  </si>
+  <si>
+    <t>Médina</t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>Mbaye  Diop</t>
+  </si>
+  <si>
+    <t>liu me demande le kamlac évaporé</t>
+  </si>
+  <si>
+    <t>Moussa kane</t>
+  </si>
+  <si>
+    <t>Il est servi maintenant par Ismaïla</t>
+  </si>
+  <si>
+    <t>Babacar</t>
+  </si>
+  <si>
+    <t>liu est sorti</t>
+  </si>
+  <si>
+    <t>Terminus 54</t>
+  </si>
+  <si>
+    <t>Fallou Sarr</t>
+  </si>
+  <si>
+    <t>Lamarana BA</t>
+  </si>
+  <si>
+    <t>liu dit que je repasser une autre jour</t>
+  </si>
+  <si>
+    <t>Diop et Frères</t>
+  </si>
+  <si>
+    <t>Il était sorti</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Va me rappeler</t>
+  </si>
+  <si>
+    <t>Amadou</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Il est en déménagement et demande de revenir d'ici quelques jours</t>
+  </si>
+  <si>
+    <t>Codou Mme Cissokho</t>
+  </si>
+  <si>
+    <t>Elle n'était pas présente</t>
+  </si>
+  <si>
+    <t>Saliou</t>
+  </si>
+  <si>
+    <t>C'est son frère qui passe les commandes et il est en déménagement</t>
+  </si>
+  <si>
+    <t>BABACAR Cissé</t>
+  </si>
+  <si>
+    <t>Il lui reste 04/2 cartons de refraich 200g et 03 cartons de refraich 50 g</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste reste 69 cartons de refraich stick et dit qu' il a des difficultés pour vendre les jus </t>
+  </si>
+  <si>
+    <t>Ba et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est sorti et il a acheté le café refraich </t>
+  </si>
+  <si>
+    <t>Abdourahmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste des produits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a acheté le café refraich stick chez Balla </t>
+  </si>
+  <si>
+    <t>Serigne Modou_1</t>
+  </si>
+  <si>
+    <t>Adama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est Balla qui lui livre les produits </t>
+  </si>
+  <si>
+    <t>HLM 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste du stock de janus </t>
+  </si>
+  <si>
+    <t>Ousmane Dramé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a acheté un carton de refraich 50g pour essayer </t>
+  </si>
+  <si>
+    <t>HLM 4</t>
+  </si>
+  <si>
+    <t>Bathie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il était sorti </t>
+  </si>
+  <si>
+    <t>Baye sy</t>
+  </si>
+  <si>
+    <t>HLM 5</t>
+  </si>
+  <si>
+    <t>Djiby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le patron était absent mais son aide vendeur mais demande de repasser demain </t>
+  </si>
+  <si>
+    <t>Pape Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le patron n'était pas présent </t>
+  </si>
+  <si>
+    <t>Guèye et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il achète chez Balla </t>
+  </si>
+  <si>
+    <t>Medoune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il achète pas par quantité et préfères acheté avec ses partenaires dans le marché </t>
+  </si>
+  <si>
+    <t>Bouba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est Balla qui lui livre nos café refraich </t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n'était pas présent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il avait acheté un carton de 50g refraich pour essayer mais jusqu'à présent ça reste </t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il va m'appeler </t>
+  </si>
+  <si>
+    <t>Cheikh Baldé</t>
+  </si>
+  <si>
+    <t>Abdou sow</t>
+  </si>
+  <si>
+    <t>Il lui 07 cartons de refraich 200v</t>
+  </si>
+  <si>
+    <t>BABACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que le patron n'était pas présent </t>
+  </si>
+  <si>
+    <t>Sada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il avait commender 5 cartons de refraich stick mais dit pour les pots de refraich c' est lend </t>
+  </si>
+  <si>
+    <t>Tonton Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il achète direct a l usine </t>
+  </si>
+  <si>
+    <t>AMADOU Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il ne vend pas nos produits </t>
+  </si>
+  <si>
+    <t>Pape Niang</t>
+  </si>
+  <si>
+    <t>Le patron est a assecna dans la zone de Ndack</t>
+  </si>
+  <si>
+    <t>MACTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste des café refraich stick et dit qu'il connait pas le nombre mais va m'appeler pour commender </t>
+  </si>
+  <si>
+    <t>Niang et frère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il vend que le café Altimo parmi nos produits </t>
+  </si>
+  <si>
+    <t>DJIBRIL laye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit que si le café refraich stick est disponible de l'appeler et pour nos autres produits il n'a pas commencé à les vendre </t>
+  </si>
+  <si>
+    <t>Salif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il était sortie </t>
+  </si>
+  <si>
+    <t>Abdou sow 1</t>
+  </si>
+  <si>
+    <t>Il dit qu'il va m'appeler pour passer sa commande de 200g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a besoin du café refraich stick et il a acheté un carton de 50g refraich pour essayer </t>
+  </si>
 </sst>
 </file>
 
@@ -1228,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,62 +1722,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="55">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1663,6 +1993,22 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="none">
@@ -1670,6 +2016,40 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -48816,8 +49196,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P153" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:P153" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P224" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:P224" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -48830,16 +49210,16 @@
     <tableColumn id="7" xr3:uid="{66D926A0-8C65-4D89-BA92-AA9653C7DE06}" name="Telephone_Client" dataDxfId="42"/>
     <tableColumn id="8" xr3:uid="{8D4D921E-310A-44FC-AA1D-F30B627C5984}" name="Type" dataDxfId="41"/>
     <tableColumn id="10" xr3:uid="{636AF8A9-C9D0-49B6-94C8-FFB87B44FA47}" name="Point_de_Vente" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{35E41B20-D7EB-4025-A9CC-62B85956ABCD}" name="Operation" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{AB905DE1-CC5E-4C11-8318-9C04B6D96EC3}" name="Commentaire" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{9BC88C3B-EEBD-4156-81CB-075746F3F057}" name="Produit" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{8DD706C4-BCF7-47C0-9913-F482F7A2F321}" name="Quantites" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{D96EE09E-B22B-4D75-AABE-AEBF7CE286A6}" name="Prix_Unitaire" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{B1727D51-96B6-4015-83C5-EBCAD96E9834}" name="Prix Total" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{9A2C6D78-CE06-4E13-B8E1-0CB92B201156}" name="Semaine" dataDxfId="33">
       <calculatedColumnFormula>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="4">
+    <tableColumn id="18" xr3:uid="{83F3E9A5-7911-47C6-B543-07173CE7D4B5}" name="Mois" dataDxfId="32">
       <calculatedColumnFormula>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48848,13 +49228,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}" name="Tableau1" displayName="Tableau1" ref="N4:O16" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="N4:O16" xr:uid="{6854A3D8-E42F-451E-8856-559FAB4924B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{CEE56010-D6CA-4D86-91A4-BAB59B6E4E54}" name="Produits" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(#REF!="(vide)",#REF!=0,Tableau1[[#This Row],[Quantités]]=""),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{F44570CC-29A2-4F96-8AB9-8C4E5A1F7A4D}" name="Quantités" dataDxfId="28">
       <calculatedColumnFormula>IF(#REF!=0,"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -48863,13 +49243,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}" name="Tableau14" displayName="Tableau14" ref="A35:B47" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A35:B47" xr:uid="{01333506-EAA4-4B44-932F-483882335F88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{BB5EE882-2CAC-47B5-9F48-14C826881580}" name="Produits" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{3D20976D-5104-468C-B3D0-3B35E0D006EE}" name="Quantités" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(#REF!=0,#REF!="(vide)"),"",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49216,10 +49596,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="H124" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134:N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54951,23 +55331,12 @@
         <v>19</v>
       </c>
       <c r="I134" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="K134" t="s">
-        <v>27</v>
-      </c>
-      <c r="L134">
-        <v>25</v>
-      </c>
-      <c r="M134">
-        <v>26000</v>
-      </c>
-      <c r="N134" s="5">
-        <v>650000</v>
-      </c>
+      <c r="M134"/>
       <c r="O134" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
@@ -55818,6 +56187,3170 @@
         <v>S34</v>
       </c>
       <c r="P153" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E154" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="F154" s="48">
+        <v>774230518</v>
+      </c>
+      <c r="G154" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="K154" s="48"/>
+      <c r="L154" s="48"/>
+      <c r="M154" s="50"/>
+      <c r="N154" s="50"/>
+      <c r="O154" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P154" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A155" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="F155" s="48">
+        <v>784872626</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="K155" s="48"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P155" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E156" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="F156" s="48">
+        <v>778080493</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="K156" s="48"/>
+      <c r="L156" s="48"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P156" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F157" s="48">
+        <v>775724732</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P157" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E158" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F158" s="48">
+        <v>774580822</v>
+      </c>
+      <c r="G158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K158" s="48"/>
+      <c r="L158" s="48"/>
+      <c r="M158" s="50"/>
+      <c r="N158" s="50"/>
+      <c r="O158" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P158" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="F159" s="48">
+        <v>707523461</v>
+      </c>
+      <c r="G159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K159" s="48"/>
+      <c r="L159" s="48"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="50"/>
+      <c r="O159" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P159" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" t="s">
+        <v>31</v>
+      </c>
+      <c r="D160" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E160" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="F160" s="48">
+        <v>338347554</v>
+      </c>
+      <c r="G160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="K160" s="48"/>
+      <c r="L160" s="48"/>
+      <c r="M160" s="50"/>
+      <c r="N160" s="50"/>
+      <c r="O160" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P160" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E161" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="F161" s="48">
+        <v>775942864</v>
+      </c>
+      <c r="G161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J161" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="K161" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L161" s="48">
+        <v>1</v>
+      </c>
+      <c r="M161" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N161" s="50">
+        <v>26000</v>
+      </c>
+      <c r="O161" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P161" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E162" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="F162" s="48">
+        <v>775188251</v>
+      </c>
+      <c r="G162" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="K162" s="48"/>
+      <c r="L162" s="48"/>
+      <c r="M162" s="50"/>
+      <c r="N162" s="50"/>
+      <c r="O162" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P162" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="E163" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="F163" s="48">
+        <v>775411988</v>
+      </c>
+      <c r="G163" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J163" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="K163" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L163" s="48">
+        <v>25</v>
+      </c>
+      <c r="M163" s="50">
+        <v>19500</v>
+      </c>
+      <c r="N163" s="50">
+        <v>487500</v>
+      </c>
+      <c r="O163" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P163" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="F164" s="48">
+        <v>338559477</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" s="48"/>
+      <c r="L164" s="48"/>
+      <c r="M164" s="50"/>
+      <c r="N164" s="50"/>
+      <c r="O164" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P164" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A165" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F165" s="48">
+        <v>786038253</v>
+      </c>
+      <c r="G165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K165" s="48"/>
+      <c r="L165" s="48"/>
+      <c r="M165" s="50"/>
+      <c r="N165" s="50"/>
+      <c r="O165" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P165" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F166" s="48">
+        <v>704917338</v>
+      </c>
+      <c r="G166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K166" s="48"/>
+      <c r="L166" s="48"/>
+      <c r="M166" s="50"/>
+      <c r="N166" s="50"/>
+      <c r="O166" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P166" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A167" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="F167" s="48">
+        <v>781884000</v>
+      </c>
+      <c r="G167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K167" s="48"/>
+      <c r="L167" s="48"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P167" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="F168" s="48">
+        <v>779071660</v>
+      </c>
+      <c r="G168" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K168" s="48"/>
+      <c r="L168" s="48"/>
+      <c r="M168" s="50"/>
+      <c r="N168" s="50"/>
+      <c r="O168" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P168" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A169" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F169" s="48">
+        <v>771844968</v>
+      </c>
+      <c r="G169" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K169" s="48"/>
+      <c r="L169" s="48"/>
+      <c r="M169" s="50"/>
+      <c r="N169" s="50"/>
+      <c r="O169" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P169" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B170" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170" t="s">
+        <v>81</v>
+      </c>
+      <c r="D170" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E170" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" s="48">
+        <v>770922815</v>
+      </c>
+      <c r="G170" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K170" s="48"/>
+      <c r="L170" s="48"/>
+      <c r="M170" s="50"/>
+      <c r="N170" s="50"/>
+      <c r="O170" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P170" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B171" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" t="s">
+        <v>81</v>
+      </c>
+      <c r="D171" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E171" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" s="48">
+        <v>773806309</v>
+      </c>
+      <c r="G171" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="50"/>
+      <c r="N171" s="50"/>
+      <c r="O171" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P171" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172" t="s">
+        <v>81</v>
+      </c>
+      <c r="D172" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E172" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" s="48">
+        <v>785923657</v>
+      </c>
+      <c r="G172" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K172" s="48"/>
+      <c r="L172" s="48"/>
+      <c r="M172" s="50"/>
+      <c r="N172" s="50"/>
+      <c r="O172" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P172" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E173" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" s="48">
+        <v>775276149</v>
+      </c>
+      <c r="G173" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J173" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K173" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L173" s="48">
+        <v>25</v>
+      </c>
+      <c r="M173" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N173" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O173" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P173" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B174" t="s">
+        <v>32</v>
+      </c>
+      <c r="C174" t="s">
+        <v>81</v>
+      </c>
+      <c r="D174" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E174" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="F174" s="48">
+        <v>770450834</v>
+      </c>
+      <c r="G174" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="K174" s="48"/>
+      <c r="L174" s="48"/>
+      <c r="M174" s="50"/>
+      <c r="N174" s="50"/>
+      <c r="O174" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P174" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A175" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B175" t="s">
+        <v>32</v>
+      </c>
+      <c r="C175" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E175" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="F175" s="48">
+        <v>776328716</v>
+      </c>
+      <c r="G175" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K175" s="48"/>
+      <c r="L175" s="48"/>
+      <c r="M175" s="50"/>
+      <c r="N175" s="50"/>
+      <c r="O175" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P175" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B176" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E176" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="F176" s="48">
+        <v>765769030</v>
+      </c>
+      <c r="G176" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K176" s="48"/>
+      <c r="L176" s="48"/>
+      <c r="M176" s="50"/>
+      <c r="N176" s="50"/>
+      <c r="O176" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P176" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A177" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B177" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" t="s">
+        <v>81</v>
+      </c>
+      <c r="D177" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E177" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" s="48">
+        <v>775484487</v>
+      </c>
+      <c r="G177" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="K177" s="48"/>
+      <c r="L177" s="48"/>
+      <c r="M177" s="50"/>
+      <c r="N177" s="50"/>
+      <c r="O177" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P177" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" t="s">
+        <v>81</v>
+      </c>
+      <c r="D178" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E178" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" s="48">
+        <v>782357233</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H178" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K178" s="48"/>
+      <c r="L178" s="48"/>
+      <c r="M178" s="50"/>
+      <c r="N178" s="50"/>
+      <c r="O178" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P178" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E179" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="F179" s="48">
+        <v>757454545</v>
+      </c>
+      <c r="G179" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="K179" s="48"/>
+      <c r="L179" s="48"/>
+      <c r="M179" s="50"/>
+      <c r="N179" s="50"/>
+      <c r="O179" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P179" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E180" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" s="48">
+        <v>772401517</v>
+      </c>
+      <c r="G180" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="K180" s="48"/>
+      <c r="L180" s="48"/>
+      <c r="M180" s="50"/>
+      <c r="N180" s="50"/>
+      <c r="O180" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P180" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A181" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" t="s">
+        <v>81</v>
+      </c>
+      <c r="D181" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E181" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" s="48">
+        <v>782442821</v>
+      </c>
+      <c r="G181" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="K181" s="48"/>
+      <c r="L181" s="48"/>
+      <c r="M181" s="50"/>
+      <c r="N181" s="50"/>
+      <c r="O181" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P181" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B182" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E182" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" s="48">
+        <v>779274722</v>
+      </c>
+      <c r="G182" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K182" s="48"/>
+      <c r="L182" s="48"/>
+      <c r="M182" s="50"/>
+      <c r="N182" s="50"/>
+      <c r="O182" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P182" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B183" t="s">
+        <v>107</v>
+      </c>
+      <c r="C183" t="s">
+        <v>108</v>
+      </c>
+      <c r="D183" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E183" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="F183" s="48">
+        <v>766445135</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="K183" s="48"/>
+      <c r="L183" s="48"/>
+      <c r="M183" s="50"/>
+      <c r="N183" s="50"/>
+      <c r="O183" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P183" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E184" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" s="48">
+        <v>788260947</v>
+      </c>
+      <c r="G184" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K184" s="48"/>
+      <c r="L184" s="48"/>
+      <c r="M184" s="50"/>
+      <c r="N184" s="50"/>
+      <c r="O184" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P184" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A185" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E185" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" s="48">
+        <v>776347177</v>
+      </c>
+      <c r="G185" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K185" s="48"/>
+      <c r="L185" s="48"/>
+      <c r="M185" s="50"/>
+      <c r="N185" s="50"/>
+      <c r="O185" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P185" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E186" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" s="48">
+        <v>776345625</v>
+      </c>
+      <c r="G186" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K186" s="48"/>
+      <c r="L186" s="48"/>
+      <c r="M186" s="50"/>
+      <c r="N186" s="50"/>
+      <c r="O186" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P186" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A187" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E187" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" s="48">
+        <v>776256670</v>
+      </c>
+      <c r="G187" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K187" s="48"/>
+      <c r="L187" s="48"/>
+      <c r="M187" s="50"/>
+      <c r="N187" s="50"/>
+      <c r="O187" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P187" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E188" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="F188" s="48">
+        <v>775742357</v>
+      </c>
+      <c r="G188" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="K188" s="48"/>
+      <c r="L188" s="48"/>
+      <c r="M188" s="50"/>
+      <c r="N188" s="50"/>
+      <c r="O188" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P188" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E189" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="F189" s="48">
+        <v>774388361</v>
+      </c>
+      <c r="G189" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H189" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K189" s="48"/>
+      <c r="L189" s="48"/>
+      <c r="M189" s="50"/>
+      <c r="N189" s="50"/>
+      <c r="O189" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P189" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E190" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="F190" s="48">
+        <v>708418609</v>
+      </c>
+      <c r="G190" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="K190" s="48"/>
+      <c r="L190" s="48"/>
+      <c r="M190" s="50"/>
+      <c r="N190" s="50"/>
+      <c r="O190" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P190" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B191" t="s">
+        <v>107</v>
+      </c>
+      <c r="C191" t="s">
+        <v>108</v>
+      </c>
+      <c r="D191" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E191" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="F191" s="48">
+        <v>783682649</v>
+      </c>
+      <c r="G191" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="K191" s="48"/>
+      <c r="L191" s="48"/>
+      <c r="M191" s="50"/>
+      <c r="N191" s="50"/>
+      <c r="O191" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P191" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B192" t="s">
+        <v>107</v>
+      </c>
+      <c r="C192" t="s">
+        <v>108</v>
+      </c>
+      <c r="D192" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E192" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="F192" s="48">
+        <v>776175166</v>
+      </c>
+      <c r="G192" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="K192" s="48"/>
+      <c r="L192" s="48"/>
+      <c r="M192" s="50"/>
+      <c r="N192" s="50"/>
+      <c r="O192" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P192" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B193" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E193" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="F193" s="48">
+        <v>771816838</v>
+      </c>
+      <c r="G193" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K193" s="48"/>
+      <c r="L193" s="48"/>
+      <c r="M193" s="50"/>
+      <c r="N193" s="50"/>
+      <c r="O193" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P193" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B194" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" t="s">
+        <v>108</v>
+      </c>
+      <c r="D194" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E194" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F194" s="48">
+        <v>771701320</v>
+      </c>
+      <c r="G194" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H194" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="K194" s="48"/>
+      <c r="L194" s="48"/>
+      <c r="M194" s="50"/>
+      <c r="N194" s="50"/>
+      <c r="O194" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P194" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B195" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E195" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F195" s="48">
+        <v>770601842</v>
+      </c>
+      <c r="G195" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="K195" s="48"/>
+      <c r="L195" s="48"/>
+      <c r="M195" s="50"/>
+      <c r="N195" s="50"/>
+      <c r="O195" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P195" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E196" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" s="48">
+        <v>775661459</v>
+      </c>
+      <c r="G196" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K196" s="48"/>
+      <c r="L196" s="48"/>
+      <c r="M196" s="50"/>
+      <c r="N196" s="50"/>
+      <c r="O196" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P196" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B197" t="s">
+        <v>107</v>
+      </c>
+      <c r="C197" t="s">
+        <v>108</v>
+      </c>
+      <c r="D197" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E197" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="F197" s="48">
+        <v>779856350</v>
+      </c>
+      <c r="G197" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K197" s="48"/>
+      <c r="L197" s="48"/>
+      <c r="M197" s="50"/>
+      <c r="N197" s="50"/>
+      <c r="O197" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P197" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B198" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="E198" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F198" s="48">
+        <v>781282357</v>
+      </c>
+      <c r="G198" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J198" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K198" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L198" s="48">
+        <v>50</v>
+      </c>
+      <c r="M198" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N198" s="50">
+        <v>1300000</v>
+      </c>
+      <c r="O198" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P198" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E199" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="F199" s="48">
+        <v>772222253</v>
+      </c>
+      <c r="G199" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K199" s="48"/>
+      <c r="L199" s="48"/>
+      <c r="M199" s="50"/>
+      <c r="N199" s="50"/>
+      <c r="O199" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P199" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B200" t="s">
+        <v>107</v>
+      </c>
+      <c r="C200" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E200" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="F200" s="48">
+        <v>779414699</v>
+      </c>
+      <c r="G200" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I200" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K200" s="48"/>
+      <c r="L200" s="48"/>
+      <c r="M200" s="50"/>
+      <c r="N200" s="50"/>
+      <c r="O200" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P200" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E201" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" s="48">
+        <v>772070286</v>
+      </c>
+      <c r="G201" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K201" s="48"/>
+      <c r="L201" s="48"/>
+      <c r="M201" s="50"/>
+      <c r="N201" s="50"/>
+      <c r="O201" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P201" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="F202" s="48">
+        <v>775014335</v>
+      </c>
+      <c r="G202" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K202" s="48"/>
+      <c r="L202" s="48"/>
+      <c r="M202" s="50"/>
+      <c r="N202" s="50"/>
+      <c r="O202" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P202" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F203" s="48">
+        <v>784537895</v>
+      </c>
+      <c r="G203" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J203" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K203" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L203" s="48">
+        <v>25</v>
+      </c>
+      <c r="M203" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N203" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O203" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P203" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="E204" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" s="48">
+        <v>772543032</v>
+      </c>
+      <c r="G204" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J204" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K204" s="48"/>
+      <c r="L204" s="48"/>
+      <c r="M204" s="50"/>
+      <c r="N204" s="50"/>
+      <c r="O204" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P204" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B205" t="s">
+        <v>107</v>
+      </c>
+      <c r="C205" t="s">
+        <v>108</v>
+      </c>
+      <c r="D205" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E205" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" s="48">
+        <v>764930372</v>
+      </c>
+      <c r="G205" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I205" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K205" s="48"/>
+      <c r="L205" s="48"/>
+      <c r="M205" s="50"/>
+      <c r="N205" s="50"/>
+      <c r="O205" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P205" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
+      <c r="C206" t="s">
+        <v>108</v>
+      </c>
+      <c r="D206" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" s="48">
+        <v>777696179</v>
+      </c>
+      <c r="G206" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K206" s="48"/>
+      <c r="L206" s="48"/>
+      <c r="M206" s="50"/>
+      <c r="N206" s="50"/>
+      <c r="O206" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P206" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E207" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" s="48">
+        <v>774756754</v>
+      </c>
+      <c r="G207" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="K207" s="48"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="50"/>
+      <c r="N207" s="50"/>
+      <c r="O207" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P207" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="s">
+        <v>108</v>
+      </c>
+      <c r="D208" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E208" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" s="48">
+        <v>775413433</v>
+      </c>
+      <c r="G208" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K208" s="48"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="50"/>
+      <c r="N208" s="50"/>
+      <c r="O208" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P208" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="s">
+        <v>108</v>
+      </c>
+      <c r="D209" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E209" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="F209" s="48">
+        <v>773493195</v>
+      </c>
+      <c r="G209" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I209" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="K209" s="48"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="50"/>
+      <c r="N209" s="50"/>
+      <c r="O209" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P209" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B210" t="s">
+        <v>107</v>
+      </c>
+      <c r="C210" t="s">
+        <v>108</v>
+      </c>
+      <c r="D210" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E210" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F210" s="48">
+        <v>772766450</v>
+      </c>
+      <c r="G210" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I210" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K210" s="48"/>
+      <c r="L210" s="48"/>
+      <c r="M210" s="50"/>
+      <c r="N210" s="50"/>
+      <c r="O210" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P210" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B211" t="s">
+        <v>107</v>
+      </c>
+      <c r="C211" t="s">
+        <v>108</v>
+      </c>
+      <c r="D211" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F211" s="48">
+        <v>773887602</v>
+      </c>
+      <c r="G211" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="K211" s="48"/>
+      <c r="L211" s="48"/>
+      <c r="M211" s="50"/>
+      <c r="N211" s="50"/>
+      <c r="O211" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P211" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B212" t="s">
+        <v>107</v>
+      </c>
+      <c r="C212" t="s">
+        <v>108</v>
+      </c>
+      <c r="D212" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E212" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="F212" s="48">
+        <v>775182219</v>
+      </c>
+      <c r="G212" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K212" s="48"/>
+      <c r="L212" s="48"/>
+      <c r="M212" s="50"/>
+      <c r="N212" s="50"/>
+      <c r="O212" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P212" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B213" t="s">
+        <v>107</v>
+      </c>
+      <c r="C213" t="s">
+        <v>108</v>
+      </c>
+      <c r="D213" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" s="48">
+        <v>779724512</v>
+      </c>
+      <c r="G213" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K213" s="48"/>
+      <c r="L213" s="48"/>
+      <c r="M213" s="50"/>
+      <c r="N213" s="50"/>
+      <c r="O213" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P213" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B214" t="s">
+        <v>107</v>
+      </c>
+      <c r="C214" t="s">
+        <v>108</v>
+      </c>
+      <c r="D214" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" s="48">
+        <v>770315128</v>
+      </c>
+      <c r="G214" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K214" s="48"/>
+      <c r="L214" s="48"/>
+      <c r="M214" s="50"/>
+      <c r="N214" s="50"/>
+      <c r="O214" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P214" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B215" t="s">
+        <v>107</v>
+      </c>
+      <c r="C215" t="s">
+        <v>108</v>
+      </c>
+      <c r="D215" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" s="48">
+        <v>773725495</v>
+      </c>
+      <c r="G215" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J215" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K215" s="48"/>
+      <c r="L215" s="48"/>
+      <c r="M215" s="50"/>
+      <c r="N215" s="50"/>
+      <c r="O215" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P215" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B216" t="s">
+        <v>107</v>
+      </c>
+      <c r="C216" t="s">
+        <v>108</v>
+      </c>
+      <c r="D216" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E216" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" s="48">
+        <v>775663399</v>
+      </c>
+      <c r="G216" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K216" s="48"/>
+      <c r="L216" s="48"/>
+      <c r="M216" s="50"/>
+      <c r="N216" s="50"/>
+      <c r="O216" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P216" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B217" t="s">
+        <v>107</v>
+      </c>
+      <c r="C217" t="s">
+        <v>108</v>
+      </c>
+      <c r="D217" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E217" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" s="48">
+        <v>777321977</v>
+      </c>
+      <c r="G217" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="K217" s="48"/>
+      <c r="L217" s="48"/>
+      <c r="M217" s="50"/>
+      <c r="N217" s="50"/>
+      <c r="O217" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P217" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B218" t="s">
+        <v>107</v>
+      </c>
+      <c r="C218" t="s">
+        <v>108</v>
+      </c>
+      <c r="D218" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" s="48">
+        <v>782130484</v>
+      </c>
+      <c r="G218" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="K218" s="48"/>
+      <c r="L218" s="48"/>
+      <c r="M218" s="50"/>
+      <c r="N218" s="50"/>
+      <c r="O218" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P218" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B219" t="s">
+        <v>107</v>
+      </c>
+      <c r="C219" t="s">
+        <v>108</v>
+      </c>
+      <c r="D219" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" s="48">
+        <v>775740574</v>
+      </c>
+      <c r="G219" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="K219" s="48"/>
+      <c r="L219" s="48"/>
+      <c r="M219" s="50"/>
+      <c r="N219" s="50"/>
+      <c r="O219" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P219" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A220" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B220" t="s">
+        <v>107</v>
+      </c>
+      <c r="C220" t="s">
+        <v>108</v>
+      </c>
+      <c r="D220" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E220" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="F220" s="48">
+        <v>776536527</v>
+      </c>
+      <c r="G220" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H220" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I220" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="K220" s="48"/>
+      <c r="L220" s="48"/>
+      <c r="M220" s="50"/>
+      <c r="N220" s="50"/>
+      <c r="O220" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P220" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A221" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B221" t="s">
+        <v>107</v>
+      </c>
+      <c r="C221" t="s">
+        <v>108</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="F221" s="48">
+        <v>778657940</v>
+      </c>
+      <c r="G221" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="K221" s="48"/>
+      <c r="L221" s="48"/>
+      <c r="M221" s="50"/>
+      <c r="N221" s="50"/>
+      <c r="O221" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P221" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A222" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B222" t="s">
+        <v>107</v>
+      </c>
+      <c r="C222" t="s">
+        <v>108</v>
+      </c>
+      <c r="D222" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E222" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="F222" s="48">
+        <v>778886969</v>
+      </c>
+      <c r="G222" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="K222" s="48"/>
+      <c r="L222" s="48"/>
+      <c r="M222" s="50"/>
+      <c r="N222" s="50"/>
+      <c r="O222" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P222" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A223" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B223" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" t="s">
+        <v>108</v>
+      </c>
+      <c r="D223" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E223" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="F223" s="48">
+        <v>779646150</v>
+      </c>
+      <c r="G223" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H223" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I223" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="K223" s="48"/>
+      <c r="L223" s="48"/>
+      <c r="M223" s="50"/>
+      <c r="N223" s="50"/>
+      <c r="O223" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P223" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A224" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B224" t="s">
+        <v>107</v>
+      </c>
+      <c r="C224" t="s">
+        <v>108</v>
+      </c>
+      <c r="D224" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E224" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F224" s="48">
+        <v>774187389</v>
+      </c>
+      <c r="G224" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H224" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="K224" s="48"/>
+      <c r="L224" s="48"/>
+      <c r="M224" s="50"/>
+      <c r="N224" s="50"/>
+      <c r="O224" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P224" s="51" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56972,46 +60505,46 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58985,46 +62518,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6223A-13BC-4039-800F-13AB5898F689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063DF20-844D-47BA-BD0B-1C2D01A11A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="16" r:id="rId5"/>
+        <pivotCache cacheId="0" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="548">
   <si>
     <t>Date</t>
   </si>
@@ -1375,6 +1375,340 @@
   </si>
   <si>
     <t xml:space="preserve">Il a besoin du café refraich stick et il a acheté un carton de 50g refraich pour essayer </t>
+  </si>
+  <si>
+    <t>Yoff</t>
+  </si>
+  <si>
+    <t>Yokou</t>
+  </si>
+  <si>
+    <t>Sebikotane</t>
+  </si>
+  <si>
+    <t>Il demande toujours le sachet altimo 150g</t>
+  </si>
+  <si>
+    <t>Dia et Frères</t>
+  </si>
+  <si>
+    <t>Il a toujours le pot de 50g refraish</t>
+  </si>
+  <si>
+    <t>Ibrahima Baldé</t>
+  </si>
+  <si>
+    <t>Il dit de diminuer le pot de 200g refraish</t>
+  </si>
+  <si>
+    <t>Wakeur Baye Niasse</t>
+  </si>
+  <si>
+    <t>Il a toujours des stock de produits</t>
+  </si>
+  <si>
+    <t>Ibrahima</t>
+  </si>
+  <si>
+    <t>Il a le café refraish 1,5g mais veut essayer le pot altimo 50g</t>
+  </si>
+  <si>
+    <t>Diamaguene</t>
+  </si>
+  <si>
+    <t>Memedou Ba</t>
+  </si>
+  <si>
+    <t>Kawe ABDOU</t>
+  </si>
+  <si>
+    <t>Korka</t>
+  </si>
+  <si>
+    <t>Mouhamet  Daikhoumpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu est malade </t>
+  </si>
+  <si>
+    <t>Mor seye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li est sorti </t>
+  </si>
+  <si>
+    <t>Moustapha  seye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li liu reste du produit </t>
+  </si>
+  <si>
+    <t>Abdoulaye  Ba 
+A</t>
+  </si>
+  <si>
+    <t>Issa  Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu  est sorti </t>
+  </si>
+  <si>
+    <t>Silla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu  attend son commande </t>
+  </si>
+  <si>
+    <t>Abdou Rahmane</t>
+  </si>
+  <si>
+    <t>Lui il évalu nos produits mais dit que c'est trop lent</t>
+  </si>
+  <si>
+    <t>Serigne Mbacké Dia</t>
+  </si>
+  <si>
+    <t>Il va appeler pour commander le refraish stick et le pot 50g</t>
+  </si>
+  <si>
+    <t>Ben Tally</t>
+  </si>
+  <si>
+    <t>Zakaria</t>
+  </si>
+  <si>
+    <t>Grand Boutique</t>
+  </si>
+  <si>
+    <t>Serigne Mbacké</t>
+  </si>
+  <si>
+    <t>Lui il est livré par Ndiaye de Rufisque</t>
+  </si>
+  <si>
+    <t>Mamadou</t>
+  </si>
+  <si>
+    <t>Il connaît non produit</t>
+  </si>
+  <si>
+    <t>Sicap Mbao</t>
+  </si>
+  <si>
+    <t>Soumare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est intéressé par les produits et dit de repasser </t>
+  </si>
+  <si>
+    <t>Ablaye Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il était Sortie </t>
+  </si>
+  <si>
+    <t>Yass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il demande s'il veut le jus le prix sera a combien </t>
+  </si>
+  <si>
+    <t>Lait Kamlac sachet 18gx100</t>
+  </si>
+  <si>
+    <t>Worry Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n' est pas intéressé par nos produits </t>
+  </si>
+  <si>
+    <t>Momodou</t>
+  </si>
+  <si>
+    <t>Gougna Guèye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est intéressé par le lait évaporé </t>
+  </si>
+  <si>
+    <t>Madina</t>
+  </si>
+  <si>
+    <t>Qu' il n' a pas de choix il est mais il préfère pas le jus</t>
+  </si>
+  <si>
+    <t>Lui il dit qu'on doit plus diminuer les prix de nos pots de café que ce soit altimo et refraish</t>
+  </si>
+  <si>
+    <t>Pour le café altimo 1,5g il dit qu'on doit le laisser à son prix d'avant</t>
+  </si>
+  <si>
+    <t>Sidi</t>
+  </si>
+  <si>
+    <t>Il demandait le pot 200g refraish mais il a fini par l'avoir</t>
+  </si>
+  <si>
+    <t>Il veut toujours essayer le pot altimo 50g</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Il dit que ces clients n'ont pas encore demandés</t>
+  </si>
+  <si>
+    <t>Moustapha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lui toujours catégorique </t>
+  </si>
+  <si>
+    <t>Khadim  séne</t>
+  </si>
+  <si>
+    <t>Ablay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma demande de repasser qu'il y réfléchir pour le lait </t>
+  </si>
+  <si>
+    <t>Mamadou boy</t>
+  </si>
+  <si>
+    <t>Fass</t>
+  </si>
+  <si>
+    <t>Diouf</t>
+  </si>
+  <si>
+    <t>Intéressé par l'évaporé</t>
+  </si>
+  <si>
+    <t>Le Khéweul</t>
+  </si>
+  <si>
+    <t>Mini marché</t>
+  </si>
+  <si>
+    <t>A demandé d'envoyer les images des produits au patron mais il n'a pas encore fait sa commande</t>
+  </si>
+  <si>
+    <t>Le patron n'était pas encore arrivé</t>
+  </si>
+  <si>
+    <t>Laye béye</t>
+  </si>
+  <si>
+    <t>Alfa daillo</t>
+  </si>
+  <si>
+    <t>Cheikh Diallo</t>
+  </si>
+  <si>
+    <t>Khassa Diop</t>
+  </si>
+  <si>
+    <t>Commande non livré depuis Moi de juin</t>
+  </si>
+  <si>
+    <t>Amadou Diallo</t>
+  </si>
+  <si>
+    <t>Le café n'était pas présent</t>
+  </si>
+  <si>
+    <t>Ndiaye</t>
+  </si>
+  <si>
+    <t>Lamane Dieng</t>
+  </si>
+  <si>
+    <t>Oumar</t>
+  </si>
+  <si>
+    <t>Ousseynou</t>
+  </si>
+  <si>
+    <t>Khadim Fall</t>
+  </si>
+  <si>
+    <t>Il demande de passer de temps en temps quand il sera prêt il va acheter</t>
+  </si>
+  <si>
+    <t>Mbaye Diop</t>
+  </si>
+  <si>
+    <t>Commande reçue.merci</t>
+  </si>
+  <si>
+    <t>Yeumbeul Tally Diallo</t>
+  </si>
+  <si>
+    <t>Yeumbeul Mbéde Sass</t>
+  </si>
+  <si>
+    <t>LY ET FRERE</t>
+  </si>
+  <si>
+    <t>Il a terminé toutses stock de produits que je lui avait vendu et il dit qu'ilva me rappeler poir passer commande</t>
+  </si>
+  <si>
+    <t>Modou</t>
+  </si>
+  <si>
+    <t>Tapha</t>
+  </si>
+  <si>
+    <t>Mame cheikh</t>
+  </si>
+  <si>
+    <t>BARRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il avait commandé 25 carton refraish, qu'il a du mal à écouler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma demande de repasser qu'il y réfléchir </t>
+  </si>
+  <si>
+    <t>Elage Diallo</t>
+  </si>
+  <si>
+    <t>PAPE DIOP</t>
+  </si>
+  <si>
+    <t>Il lui reste 6 cartons café stick Refraish</t>
+  </si>
+  <si>
+    <t>SEYNABOU BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste 9 cartons café stick Refraish </t>
+  </si>
+  <si>
+    <t>MOUSSA BA</t>
+  </si>
+  <si>
+    <t>Son magasin est en chantier il ne peut pas prendre de produit</t>
+  </si>
+  <si>
+    <t>NAFAR BOUTIQUE</t>
+  </si>
+  <si>
+    <t>Le gérent est partie en voyage</t>
+  </si>
+  <si>
+    <t>CHEIKH DIOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a fini tous ses stocks de café et de lien mais dit qu'il n'a pas assez d'argent pour passer commande </t>
+  </si>
+  <si>
+    <t>MAMDOU DIA</t>
+  </si>
+  <si>
+    <t>Il lui reste du café stick Altimo et du café pot 50g en quantité indéterminée</t>
   </si>
 </sst>
 </file>
@@ -49196,8 +49530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P224" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:P224" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P298" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:P298" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -49596,10 +49930,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P224"/>
+  <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H124" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="K134" sqref="K134:N134"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:N298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -56201,36 +56535,32 @@
       <c r="C154" t="s">
         <v>31</v>
       </c>
-      <c r="D154" s="48" t="s">
+      <c r="D154" t="s">
         <v>313</v>
       </c>
-      <c r="E154" s="48" t="s">
+      <c r="E154" t="s">
         <v>314</v>
       </c>
-      <c r="F154" s="48">
+      <c r="F154">
         <v>774230518</v>
       </c>
-      <c r="G154" s="48" t="s">
+      <c r="G154" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="48" t="s">
+      <c r="H154" t="s">
         <v>19</v>
       </c>
-      <c r="I154" s="48" t="s">
+      <c r="I154" t="s">
         <v>17</v>
       </c>
-      <c r="J154" s="49" t="s">
+      <c r="J154" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="K154" s="48"/>
-      <c r="L154" s="48"/>
-      <c r="M154" s="50"/>
-      <c r="N154" s="50"/>
-      <c r="O154" s="51" t="str">
+      <c r="O154" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P154" s="51" t="str">
+      <c r="P154" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56245,36 +56575,32 @@
       <c r="C155" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="48" t="s">
+      <c r="D155" t="s">
         <v>313</v>
       </c>
-      <c r="E155" s="48" t="s">
+      <c r="E155" t="s">
         <v>316</v>
       </c>
-      <c r="F155" s="48">
+      <c r="F155">
         <v>784872626</v>
       </c>
-      <c r="G155" s="48" t="s">
+      <c r="G155" t="s">
         <v>22</v>
       </c>
-      <c r="H155" s="48" t="s">
+      <c r="H155" t="s">
         <v>19</v>
       </c>
-      <c r="I155" s="48" t="s">
+      <c r="I155" t="s">
         <v>17</v>
       </c>
-      <c r="J155" s="49" t="s">
+      <c r="J155" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="K155" s="48"/>
-      <c r="L155" s="48"/>
-      <c r="M155" s="50"/>
-      <c r="N155" s="50"/>
-      <c r="O155" s="51" t="str">
+      <c r="O155" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P155" s="51" t="str">
+      <c r="P155" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56289,36 +56615,32 @@
       <c r="C156" t="s">
         <v>31</v>
       </c>
-      <c r="D156" s="48" t="s">
+      <c r="D156" t="s">
         <v>313</v>
       </c>
-      <c r="E156" s="48" t="s">
+      <c r="E156" t="s">
         <v>318</v>
       </c>
-      <c r="F156" s="48">
+      <c r="F156">
         <v>778080493</v>
       </c>
-      <c r="G156" s="48" t="s">
+      <c r="G156" t="s">
         <v>22</v>
       </c>
-      <c r="H156" s="48" t="s">
+      <c r="H156" t="s">
         <v>19</v>
       </c>
-      <c r="I156" s="48" t="s">
+      <c r="I156" t="s">
         <v>17</v>
       </c>
-      <c r="J156" s="49" t="s">
+      <c r="J156" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K156" s="48"/>
-      <c r="L156" s="48"/>
-      <c r="M156" s="50"/>
-      <c r="N156" s="50"/>
-      <c r="O156" s="51" t="str">
+      <c r="O156" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P156" s="51" t="str">
+      <c r="P156" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56333,36 +56655,32 @@
       <c r="C157" t="s">
         <v>31</v>
       </c>
-      <c r="D157" s="48" t="s">
+      <c r="D157" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="48" t="s">
+      <c r="E157" t="s">
         <v>320</v>
       </c>
-      <c r="F157" s="48">
+      <c r="F157">
         <v>775724732</v>
       </c>
-      <c r="G157" s="48" t="s">
+      <c r="G157" t="s">
         <v>22</v>
       </c>
-      <c r="H157" s="48" t="s">
+      <c r="H157" t="s">
         <v>19</v>
       </c>
-      <c r="I157" s="48" t="s">
+      <c r="I157" t="s">
         <v>17</v>
       </c>
-      <c r="J157" s="49" t="s">
+      <c r="J157" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="K157" s="48"/>
-      <c r="L157" s="48"/>
-      <c r="M157" s="50"/>
-      <c r="N157" s="50"/>
-      <c r="O157" s="51" t="str">
+      <c r="O157" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P157" s="51" t="str">
+      <c r="P157" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56377,36 +56695,32 @@
       <c r="C158" t="s">
         <v>31</v>
       </c>
-      <c r="D158" s="48" t="s">
+      <c r="D158" t="s">
         <v>313</v>
       </c>
-      <c r="E158" s="48" t="s">
+      <c r="E158" t="s">
         <v>57</v>
       </c>
-      <c r="F158" s="48">
+      <c r="F158">
         <v>774580822</v>
       </c>
-      <c r="G158" s="48" t="s">
+      <c r="G158" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="48" t="s">
+      <c r="H158" t="s">
         <v>19</v>
       </c>
-      <c r="I158" s="48" t="s">
+      <c r="I158" t="s">
         <v>17</v>
       </c>
-      <c r="J158" s="49" t="s">
+      <c r="J158" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K158" s="48"/>
-      <c r="L158" s="48"/>
-      <c r="M158" s="50"/>
-      <c r="N158" s="50"/>
-      <c r="O158" s="51" t="str">
+      <c r="O158" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P158" s="51" t="str">
+      <c r="P158" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56421,36 +56735,32 @@
       <c r="C159" t="s">
         <v>31</v>
       </c>
-      <c r="D159" s="48" t="s">
+      <c r="D159" t="s">
         <v>313</v>
       </c>
-      <c r="E159" s="48" t="s">
+      <c r="E159" t="s">
         <v>323</v>
       </c>
-      <c r="F159" s="48">
+      <c r="F159">
         <v>707523461</v>
       </c>
-      <c r="G159" s="48" t="s">
+      <c r="G159" t="s">
         <v>22</v>
       </c>
-      <c r="H159" s="48" t="s">
+      <c r="H159" t="s">
         <v>19</v>
       </c>
-      <c r="I159" s="48" t="s">
+      <c r="I159" t="s">
         <v>17</v>
       </c>
-      <c r="J159" s="49" t="s">
+      <c r="J159" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="K159" s="48"/>
-      <c r="L159" s="48"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="51" t="str">
+      <c r="O159" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P159" s="51" t="str">
+      <c r="P159" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56465,36 +56775,32 @@
       <c r="C160" t="s">
         <v>31</v>
       </c>
-      <c r="D160" s="48" t="s">
+      <c r="D160" t="s">
         <v>313</v>
       </c>
-      <c r="E160" s="48" t="s">
+      <c r="E160" t="s">
         <v>325</v>
       </c>
-      <c r="F160" s="48">
+      <c r="F160">
         <v>338347554</v>
       </c>
-      <c r="G160" s="48" t="s">
+      <c r="G160" t="s">
         <v>22</v>
       </c>
-      <c r="H160" s="48" t="s">
+      <c r="H160" t="s">
         <v>19</v>
       </c>
-      <c r="I160" s="48" t="s">
+      <c r="I160" t="s">
         <v>17</v>
       </c>
-      <c r="J160" s="49" t="s">
+      <c r="J160" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="K160" s="48"/>
-      <c r="L160" s="48"/>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50"/>
-      <c r="O160" s="51" t="str">
+      <c r="O160" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P160" s="51" t="str">
+      <c r="P160" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56509,44 +56815,44 @@
       <c r="C161" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="48" t="s">
+      <c r="D161" t="s">
         <v>313</v>
       </c>
-      <c r="E161" s="48" t="s">
+      <c r="E161" t="s">
         <v>327</v>
       </c>
-      <c r="F161" s="48">
+      <c r="F161">
         <v>775942864</v>
       </c>
-      <c r="G161" s="48" t="s">
+      <c r="G161" t="s">
         <v>22</v>
       </c>
-      <c r="H161" s="48" t="s">
+      <c r="H161" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="48" t="s">
+      <c r="I161" t="s">
         <v>28</v>
       </c>
-      <c r="J161" s="49" t="s">
+      <c r="J161" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="K161" s="48" t="s">
+      <c r="K161" t="s">
         <v>27</v>
       </c>
-      <c r="L161" s="48">
+      <c r="L161">
         <v>1</v>
       </c>
-      <c r="M161" s="50">
+      <c r="M161" s="5">
         <v>26000</v>
       </c>
-      <c r="N161" s="50">
+      <c r="N161" s="5">
         <v>26000</v>
       </c>
-      <c r="O161" s="51" t="str">
+      <c r="O161" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P161" s="51" t="str">
+      <c r="P161" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56561,36 +56867,32 @@
       <c r="C162" t="s">
         <v>31</v>
       </c>
-      <c r="D162" s="48" t="s">
+      <c r="D162" t="s">
         <v>313</v>
       </c>
-      <c r="E162" s="48" t="s">
+      <c r="E162" t="s">
         <v>325</v>
       </c>
-      <c r="F162" s="48">
+      <c r="F162">
         <v>775188251</v>
       </c>
-      <c r="G162" s="48" t="s">
+      <c r="G162" t="s">
         <v>22</v>
       </c>
-      <c r="H162" s="48" t="s">
+      <c r="H162" t="s">
         <v>16</v>
       </c>
-      <c r="I162" s="48" t="s">
+      <c r="I162" t="s">
         <v>17</v>
       </c>
-      <c r="J162" s="49" t="s">
+      <c r="J162" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="K162" s="48"/>
-      <c r="L162" s="48"/>
-      <c r="M162" s="50"/>
-      <c r="N162" s="50"/>
-      <c r="O162" s="51" t="str">
+      <c r="O162" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P162" s="51" t="str">
+      <c r="P162" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56605,44 +56907,44 @@
       <c r="C163" t="s">
         <v>21</v>
       </c>
-      <c r="D163" s="48" t="s">
+      <c r="D163" t="s">
         <v>330</v>
       </c>
-      <c r="E163" s="48" t="s">
+      <c r="E163" t="s">
         <v>331</v>
       </c>
-      <c r="F163" s="48">
+      <c r="F163">
         <v>775411988</v>
       </c>
-      <c r="G163" s="48" t="s">
+      <c r="G163" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="48" t="s">
+      <c r="H163" t="s">
         <v>19</v>
       </c>
-      <c r="I163" s="48" t="s">
+      <c r="I163" t="s">
         <v>28</v>
       </c>
-      <c r="J163" s="49" t="s">
+      <c r="J163" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="K163" s="48" t="s">
+      <c r="K163" t="s">
         <v>224</v>
       </c>
-      <c r="L163" s="48">
+      <c r="L163">
         <v>25</v>
       </c>
-      <c r="M163" s="50">
+      <c r="M163" s="5">
         <v>19500</v>
       </c>
-      <c r="N163" s="50">
+      <c r="N163" s="5">
         <v>487500</v>
       </c>
-      <c r="O163" s="51" t="str">
+      <c r="O163" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P163" s="51" t="str">
+      <c r="P163" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56657,36 +56959,32 @@
       <c r="C164" t="s">
         <v>34</v>
       </c>
-      <c r="D164" s="48" t="s">
+      <c r="D164" t="s">
         <v>36</v>
       </c>
-      <c r="E164" s="48" t="s">
+      <c r="E164" t="s">
         <v>333</v>
       </c>
-      <c r="F164" s="48">
+      <c r="F164">
         <v>338559477</v>
       </c>
-      <c r="G164" s="48" t="s">
+      <c r="G164" t="s">
         <v>22</v>
       </c>
-      <c r="H164" s="48" t="s">
+      <c r="H164" t="s">
         <v>19</v>
       </c>
-      <c r="I164" s="48" t="s">
+      <c r="I164" t="s">
         <v>17</v>
       </c>
-      <c r="J164" s="49" t="s">
+      <c r="J164" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K164" s="48"/>
-      <c r="L164" s="48"/>
-      <c r="M164" s="50"/>
-      <c r="N164" s="50"/>
-      <c r="O164" s="51" t="str">
+      <c r="O164" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P164" s="51" t="str">
+      <c r="P164" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56701,36 +56999,32 @@
       <c r="C165" t="s">
         <v>34</v>
       </c>
-      <c r="D165" s="48" t="s">
+      <c r="D165" t="s">
         <v>36</v>
       </c>
-      <c r="E165" s="48" t="s">
+      <c r="E165" t="s">
         <v>334</v>
       </c>
-      <c r="F165" s="48">
+      <c r="F165">
         <v>786038253</v>
       </c>
-      <c r="G165" s="48" t="s">
+      <c r="G165" t="s">
         <v>22</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="H165" t="s">
         <v>16</v>
       </c>
-      <c r="I165" s="48" t="s">
+      <c r="I165" t="s">
         <v>17</v>
       </c>
-      <c r="J165" s="49" t="s">
+      <c r="J165" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K165" s="48"/>
-      <c r="L165" s="48"/>
-      <c r="M165" s="50"/>
-      <c r="N165" s="50"/>
-      <c r="O165" s="51" t="str">
+      <c r="O165" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P165" s="51" t="str">
+      <c r="P165" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56745,36 +57039,32 @@
       <c r="C166" t="s">
         <v>34</v>
       </c>
-      <c r="D166" s="48" t="s">
+      <c r="D166" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="48" t="s">
+      <c r="E166" t="s">
         <v>109</v>
       </c>
-      <c r="F166" s="48">
+      <c r="F166">
         <v>704917338</v>
       </c>
-      <c r="G166" s="48" t="s">
+      <c r="G166" t="s">
         <v>22</v>
       </c>
-      <c r="H166" s="48" t="s">
+      <c r="H166" t="s">
         <v>16</v>
       </c>
-      <c r="I166" s="48" t="s">
+      <c r="I166" t="s">
         <v>17</v>
       </c>
-      <c r="J166" s="49" t="s">
+      <c r="J166" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K166" s="48"/>
-      <c r="L166" s="48"/>
-      <c r="M166" s="50"/>
-      <c r="N166" s="50"/>
-      <c r="O166" s="51" t="str">
+      <c r="O166" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P166" s="51" t="str">
+      <c r="P166" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56789,36 +57079,32 @@
       <c r="C167" t="s">
         <v>34</v>
       </c>
-      <c r="D167" s="48" t="s">
+      <c r="D167" t="s">
         <v>36</v>
       </c>
-      <c r="E167" s="48" t="s">
+      <c r="E167" t="s">
         <v>335</v>
       </c>
-      <c r="F167" s="48">
+      <c r="F167">
         <v>781884000</v>
       </c>
-      <c r="G167" s="48" t="s">
+      <c r="G167" t="s">
         <v>22</v>
       </c>
-      <c r="H167" s="48" t="s">
+      <c r="H167" t="s">
         <v>16</v>
       </c>
-      <c r="I167" s="48" t="s">
+      <c r="I167" t="s">
         <v>17</v>
       </c>
-      <c r="J167" s="49" t="s">
+      <c r="J167" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K167" s="48"/>
-      <c r="L167" s="48"/>
-      <c r="M167" s="50"/>
-      <c r="N167" s="50"/>
-      <c r="O167" s="51" t="str">
+      <c r="O167" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P167" s="51" t="str">
+      <c r="P167" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56833,36 +57119,32 @@
       <c r="C168" t="s">
         <v>34</v>
       </c>
-      <c r="D168" s="48" t="s">
+      <c r="D168" t="s">
         <v>36</v>
       </c>
-      <c r="E168" s="48" t="s">
+      <c r="E168" t="s">
         <v>336</v>
       </c>
-      <c r="F168" s="48">
+      <c r="F168">
         <v>779071660</v>
       </c>
-      <c r="G168" s="48" t="s">
+      <c r="G168" t="s">
         <v>22</v>
       </c>
-      <c r="H168" s="48" t="s">
+      <c r="H168" t="s">
         <v>16</v>
       </c>
-      <c r="I168" s="48" t="s">
+      <c r="I168" t="s">
         <v>17</v>
       </c>
-      <c r="J168" s="49" t="s">
+      <c r="J168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K168" s="48"/>
-      <c r="L168" s="48"/>
-      <c r="M168" s="50"/>
-      <c r="N168" s="50"/>
-      <c r="O168" s="51" t="str">
+      <c r="O168" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P168" s="51" t="str">
+      <c r="P168" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56877,36 +57159,32 @@
       <c r="C169" t="s">
         <v>34</v>
       </c>
-      <c r="D169" s="48" t="s">
+      <c r="D169" t="s">
         <v>36</v>
       </c>
-      <c r="E169" s="48" t="s">
+      <c r="E169" t="s">
         <v>171</v>
       </c>
-      <c r="F169" s="48">
+      <c r="F169">
         <v>771844968</v>
       </c>
-      <c r="G169" s="48" t="s">
+      <c r="G169" t="s">
         <v>22</v>
       </c>
-      <c r="H169" s="48" t="s">
+      <c r="H169" t="s">
         <v>19</v>
       </c>
-      <c r="I169" s="48" t="s">
+      <c r="I169" t="s">
         <v>17</v>
       </c>
-      <c r="J169" s="49" t="s">
+      <c r="J169" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K169" s="48"/>
-      <c r="L169" s="48"/>
-      <c r="M169" s="50"/>
-      <c r="N169" s="50"/>
-      <c r="O169" s="51" t="str">
+      <c r="O169" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P169" s="51" t="str">
+      <c r="P169" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56921,36 +57199,32 @@
       <c r="C170" t="s">
         <v>81</v>
       </c>
-      <c r="D170" s="48" t="s">
+      <c r="D170" t="s">
         <v>337</v>
       </c>
-      <c r="E170" s="48" t="s">
+      <c r="E170" t="s">
         <v>338</v>
       </c>
-      <c r="F170" s="48">
+      <c r="F170">
         <v>770922815</v>
       </c>
-      <c r="G170" s="48" t="s">
+      <c r="G170" t="s">
         <v>15</v>
       </c>
-      <c r="H170" s="48" t="s">
+      <c r="H170" t="s">
         <v>19</v>
       </c>
-      <c r="I170" s="48" t="s">
+      <c r="I170" t="s">
         <v>17</v>
       </c>
-      <c r="J170" s="49" t="s">
+      <c r="J170" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K170" s="48"/>
-      <c r="L170" s="48"/>
-      <c r="M170" s="50"/>
-      <c r="N170" s="50"/>
-      <c r="O170" s="51" t="str">
+      <c r="O170" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P170" s="51" t="str">
+      <c r="P170" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -56965,36 +57239,32 @@
       <c r="C171" t="s">
         <v>81</v>
       </c>
-      <c r="D171" s="48" t="s">
+      <c r="D171" t="s">
         <v>337</v>
       </c>
-      <c r="E171" s="48" t="s">
+      <c r="E171" t="s">
         <v>340</v>
       </c>
-      <c r="F171" s="48">
+      <c r="F171">
         <v>773806309</v>
       </c>
-      <c r="G171" s="48" t="s">
+      <c r="G171" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="48" t="s">
+      <c r="H171" t="s">
         <v>19</v>
       </c>
-      <c r="I171" s="48" t="s">
+      <c r="I171" t="s">
         <v>17</v>
       </c>
-      <c r="J171" s="49" t="s">
+      <c r="J171" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
-      <c r="M171" s="50"/>
-      <c r="N171" s="50"/>
-      <c r="O171" s="51" t="str">
+      <c r="O171" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P171" s="51" t="str">
+      <c r="P171" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57009,36 +57279,32 @@
       <c r="C172" t="s">
         <v>81</v>
       </c>
-      <c r="D172" s="48" t="s">
+      <c r="D172" t="s">
         <v>337</v>
       </c>
-      <c r="E172" s="48" t="s">
+      <c r="E172" t="s">
         <v>342</v>
       </c>
-      <c r="F172" s="48">
+      <c r="F172">
         <v>785923657</v>
       </c>
-      <c r="G172" s="48" t="s">
+      <c r="G172" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="48" t="s">
+      <c r="H172" t="s">
         <v>16</v>
       </c>
-      <c r="I172" s="48" t="s">
+      <c r="I172" t="s">
         <v>17</v>
       </c>
-      <c r="J172" s="49" t="s">
+      <c r="J172" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="K172" s="48"/>
-      <c r="L172" s="48"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="50"/>
-      <c r="O172" s="51" t="str">
+      <c r="O172" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P172" s="51" t="str">
+      <c r="P172" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57053,44 +57319,44 @@
       <c r="C173" t="s">
         <v>81</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" t="s">
         <v>337</v>
       </c>
-      <c r="E173" s="48" t="s">
+      <c r="E173" t="s">
         <v>344</v>
       </c>
-      <c r="F173" s="48">
+      <c r="F173">
         <v>775276149</v>
       </c>
-      <c r="G173" s="48" t="s">
+      <c r="G173" t="s">
         <v>22</v>
       </c>
-      <c r="H173" s="48" t="s">
+      <c r="H173" t="s">
         <v>19</v>
       </c>
-      <c r="I173" s="48" t="s">
+      <c r="I173" t="s">
         <v>28</v>
       </c>
-      <c r="J173" s="49" t="s">
+      <c r="J173" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="K173" s="48" t="s">
+      <c r="K173" t="s">
         <v>27</v>
       </c>
-      <c r="L173" s="48">
+      <c r="L173">
         <v>25</v>
       </c>
-      <c r="M173" s="50">
+      <c r="M173" s="5">
         <v>26000</v>
       </c>
-      <c r="N173" s="50">
+      <c r="N173" s="5">
         <v>650000</v>
       </c>
-      <c r="O173" s="51" t="str">
+      <c r="O173" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P173" s="51" t="str">
+      <c r="P173" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57105,36 +57371,32 @@
       <c r="C174" t="s">
         <v>81</v>
       </c>
-      <c r="D174" s="48" t="s">
+      <c r="D174" t="s">
         <v>337</v>
       </c>
-      <c r="E174" s="48" t="s">
+      <c r="E174" t="s">
         <v>264</v>
       </c>
-      <c r="F174" s="48">
+      <c r="F174">
         <v>770450834</v>
       </c>
-      <c r="G174" s="48" t="s">
+      <c r="G174" t="s">
         <v>22</v>
       </c>
-      <c r="H174" s="48" t="s">
+      <c r="H174" t="s">
         <v>19</v>
       </c>
-      <c r="I174" s="48" t="s">
+      <c r="I174" t="s">
         <v>17</v>
       </c>
-      <c r="J174" s="49" t="s">
+      <c r="J174" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="K174" s="48"/>
-      <c r="L174" s="48"/>
-      <c r="M174" s="50"/>
-      <c r="N174" s="50"/>
-      <c r="O174" s="51" t="str">
+      <c r="O174" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P174" s="51" t="str">
+      <c r="P174" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57149,36 +57411,32 @@
       <c r="C175" t="s">
         <v>81</v>
       </c>
-      <c r="D175" s="48" t="s">
+      <c r="D175" t="s">
         <v>337</v>
       </c>
-      <c r="E175" s="48" t="s">
+      <c r="E175" t="s">
         <v>347</v>
       </c>
-      <c r="F175" s="48">
+      <c r="F175">
         <v>776328716</v>
       </c>
-      <c r="G175" s="48" t="s">
+      <c r="G175" t="s">
         <v>22</v>
       </c>
-      <c r="H175" s="48" t="s">
+      <c r="H175" t="s">
         <v>19</v>
       </c>
-      <c r="I175" s="48" t="s">
+      <c r="I175" t="s">
         <v>17</v>
       </c>
-      <c r="J175" s="49" t="s">
+      <c r="J175" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="K175" s="48"/>
-      <c r="L175" s="48"/>
-      <c r="M175" s="50"/>
-      <c r="N175" s="50"/>
-      <c r="O175" s="51" t="str">
+      <c r="O175" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P175" s="51" t="str">
+      <c r="P175" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57193,36 +57451,32 @@
       <c r="C176" t="s">
         <v>81</v>
       </c>
-      <c r="D176" s="48" t="s">
+      <c r="D176" t="s">
         <v>337</v>
       </c>
-      <c r="E176" s="48" t="s">
+      <c r="E176" t="s">
         <v>349</v>
       </c>
-      <c r="F176" s="48">
+      <c r="F176">
         <v>765769030</v>
       </c>
-      <c r="G176" s="48" t="s">
+      <c r="G176" t="s">
         <v>22</v>
       </c>
-      <c r="H176" s="48" t="s">
+      <c r="H176" t="s">
         <v>19</v>
       </c>
-      <c r="I176" s="48" t="s">
+      <c r="I176" t="s">
         <v>17</v>
       </c>
-      <c r="J176" s="49" t="s">
+      <c r="J176" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K176" s="48"/>
-      <c r="L176" s="48"/>
-      <c r="M176" s="50"/>
-      <c r="N176" s="50"/>
-      <c r="O176" s="51" t="str">
+      <c r="O176" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P176" s="51" t="str">
+      <c r="P176" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57237,36 +57491,32 @@
       <c r="C177" t="s">
         <v>81</v>
       </c>
-      <c r="D177" s="48" t="s">
+      <c r="D177" t="s">
         <v>337</v>
       </c>
-      <c r="E177" s="48" t="s">
+      <c r="E177" t="s">
         <v>344</v>
       </c>
-      <c r="F177" s="48">
+      <c r="F177">
         <v>775484487</v>
       </c>
-      <c r="G177" s="48" t="s">
+      <c r="G177" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="48" t="s">
+      <c r="H177" t="s">
         <v>19</v>
       </c>
-      <c r="I177" s="48" t="s">
+      <c r="I177" t="s">
         <v>17</v>
       </c>
-      <c r="J177" s="49" t="s">
+      <c r="J177" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="K177" s="48"/>
-      <c r="L177" s="48"/>
-      <c r="M177" s="50"/>
-      <c r="N177" s="50"/>
-      <c r="O177" s="51" t="str">
+      <c r="O177" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P177" s="51" t="str">
+      <c r="P177" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57281,36 +57531,32 @@
       <c r="C178" t="s">
         <v>81</v>
       </c>
-      <c r="D178" s="48" t="s">
+      <c r="D178" t="s">
         <v>337</v>
       </c>
-      <c r="E178" s="48" t="s">
+      <c r="E178" t="s">
         <v>352</v>
       </c>
-      <c r="F178" s="48">
+      <c r="F178">
         <v>782357233</v>
       </c>
-      <c r="G178" s="48" t="s">
+      <c r="G178" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="48" t="s">
+      <c r="H178" t="s">
         <v>16</v>
       </c>
-      <c r="I178" s="48" t="s">
+      <c r="I178" t="s">
         <v>17</v>
       </c>
-      <c r="J178" s="49" t="s">
+      <c r="J178" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="K178" s="48"/>
-      <c r="L178" s="48"/>
-      <c r="M178" s="50"/>
-      <c r="N178" s="50"/>
-      <c r="O178" s="51" t="str">
+      <c r="O178" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P178" s="51" t="str">
+      <c r="P178" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57325,36 +57571,32 @@
       <c r="C179" t="s">
         <v>21</v>
       </c>
-      <c r="D179" s="48" t="s">
+      <c r="D179" t="s">
         <v>354</v>
       </c>
-      <c r="E179" s="48" t="s">
+      <c r="E179" t="s">
         <v>355</v>
       </c>
-      <c r="F179" s="48">
+      <c r="F179">
         <v>757454545</v>
       </c>
-      <c r="G179" s="48" t="s">
+      <c r="G179" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="48" t="s">
+      <c r="H179" t="s">
         <v>19</v>
       </c>
-      <c r="I179" s="48" t="s">
+      <c r="I179" t="s">
         <v>17</v>
       </c>
-      <c r="J179" s="49" t="s">
+      <c r="J179" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K179" s="48"/>
-      <c r="L179" s="48"/>
-      <c r="M179" s="50"/>
-      <c r="N179" s="50"/>
-      <c r="O179" s="51" t="str">
+      <c r="O179" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P179" s="51" t="str">
+      <c r="P179" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57369,36 +57611,32 @@
       <c r="C180" t="s">
         <v>31</v>
       </c>
-      <c r="D180" s="48" t="s">
+      <c r="D180" t="s">
         <v>313</v>
       </c>
-      <c r="E180" s="48" t="s">
+      <c r="E180" t="s">
         <v>356</v>
       </c>
-      <c r="F180" s="48">
+      <c r="F180">
         <v>772401517</v>
       </c>
-      <c r="G180" s="48" t="s">
+      <c r="G180" t="s">
         <v>15</v>
       </c>
-      <c r="H180" s="48" t="s">
+      <c r="H180" t="s">
         <v>19</v>
       </c>
-      <c r="I180" s="48" t="s">
+      <c r="I180" t="s">
         <v>17</v>
       </c>
-      <c r="J180" s="49" t="s">
+      <c r="J180" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K180" s="48"/>
-      <c r="L180" s="48"/>
-      <c r="M180" s="50"/>
-      <c r="N180" s="50"/>
-      <c r="O180" s="51" t="str">
+      <c r="O180" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P180" s="51" t="str">
+      <c r="P180" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57413,36 +57651,32 @@
       <c r="C181" t="s">
         <v>81</v>
       </c>
-      <c r="D181" s="48" t="s">
+      <c r="D181" t="s">
         <v>337</v>
       </c>
-      <c r="E181" s="48" t="s">
+      <c r="E181" t="s">
         <v>358</v>
       </c>
-      <c r="F181" s="48">
+      <c r="F181">
         <v>782442821</v>
       </c>
-      <c r="G181" s="48" t="s">
+      <c r="G181" t="s">
         <v>15</v>
       </c>
-      <c r="H181" s="48" t="s">
+      <c r="H181" t="s">
         <v>19</v>
       </c>
-      <c r="I181" s="48" t="s">
+      <c r="I181" t="s">
         <v>17</v>
       </c>
-      <c r="J181" s="49" t="s">
+      <c r="J181" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K181" s="48"/>
-      <c r="L181" s="48"/>
-      <c r="M181" s="50"/>
-      <c r="N181" s="50"/>
-      <c r="O181" s="51" t="str">
+      <c r="O181" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P181" s="51" t="str">
+      <c r="P181" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57457,36 +57691,32 @@
       <c r="C182" t="s">
         <v>31</v>
       </c>
-      <c r="D182" s="48" t="s">
+      <c r="D182" t="s">
         <v>313</v>
       </c>
-      <c r="E182" s="48" t="s">
+      <c r="E182" t="s">
         <v>360</v>
       </c>
-      <c r="F182" s="48">
+      <c r="F182">
         <v>779274722</v>
       </c>
-      <c r="G182" s="48" t="s">
+      <c r="G182" t="s">
         <v>15</v>
       </c>
-      <c r="H182" s="48" t="s">
+      <c r="H182" t="s">
         <v>19</v>
       </c>
-      <c r="I182" s="48" t="s">
+      <c r="I182" t="s">
         <v>17</v>
       </c>
-      <c r="J182" s="49" t="s">
+      <c r="J182" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K182" s="48"/>
-      <c r="L182" s="48"/>
-      <c r="M182" s="50"/>
-      <c r="N182" s="50"/>
-      <c r="O182" s="51" t="str">
+      <c r="O182" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P182" s="51" t="str">
+      <c r="P182" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57501,36 +57731,32 @@
       <c r="C183" t="s">
         <v>108</v>
       </c>
-      <c r="D183" s="48" t="s">
+      <c r="D183" t="s">
         <v>362</v>
       </c>
-      <c r="E183" s="48" t="s">
+      <c r="E183" t="s">
         <v>363</v>
       </c>
-      <c r="F183" s="48">
+      <c r="F183">
         <v>766445135</v>
       </c>
-      <c r="G183" s="48" t="s">
+      <c r="G183" t="s">
         <v>22</v>
       </c>
-      <c r="H183" s="48" t="s">
+      <c r="H183" t="s">
         <v>16</v>
       </c>
-      <c r="I183" s="48" t="s">
+      <c r="I183" t="s">
         <v>17</v>
       </c>
-      <c r="J183" s="49" t="s">
+      <c r="J183" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K183" s="48"/>
-      <c r="L183" s="48"/>
-      <c r="M183" s="50"/>
-      <c r="N183" s="50"/>
-      <c r="O183" s="51" t="str">
+      <c r="O183" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P183" s="51" t="str">
+      <c r="P183" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57545,36 +57771,32 @@
       <c r="C184" t="s">
         <v>31</v>
       </c>
-      <c r="D184" s="48" t="s">
+      <c r="D184" t="s">
         <v>313</v>
       </c>
-      <c r="E184" s="48" t="s">
+      <c r="E184" t="s">
         <v>364</v>
       </c>
-      <c r="F184" s="48">
+      <c r="F184">
         <v>788260947</v>
       </c>
-      <c r="G184" s="48" t="s">
+      <c r="G184" t="s">
         <v>15</v>
       </c>
-      <c r="H184" s="48" t="s">
+      <c r="H184" t="s">
         <v>19</v>
       </c>
-      <c r="I184" s="48" t="s">
+      <c r="I184" t="s">
         <v>17</v>
       </c>
-      <c r="J184" s="49" t="s">
+      <c r="J184" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="K184" s="48"/>
-      <c r="L184" s="48"/>
-      <c r="M184" s="50"/>
-      <c r="N184" s="50"/>
-      <c r="O184" s="51" t="str">
+      <c r="O184" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P184" s="51" t="str">
+      <c r="P184" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57589,36 +57811,32 @@
       <c r="C185" t="s">
         <v>21</v>
       </c>
-      <c r="D185" s="48" t="s">
+      <c r="D185" t="s">
         <v>354</v>
       </c>
-      <c r="E185" s="48" t="s">
+      <c r="E185" t="s">
         <v>366</v>
       </c>
-      <c r="F185" s="48">
+      <c r="F185">
         <v>776347177</v>
       </c>
-      <c r="G185" s="48" t="s">
+      <c r="G185" t="s">
         <v>22</v>
       </c>
-      <c r="H185" s="48" t="s">
+      <c r="H185" t="s">
         <v>16</v>
       </c>
-      <c r="I185" s="48" t="s">
+      <c r="I185" t="s">
         <v>17</v>
       </c>
-      <c r="J185" s="49" t="s">
+      <c r="J185" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="K185" s="48"/>
-      <c r="L185" s="48"/>
-      <c r="M185" s="50"/>
-      <c r="N185" s="50"/>
-      <c r="O185" s="51" t="str">
+      <c r="O185" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P185" s="51" t="str">
+      <c r="P185" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57633,36 +57851,32 @@
       <c r="C186" t="s">
         <v>21</v>
       </c>
-      <c r="D186" s="48" t="s">
+      <c r="D186" t="s">
         <v>354</v>
       </c>
-      <c r="E186" s="48" t="s">
+      <c r="E186" t="s">
         <v>368</v>
       </c>
-      <c r="F186" s="48">
+      <c r="F186">
         <v>776345625</v>
       </c>
-      <c r="G186" s="48" t="s">
+      <c r="G186" t="s">
         <v>22</v>
       </c>
-      <c r="H186" s="48" t="s">
+      <c r="H186" t="s">
         <v>19</v>
       </c>
-      <c r="I186" s="48" t="s">
+      <c r="I186" t="s">
         <v>17</v>
       </c>
-      <c r="J186" s="49" t="s">
+      <c r="J186" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="K186" s="48"/>
-      <c r="L186" s="48"/>
-      <c r="M186" s="50"/>
-      <c r="N186" s="50"/>
-      <c r="O186" s="51" t="str">
+      <c r="O186" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P186" s="51" t="str">
+      <c r="P186" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57677,36 +57891,32 @@
       <c r="C187" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="48" t="s">
+      <c r="D187" t="s">
         <v>354</v>
       </c>
-      <c r="E187" s="48" t="s">
+      <c r="E187" t="s">
         <v>370</v>
       </c>
-      <c r="F187" s="48">
+      <c r="F187">
         <v>776256670</v>
       </c>
-      <c r="G187" s="48" t="s">
+      <c r="G187" t="s">
         <v>22</v>
       </c>
-      <c r="H187" s="48" t="s">
+      <c r="H187" t="s">
         <v>19</v>
       </c>
-      <c r="I187" s="48" t="s">
+      <c r="I187" t="s">
         <v>17</v>
       </c>
-      <c r="J187" s="49" t="s">
+      <c r="J187" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K187" s="48"/>
-      <c r="L187" s="48"/>
-      <c r="M187" s="50"/>
-      <c r="N187" s="50"/>
-      <c r="O187" s="51" t="str">
+      <c r="O187" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P187" s="51" t="str">
+      <c r="P187" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57721,36 +57931,32 @@
       <c r="C188" t="s">
         <v>21</v>
       </c>
-      <c r="D188" s="48" t="s">
+      <c r="D188" t="s">
         <v>354</v>
       </c>
-      <c r="E188" s="48" t="s">
+      <c r="E188" t="s">
         <v>371</v>
       </c>
-      <c r="F188" s="48">
+      <c r="F188">
         <v>775742357</v>
       </c>
-      <c r="G188" s="48" t="s">
+      <c r="G188" t="s">
         <v>22</v>
       </c>
-      <c r="H188" s="48" t="s">
+      <c r="H188" t="s">
         <v>19</v>
       </c>
-      <c r="I188" s="48" t="s">
+      <c r="I188" t="s">
         <v>17</v>
       </c>
-      <c r="J188" s="49" t="s">
+      <c r="J188" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="K188" s="48"/>
-      <c r="L188" s="48"/>
-      <c r="M188" s="50"/>
-      <c r="N188" s="50"/>
-      <c r="O188" s="51" t="str">
+      <c r="O188" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P188" s="51" t="str">
+      <c r="P188" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57765,36 +57971,32 @@
       <c r="C189" t="s">
         <v>21</v>
       </c>
-      <c r="D189" s="48" t="s">
+      <c r="D189" t="s">
         <v>354</v>
       </c>
-      <c r="E189" s="48" t="s">
+      <c r="E189" t="s">
         <v>373</v>
       </c>
-      <c r="F189" s="48">
+      <c r="F189">
         <v>774388361</v>
       </c>
-      <c r="G189" s="48" t="s">
+      <c r="G189" t="s">
         <v>22</v>
       </c>
-      <c r="H189" s="48" t="s">
+      <c r="H189" t="s">
         <v>16</v>
       </c>
-      <c r="I189" s="48" t="s">
+      <c r="I189" t="s">
         <v>17</v>
       </c>
-      <c r="J189" s="49" t="s">
+      <c r="J189" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K189" s="48"/>
-      <c r="L189" s="48"/>
-      <c r="M189" s="50"/>
-      <c r="N189" s="50"/>
-      <c r="O189" s="51" t="str">
+      <c r="O189" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P189" s="51" t="str">
+      <c r="P189" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57809,36 +58011,32 @@
       <c r="C190" t="s">
         <v>21</v>
       </c>
-      <c r="D190" s="48" t="s">
+      <c r="D190" t="s">
         <v>354</v>
       </c>
-      <c r="E190" s="48" t="s">
+      <c r="E190" t="s">
         <v>375</v>
       </c>
-      <c r="F190" s="48">
+      <c r="F190">
         <v>708418609</v>
       </c>
-      <c r="G190" s="48" t="s">
+      <c r="G190" t="s">
         <v>22</v>
       </c>
-      <c r="H190" s="48" t="s">
+      <c r="H190" t="s">
         <v>19</v>
       </c>
-      <c r="I190" s="48" t="s">
+      <c r="I190" t="s">
         <v>17</v>
       </c>
-      <c r="J190" s="49" t="s">
+      <c r="J190" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="K190" s="48"/>
-      <c r="L190" s="48"/>
-      <c r="M190" s="50"/>
-      <c r="N190" s="50"/>
-      <c r="O190" s="51" t="str">
+      <c r="O190" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P190" s="51" t="str">
+      <c r="P190" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57853,36 +58051,32 @@
       <c r="C191" t="s">
         <v>108</v>
       </c>
-      <c r="D191" s="48" t="s">
+      <c r="D191" t="s">
         <v>362</v>
       </c>
-      <c r="E191" s="48" t="s">
+      <c r="E191" t="s">
         <v>377</v>
       </c>
-      <c r="F191" s="48">
+      <c r="F191">
         <v>783682649</v>
       </c>
-      <c r="G191" s="48" t="s">
+      <c r="G191" t="s">
         <v>22</v>
       </c>
-      <c r="H191" s="48" t="s">
+      <c r="H191" t="s">
         <v>19</v>
       </c>
-      <c r="I191" s="48" t="s">
+      <c r="I191" t="s">
         <v>17</v>
       </c>
-      <c r="J191" s="49" t="s">
+      <c r="J191" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K191" s="48"/>
-      <c r="L191" s="48"/>
-      <c r="M191" s="50"/>
-      <c r="N191" s="50"/>
-      <c r="O191" s="51" t="str">
+      <c r="O191" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P191" s="51" t="str">
+      <c r="P191" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57897,36 +58091,32 @@
       <c r="C192" t="s">
         <v>108</v>
       </c>
-      <c r="D192" s="48" t="s">
+      <c r="D192" t="s">
         <v>362</v>
       </c>
-      <c r="E192" s="48" t="s">
+      <c r="E192" t="s">
         <v>379</v>
       </c>
-      <c r="F192" s="48">
+      <c r="F192">
         <v>776175166</v>
       </c>
-      <c r="G192" s="48" t="s">
+      <c r="G192" t="s">
         <v>22</v>
       </c>
-      <c r="H192" s="48" t="s">
+      <c r="H192" t="s">
         <v>19</v>
       </c>
-      <c r="I192" s="48" t="s">
+      <c r="I192" t="s">
         <v>17</v>
       </c>
-      <c r="J192" s="49" t="s">
+      <c r="J192" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="K192" s="48"/>
-      <c r="L192" s="48"/>
-      <c r="M192" s="50"/>
-      <c r="N192" s="50"/>
-      <c r="O192" s="51" t="str">
+      <c r="O192" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P192" s="51" t="str">
+      <c r="P192" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57941,36 +58131,32 @@
       <c r="C193" t="s">
         <v>108</v>
       </c>
-      <c r="D193" s="48" t="s">
+      <c r="D193" t="s">
         <v>362</v>
       </c>
-      <c r="E193" s="48" t="s">
+      <c r="E193" t="s">
         <v>381</v>
       </c>
-      <c r="F193" s="48">
+      <c r="F193">
         <v>771816838</v>
       </c>
-      <c r="G193" s="48" t="s">
+      <c r="G193" t="s">
         <v>22</v>
       </c>
-      <c r="H193" s="48" t="s">
+      <c r="H193" t="s">
         <v>19</v>
       </c>
-      <c r="I193" s="48" t="s">
+      <c r="I193" t="s">
         <v>17</v>
       </c>
-      <c r="J193" s="49" t="s">
+      <c r="J193" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="K193" s="48"/>
-      <c r="L193" s="48"/>
-      <c r="M193" s="50"/>
-      <c r="N193" s="50"/>
-      <c r="O193" s="51" t="str">
+      <c r="O193" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P193" s="51" t="str">
+      <c r="P193" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -57985,36 +58171,32 @@
       <c r="C194" t="s">
         <v>108</v>
       </c>
-      <c r="D194" s="48" t="s">
+      <c r="D194" t="s">
         <v>362</v>
       </c>
-      <c r="E194" s="48" t="s">
+      <c r="E194" t="s">
         <v>383</v>
       </c>
-      <c r="F194" s="48">
+      <c r="F194">
         <v>771701320</v>
       </c>
-      <c r="G194" s="48" t="s">
+      <c r="G194" t="s">
         <v>22</v>
       </c>
-      <c r="H194" s="48" t="s">
+      <c r="H194" t="s">
         <v>19</v>
       </c>
-      <c r="I194" s="48" t="s">
+      <c r="I194" t="s">
         <v>17</v>
       </c>
-      <c r="J194" s="49" t="s">
+      <c r="J194" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="K194" s="48"/>
-      <c r="L194" s="48"/>
-      <c r="M194" s="50"/>
-      <c r="N194" s="50"/>
-      <c r="O194" s="51" t="str">
+      <c r="O194" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P194" s="51" t="str">
+      <c r="P194" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58029,36 +58211,32 @@
       <c r="C195" t="s">
         <v>108</v>
       </c>
-      <c r="D195" s="48" t="s">
+      <c r="D195" t="s">
         <v>362</v>
       </c>
-      <c r="E195" s="48" t="s">
+      <c r="E195" t="s">
         <v>240</v>
       </c>
-      <c r="F195" s="48">
+      <c r="F195">
         <v>770601842</v>
       </c>
-      <c r="G195" s="48" t="s">
+      <c r="G195" t="s">
         <v>22</v>
       </c>
-      <c r="H195" s="48" t="s">
+      <c r="H195" t="s">
         <v>16</v>
       </c>
-      <c r="I195" s="48" t="s">
+      <c r="I195" t="s">
         <v>17</v>
       </c>
-      <c r="J195" s="49" t="s">
+      <c r="J195" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="K195" s="48"/>
-      <c r="L195" s="48"/>
-      <c r="M195" s="50"/>
-      <c r="N195" s="50"/>
-      <c r="O195" s="51" t="str">
+      <c r="O195" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P195" s="51" t="str">
+      <c r="P195" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58073,36 +58251,32 @@
       <c r="C196" t="s">
         <v>21</v>
       </c>
-      <c r="D196" s="48" t="s">
+      <c r="D196" t="s">
         <v>354</v>
       </c>
-      <c r="E196" s="48" t="s">
+      <c r="E196" t="s">
         <v>386</v>
       </c>
-      <c r="F196" s="48">
+      <c r="F196">
         <v>775661459</v>
       </c>
-      <c r="G196" s="48" t="s">
+      <c r="G196" t="s">
         <v>22</v>
       </c>
-      <c r="H196" s="48" t="s">
+      <c r="H196" t="s">
         <v>19</v>
       </c>
-      <c r="I196" s="48" t="s">
+      <c r="I196" t="s">
         <v>17</v>
       </c>
-      <c r="J196" s="49" t="s">
+      <c r="J196" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K196" s="48"/>
-      <c r="L196" s="48"/>
-      <c r="M196" s="50"/>
-      <c r="N196" s="50"/>
-      <c r="O196" s="51" t="str">
+      <c r="O196" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P196" s="51" t="str">
+      <c r="P196" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58117,36 +58291,32 @@
       <c r="C197" t="s">
         <v>108</v>
       </c>
-      <c r="D197" s="48" t="s">
+      <c r="D197" t="s">
         <v>362</v>
       </c>
-      <c r="E197" s="48" t="s">
+      <c r="E197" t="s">
         <v>387</v>
       </c>
-      <c r="F197" s="48">
+      <c r="F197">
         <v>779856350</v>
       </c>
-      <c r="G197" s="48" t="s">
+      <c r="G197" t="s">
         <v>15</v>
       </c>
-      <c r="H197" s="48" t="s">
+      <c r="H197" t="s">
         <v>16</v>
       </c>
-      <c r="I197" s="48" t="s">
+      <c r="I197" t="s">
         <v>17</v>
       </c>
-      <c r="J197" s="49" t="s">
+      <c r="J197" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="K197" s="48"/>
-      <c r="L197" s="48"/>
-      <c r="M197" s="50"/>
-      <c r="N197" s="50"/>
-      <c r="O197" s="51" t="str">
+      <c r="O197" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P197" s="51" t="str">
+      <c r="P197" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58161,44 +58331,44 @@
       <c r="C198" t="s">
         <v>25</v>
       </c>
-      <c r="D198" s="48" t="s">
+      <c r="D198" t="s">
         <v>247</v>
       </c>
-      <c r="E198" s="48" t="s">
+      <c r="E198" t="s">
         <v>254</v>
       </c>
-      <c r="F198" s="48">
+      <c r="F198">
         <v>781282357</v>
       </c>
-      <c r="G198" s="48" t="s">
+      <c r="G198" t="s">
         <v>22</v>
       </c>
-      <c r="H198" s="48" t="s">
+      <c r="H198" t="s">
         <v>19</v>
       </c>
-      <c r="I198" s="48" t="s">
+      <c r="I198" t="s">
         <v>23</v>
       </c>
-      <c r="J198" s="49" t="s">
+      <c r="J198" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K198" s="48" t="s">
+      <c r="K198" t="s">
         <v>27</v>
       </c>
-      <c r="L198" s="48">
+      <c r="L198">
         <v>50</v>
       </c>
-      <c r="M198" s="50">
+      <c r="M198" s="5">
         <v>26000</v>
       </c>
-      <c r="N198" s="50">
+      <c r="N198" s="5">
         <v>1300000</v>
       </c>
-      <c r="O198" s="51" t="str">
+      <c r="O198" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P198" s="51" t="str">
+      <c r="P198" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58213,36 +58383,32 @@
       <c r="C199" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="48" t="s">
+      <c r="D199" t="s">
         <v>389</v>
       </c>
-      <c r="E199" s="48" t="s">
+      <c r="E199" t="s">
         <v>370</v>
       </c>
-      <c r="F199" s="48">
+      <c r="F199">
         <v>772222253</v>
       </c>
-      <c r="G199" s="48" t="s">
+      <c r="G199" t="s">
         <v>18</v>
       </c>
-      <c r="H199" s="48" t="s">
+      <c r="H199" t="s">
         <v>19</v>
       </c>
-      <c r="I199" s="48" t="s">
+      <c r="I199" t="s">
         <v>17</v>
       </c>
-      <c r="J199" s="49" t="s">
+      <c r="J199" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="K199" s="48"/>
-      <c r="L199" s="48"/>
-      <c r="M199" s="50"/>
-      <c r="N199" s="50"/>
-      <c r="O199" s="51" t="str">
+      <c r="O199" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P199" s="51" t="str">
+      <c r="P199" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58257,36 +58423,32 @@
       <c r="C200" t="s">
         <v>108</v>
       </c>
-      <c r="D200" s="48" t="s">
+      <c r="D200" t="s">
         <v>362</v>
       </c>
-      <c r="E200" s="48" t="s">
+      <c r="E200" t="s">
         <v>391</v>
       </c>
-      <c r="F200" s="48">
+      <c r="F200">
         <v>779414699</v>
       </c>
-      <c r="G200" s="48" t="s">
+      <c r="G200" t="s">
         <v>15</v>
       </c>
-      <c r="H200" s="48" t="s">
+      <c r="H200" t="s">
         <v>16</v>
       </c>
-      <c r="I200" s="48" t="s">
+      <c r="I200" t="s">
         <v>17</v>
       </c>
-      <c r="J200" s="49" t="s">
+      <c r="J200" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="K200" s="48"/>
-      <c r="L200" s="48"/>
-      <c r="M200" s="50"/>
-      <c r="N200" s="50"/>
-      <c r="O200" s="51" t="str">
+      <c r="O200" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P200" s="51" t="str">
+      <c r="P200" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58301,36 +58463,32 @@
       <c r="C201" t="s">
         <v>14</v>
       </c>
-      <c r="D201" s="48" t="s">
+      <c r="D201" t="s">
         <v>393</v>
       </c>
-      <c r="E201" s="48" t="s">
+      <c r="E201" t="s">
         <v>394</v>
       </c>
-      <c r="F201" s="48">
+      <c r="F201">
         <v>772070286</v>
       </c>
-      <c r="G201" s="48" t="s">
+      <c r="G201" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="48" t="s">
+      <c r="H201" t="s">
         <v>16</v>
       </c>
-      <c r="I201" s="48" t="s">
+      <c r="I201" t="s">
         <v>17</v>
       </c>
-      <c r="J201" s="49" t="s">
+      <c r="J201" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="K201" s="48"/>
-      <c r="L201" s="48"/>
-      <c r="M201" s="50"/>
-      <c r="N201" s="50"/>
-      <c r="O201" s="51" t="str">
+      <c r="O201" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P201" s="51" t="str">
+      <c r="P201" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58345,36 +58503,32 @@
       <c r="C202" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="48" t="s">
+      <c r="D202" t="s">
         <v>393</v>
       </c>
-      <c r="E202" s="48" t="s">
+      <c r="E202" t="s">
         <v>396</v>
       </c>
-      <c r="F202" s="48">
+      <c r="F202">
         <v>775014335</v>
       </c>
-      <c r="G202" s="48" t="s">
+      <c r="G202" t="s">
         <v>15</v>
       </c>
-      <c r="H202" s="48" t="s">
+      <c r="H202" t="s">
         <v>16</v>
       </c>
-      <c r="I202" s="48" t="s">
+      <c r="I202" t="s">
         <v>17</v>
       </c>
-      <c r="J202" s="49" t="s">
+      <c r="J202" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="K202" s="48"/>
-      <c r="L202" s="48"/>
-      <c r="M202" s="50"/>
-      <c r="N202" s="50"/>
-      <c r="O202" s="51" t="str">
+      <c r="O202" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P202" s="51" t="str">
+      <c r="P202" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58389,44 +58543,44 @@
       <c r="C203" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="48" t="s">
+      <c r="D203" t="s">
         <v>105</v>
       </c>
-      <c r="E203" s="48" t="s">
+      <c r="E203" t="s">
         <v>148</v>
       </c>
-      <c r="F203" s="48">
+      <c r="F203">
         <v>784537895</v>
       </c>
-      <c r="G203" s="48" t="s">
+      <c r="G203" t="s">
         <v>22</v>
       </c>
-      <c r="H203" s="48" t="s">
+      <c r="H203" t="s">
         <v>19</v>
       </c>
-      <c r="I203" s="48" t="s">
+      <c r="I203" t="s">
         <v>23</v>
       </c>
-      <c r="J203" s="49" t="s">
+      <c r="J203" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K203" s="48" t="s">
+      <c r="K203" t="s">
         <v>27</v>
       </c>
-      <c r="L203" s="48">
+      <c r="L203">
         <v>25</v>
       </c>
-      <c r="M203" s="50">
+      <c r="M203" s="5">
         <v>26000</v>
       </c>
-      <c r="N203" s="50">
+      <c r="N203" s="5">
         <v>650000</v>
       </c>
-      <c r="O203" s="51" t="str">
+      <c r="O203" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P203" s="51" t="str">
+      <c r="P203" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58441,36 +58595,32 @@
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="48" t="s">
+      <c r="D204" t="s">
         <v>397</v>
       </c>
-      <c r="E204" s="48" t="s">
+      <c r="E204" t="s">
         <v>398</v>
       </c>
-      <c r="F204" s="48">
+      <c r="F204">
         <v>772543032</v>
       </c>
-      <c r="G204" s="48" t="s">
+      <c r="G204" t="s">
         <v>15</v>
       </c>
-      <c r="H204" s="48" t="s">
+      <c r="H204" t="s">
         <v>16</v>
       </c>
-      <c r="I204" s="48" t="s">
+      <c r="I204" t="s">
         <v>17</v>
       </c>
-      <c r="J204" s="49" t="s">
+      <c r="J204" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="K204" s="48"/>
-      <c r="L204" s="48"/>
-      <c r="M204" s="50"/>
-      <c r="N204" s="50"/>
-      <c r="O204" s="51" t="str">
+      <c r="O204" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P204" s="51" t="str">
+      <c r="P204" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58485,36 +58635,32 @@
       <c r="C205" t="s">
         <v>108</v>
       </c>
-      <c r="D205" s="48" t="s">
+      <c r="D205" t="s">
         <v>362</v>
       </c>
-      <c r="E205" s="48" t="s">
+      <c r="E205" t="s">
         <v>400</v>
       </c>
-      <c r="F205" s="48">
+      <c r="F205">
         <v>764930372</v>
       </c>
-      <c r="G205" s="48" t="s">
+      <c r="G205" t="s">
         <v>18</v>
       </c>
-      <c r="H205" s="48" t="s">
+      <c r="H205" t="s">
         <v>16</v>
       </c>
-      <c r="I205" s="48" t="s">
+      <c r="I205" t="s">
         <v>17</v>
       </c>
-      <c r="J205" s="49" t="s">
+      <c r="J205" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="K205" s="48"/>
-      <c r="L205" s="48"/>
-      <c r="M205" s="50"/>
-      <c r="N205" s="50"/>
-      <c r="O205" s="51" t="str">
+      <c r="O205" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P205" s="51" t="str">
+      <c r="P205" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58529,36 +58675,32 @@
       <c r="C206" t="s">
         <v>108</v>
       </c>
-      <c r="D206" s="48" t="s">
+      <c r="D206" t="s">
         <v>362</v>
       </c>
-      <c r="E206" s="48" t="s">
+      <c r="E206" t="s">
         <v>402</v>
       </c>
-      <c r="F206" s="48">
+      <c r="F206">
         <v>777696179</v>
       </c>
-      <c r="G206" s="48" t="s">
+      <c r="G206" t="s">
         <v>18</v>
       </c>
-      <c r="H206" s="48" t="s">
+      <c r="H206" t="s">
         <v>16</v>
       </c>
-      <c r="I206" s="48" t="s">
+      <c r="I206" t="s">
         <v>17</v>
       </c>
-      <c r="J206" s="49" t="s">
+      <c r="J206" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="K206" s="48"/>
-      <c r="L206" s="48"/>
-      <c r="M206" s="50"/>
-      <c r="N206" s="50"/>
-      <c r="O206" s="51" t="str">
+      <c r="O206" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P206" s="51" t="str">
+      <c r="P206" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58573,36 +58715,32 @@
       <c r="C207" t="s">
         <v>108</v>
       </c>
-      <c r="D207" s="48" t="s">
+      <c r="D207" t="s">
         <v>362</v>
       </c>
-      <c r="E207" s="48" t="s">
+      <c r="E207" t="s">
         <v>404</v>
       </c>
-      <c r="F207" s="48">
+      <c r="F207">
         <v>774756754</v>
       </c>
-      <c r="G207" s="48" t="s">
+      <c r="G207" t="s">
         <v>15</v>
       </c>
-      <c r="H207" s="48" t="s">
+      <c r="H207" t="s">
         <v>19</v>
       </c>
-      <c r="I207" s="48" t="s">
+      <c r="I207" t="s">
         <v>17</v>
       </c>
-      <c r="J207" s="49" t="s">
+      <c r="J207" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="K207" s="48"/>
-      <c r="L207" s="48"/>
-      <c r="M207" s="50"/>
-      <c r="N207" s="50"/>
-      <c r="O207" s="51" t="str">
+      <c r="O207" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P207" s="51" t="str">
+      <c r="P207" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58617,36 +58755,32 @@
       <c r="C208" t="s">
         <v>108</v>
       </c>
-      <c r="D208" s="48" t="s">
+      <c r="D208" t="s">
         <v>362</v>
       </c>
-      <c r="E208" s="48" t="s">
+      <c r="E208" t="s">
         <v>406</v>
       </c>
-      <c r="F208" s="48">
+      <c r="F208">
         <v>775413433</v>
       </c>
-      <c r="G208" s="48" t="s">
+      <c r="G208" t="s">
         <v>15</v>
       </c>
-      <c r="H208" s="48" t="s">
+      <c r="H208" t="s">
         <v>16</v>
       </c>
-      <c r="I208" s="48" t="s">
+      <c r="I208" t="s">
         <v>17</v>
       </c>
-      <c r="J208" s="49" t="s">
+      <c r="J208" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K208" s="48"/>
-      <c r="L208" s="48"/>
-      <c r="M208" s="50"/>
-      <c r="N208" s="50"/>
-      <c r="O208" s="51" t="str">
+      <c r="O208" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P208" s="51" t="str">
+      <c r="P208" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58661,36 +58795,32 @@
       <c r="C209" t="s">
         <v>108</v>
       </c>
-      <c r="D209" s="48" t="s">
+      <c r="D209" t="s">
         <v>408</v>
       </c>
-      <c r="E209" s="48" t="s">
+      <c r="E209" t="s">
         <v>379</v>
       </c>
-      <c r="F209" s="48">
+      <c r="F209">
         <v>773493195</v>
       </c>
-      <c r="G209" s="48" t="s">
+      <c r="G209" t="s">
         <v>22</v>
       </c>
-      <c r="H209" s="48" t="s">
+      <c r="H209" t="s">
         <v>16</v>
       </c>
-      <c r="I209" s="48" t="s">
+      <c r="I209" t="s">
         <v>17</v>
       </c>
-      <c r="J209" s="49" t="s">
+      <c r="J209" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="K209" s="48"/>
-      <c r="L209" s="48"/>
-      <c r="M209" s="50"/>
-      <c r="N209" s="50"/>
-      <c r="O209" s="51" t="str">
+      <c r="O209" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P209" s="51" t="str">
+      <c r="P209" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58705,36 +58835,32 @@
       <c r="C210" t="s">
         <v>108</v>
       </c>
-      <c r="D210" s="48" t="s">
+      <c r="D210" t="s">
         <v>408</v>
       </c>
-      <c r="E210" s="48" t="s">
+      <c r="E210" t="s">
         <v>56</v>
       </c>
-      <c r="F210" s="48">
+      <c r="F210">
         <v>772766450</v>
       </c>
-      <c r="G210" s="48" t="s">
+      <c r="G210" t="s">
         <v>15</v>
       </c>
-      <c r="H210" s="48" t="s">
+      <c r="H210" t="s">
         <v>16</v>
       </c>
-      <c r="I210" s="48" t="s">
+      <c r="I210" t="s">
         <v>17</v>
       </c>
-      <c r="J210" s="49" t="s">
+      <c r="J210" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="K210" s="48"/>
-      <c r="L210" s="48"/>
-      <c r="M210" s="50"/>
-      <c r="N210" s="50"/>
-      <c r="O210" s="51" t="str">
+      <c r="O210" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P210" s="51" t="str">
+      <c r="P210" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58749,36 +58875,32 @@
       <c r="C211" t="s">
         <v>108</v>
       </c>
-      <c r="D211" s="48" t="s">
+      <c r="D211" t="s">
         <v>408</v>
       </c>
-      <c r="E211" s="48" t="s">
+      <c r="E211" t="s">
         <v>411</v>
       </c>
-      <c r="F211" s="48">
+      <c r="F211">
         <v>773887602</v>
       </c>
-      <c r="G211" s="48" t="s">
+      <c r="G211" t="s">
         <v>15</v>
       </c>
-      <c r="H211" s="48" t="s">
+      <c r="H211" t="s">
         <v>16</v>
       </c>
-      <c r="I211" s="48" t="s">
+      <c r="I211" t="s">
         <v>17</v>
       </c>
-      <c r="J211" s="49" t="s">
+      <c r="J211" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="K211" s="48"/>
-      <c r="L211" s="48"/>
-      <c r="M211" s="50"/>
-      <c r="N211" s="50"/>
-      <c r="O211" s="51" t="str">
+      <c r="O211" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P211" s="51" t="str">
+      <c r="P211" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58793,36 +58915,32 @@
       <c r="C212" t="s">
         <v>108</v>
       </c>
-      <c r="D212" s="48" t="s">
+      <c r="D212" t="s">
         <v>408</v>
       </c>
-      <c r="E212" s="48" t="s">
+      <c r="E212" t="s">
         <v>413</v>
       </c>
-      <c r="F212" s="48">
+      <c r="F212">
         <v>775182219</v>
       </c>
-      <c r="G212" s="48" t="s">
+      <c r="G212" t="s">
         <v>15</v>
       </c>
-      <c r="H212" s="48" t="s">
+      <c r="H212" t="s">
         <v>16</v>
       </c>
-      <c r="I212" s="48" t="s">
+      <c r="I212" t="s">
         <v>17</v>
       </c>
-      <c r="J212" s="49" t="s">
+      <c r="J212" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K212" s="48"/>
-      <c r="L212" s="48"/>
-      <c r="M212" s="50"/>
-      <c r="N212" s="50"/>
-      <c r="O212" s="51" t="str">
+      <c r="O212" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P212" s="51" t="str">
+      <c r="P212" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58837,36 +58955,32 @@
       <c r="C213" t="s">
         <v>108</v>
       </c>
-      <c r="D213" s="48" t="s">
+      <c r="D213" t="s">
         <v>408</v>
       </c>
-      <c r="E213" s="48" t="s">
+      <c r="E213" t="s">
         <v>414</v>
       </c>
-      <c r="F213" s="48">
+      <c r="F213">
         <v>779724512</v>
       </c>
-      <c r="G213" s="48" t="s">
+      <c r="G213" t="s">
         <v>22</v>
       </c>
-      <c r="H213" s="48" t="s">
+      <c r="H213" t="s">
         <v>19</v>
       </c>
-      <c r="I213" s="48" t="s">
+      <c r="I213" t="s">
         <v>17</v>
       </c>
-      <c r="J213" s="49" t="s">
+      <c r="J213" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="K213" s="48"/>
-      <c r="L213" s="48"/>
-      <c r="M213" s="50"/>
-      <c r="N213" s="50"/>
-      <c r="O213" s="51" t="str">
+      <c r="O213" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P213" s="51" t="str">
+      <c r="P213" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58881,36 +58995,32 @@
       <c r="C214" t="s">
         <v>108</v>
       </c>
-      <c r="D214" s="48" t="s">
+      <c r="D214" t="s">
         <v>408</v>
       </c>
-      <c r="E214" s="48" t="s">
+      <c r="E214" t="s">
         <v>416</v>
       </c>
-      <c r="F214" s="48">
+      <c r="F214">
         <v>770315128</v>
       </c>
-      <c r="G214" s="48" t="s">
+      <c r="G214" t="s">
         <v>22</v>
       </c>
-      <c r="H214" s="48" t="s">
+      <c r="H214" t="s">
         <v>16</v>
       </c>
-      <c r="I214" s="48" t="s">
+      <c r="I214" t="s">
         <v>17</v>
       </c>
-      <c r="J214" s="49" t="s">
+      <c r="J214" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="K214" s="48"/>
-      <c r="L214" s="48"/>
-      <c r="M214" s="50"/>
-      <c r="N214" s="50"/>
-      <c r="O214" s="51" t="str">
+      <c r="O214" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P214" s="51" t="str">
+      <c r="P214" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58925,36 +59035,32 @@
       <c r="C215" t="s">
         <v>108</v>
       </c>
-      <c r="D215" s="48" t="s">
+      <c r="D215" t="s">
         <v>408</v>
       </c>
-      <c r="E215" s="48" t="s">
+      <c r="E215" t="s">
         <v>418</v>
       </c>
-      <c r="F215" s="48">
+      <c r="F215">
         <v>773725495</v>
       </c>
-      <c r="G215" s="48" t="s">
+      <c r="G215" t="s">
         <v>22</v>
       </c>
-      <c r="H215" s="48" t="s">
+      <c r="H215" t="s">
         <v>16</v>
       </c>
-      <c r="I215" s="48" t="s">
+      <c r="I215" t="s">
         <v>17</v>
       </c>
-      <c r="J215" s="49" t="s">
+      <c r="J215" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="K215" s="48"/>
-      <c r="L215" s="48"/>
-      <c r="M215" s="50"/>
-      <c r="N215" s="50"/>
-      <c r="O215" s="51" t="str">
+      <c r="O215" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P215" s="51" t="str">
+      <c r="P215" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -58969,36 +59075,32 @@
       <c r="C216" t="s">
         <v>108</v>
       </c>
-      <c r="D216" s="48" t="s">
+      <c r="D216" t="s">
         <v>408</v>
       </c>
-      <c r="E216" s="48" t="s">
+      <c r="E216" t="s">
         <v>420</v>
       </c>
-      <c r="F216" s="48">
+      <c r="F216">
         <v>775663399</v>
       </c>
-      <c r="G216" s="48" t="s">
+      <c r="G216" t="s">
         <v>22</v>
       </c>
-      <c r="H216" s="48" t="s">
+      <c r="H216" t="s">
         <v>16</v>
       </c>
-      <c r="I216" s="48" t="s">
+      <c r="I216" t="s">
         <v>17</v>
       </c>
-      <c r="J216" s="49" t="s">
+      <c r="J216" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="K216" s="48"/>
-      <c r="L216" s="48"/>
-      <c r="M216" s="50"/>
-      <c r="N216" s="50"/>
-      <c r="O216" s="51" t="str">
+      <c r="O216" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P216" s="51" t="str">
+      <c r="P216" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59013,36 +59115,32 @@
       <c r="C217" t="s">
         <v>108</v>
       </c>
-      <c r="D217" s="48" t="s">
+      <c r="D217" t="s">
         <v>408</v>
       </c>
-      <c r="E217" s="48" t="s">
+      <c r="E217" t="s">
         <v>422</v>
       </c>
-      <c r="F217" s="48">
+      <c r="F217">
         <v>777321977</v>
       </c>
-      <c r="G217" s="48" t="s">
+      <c r="G217" t="s">
         <v>22</v>
       </c>
-      <c r="H217" s="48" t="s">
+      <c r="H217" t="s">
         <v>16</v>
       </c>
-      <c r="I217" s="48" t="s">
+      <c r="I217" t="s">
         <v>17</v>
       </c>
-      <c r="J217" s="49" t="s">
+      <c r="J217" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K217" s="48"/>
-      <c r="L217" s="48"/>
-      <c r="M217" s="50"/>
-      <c r="N217" s="50"/>
-      <c r="O217" s="51" t="str">
+      <c r="O217" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P217" s="51" t="str">
+      <c r="P217" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59057,36 +59155,32 @@
       <c r="C218" t="s">
         <v>108</v>
       </c>
-      <c r="D218" s="48" t="s">
+      <c r="D218" t="s">
         <v>408</v>
       </c>
-      <c r="E218" s="48" t="s">
+      <c r="E218" t="s">
         <v>424</v>
       </c>
-      <c r="F218" s="48">
+      <c r="F218">
         <v>782130484</v>
       </c>
-      <c r="G218" s="48" t="s">
+      <c r="G218" t="s">
         <v>22</v>
       </c>
-      <c r="H218" s="48" t="s">
+      <c r="H218" t="s">
         <v>16</v>
       </c>
-      <c r="I218" s="48" t="s">
+      <c r="I218" t="s">
         <v>17</v>
       </c>
-      <c r="J218" s="49" t="s">
+      <c r="J218" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="K218" s="48"/>
-      <c r="L218" s="48"/>
-      <c r="M218" s="50"/>
-      <c r="N218" s="50"/>
-      <c r="O218" s="51" t="str">
+      <c r="O218" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P218" s="51" t="str">
+      <c r="P218" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59101,36 +59195,32 @@
       <c r="C219" t="s">
         <v>108</v>
       </c>
-      <c r="D219" s="48" t="s">
+      <c r="D219" t="s">
         <v>408</v>
       </c>
-      <c r="E219" s="48" t="s">
+      <c r="E219" t="s">
         <v>426</v>
       </c>
-      <c r="F219" s="48">
+      <c r="F219">
         <v>775740574</v>
       </c>
-      <c r="G219" s="48" t="s">
+      <c r="G219" t="s">
         <v>22</v>
       </c>
-      <c r="H219" s="48" t="s">
+      <c r="H219" t="s">
         <v>19</v>
       </c>
-      <c r="I219" s="48" t="s">
+      <c r="I219" t="s">
         <v>17</v>
       </c>
-      <c r="J219" s="49" t="s">
+      <c r="J219" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="K219" s="48"/>
-      <c r="L219" s="48"/>
-      <c r="M219" s="50"/>
-      <c r="N219" s="50"/>
-      <c r="O219" s="51" t="str">
+      <c r="O219" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P219" s="51" t="str">
+      <c r="P219" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59145,36 +59235,32 @@
       <c r="C220" t="s">
         <v>108</v>
       </c>
-      <c r="D220" s="48" t="s">
+      <c r="D220" t="s">
         <v>408</v>
       </c>
-      <c r="E220" s="48" t="s">
+      <c r="E220" t="s">
         <v>428</v>
       </c>
-      <c r="F220" s="48">
+      <c r="F220">
         <v>776536527</v>
       </c>
-      <c r="G220" s="48" t="s">
+      <c r="G220" t="s">
         <v>22</v>
       </c>
-      <c r="H220" s="48" t="s">
+      <c r="H220" t="s">
         <v>19</v>
       </c>
-      <c r="I220" s="48" t="s">
+      <c r="I220" t="s">
         <v>17</v>
       </c>
-      <c r="J220" s="49" t="s">
+      <c r="J220" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="K220" s="48"/>
-      <c r="L220" s="48"/>
-      <c r="M220" s="50"/>
-      <c r="N220" s="50"/>
-      <c r="O220" s="51" t="str">
+      <c r="O220" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P220" s="51" t="str">
+      <c r="P220" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59189,36 +59275,32 @@
       <c r="C221" t="s">
         <v>108</v>
       </c>
-      <c r="D221" s="48" t="s">
+      <c r="D221" t="s">
         <v>408</v>
       </c>
-      <c r="E221" s="48" t="s">
+      <c r="E221" t="s">
         <v>430</v>
       </c>
-      <c r="F221" s="48">
+      <c r="F221">
         <v>778657940</v>
       </c>
-      <c r="G221" s="48" t="s">
+      <c r="G221" t="s">
         <v>22</v>
       </c>
-      <c r="H221" s="48" t="s">
+      <c r="H221" t="s">
         <v>19</v>
       </c>
-      <c r="I221" s="48" t="s">
+      <c r="I221" t="s">
         <v>17</v>
       </c>
-      <c r="J221" s="49" t="s">
+      <c r="J221" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="K221" s="48"/>
-      <c r="L221" s="48"/>
-      <c r="M221" s="50"/>
-      <c r="N221" s="50"/>
-      <c r="O221" s="51" t="str">
+      <c r="O221" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P221" s="51" t="str">
+      <c r="P221" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59233,36 +59315,32 @@
       <c r="C222" t="s">
         <v>108</v>
       </c>
-      <c r="D222" s="48" t="s">
+      <c r="D222" t="s">
         <v>408</v>
       </c>
-      <c r="E222" s="48" t="s">
+      <c r="E222" t="s">
         <v>432</v>
       </c>
-      <c r="F222" s="48">
+      <c r="F222">
         <v>778886969</v>
       </c>
-      <c r="G222" s="48" t="s">
+      <c r="G222" t="s">
         <v>22</v>
       </c>
-      <c r="H222" s="48" t="s">
+      <c r="H222" t="s">
         <v>19</v>
       </c>
-      <c r="I222" s="48" t="s">
+      <c r="I222" t="s">
         <v>17</v>
       </c>
-      <c r="J222" s="49" t="s">
+      <c r="J222" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="K222" s="48"/>
-      <c r="L222" s="48"/>
-      <c r="M222" s="50"/>
-      <c r="N222" s="50"/>
-      <c r="O222" s="51" t="str">
+      <c r="O222" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P222" s="51" t="str">
+      <c r="P222" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59277,36 +59355,32 @@
       <c r="C223" t="s">
         <v>108</v>
       </c>
-      <c r="D223" s="48" t="s">
+      <c r="D223" t="s">
         <v>408</v>
       </c>
-      <c r="E223" s="48" t="s">
+      <c r="E223" t="s">
         <v>434</v>
       </c>
-      <c r="F223" s="48">
+      <c r="F223">
         <v>779646150</v>
       </c>
-      <c r="G223" s="48" t="s">
+      <c r="G223" t="s">
         <v>22</v>
       </c>
-      <c r="H223" s="48" t="s">
+      <c r="H223" t="s">
         <v>19</v>
       </c>
-      <c r="I223" s="48" t="s">
+      <c r="I223" t="s">
         <v>17</v>
       </c>
-      <c r="J223" s="49" t="s">
+      <c r="J223" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="K223" s="48"/>
-      <c r="L223" s="48"/>
-      <c r="M223" s="50"/>
-      <c r="N223" s="50"/>
-      <c r="O223" s="51" t="str">
+      <c r="O223" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P223" s="51" t="str">
+      <c r="P223" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -59321,36 +59395,3408 @@
       <c r="C224" t="s">
         <v>108</v>
       </c>
-      <c r="D224" s="48" t="s">
+      <c r="D224" t="s">
         <v>408</v>
       </c>
-      <c r="E224" s="48" t="s">
+      <c r="E224" t="s">
         <v>334</v>
       </c>
-      <c r="F224" s="48">
+      <c r="F224">
         <v>774187389</v>
       </c>
-      <c r="G224" s="48" t="s">
+      <c r="G224" t="s">
         <v>22</v>
       </c>
-      <c r="H224" s="48" t="s">
+      <c r="H224" t="s">
         <v>19</v>
       </c>
-      <c r="I224" s="48" t="s">
+      <c r="I224" t="s">
         <v>17</v>
       </c>
-      <c r="J224" s="49" t="s">
+      <c r="J224" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="K224" s="48"/>
-      <c r="L224" s="48"/>
-      <c r="M224" s="50"/>
-      <c r="N224" s="50"/>
-      <c r="O224" s="51" t="str">
+      <c r="O224" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P224" s="51" t="str">
+      <c r="P224" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A225" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B225" t="s">
+        <v>33</v>
+      </c>
+      <c r="C225" t="s">
+        <v>34</v>
+      </c>
+      <c r="D225" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E225" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="F225" s="48">
+        <v>773546734</v>
+      </c>
+      <c r="G225" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K225" s="48"/>
+      <c r="L225" s="48"/>
+      <c r="M225" s="50"/>
+      <c r="N225" s="50"/>
+      <c r="O225" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P225" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A226" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B226" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" t="s">
+        <v>81</v>
+      </c>
+      <c r="D226" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E226" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="F226" s="48">
+        <v>778826078</v>
+      </c>
+      <c r="G226" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I226" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K226" s="48"/>
+      <c r="L226" s="48"/>
+      <c r="M226" s="50"/>
+      <c r="N226" s="50"/>
+      <c r="O226" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P226" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A227" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B227" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" t="s">
+        <v>81</v>
+      </c>
+      <c r="D227" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E227" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="F227" s="48">
+        <v>779460713</v>
+      </c>
+      <c r="G227" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="K227" s="48"/>
+      <c r="L227" s="48"/>
+      <c r="M227" s="50"/>
+      <c r="N227" s="50"/>
+      <c r="O227" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P227" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A228" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B228" t="s">
+        <v>32</v>
+      </c>
+      <c r="C228" t="s">
+        <v>81</v>
+      </c>
+      <c r="D228" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E228" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="F228" s="48">
+        <v>772539977</v>
+      </c>
+      <c r="G228" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I228" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K228" s="48"/>
+      <c r="L228" s="48"/>
+      <c r="M228" s="50"/>
+      <c r="N228" s="50"/>
+      <c r="O228" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P228" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A229" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229" t="s">
+        <v>81</v>
+      </c>
+      <c r="D229" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E229" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="F229" s="48">
+        <v>776172449</v>
+      </c>
+      <c r="G229" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H229" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="K229" s="48"/>
+      <c r="L229" s="48"/>
+      <c r="M229" s="50"/>
+      <c r="N229" s="50"/>
+      <c r="O229" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P229" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A230" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B230" t="s">
+        <v>32</v>
+      </c>
+      <c r="C230" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E230" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="F230" s="48">
+        <v>776591883</v>
+      </c>
+      <c r="G230" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I230" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J230" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K230" s="48"/>
+      <c r="L230" s="48"/>
+      <c r="M230" s="50"/>
+      <c r="N230" s="50"/>
+      <c r="O230" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P230" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A231" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B231" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231" t="s">
+        <v>31</v>
+      </c>
+      <c r="D231" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="F231" s="48">
+        <v>775450094</v>
+      </c>
+      <c r="G231" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I231" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J231" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K231" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L231" s="48">
+        <v>1</v>
+      </c>
+      <c r="M231" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N231" s="50">
+        <v>26000</v>
+      </c>
+      <c r="O231" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P231" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A232" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" t="s">
+        <v>31</v>
+      </c>
+      <c r="D232" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E232" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" s="48">
+        <v>775450094</v>
+      </c>
+      <c r="G232" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I232" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="K232" s="48"/>
+      <c r="L232" s="48"/>
+      <c r="M232" s="50"/>
+      <c r="N232" s="50"/>
+      <c r="O232" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P232" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A233" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B233" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E233" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="F233" s="48">
+        <v>775586253</v>
+      </c>
+      <c r="G233" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I233" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J233" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K233" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L233" s="48">
+        <v>25</v>
+      </c>
+      <c r="M233" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N233" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O233" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P233" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A234" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234" t="s">
+        <v>31</v>
+      </c>
+      <c r="D234" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E234" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="F234" s="48">
+        <v>772131614</v>
+      </c>
+      <c r="G234" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J234" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K234" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L234" s="48">
+        <v>1</v>
+      </c>
+      <c r="M234" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N234" s="50">
+        <v>26000</v>
+      </c>
+      <c r="O234" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P234" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A235" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B235" t="s">
+        <v>30</v>
+      </c>
+      <c r="C235" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="F235" s="48">
+        <v>773708303</v>
+      </c>
+      <c r="G235" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I235" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J235" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="K235" s="48"/>
+      <c r="L235" s="48"/>
+      <c r="M235" s="50"/>
+      <c r="N235" s="50"/>
+      <c r="O235" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P235" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A236" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B236" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E236" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="F236" s="48">
+        <v>774483791</v>
+      </c>
+      <c r="G236" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I236" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J236" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="K236" s="48"/>
+      <c r="L236" s="48"/>
+      <c r="M236" s="50"/>
+      <c r="N236" s="50"/>
+      <c r="O236" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P236" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A237" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B237" t="s">
+        <v>30</v>
+      </c>
+      <c r="C237" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E237" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F237" s="48">
+        <v>774849293</v>
+      </c>
+      <c r="G237" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I237" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K237" s="48"/>
+      <c r="L237" s="48"/>
+      <c r="M237" s="50"/>
+      <c r="N237" s="50"/>
+      <c r="O237" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P237" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A238" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" t="s">
+        <v>31</v>
+      </c>
+      <c r="D238" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E238" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F238" s="48">
+        <v>775630094</v>
+      </c>
+      <c r="G238" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H238" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="K238" s="48"/>
+      <c r="L238" s="48"/>
+      <c r="M238" s="50"/>
+      <c r="N238" s="50"/>
+      <c r="O238" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P238" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A239" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B239" t="s">
+        <v>30</v>
+      </c>
+      <c r="C239" t="s">
+        <v>31</v>
+      </c>
+      <c r="D239" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E239" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="F239" s="48">
+        <v>778291515</v>
+      </c>
+      <c r="G239" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H239" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J239" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="K239" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L239" s="48">
+        <v>1</v>
+      </c>
+      <c r="M239" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N239" s="50">
+        <v>26000</v>
+      </c>
+      <c r="O239" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P239" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A240" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B240" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" t="s">
+        <v>31</v>
+      </c>
+      <c r="D240" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E240" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="F240" s="48">
+        <v>781985160</v>
+      </c>
+      <c r="G240" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H240" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="K240" s="48"/>
+      <c r="L240" s="48"/>
+      <c r="M240" s="50"/>
+      <c r="N240" s="50"/>
+      <c r="O240" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P240" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A241" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B241" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" t="s">
+        <v>31</v>
+      </c>
+      <c r="D241" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E241" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="F241" s="48">
+        <v>779117562</v>
+      </c>
+      <c r="G241" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J241" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="K241" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="L241" s="48">
+        <v>1</v>
+      </c>
+      <c r="M241" s="50">
+        <v>10750</v>
+      </c>
+      <c r="N241" s="50">
+        <v>10750</v>
+      </c>
+      <c r="O241" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P241" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A242" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B242" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" t="s">
+        <v>81</v>
+      </c>
+      <c r="D242" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E242" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="F242" s="48">
+        <v>754419069</v>
+      </c>
+      <c r="G242" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H242" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="K242" s="48"/>
+      <c r="L242" s="48"/>
+      <c r="M242" s="50"/>
+      <c r="N242" s="50"/>
+      <c r="O242" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P242" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A243" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B243" t="s">
+        <v>32</v>
+      </c>
+      <c r="C243" t="s">
+        <v>81</v>
+      </c>
+      <c r="D243" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E243" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="F243" s="48">
+        <v>775710053</v>
+      </c>
+      <c r="G243" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="K243" s="48"/>
+      <c r="L243" s="48"/>
+      <c r="M243" s="50"/>
+      <c r="N243" s="50"/>
+      <c r="O243" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P243" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A244" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E244" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="F244" s="48">
+        <v>779511345</v>
+      </c>
+      <c r="G244" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="H244" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I244" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J244" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K244" s="48"/>
+      <c r="L244" s="48"/>
+      <c r="M244" s="50"/>
+      <c r="N244" s="50"/>
+      <c r="O244" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P244" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A245" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B245" t="s">
+        <v>32</v>
+      </c>
+      <c r="C245" t="s">
+        <v>81</v>
+      </c>
+      <c r="D245" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E245" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="F245" s="48">
+        <v>774725050</v>
+      </c>
+      <c r="G245" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H245" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="K245" s="48"/>
+      <c r="L245" s="48"/>
+      <c r="M245" s="50"/>
+      <c r="N245" s="50"/>
+      <c r="O245" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P245" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A246" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B246" t="s">
+        <v>33</v>
+      </c>
+      <c r="C246" t="s">
+        <v>34</v>
+      </c>
+      <c r="D246" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E246" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F246" s="48">
+        <v>773422594</v>
+      </c>
+      <c r="G246" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H246" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="K246" s="48"/>
+      <c r="L246" s="48"/>
+      <c r="M246" s="50"/>
+      <c r="N246" s="50"/>
+      <c r="O246" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P246" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A247" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B247" t="s">
+        <v>107</v>
+      </c>
+      <c r="C247" t="s">
+        <v>108</v>
+      </c>
+      <c r="D247" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E247" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="F247" s="48">
+        <v>771791564</v>
+      </c>
+      <c r="G247" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I247" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="K247" s="48"/>
+      <c r="L247" s="48"/>
+      <c r="M247" s="50"/>
+      <c r="N247" s="50"/>
+      <c r="O247" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P247" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A248" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B248" t="s">
+        <v>107</v>
+      </c>
+      <c r="C248" t="s">
+        <v>108</v>
+      </c>
+      <c r="D248" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E248" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="F248" s="48">
+        <v>772879565</v>
+      </c>
+      <c r="G248" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I248" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="K248" s="48"/>
+      <c r="L248" s="48"/>
+      <c r="M248" s="50"/>
+      <c r="N248" s="50"/>
+      <c r="O248" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P248" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A249" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B249" t="s">
+        <v>107</v>
+      </c>
+      <c r="C249" t="s">
+        <v>108</v>
+      </c>
+      <c r="D249" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E249" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="F249" s="48">
+        <v>775452096</v>
+      </c>
+      <c r="G249" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H249" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I249" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J249" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="K249" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L249" s="48">
+        <v>25</v>
+      </c>
+      <c r="M249" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N249" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O249" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P249" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A250" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B250" t="s">
+        <v>107</v>
+      </c>
+      <c r="C250" t="s">
+        <v>108</v>
+      </c>
+      <c r="D250" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E250" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F250" s="48">
+        <v>776874747</v>
+      </c>
+      <c r="G250" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H250" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I250" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J250" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K250" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="L250" s="48">
+        <v>1</v>
+      </c>
+      <c r="M250" s="50">
+        <v>7500</v>
+      </c>
+      <c r="N250" s="50">
+        <v>7500</v>
+      </c>
+      <c r="O250" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P250" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A251" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B251" t="s">
+        <v>107</v>
+      </c>
+      <c r="C251" t="s">
+        <v>108</v>
+      </c>
+      <c r="D251" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E251" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="F251" s="48">
+        <v>782489112</v>
+      </c>
+      <c r="G251" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H251" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I251" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="K251" s="48"/>
+      <c r="L251" s="48"/>
+      <c r="M251" s="50"/>
+      <c r="N251" s="50"/>
+      <c r="O251" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P251" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A252" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B252" t="s">
+        <v>107</v>
+      </c>
+      <c r="C252" t="s">
+        <v>108</v>
+      </c>
+      <c r="D252" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E252" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="F252" s="48">
+        <v>789236547</v>
+      </c>
+      <c r="G252" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H252" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I252" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K252" s="48"/>
+      <c r="L252" s="48"/>
+      <c r="M252" s="50"/>
+      <c r="N252" s="50"/>
+      <c r="O252" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P252" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A253" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B253" t="s">
+        <v>107</v>
+      </c>
+      <c r="C253" t="s">
+        <v>108</v>
+      </c>
+      <c r="D253" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E253" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="F253" s="48">
+        <v>764924460</v>
+      </c>
+      <c r="G253" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H253" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="K253" s="48"/>
+      <c r="L253" s="48"/>
+      <c r="M253" s="50"/>
+      <c r="N253" s="50"/>
+      <c r="O253" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P253" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A254" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B254" t="s">
+        <v>107</v>
+      </c>
+      <c r="C254" t="s">
+        <v>108</v>
+      </c>
+      <c r="D254" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="E254" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="F254" s="48">
+        <v>785459209</v>
+      </c>
+      <c r="G254" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I254" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J254" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="K254" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L254" s="48">
+        <v>25</v>
+      </c>
+      <c r="M254" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N254" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O254" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P254" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A255" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B255" t="s">
+        <v>32</v>
+      </c>
+      <c r="C255" t="s">
+        <v>81</v>
+      </c>
+      <c r="D255" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E255" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="F255" s="48">
+        <v>783758073</v>
+      </c>
+      <c r="G255" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H255" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I255" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J255" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="K255" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L255" s="48">
+        <v>25</v>
+      </c>
+      <c r="M255" s="50">
+        <v>19500</v>
+      </c>
+      <c r="N255" s="50">
+        <v>487500</v>
+      </c>
+      <c r="O255" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P255" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A256" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B256" t="s">
+        <v>32</v>
+      </c>
+      <c r="C256" t="s">
+        <v>81</v>
+      </c>
+      <c r="D256" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E256" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="F256" s="48">
+        <v>774993694</v>
+      </c>
+      <c r="G256" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H256" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I256" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J256" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="K256" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L256" s="48">
+        <v>25</v>
+      </c>
+      <c r="M256" s="50">
+        <v>19500</v>
+      </c>
+      <c r="N256" s="50">
+        <v>487500</v>
+      </c>
+      <c r="O256" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P256" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A257" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B257" t="s">
+        <v>32</v>
+      </c>
+      <c r="C257" t="s">
+        <v>81</v>
+      </c>
+      <c r="D257" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E257" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="F257" s="48">
+        <v>777756403</v>
+      </c>
+      <c r="G257" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I257" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="K257" s="48"/>
+      <c r="L257" s="48"/>
+      <c r="M257" s="50"/>
+      <c r="N257" s="50"/>
+      <c r="O257" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P257" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A258" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B258" t="s">
+        <v>32</v>
+      </c>
+      <c r="C258" t="s">
+        <v>81</v>
+      </c>
+      <c r="D258" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E258" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="F258" s="48">
+        <v>775156666</v>
+      </c>
+      <c r="G258" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I258" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="K258" s="48"/>
+      <c r="L258" s="48"/>
+      <c r="M258" s="50"/>
+      <c r="N258" s="50"/>
+      <c r="O258" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P258" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A259" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B259" t="s">
+        <v>32</v>
+      </c>
+      <c r="C259" t="s">
+        <v>81</v>
+      </c>
+      <c r="D259" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E259" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F259" s="48">
+        <v>771797482</v>
+      </c>
+      <c r="G259" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H259" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I259" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="K259" s="48"/>
+      <c r="L259" s="48"/>
+      <c r="M259" s="50"/>
+      <c r="N259" s="50"/>
+      <c r="O259" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P259" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A260" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B260" t="s">
+        <v>32</v>
+      </c>
+      <c r="C260" t="s">
+        <v>81</v>
+      </c>
+      <c r="D260" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E260" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="F260" s="48">
+        <v>764094907</v>
+      </c>
+      <c r="G260" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H260" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I260" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="K260" s="48"/>
+      <c r="L260" s="48"/>
+      <c r="M260" s="50"/>
+      <c r="N260" s="50"/>
+      <c r="O260" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P260" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A261" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B261" t="s">
+        <v>30</v>
+      </c>
+      <c r="C261" t="s">
+        <v>31</v>
+      </c>
+      <c r="D261" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E261" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="F261" s="48">
+        <v>779117562</v>
+      </c>
+      <c r="G261" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H261" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I261" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J261" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="K261" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L261" s="48">
+        <v>1</v>
+      </c>
+      <c r="M261" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N261" s="50">
+        <v>26000</v>
+      </c>
+      <c r="O261" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P261" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A262" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B262" t="s">
+        <v>30</v>
+      </c>
+      <c r="C262" t="s">
+        <v>31</v>
+      </c>
+      <c r="D262" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E262" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="F262" s="48">
+        <v>767510303</v>
+      </c>
+      <c r="G262" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H262" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I262" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="K262" s="48"/>
+      <c r="L262" s="48"/>
+      <c r="M262" s="50"/>
+      <c r="N262" s="50"/>
+      <c r="O262" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P262" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A263" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E263" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="F263" s="48">
+        <v>775447283</v>
+      </c>
+      <c r="G263" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H263" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I263" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J263" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="K263" s="48"/>
+      <c r="L263" s="48"/>
+      <c r="M263" s="50"/>
+      <c r="N263" s="50"/>
+      <c r="O263" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P263" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A264" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B264" t="s">
+        <v>33</v>
+      </c>
+      <c r="C264" t="s">
+        <v>34</v>
+      </c>
+      <c r="D264" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E264" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="F264" s="48">
+        <v>778787700</v>
+      </c>
+      <c r="G264" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H264" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I264" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J264" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K264" s="48"/>
+      <c r="L264" s="48"/>
+      <c r="M264" s="50"/>
+      <c r="N264" s="50"/>
+      <c r="O264" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P264" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A265" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B265" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E265" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="F265" s="48">
+        <v>775653543</v>
+      </c>
+      <c r="G265" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H265" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J265" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="K265" s="48"/>
+      <c r="L265" s="48"/>
+      <c r="M265" s="50"/>
+      <c r="N265" s="50"/>
+      <c r="O265" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P265" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A266" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B266" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E266" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="F266" s="48">
+        <v>776893330</v>
+      </c>
+      <c r="G266" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="H266" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I266" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J266" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="K266" s="48"/>
+      <c r="L266" s="48"/>
+      <c r="M266" s="50"/>
+      <c r="N266" s="50"/>
+      <c r="O266" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P266" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A267" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B267" t="s">
+        <v>20</v>
+      </c>
+      <c r="C267" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E267" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F267" s="48">
+        <v>781468744</v>
+      </c>
+      <c r="G267" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H267" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I267" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J267" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="K267" s="48"/>
+      <c r="L267" s="48"/>
+      <c r="M267" s="50"/>
+      <c r="N267" s="50"/>
+      <c r="O267" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P267" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A268" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" t="s">
+        <v>34</v>
+      </c>
+      <c r="D268" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E268" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F268" s="48">
+        <v>775496769</v>
+      </c>
+      <c r="G268" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H268" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J268" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K268" s="48"/>
+      <c r="L268" s="48"/>
+      <c r="M268" s="50"/>
+      <c r="N268" s="50"/>
+      <c r="O268" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P268" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A269" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B269" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" t="s">
+        <v>34</v>
+      </c>
+      <c r="D269" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E269" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="F269" s="48">
+        <v>775586718</v>
+      </c>
+      <c r="G269" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H269" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J269" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K269" s="48"/>
+      <c r="L269" s="48"/>
+      <c r="M269" s="50"/>
+      <c r="N269" s="50"/>
+      <c r="O269" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P269" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A270" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B270" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" t="s">
+        <v>34</v>
+      </c>
+      <c r="D270" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E270" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="F270" s="48">
+        <v>776369929</v>
+      </c>
+      <c r="G270" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H270" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I270" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K270" s="48"/>
+      <c r="L270" s="48"/>
+      <c r="M270" s="50"/>
+      <c r="N270" s="50"/>
+      <c r="O270" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P270" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A271" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" t="s">
+        <v>34</v>
+      </c>
+      <c r="D271" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E271" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="F271" s="48">
+        <v>778405145</v>
+      </c>
+      <c r="G271" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H271" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I271" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J271" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K271" s="48"/>
+      <c r="L271" s="48"/>
+      <c r="M271" s="50"/>
+      <c r="N271" s="50"/>
+      <c r="O271" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P271" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A272" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B272" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" t="s">
+        <v>34</v>
+      </c>
+      <c r="D272" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E272" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="F272" s="48">
+        <v>778852859</v>
+      </c>
+      <c r="G272" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H272" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I272" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J272" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="K272" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L272" s="48">
+        <v>25</v>
+      </c>
+      <c r="M272" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N272" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O272" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P272" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A273" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B273" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E273" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="F273" s="48">
+        <v>772555234</v>
+      </c>
+      <c r="G273" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H273" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I273" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="K273" s="48"/>
+      <c r="L273" s="48"/>
+      <c r="M273" s="50"/>
+      <c r="N273" s="50"/>
+      <c r="O273" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P273" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A274" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E274" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F274" s="48">
+        <v>781602688</v>
+      </c>
+      <c r="G274" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H274" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I274" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J274" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K274" s="48"/>
+      <c r="L274" s="48"/>
+      <c r="M274" s="50"/>
+      <c r="N274" s="50"/>
+      <c r="O274" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P274" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A275" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E275" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="F275" s="48">
+        <v>777631935</v>
+      </c>
+      <c r="G275" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H275" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I275" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K275" s="48"/>
+      <c r="L275" s="48"/>
+      <c r="M275" s="50"/>
+      <c r="N275" s="50"/>
+      <c r="O275" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P275" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A276" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E276" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="F276" s="48">
+        <v>786352424</v>
+      </c>
+      <c r="G276" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H276" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J276" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K276" s="48"/>
+      <c r="L276" s="48"/>
+      <c r="M276" s="50"/>
+      <c r="N276" s="50"/>
+      <c r="O276" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P276" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A277" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B277" t="s">
+        <v>33</v>
+      </c>
+      <c r="C277" t="s">
+        <v>34</v>
+      </c>
+      <c r="D277" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E277" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="F277" s="48">
+        <v>763469670</v>
+      </c>
+      <c r="G277" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H277" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I277" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J277" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="K277" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L277" s="48">
+        <v>100</v>
+      </c>
+      <c r="M277" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N277" s="50">
+        <v>2600000</v>
+      </c>
+      <c r="O277" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P277" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A278" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B278" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" t="s">
+        <v>34</v>
+      </c>
+      <c r="D278" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E278" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F278" s="48">
+        <v>763888972</v>
+      </c>
+      <c r="G278" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H278" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I278" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K278" s="48"/>
+      <c r="L278" s="48"/>
+      <c r="M278" s="50"/>
+      <c r="N278" s="50"/>
+      <c r="O278" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P278" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A279" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B279" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E279" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F279" s="48">
+        <v>772445091</v>
+      </c>
+      <c r="G279" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H279" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I279" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K279" s="48"/>
+      <c r="L279" s="48"/>
+      <c r="M279" s="50"/>
+      <c r="N279" s="50"/>
+      <c r="O279" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P279" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A280" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B280" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E280" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="F280" s="48">
+        <v>772902514</v>
+      </c>
+      <c r="G280" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H280" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I280" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J280" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K280" s="48"/>
+      <c r="L280" s="48"/>
+      <c r="M280" s="50"/>
+      <c r="N280" s="50"/>
+      <c r="O280" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P280" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A281" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B281" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E281" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="F281" s="48">
+        <v>774452553</v>
+      </c>
+      <c r="G281" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H281" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I281" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="K281" s="48"/>
+      <c r="L281" s="48"/>
+      <c r="M281" s="50"/>
+      <c r="N281" s="50"/>
+      <c r="O281" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P281" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A282" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B282" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D282" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="E282" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="F282" s="48">
+        <v>782340433</v>
+      </c>
+      <c r="G282" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H282" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I282" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K282" s="48"/>
+      <c r="L282" s="48"/>
+      <c r="M282" s="50"/>
+      <c r="N282" s="50"/>
+      <c r="O282" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P282" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A283" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="E283" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="F283" s="48">
+        <v>775411988</v>
+      </c>
+      <c r="G283" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H283" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I283" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J283" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="K283" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L283" s="48">
+        <v>25</v>
+      </c>
+      <c r="M283" s="50">
+        <v>19500</v>
+      </c>
+      <c r="N283" s="50">
+        <v>487500</v>
+      </c>
+      <c r="O283" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P283" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A284" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B284" t="s">
+        <v>24</v>
+      </c>
+      <c r="C284" t="s">
+        <v>25</v>
+      </c>
+      <c r="D284" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="E284" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F284" s="48">
+        <v>778056161</v>
+      </c>
+      <c r="G284" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H284" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I284" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J284" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K284" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L284" s="48">
+        <v>25</v>
+      </c>
+      <c r="M284" s="50">
+        <v>26000</v>
+      </c>
+      <c r="N284" s="50">
+        <v>650000</v>
+      </c>
+      <c r="O284" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P284" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A285" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B285" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" t="s">
+        <v>25</v>
+      </c>
+      <c r="D285" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E285" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="F285" s="48">
+        <v>778380324</v>
+      </c>
+      <c r="G285" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H285" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I285" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="K285" s="48"/>
+      <c r="L285" s="48"/>
+      <c r="M285" s="50"/>
+      <c r="N285" s="50"/>
+      <c r="O285" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P285" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A286" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E286" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="F286" s="48">
+        <v>771871533</v>
+      </c>
+      <c r="G286" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H286" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I286" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J286" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K286" s="48"/>
+      <c r="L286" s="48"/>
+      <c r="M286" s="50"/>
+      <c r="N286" s="50"/>
+      <c r="O286" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P286" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A287" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E287" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="F287" s="48">
+        <v>775987400</v>
+      </c>
+      <c r="G287" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H287" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I287" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J287" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K287" s="48"/>
+      <c r="L287" s="48"/>
+      <c r="M287" s="50"/>
+      <c r="N287" s="50"/>
+      <c r="O287" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P287" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A288" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E288" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="F288" s="48">
+        <v>774464768</v>
+      </c>
+      <c r="G288" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H288" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I288" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K288" s="48"/>
+      <c r="L288" s="48"/>
+      <c r="M288" s="50"/>
+      <c r="N288" s="50"/>
+      <c r="O288" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P288" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A289" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E289" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="F289" s="48">
+        <v>776167544</v>
+      </c>
+      <c r="G289" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H289" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I289" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K289" s="48"/>
+      <c r="L289" s="48"/>
+      <c r="M289" s="50"/>
+      <c r="N289" s="50"/>
+      <c r="O289" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P289" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A290" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E290" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="F290" s="48">
+        <v>776885310</v>
+      </c>
+      <c r="G290" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H290" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I290" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="K290" s="48"/>
+      <c r="L290" s="48"/>
+      <c r="M290" s="50"/>
+      <c r="N290" s="50"/>
+      <c r="O290" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P290" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A291" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E291" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="F291" s="48">
+        <v>772788635</v>
+      </c>
+      <c r="G291" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H291" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I291" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="K291" s="48"/>
+      <c r="L291" s="48"/>
+      <c r="M291" s="50"/>
+      <c r="N291" s="50"/>
+      <c r="O291" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P291" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A292" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E292" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="F292" s="48">
+        <v>785943768</v>
+      </c>
+      <c r="G292" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H292" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I292" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K292" s="48"/>
+      <c r="L292" s="48"/>
+      <c r="M292" s="50"/>
+      <c r="N292" s="50"/>
+      <c r="O292" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P292" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A293" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B293" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E293" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="F293" s="48">
+        <v>775213948</v>
+      </c>
+      <c r="G293" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H293" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I293" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="K293" s="48"/>
+      <c r="L293" s="48"/>
+      <c r="M293" s="50"/>
+      <c r="N293" s="50"/>
+      <c r="O293" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P293" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A294" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B294" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294" t="s">
+        <v>25</v>
+      </c>
+      <c r="D294" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E294" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="F294" s="48">
+        <v>779420909</v>
+      </c>
+      <c r="G294" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H294" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I294" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J294" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="K294" s="48"/>
+      <c r="L294" s="48"/>
+      <c r="M294" s="50"/>
+      <c r="N294" s="50"/>
+      <c r="O294" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P294" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A295" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B295" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" t="s">
+        <v>25</v>
+      </c>
+      <c r="D295" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E295" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="F295" s="48">
+        <v>781532059</v>
+      </c>
+      <c r="G295" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H295" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I295" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J295" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="K295" s="48"/>
+      <c r="L295" s="48"/>
+      <c r="M295" s="50"/>
+      <c r="N295" s="50"/>
+      <c r="O295" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P295" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A296" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B296" t="s">
+        <v>24</v>
+      </c>
+      <c r="C296" t="s">
+        <v>25</v>
+      </c>
+      <c r="D296" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E296" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="F296" s="48">
+        <v>762974040</v>
+      </c>
+      <c r="G296" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H296" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I296" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J296" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="K296" s="48"/>
+      <c r="L296" s="48"/>
+      <c r="M296" s="50"/>
+      <c r="N296" s="50"/>
+      <c r="O296" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P296" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A297" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B297" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" t="s">
+        <v>25</v>
+      </c>
+      <c r="D297" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E297" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="F297" s="48">
+        <v>775792864</v>
+      </c>
+      <c r="G297" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H297" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I297" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J297" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="K297" s="48"/>
+      <c r="L297" s="48"/>
+      <c r="M297" s="50"/>
+      <c r="N297" s="50"/>
+      <c r="O297" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P297" s="51" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A298" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B298" t="s">
+        <v>24</v>
+      </c>
+      <c r="C298" t="s">
+        <v>25</v>
+      </c>
+      <c r="D298" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E298" s="48" t="s">
+        <v>546</v>
+      </c>
+      <c r="F298" s="48">
+        <v>768059355</v>
+      </c>
+      <c r="G298" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H298" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I298" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="K298" s="48"/>
+      <c r="L298" s="48"/>
+      <c r="M298" s="50"/>
+      <c r="N298" s="50"/>
+      <c r="O298" s="51" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P298" s="51" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85595661-A6E6-490C-809F-DF6F1CF0CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C5F5F-E353-469E-B3A3-7418FE910AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="40" r:id="rId5"/>
+        <pivotCache cacheId="0" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -2486,7 +2486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2574,6 +2574,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,15 +2608,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -50485,8 +50477,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:P434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362:N434"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -53911,7 +53903,7 @@
         <v>16</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>100</v>
@@ -65696,36 +65688,32 @@
       <c r="C362" t="s">
         <v>25</v>
       </c>
-      <c r="D362" s="49" t="s">
+      <c r="D362" t="s">
         <v>634</v>
       </c>
-      <c r="E362" s="49" t="s">
+      <c r="E362" t="s">
         <v>635</v>
       </c>
-      <c r="F362" s="49">
+      <c r="F362">
         <v>778494908</v>
       </c>
-      <c r="G362" s="49" t="s">
+      <c r="G362" t="s">
         <v>22</v>
       </c>
-      <c r="H362" s="49" t="s">
+      <c r="H362" t="s">
         <v>19</v>
       </c>
-      <c r="I362" s="49" t="s">
+      <c r="I362" t="s">
         <v>17</v>
       </c>
-      <c r="J362" s="50" t="s">
+      <c r="J362" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="K362" s="49"/>
-      <c r="L362" s="49"/>
-      <c r="M362" s="51"/>
-      <c r="N362" s="51"/>
-      <c r="O362" s="52" t="str">
+      <c r="O362" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P362" s="52" t="str">
+      <c r="P362" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -65740,36 +65728,32 @@
       <c r="C363" t="s">
         <v>108</v>
       </c>
-      <c r="D363" s="49" t="s">
+      <c r="D363" t="s">
         <v>637</v>
       </c>
-      <c r="E363" s="49" t="s">
+      <c r="E363" t="s">
         <v>638</v>
       </c>
-      <c r="F363" s="49">
+      <c r="F363">
         <v>776116789</v>
       </c>
-      <c r="G363" s="49" t="s">
+      <c r="G363" t="s">
         <v>22</v>
       </c>
-      <c r="H363" s="49" t="s">
+      <c r="H363" t="s">
         <v>16</v>
       </c>
-      <c r="I363" s="49" t="s">
+      <c r="I363" t="s">
         <v>17</v>
       </c>
-      <c r="J363" s="50" t="s">
+      <c r="J363" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="K363" s="49"/>
-      <c r="L363" s="49"/>
-      <c r="M363" s="51"/>
-      <c r="N363" s="51"/>
-      <c r="O363" s="52" t="str">
+      <c r="O363" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P363" s="52" t="str">
+      <c r="P363" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -65784,36 +65768,32 @@
       <c r="C364" t="s">
         <v>108</v>
       </c>
-      <c r="D364" s="49" t="s">
+      <c r="D364" t="s">
         <v>637</v>
       </c>
-      <c r="E364" s="49" t="s">
+      <c r="E364" t="s">
         <v>640</v>
       </c>
-      <c r="F364" s="49">
+      <c r="F364">
         <v>774446240</v>
       </c>
-      <c r="G364" s="49" t="s">
+      <c r="G364" t="s">
         <v>22</v>
       </c>
-      <c r="H364" s="49" t="s">
+      <c r="H364" t="s">
         <v>19</v>
       </c>
-      <c r="I364" s="49" t="s">
+      <c r="I364" t="s">
         <v>17</v>
       </c>
-      <c r="J364" s="50" t="s">
+      <c r="J364" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="K364" s="49"/>
-      <c r="L364" s="49"/>
-      <c r="M364" s="51"/>
-      <c r="N364" s="51"/>
-      <c r="O364" s="52" t="str">
+      <c r="O364" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P364" s="52" t="str">
+      <c r="P364" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -65828,36 +65808,32 @@
       <c r="C365" t="s">
         <v>108</v>
       </c>
-      <c r="D365" s="49" t="s">
+      <c r="D365" t="s">
         <v>637</v>
       </c>
-      <c r="E365" s="49" t="s">
+      <c r="E365" t="s">
         <v>352</v>
       </c>
-      <c r="F365" s="49">
+      <c r="F365">
         <v>777222802</v>
       </c>
-      <c r="G365" s="49" t="s">
+      <c r="G365" t="s">
         <v>22</v>
       </c>
-      <c r="H365" s="49" t="s">
+      <c r="H365" t="s">
         <v>19</v>
       </c>
-      <c r="I365" s="49" t="s">
+      <c r="I365" t="s">
         <v>17</v>
       </c>
-      <c r="J365" s="50" t="s">
+      <c r="J365" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="K365" s="49"/>
-      <c r="L365" s="49"/>
-      <c r="M365" s="51"/>
-      <c r="N365" s="51"/>
-      <c r="O365" s="52" t="str">
+      <c r="O365" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P365" s="52" t="str">
+      <c r="P365" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -65872,36 +65848,32 @@
       <c r="C366" t="s">
         <v>14</v>
       </c>
-      <c r="D366" s="49" t="s">
+      <c r="D366" t="s">
         <v>37</v>
       </c>
-      <c r="E366" s="49" t="s">
+      <c r="E366" t="s">
         <v>132</v>
       </c>
-      <c r="F366" s="49">
+      <c r="F366">
         <v>772900705</v>
       </c>
-      <c r="G366" s="49" t="s">
+      <c r="G366" t="s">
         <v>22</v>
       </c>
-      <c r="H366" s="49" t="s">
+      <c r="H366" t="s">
         <v>16</v>
       </c>
-      <c r="I366" s="49" t="s">
+      <c r="I366" t="s">
         <v>17</v>
       </c>
-      <c r="J366" s="50" t="s">
+      <c r="J366" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="K366" s="49"/>
-      <c r="L366" s="49"/>
-      <c r="M366" s="51"/>
-      <c r="N366" s="51"/>
-      <c r="O366" s="52" t="str">
+      <c r="O366" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P366" s="52" t="str">
+      <c r="P366" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -65916,36 +65888,32 @@
       <c r="C367" t="s">
         <v>14</v>
       </c>
-      <c r="D367" s="49" t="s">
+      <c r="D367" t="s">
         <v>37</v>
       </c>
-      <c r="E367" s="49" t="s">
+      <c r="E367" t="s">
         <v>128</v>
       </c>
-      <c r="F367" s="49">
+      <c r="F367">
         <v>775884054</v>
       </c>
-      <c r="G367" s="49" t="s">
+      <c r="G367" t="s">
         <v>15</v>
       </c>
-      <c r="H367" s="49" t="s">
+      <c r="H367" t="s">
         <v>16</v>
       </c>
-      <c r="I367" s="49" t="s">
+      <c r="I367" t="s">
         <v>17</v>
       </c>
-      <c r="J367" s="50" t="s">
+      <c r="J367" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="K367" s="49"/>
-      <c r="L367" s="49"/>
-      <c r="M367" s="51"/>
-      <c r="N367" s="51"/>
-      <c r="O367" s="52" t="str">
+      <c r="O367" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P367" s="52" t="str">
+      <c r="P367" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -65960,36 +65928,32 @@
       <c r="C368" t="s">
         <v>14</v>
       </c>
-      <c r="D368" s="49" t="s">
+      <c r="D368" t="s">
         <v>37</v>
       </c>
-      <c r="E368" s="49" t="s">
+      <c r="E368" t="s">
         <v>211</v>
       </c>
-      <c r="F368" s="49">
+      <c r="F368">
         <v>775538380</v>
       </c>
-      <c r="G368" s="49" t="s">
+      <c r="G368" t="s">
         <v>22</v>
       </c>
-      <c r="H368" s="49" t="s">
+      <c r="H368" t="s">
         <v>16</v>
       </c>
-      <c r="I368" s="49" t="s">
+      <c r="I368" t="s">
         <v>17</v>
       </c>
-      <c r="J368" s="50" t="s">
+      <c r="J368" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="K368" s="49"/>
-      <c r="L368" s="49"/>
-      <c r="M368" s="51"/>
-      <c r="N368" s="51"/>
-      <c r="O368" s="52" t="str">
+      <c r="O368" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P368" s="52" t="str">
+      <c r="P368" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66004,36 +65968,32 @@
       <c r="C369" t="s">
         <v>14</v>
       </c>
-      <c r="D369" s="49" t="s">
+      <c r="D369" t="s">
         <v>37</v>
       </c>
-      <c r="E369" s="49" t="s">
+      <c r="E369" t="s">
         <v>199</v>
       </c>
-      <c r="F369" s="49">
+      <c r="F369">
         <v>777262311</v>
       </c>
-      <c r="G369" s="49" t="s">
+      <c r="G369" t="s">
         <v>22</v>
       </c>
-      <c r="H369" s="49" t="s">
+      <c r="H369" t="s">
         <v>16</v>
       </c>
-      <c r="I369" s="49" t="s">
+      <c r="I369" t="s">
         <v>17</v>
       </c>
-      <c r="J369" s="50" t="s">
+      <c r="J369" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="K369" s="49"/>
-      <c r="L369" s="49"/>
-      <c r="M369" s="51"/>
-      <c r="N369" s="51"/>
-      <c r="O369" s="52" t="str">
+      <c r="O369" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P369" s="52" t="str">
+      <c r="P369" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66048,36 +66008,32 @@
       <c r="C370" t="s">
         <v>14</v>
       </c>
-      <c r="D370" s="49" t="s">
+      <c r="D370" t="s">
         <v>37</v>
       </c>
-      <c r="E370" s="49" t="s">
+      <c r="E370" t="s">
         <v>201</v>
       </c>
-      <c r="F370" s="49">
+      <c r="F370">
         <v>778276533</v>
       </c>
-      <c r="G370" s="49" t="s">
+      <c r="G370" t="s">
         <v>22</v>
       </c>
-      <c r="H370" s="49" t="s">
+      <c r="H370" t="s">
         <v>16</v>
       </c>
-      <c r="I370" s="49" t="s">
+      <c r="I370" t="s">
         <v>17</v>
       </c>
-      <c r="J370" s="50" t="s">
+      <c r="J370" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="K370" s="49"/>
-      <c r="L370" s="49"/>
-      <c r="M370" s="51"/>
-      <c r="N370" s="51"/>
-      <c r="O370" s="52" t="str">
+      <c r="O370" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P370" s="52" t="str">
+      <c r="P370" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66092,36 +66048,32 @@
       <c r="C371" t="s">
         <v>14</v>
       </c>
-      <c r="D371" s="49" t="s">
+      <c r="D371" t="s">
         <v>37</v>
       </c>
-      <c r="E371" s="49" t="s">
+      <c r="E371" t="s">
         <v>202</v>
       </c>
-      <c r="F371" s="49">
+      <c r="F371">
         <v>776634479</v>
       </c>
-      <c r="G371" s="49" t="s">
+      <c r="G371" t="s">
         <v>22</v>
       </c>
-      <c r="H371" s="49" t="s">
+      <c r="H371" t="s">
         <v>19</v>
       </c>
-      <c r="I371" s="49" t="s">
+      <c r="I371" t="s">
         <v>17</v>
       </c>
-      <c r="J371" s="50" t="s">
+      <c r="J371" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K371" s="49"/>
-      <c r="L371" s="49"/>
-      <c r="M371" s="51"/>
-      <c r="N371" s="51"/>
-      <c r="O371" s="52" t="str">
+      <c r="O371" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P371" s="52" t="str">
+      <c r="P371" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66136,36 +66088,32 @@
       <c r="C372" t="s">
         <v>14</v>
       </c>
-      <c r="D372" s="49" t="s">
+      <c r="D372" t="s">
         <v>37</v>
       </c>
-      <c r="E372" s="49" t="s">
+      <c r="E372" t="s">
         <v>203</v>
       </c>
-      <c r="F372" s="49">
+      <c r="F372">
         <v>773248259</v>
       </c>
-      <c r="G372" s="49" t="s">
+      <c r="G372" t="s">
         <v>18</v>
       </c>
-      <c r="H372" s="49" t="s">
+      <c r="H372" t="s">
         <v>19</v>
       </c>
-      <c r="I372" s="49" t="s">
+      <c r="I372" t="s">
         <v>17</v>
       </c>
-      <c r="J372" s="50" t="s">
+      <c r="J372" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K372" s="49"/>
-      <c r="L372" s="49"/>
-      <c r="M372" s="51"/>
-      <c r="N372" s="51"/>
-      <c r="O372" s="52" t="str">
+      <c r="O372" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P372" s="52" t="str">
+      <c r="P372" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66180,44 +66128,44 @@
       <c r="C373" t="s">
         <v>31</v>
       </c>
-      <c r="D373" s="49" t="s">
+      <c r="D373" t="s">
         <v>647</v>
       </c>
-      <c r="E373" s="49" t="s">
+      <c r="E373" t="s">
         <v>61</v>
       </c>
-      <c r="F373" s="49">
+      <c r="F373">
         <v>775510532</v>
       </c>
-      <c r="G373" s="49" t="s">
+      <c r="G373" t="s">
         <v>22</v>
       </c>
-      <c r="H373" s="49" t="s">
+      <c r="H373" t="s">
         <v>16</v>
       </c>
-      <c r="I373" s="49" t="s">
+      <c r="I373" t="s">
         <v>28</v>
       </c>
-      <c r="J373" s="50" t="s">
+      <c r="J373" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="K373" s="49" t="s">
+      <c r="K373" t="s">
         <v>27</v>
       </c>
-      <c r="L373" s="49">
+      <c r="L373">
         <v>1</v>
       </c>
-      <c r="M373" s="51">
+      <c r="M373" s="5">
         <v>26000</v>
       </c>
-      <c r="N373" s="51">
+      <c r="N373" s="5">
         <v>26000</v>
       </c>
-      <c r="O373" s="52" t="str">
+      <c r="O373" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P373" s="52" t="str">
+      <c r="P373" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66232,36 +66180,32 @@
       <c r="C374" t="s">
         <v>31</v>
       </c>
-      <c r="D374" s="49" t="s">
+      <c r="D374" t="s">
         <v>647</v>
       </c>
-      <c r="E374" s="49" t="s">
+      <c r="E374" t="s">
         <v>631</v>
       </c>
-      <c r="F374" s="49">
+      <c r="F374">
         <v>773233060</v>
       </c>
-      <c r="G374" s="49" t="s">
+      <c r="G374" t="s">
         <v>22</v>
       </c>
-      <c r="H374" s="49" t="s">
+      <c r="H374" t="s">
         <v>19</v>
       </c>
-      <c r="I374" s="49" t="s">
+      <c r="I374" t="s">
         <v>17</v>
       </c>
-      <c r="J374" s="50" t="s">
+      <c r="J374" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="K374" s="49"/>
-      <c r="L374" s="49"/>
-      <c r="M374" s="51"/>
-      <c r="N374" s="51"/>
-      <c r="O374" s="52" t="str">
+      <c r="O374" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P374" s="52" t="str">
+      <c r="P374" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66276,44 +66220,44 @@
       <c r="C375" t="s">
         <v>31</v>
       </c>
-      <c r="D375" s="49" t="s">
+      <c r="D375" t="s">
         <v>647</v>
       </c>
-      <c r="E375" s="49" t="s">
+      <c r="E375" t="s">
         <v>649</v>
       </c>
-      <c r="F375" s="49">
+      <c r="F375">
         <v>775364835</v>
       </c>
-      <c r="G375" s="49" t="s">
+      <c r="G375" t="s">
         <v>22</v>
       </c>
-      <c r="H375" s="49" t="s">
+      <c r="H375" t="s">
         <v>19</v>
       </c>
-      <c r="I375" s="49" t="s">
+      <c r="I375" t="s">
         <v>28</v>
       </c>
-      <c r="J375" s="50" t="s">
+      <c r="J375" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="K375" s="49" t="s">
+      <c r="K375" t="s">
         <v>91</v>
       </c>
-      <c r="L375" s="49">
+      <c r="L375">
         <v>1</v>
       </c>
-      <c r="M375" s="51">
+      <c r="M375" s="5">
         <v>10750</v>
       </c>
-      <c r="N375" s="51">
+      <c r="N375" s="5">
         <v>10750</v>
       </c>
-      <c r="O375" s="52" t="str">
+      <c r="O375" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P375" s="52" t="str">
+      <c r="P375" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66328,44 +66272,44 @@
       <c r="C376" t="s">
         <v>31</v>
       </c>
-      <c r="D376" s="49" t="s">
+      <c r="D376" t="s">
         <v>647</v>
       </c>
-      <c r="E376" s="49" t="s">
+      <c r="E376" t="s">
         <v>649</v>
       </c>
-      <c r="F376" s="49">
+      <c r="F376">
         <v>775364835</v>
       </c>
-      <c r="G376" s="49" t="s">
+      <c r="G376" t="s">
         <v>22</v>
       </c>
-      <c r="H376" s="49" t="s">
+      <c r="H376" t="s">
         <v>19</v>
       </c>
-      <c r="I376" s="49" t="s">
+      <c r="I376" t="s">
         <v>28</v>
       </c>
-      <c r="J376" s="50" t="s">
+      <c r="J376" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="K376" s="49" t="s">
+      <c r="K376" t="s">
         <v>224</v>
       </c>
-      <c r="L376" s="49">
+      <c r="L376">
         <v>1</v>
       </c>
-      <c r="M376" s="51">
+      <c r="M376" s="5">
         <v>19500</v>
       </c>
-      <c r="N376" s="51">
+      <c r="N376" s="5">
         <v>19500</v>
       </c>
-      <c r="O376" s="52" t="str">
+      <c r="O376" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P376" s="52" t="str">
+      <c r="P376" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66380,36 +66324,32 @@
       <c r="C377" t="s">
         <v>31</v>
       </c>
-      <c r="D377" s="49" t="s">
+      <c r="D377" t="s">
         <v>647</v>
       </c>
-      <c r="E377" s="49" t="s">
+      <c r="E377" t="s">
         <v>650</v>
       </c>
-      <c r="F377" s="49">
+      <c r="F377">
         <v>775411038</v>
       </c>
-      <c r="G377" s="49" t="s">
+      <c r="G377" t="s">
         <v>22</v>
       </c>
-      <c r="H377" s="49" t="s">
+      <c r="H377" t="s">
         <v>16</v>
       </c>
-      <c r="I377" s="49" t="s">
+      <c r="I377" t="s">
         <v>17</v>
       </c>
-      <c r="J377" s="50" t="s">
+      <c r="J377" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K377" s="49"/>
-      <c r="L377" s="49"/>
-      <c r="M377" s="51"/>
-      <c r="N377" s="51"/>
-      <c r="O377" s="52" t="str">
+      <c r="O377" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P377" s="52" t="str">
+      <c r="P377" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66424,36 +66364,32 @@
       <c r="C378" t="s">
         <v>31</v>
       </c>
-      <c r="D378" s="49" t="s">
+      <c r="D378" t="s">
         <v>647</v>
       </c>
-      <c r="E378" s="49" t="s">
+      <c r="E378" t="s">
         <v>557</v>
       </c>
-      <c r="F378" s="49">
+      <c r="F378">
         <v>776170495</v>
       </c>
-      <c r="G378" s="49" t="s">
+      <c r="G378" t="s">
         <v>22</v>
       </c>
-      <c r="H378" s="49" t="s">
+      <c r="H378" t="s">
         <v>16</v>
       </c>
-      <c r="I378" s="49" t="s">
+      <c r="I378" t="s">
         <v>17</v>
       </c>
-      <c r="J378" s="50" t="s">
+      <c r="J378" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="K378" s="49"/>
-      <c r="L378" s="49"/>
-      <c r="M378" s="51"/>
-      <c r="N378" s="51"/>
-      <c r="O378" s="52" t="str">
+      <c r="O378" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P378" s="52" t="str">
+      <c r="P378" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66468,36 +66404,32 @@
       <c r="C379" t="s">
         <v>108</v>
       </c>
-      <c r="D379" s="49" t="s">
+      <c r="D379" t="s">
         <v>637</v>
       </c>
-      <c r="E379" s="49" t="s">
+      <c r="E379" t="s">
         <v>652</v>
       </c>
-      <c r="F379" s="49">
+      <c r="F379">
         <v>780191969</v>
       </c>
-      <c r="G379" s="49" t="s">
+      <c r="G379" t="s">
         <v>22</v>
       </c>
-      <c r="H379" s="49" t="s">
+      <c r="H379" t="s">
         <v>16</v>
       </c>
-      <c r="I379" s="49" t="s">
+      <c r="I379" t="s">
         <v>17</v>
       </c>
-      <c r="J379" s="50" t="s">
+      <c r="J379" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="K379" s="49"/>
-      <c r="L379" s="49"/>
-      <c r="M379" s="51"/>
-      <c r="N379" s="51"/>
-      <c r="O379" s="52" t="str">
+      <c r="O379" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P379" s="52" t="str">
+      <c r="P379" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66512,36 +66444,32 @@
       <c r="C380" t="s">
         <v>108</v>
       </c>
-      <c r="D380" s="49" t="s">
+      <c r="D380" t="s">
         <v>637</v>
       </c>
-      <c r="E380" s="49" t="s">
+      <c r="E380" t="s">
         <v>428</v>
       </c>
-      <c r="F380" s="49">
+      <c r="F380">
         <v>772106291</v>
       </c>
-      <c r="G380" s="49" t="s">
+      <c r="G380" t="s">
         <v>22</v>
       </c>
-      <c r="H380" s="49" t="s">
+      <c r="H380" t="s">
         <v>16</v>
       </c>
-      <c r="I380" s="49" t="s">
+      <c r="I380" t="s">
         <v>17</v>
       </c>
-      <c r="J380" s="50" t="s">
+      <c r="J380" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K380" s="49"/>
-      <c r="L380" s="49"/>
-      <c r="M380" s="51"/>
-      <c r="N380" s="51"/>
-      <c r="O380" s="52" t="str">
+      <c r="O380" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P380" s="52" t="str">
+      <c r="P380" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66556,36 +66484,32 @@
       <c r="C381" t="s">
         <v>31</v>
       </c>
-      <c r="D381" s="49" t="s">
+      <c r="D381" t="s">
         <v>647</v>
       </c>
-      <c r="E381" s="49" t="s">
+      <c r="E381" t="s">
         <v>654</v>
       </c>
-      <c r="F381" s="49">
+      <c r="F381">
         <v>781507274</v>
       </c>
-      <c r="G381" s="49" t="s">
+      <c r="G381" t="s">
         <v>22</v>
       </c>
-      <c r="H381" s="49" t="s">
+      <c r="H381" t="s">
         <v>16</v>
       </c>
-      <c r="I381" s="49" t="s">
+      <c r="I381" t="s">
         <v>17</v>
       </c>
-      <c r="J381" s="50" t="s">
+      <c r="J381" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="K381" s="49"/>
-      <c r="L381" s="49"/>
-      <c r="M381" s="51"/>
-      <c r="N381" s="51"/>
-      <c r="O381" s="52" t="str">
+      <c r="O381" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P381" s="52" t="str">
+      <c r="P381" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66600,36 +66524,32 @@
       <c r="C382" t="s">
         <v>108</v>
       </c>
-      <c r="D382" s="49" t="s">
+      <c r="D382" t="s">
         <v>637</v>
       </c>
-      <c r="E382" s="49" t="s">
+      <c r="E382" t="s">
         <v>656</v>
       </c>
-      <c r="F382" s="49">
+      <c r="F382">
         <v>785107921</v>
       </c>
-      <c r="G382" s="49" t="s">
+      <c r="G382" t="s">
         <v>15</v>
       </c>
-      <c r="H382" s="49" t="s">
+      <c r="H382" t="s">
         <v>16</v>
       </c>
-      <c r="I382" s="49" t="s">
+      <c r="I382" t="s">
         <v>17</v>
       </c>
-      <c r="J382" s="50" t="s">
+      <c r="J382" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="K382" s="49"/>
-      <c r="L382" s="49"/>
-      <c r="M382" s="51"/>
-      <c r="N382" s="51"/>
-      <c r="O382" s="52" t="str">
+      <c r="O382" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P382" s="52" t="str">
+      <c r="P382" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66644,36 +66564,32 @@
       <c r="C383" t="s">
         <v>25</v>
       </c>
-      <c r="D383" s="49" t="s">
+      <c r="D383" t="s">
         <v>634</v>
       </c>
-      <c r="E383" s="49" t="s">
+      <c r="E383" t="s">
         <v>658</v>
       </c>
-      <c r="F383" s="49">
+      <c r="F383">
         <v>775582583</v>
       </c>
-      <c r="G383" s="49" t="s">
+      <c r="G383" t="s">
         <v>22</v>
       </c>
-      <c r="H383" s="49" t="s">
+      <c r="H383" t="s">
         <v>16</v>
       </c>
-      <c r="I383" s="49" t="s">
+      <c r="I383" t="s">
         <v>17</v>
       </c>
-      <c r="J383" s="50" t="s">
+      <c r="J383" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="K383" s="49"/>
-      <c r="L383" s="49"/>
-      <c r="M383" s="51"/>
-      <c r="N383" s="51"/>
-      <c r="O383" s="52" t="str">
+      <c r="O383" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P383" s="52" t="str">
+      <c r="P383" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66688,36 +66604,32 @@
       <c r="C384" t="s">
         <v>81</v>
       </c>
-      <c r="D384" s="49" t="s">
+      <c r="D384" t="s">
         <v>660</v>
       </c>
-      <c r="E384" s="49" t="s">
+      <c r="E384" t="s">
         <v>661</v>
       </c>
-      <c r="F384" s="49">
+      <c r="F384">
         <v>765434141</v>
       </c>
-      <c r="G384" s="49" t="s">
+      <c r="G384" t="s">
         <v>22</v>
       </c>
-      <c r="H384" s="49" t="s">
+      <c r="H384" t="s">
         <v>16</v>
       </c>
-      <c r="I384" s="49" t="s">
+      <c r="I384" t="s">
         <v>17</v>
       </c>
-      <c r="J384" s="50" t="s">
+      <c r="J384" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="K384" s="49"/>
-      <c r="L384" s="49"/>
-      <c r="M384" s="51"/>
-      <c r="N384" s="51"/>
-      <c r="O384" s="52" t="str">
+      <c r="O384" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P384" s="52" t="str">
+      <c r="P384" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66732,36 +66644,32 @@
       <c r="C385" t="s">
         <v>81</v>
       </c>
-      <c r="D385" s="49" t="s">
+      <c r="D385" t="s">
         <v>660</v>
       </c>
-      <c r="E385" s="49" t="s">
+      <c r="E385" t="s">
         <v>663</v>
       </c>
-      <c r="F385" s="49">
+      <c r="F385">
         <v>766454835</v>
       </c>
-      <c r="G385" s="49" t="s">
+      <c r="G385" t="s">
         <v>22</v>
       </c>
-      <c r="H385" s="49" t="s">
+      <c r="H385" t="s">
         <v>16</v>
       </c>
-      <c r="I385" s="49" t="s">
+      <c r="I385" t="s">
         <v>17</v>
       </c>
-      <c r="J385" s="50" t="s">
+      <c r="J385" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="K385" s="49"/>
-      <c r="L385" s="49"/>
-      <c r="M385" s="51"/>
-      <c r="N385" s="51"/>
-      <c r="O385" s="52" t="str">
+      <c r="O385" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P385" s="52" t="str">
+      <c r="P385" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66776,36 +66684,32 @@
       <c r="C386" t="s">
         <v>81</v>
       </c>
-      <c r="D386" s="49" t="s">
+      <c r="D386" t="s">
         <v>660</v>
       </c>
-      <c r="E386" s="49" t="s">
+      <c r="E386" t="s">
         <v>665</v>
       </c>
-      <c r="F386" s="49">
+      <c r="F386">
         <v>771589091</v>
       </c>
-      <c r="G386" s="49" t="s">
+      <c r="G386" t="s">
         <v>22</v>
       </c>
-      <c r="H386" s="49" t="s">
+      <c r="H386" t="s">
         <v>16</v>
       </c>
-      <c r="I386" s="49" t="s">
+      <c r="I386" t="s">
         <v>17</v>
       </c>
-      <c r="J386" s="50" t="s">
+      <c r="J386" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="K386" s="49"/>
-      <c r="L386" s="49"/>
-      <c r="M386" s="51"/>
-      <c r="N386" s="51"/>
-      <c r="O386" s="52" t="str">
+      <c r="O386" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P386" s="52" t="str">
+      <c r="P386" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66820,36 +66724,32 @@
       <c r="C387" t="s">
         <v>81</v>
       </c>
-      <c r="D387" s="49" t="s">
+      <c r="D387" t="s">
         <v>660</v>
       </c>
-      <c r="E387" s="49" t="s">
+      <c r="E387" t="s">
         <v>667</v>
       </c>
-      <c r="F387" s="49">
+      <c r="F387">
         <v>776110732</v>
       </c>
-      <c r="G387" s="49" t="s">
+      <c r="G387" t="s">
         <v>22</v>
       </c>
-      <c r="H387" s="49" t="s">
+      <c r="H387" t="s">
         <v>19</v>
       </c>
-      <c r="I387" s="49" t="s">
+      <c r="I387" t="s">
         <v>17</v>
       </c>
-      <c r="J387" s="50" t="s">
+      <c r="J387" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="K387" s="49"/>
-      <c r="L387" s="49"/>
-      <c r="M387" s="51"/>
-      <c r="N387" s="51"/>
-      <c r="O387" s="52" t="str">
+      <c r="O387" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P387" s="52" t="str">
+      <c r="P387" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66864,36 +66764,32 @@
       <c r="C388" t="s">
         <v>81</v>
       </c>
-      <c r="D388" s="49" t="s">
+      <c r="D388" t="s">
         <v>660</v>
       </c>
-      <c r="E388" s="49" t="s">
+      <c r="E388" t="s">
         <v>669</v>
       </c>
-      <c r="F388" s="49">
+      <c r="F388">
         <v>781310969</v>
       </c>
-      <c r="G388" s="49" t="s">
+      <c r="G388" t="s">
         <v>22</v>
       </c>
-      <c r="H388" s="49" t="s">
+      <c r="H388" t="s">
         <v>19</v>
       </c>
-      <c r="I388" s="49" t="s">
+      <c r="I388" t="s">
         <v>17</v>
       </c>
-      <c r="J388" s="50" t="s">
+      <c r="J388" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="K388" s="49"/>
-      <c r="L388" s="49"/>
-      <c r="M388" s="51"/>
-      <c r="N388" s="51"/>
-      <c r="O388" s="52" t="str">
+      <c r="O388" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P388" s="52" t="str">
+      <c r="P388" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66908,36 +66804,32 @@
       <c r="C389" t="s">
         <v>81</v>
       </c>
-      <c r="D389" s="49" t="s">
+      <c r="D389" t="s">
         <v>660</v>
       </c>
-      <c r="E389" s="49" t="s">
+      <c r="E389" t="s">
         <v>671</v>
       </c>
-      <c r="F389" s="49">
+      <c r="F389">
         <v>765118157</v>
       </c>
-      <c r="G389" s="49" t="s">
+      <c r="G389" t="s">
         <v>15</v>
       </c>
-      <c r="H389" s="49" t="s">
+      <c r="H389" t="s">
         <v>19</v>
       </c>
-      <c r="I389" s="49" t="s">
+      <c r="I389" t="s">
         <v>17</v>
       </c>
-      <c r="J389" s="50" t="s">
+      <c r="J389" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="K389" s="49"/>
-      <c r="L389" s="49"/>
-      <c r="M389" s="51"/>
-      <c r="N389" s="51"/>
-      <c r="O389" s="52" t="str">
+      <c r="O389" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P389" s="52" t="str">
+      <c r="P389" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -66952,44 +66844,44 @@
       <c r="C390" t="s">
         <v>81</v>
       </c>
-      <c r="D390" s="49" t="s">
+      <c r="D390" t="s">
         <v>660</v>
       </c>
-      <c r="E390" s="49" t="s">
+      <c r="E390" t="s">
         <v>673</v>
       </c>
-      <c r="F390" s="49">
+      <c r="F390">
         <v>776227120</v>
       </c>
-      <c r="G390" s="49" t="s">
+      <c r="G390" t="s">
         <v>22</v>
       </c>
-      <c r="H390" s="49" t="s">
+      <c r="H390" t="s">
         <v>19</v>
       </c>
-      <c r="I390" s="49" t="s">
+      <c r="I390" t="s">
         <v>28</v>
       </c>
-      <c r="J390" s="50" t="s">
+      <c r="J390" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="K390" s="49" t="s">
+      <c r="K390" t="s">
         <v>27</v>
       </c>
-      <c r="L390" s="49">
+      <c r="L390">
         <v>10</v>
       </c>
-      <c r="M390" s="51">
+      <c r="M390" s="5">
         <v>26000</v>
       </c>
-      <c r="N390" s="51">
+      <c r="N390" s="5">
         <v>260000</v>
       </c>
-      <c r="O390" s="52" t="str">
+      <c r="O390" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P390" s="52" t="str">
+      <c r="P390" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67004,36 +66896,32 @@
       <c r="C391" t="s">
         <v>81</v>
       </c>
-      <c r="D391" s="49" t="s">
+      <c r="D391" t="s">
         <v>660</v>
       </c>
-      <c r="E391" s="49" t="s">
+      <c r="E391" t="s">
         <v>675</v>
       </c>
-      <c r="F391" s="49">
+      <c r="F391">
         <v>772768061</v>
       </c>
-      <c r="G391" s="49" t="s">
+      <c r="G391" t="s">
         <v>22</v>
       </c>
-      <c r="H391" s="49" t="s">
+      <c r="H391" t="s">
         <v>16</v>
       </c>
-      <c r="I391" s="49" t="s">
+      <c r="I391" t="s">
         <v>17</v>
       </c>
-      <c r="J391" s="50" t="s">
+      <c r="J391" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="K391" s="49"/>
-      <c r="L391" s="49"/>
-      <c r="M391" s="51"/>
-      <c r="N391" s="51"/>
-      <c r="O391" s="52" t="str">
+      <c r="O391" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P391" s="52" t="str">
+      <c r="P391" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67048,36 +66936,32 @@
       <c r="C392" t="s">
         <v>81</v>
       </c>
-      <c r="D392" s="49" t="s">
+      <c r="D392" t="s">
         <v>660</v>
       </c>
-      <c r="E392" s="49" t="s">
+      <c r="E392" t="s">
         <v>676</v>
       </c>
-      <c r="F392" s="49">
+      <c r="F392">
         <v>770532919</v>
       </c>
-      <c r="G392" s="49" t="s">
+      <c r="G392" t="s">
         <v>22</v>
       </c>
-      <c r="H392" s="49" t="s">
+      <c r="H392" t="s">
         <v>19</v>
       </c>
-      <c r="I392" s="49" t="s">
+      <c r="I392" t="s">
         <v>17</v>
       </c>
-      <c r="J392" s="50" t="s">
+      <c r="J392" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="K392" s="49"/>
-      <c r="L392" s="49"/>
-      <c r="M392" s="51"/>
-      <c r="N392" s="51"/>
-      <c r="O392" s="52" t="str">
+      <c r="O392" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P392" s="52" t="str">
+      <c r="P392" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67092,36 +66976,32 @@
       <c r="C393" t="s">
         <v>81</v>
       </c>
-      <c r="D393" s="49" t="s">
+      <c r="D393" t="s">
         <v>660</v>
       </c>
-      <c r="E393" s="49" t="s">
+      <c r="E393" t="s">
         <v>669</v>
       </c>
-      <c r="F393" s="49">
+      <c r="F393">
         <v>781310969</v>
       </c>
-      <c r="G393" s="49" t="s">
+      <c r="G393" t="s">
         <v>22</v>
       </c>
-      <c r="H393" s="49" t="s">
+      <c r="H393" t="s">
         <v>19</v>
       </c>
-      <c r="I393" s="49" t="s">
+      <c r="I393" t="s">
         <v>17</v>
       </c>
-      <c r="J393" s="50" t="s">
+      <c r="J393" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="K393" s="49"/>
-      <c r="L393" s="49"/>
-      <c r="M393" s="51"/>
-      <c r="N393" s="51"/>
-      <c r="O393" s="52" t="str">
+      <c r="O393" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P393" s="52" t="str">
+      <c r="P393" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67136,44 +67016,44 @@
       <c r="C394" t="s">
         <v>81</v>
       </c>
-      <c r="D394" s="49" t="s">
+      <c r="D394" t="s">
         <v>660</v>
       </c>
-      <c r="E394" s="49" t="s">
+      <c r="E394" t="s">
         <v>679</v>
       </c>
-      <c r="F394" s="49">
+      <c r="F394">
         <v>770217868</v>
       </c>
-      <c r="G394" s="49" t="s">
+      <c r="G394" t="s">
         <v>22</v>
       </c>
-      <c r="H394" s="49" t="s">
+      <c r="H394" t="s">
         <v>19</v>
       </c>
-      <c r="I394" s="49" t="s">
+      <c r="I394" t="s">
         <v>28</v>
       </c>
-      <c r="J394" s="50" t="s">
+      <c r="J394" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="K394" s="49" t="s">
+      <c r="K394" t="s">
         <v>27</v>
       </c>
-      <c r="L394" s="49">
+      <c r="L394">
         <v>25</v>
       </c>
-      <c r="M394" s="51">
+      <c r="M394" s="5">
         <v>26000</v>
       </c>
-      <c r="N394" s="51">
+      <c r="N394" s="5">
         <v>650000</v>
       </c>
-      <c r="O394" s="52" t="str">
+      <c r="O394" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P394" s="52" t="str">
+      <c r="P394" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67188,36 +67068,32 @@
       <c r="C395" t="s">
         <v>108</v>
       </c>
-      <c r="D395" s="49" t="s">
+      <c r="D395" t="s">
         <v>637</v>
       </c>
-      <c r="E395" s="49" t="s">
+      <c r="E395" t="s">
         <v>681</v>
       </c>
-      <c r="F395" s="49">
+      <c r="F395">
         <v>778003741</v>
       </c>
-      <c r="G395" s="49" t="s">
+      <c r="G395" t="s">
         <v>269</v>
       </c>
-      <c r="H395" s="49" t="s">
+      <c r="H395" t="s">
         <v>19</v>
       </c>
-      <c r="I395" s="49" t="s">
+      <c r="I395" t="s">
         <v>17</v>
       </c>
-      <c r="J395" s="50" t="s">
+      <c r="J395" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="K395" s="49"/>
-      <c r="L395" s="49"/>
-      <c r="M395" s="51"/>
-      <c r="N395" s="51"/>
-      <c r="O395" s="52" t="str">
+      <c r="O395" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P395" s="52" t="str">
+      <c r="P395" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67232,36 +67108,32 @@
       <c r="C396" t="s">
         <v>108</v>
       </c>
-      <c r="D396" s="49" t="s">
+      <c r="D396" t="s">
         <v>637</v>
       </c>
-      <c r="E396" s="49" t="s">
+      <c r="E396" t="s">
         <v>683</v>
       </c>
-      <c r="F396" s="49">
+      <c r="F396">
         <v>776067914</v>
       </c>
-      <c r="G396" s="49" t="s">
+      <c r="G396" t="s">
         <v>18</v>
       </c>
-      <c r="H396" s="49" t="s">
+      <c r="H396" t="s">
         <v>19</v>
       </c>
-      <c r="I396" s="49" t="s">
+      <c r="I396" t="s">
         <v>17</v>
       </c>
-      <c r="J396" s="50" t="s">
+      <c r="J396" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="K396" s="49"/>
-      <c r="L396" s="49"/>
-      <c r="M396" s="51"/>
-      <c r="N396" s="51"/>
-      <c r="O396" s="52" t="str">
+      <c r="O396" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P396" s="52" t="str">
+      <c r="P396" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67276,36 +67148,32 @@
       <c r="C397" t="s">
         <v>108</v>
       </c>
-      <c r="D397" s="49" t="s">
+      <c r="D397" t="s">
         <v>637</v>
       </c>
-      <c r="E397" s="49" t="s">
+      <c r="E397" t="s">
         <v>684</v>
       </c>
-      <c r="F397" s="49">
+      <c r="F397">
         <v>779970282</v>
       </c>
-      <c r="G397" s="49" t="s">
+      <c r="G397" t="s">
         <v>15</v>
       </c>
-      <c r="H397" s="49" t="s">
+      <c r="H397" t="s">
         <v>16</v>
       </c>
-      <c r="I397" s="49" t="s">
+      <c r="I397" t="s">
         <v>17</v>
       </c>
-      <c r="J397" s="50" t="s">
+      <c r="J397" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="K397" s="49"/>
-      <c r="L397" s="49"/>
-      <c r="M397" s="51"/>
-      <c r="N397" s="51"/>
-      <c r="O397" s="52" t="str">
+      <c r="O397" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P397" s="52" t="str">
+      <c r="P397" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67320,36 +67188,32 @@
       <c r="C398" t="s">
         <v>31</v>
       </c>
-      <c r="D398" s="49" t="s">
+      <c r="D398" t="s">
         <v>647</v>
       </c>
-      <c r="E398" s="49" t="s">
+      <c r="E398" t="s">
         <v>686</v>
       </c>
-      <c r="F398" s="49">
+      <c r="F398">
         <v>777110521</v>
       </c>
-      <c r="G398" s="49" t="s">
+      <c r="G398" t="s">
         <v>22</v>
       </c>
-      <c r="H398" s="49" t="s">
+      <c r="H398" t="s">
         <v>16</v>
       </c>
-      <c r="I398" s="49" t="s">
+      <c r="I398" t="s">
         <v>17</v>
       </c>
-      <c r="J398" s="50" t="s">
+      <c r="J398" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K398" s="49"/>
-      <c r="L398" s="49"/>
-      <c r="M398" s="51"/>
-      <c r="N398" s="51"/>
-      <c r="O398" s="52" t="str">
+      <c r="O398" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P398" s="52" t="str">
+      <c r="P398" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67364,36 +67228,32 @@
       <c r="C399" t="s">
         <v>108</v>
       </c>
-      <c r="D399" s="49" t="s">
+      <c r="D399" t="s">
         <v>637</v>
       </c>
-      <c r="E399" s="49" t="s">
+      <c r="E399" t="s">
         <v>687</v>
       </c>
-      <c r="F399" s="49">
+      <c r="F399">
         <v>778823579</v>
       </c>
-      <c r="G399" s="49" t="s">
+      <c r="G399" t="s">
         <v>22</v>
       </c>
-      <c r="H399" s="49" t="s">
+      <c r="H399" t="s">
         <v>19</v>
       </c>
-      <c r="I399" s="49" t="s">
+      <c r="I399" t="s">
         <v>17</v>
       </c>
-      <c r="J399" s="50" t="s">
+      <c r="J399" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="K399" s="49"/>
-      <c r="L399" s="49"/>
-      <c r="M399" s="51"/>
-      <c r="N399" s="51"/>
-      <c r="O399" s="52" t="str">
+      <c r="O399" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P399" s="52" t="str">
+      <c r="P399" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67408,36 +67268,32 @@
       <c r="C400" t="s">
         <v>31</v>
       </c>
-      <c r="D400" s="49" t="s">
+      <c r="D400" t="s">
         <v>647</v>
       </c>
-      <c r="E400" s="49" t="s">
+      <c r="E400" t="s">
         <v>689</v>
       </c>
-      <c r="F400" s="49">
+      <c r="F400">
         <v>772034200</v>
       </c>
-      <c r="G400" s="49" t="s">
+      <c r="G400" t="s">
         <v>15</v>
       </c>
-      <c r="H400" s="49" t="s">
+      <c r="H400" t="s">
         <v>19</v>
       </c>
-      <c r="I400" s="49" t="s">
+      <c r="I400" t="s">
         <v>17</v>
       </c>
-      <c r="J400" s="50" t="s">
+      <c r="J400" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="K400" s="49"/>
-      <c r="L400" s="49"/>
-      <c r="M400" s="51"/>
-      <c r="N400" s="51"/>
-      <c r="O400" s="52" t="str">
+      <c r="O400" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P400" s="52" t="str">
+      <c r="P400" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67452,44 +67308,44 @@
       <c r="C401" t="s">
         <v>21</v>
       </c>
-      <c r="D401" s="49" t="s">
+      <c r="D401" t="s">
         <v>690</v>
       </c>
-      <c r="E401" s="49" t="s">
+      <c r="E401" t="s">
         <v>344</v>
       </c>
-      <c r="F401" s="49">
+      <c r="F401">
         <v>771990476</v>
       </c>
-      <c r="G401" s="49" t="s">
+      <c r="G401" t="s">
         <v>18</v>
       </c>
-      <c r="H401" s="49" t="s">
+      <c r="H401" t="s">
         <v>19</v>
       </c>
-      <c r="I401" s="49" t="s">
+      <c r="I401" t="s">
         <v>28</v>
       </c>
-      <c r="J401" s="50" t="s">
+      <c r="J401" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="K401" s="49" t="s">
+      <c r="K401" t="s">
         <v>91</v>
       </c>
-      <c r="L401" s="49">
+      <c r="L401">
         <v>1</v>
       </c>
-      <c r="M401" s="51">
+      <c r="M401" s="5">
         <v>10250</v>
       </c>
-      <c r="N401" s="51">
+      <c r="N401" s="5">
         <v>10250</v>
       </c>
-      <c r="O401" s="52" t="str">
+      <c r="O401" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P401" s="52" t="str">
+      <c r="P401" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67504,36 +67360,32 @@
       <c r="C402" t="s">
         <v>21</v>
       </c>
-      <c r="D402" s="49" t="s">
+      <c r="D402" t="s">
         <v>690</v>
       </c>
-      <c r="E402" s="49" t="s">
+      <c r="E402" t="s">
         <v>692</v>
       </c>
-      <c r="F402" s="49">
+      <c r="F402">
         <v>770298942</v>
       </c>
-      <c r="G402" s="49" t="s">
+      <c r="G402" t="s">
         <v>15</v>
       </c>
-      <c r="H402" s="49" t="s">
+      <c r="H402" t="s">
         <v>19</v>
       </c>
-      <c r="I402" s="49" t="s">
+      <c r="I402" t="s">
         <v>17</v>
       </c>
-      <c r="J402" s="50" t="s">
+      <c r="J402" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K402" s="49"/>
-      <c r="L402" s="49"/>
-      <c r="M402" s="51"/>
-      <c r="N402" s="51"/>
-      <c r="O402" s="52" t="str">
+      <c r="O402" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P402" s="52" t="str">
+      <c r="P402" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67548,36 +67400,32 @@
       <c r="C403" t="s">
         <v>21</v>
       </c>
-      <c r="D403" s="49" t="s">
+      <c r="D403" t="s">
         <v>690</v>
       </c>
-      <c r="E403" s="49" t="s">
+      <c r="E403" t="s">
         <v>693</v>
       </c>
-      <c r="F403" s="49">
+      <c r="F403">
         <v>766474442</v>
       </c>
-      <c r="G403" s="49" t="s">
+      <c r="G403" t="s">
         <v>22</v>
       </c>
-      <c r="H403" s="49" t="s">
+      <c r="H403" t="s">
         <v>19</v>
       </c>
-      <c r="I403" s="49" t="s">
+      <c r="I403" t="s">
         <v>17</v>
       </c>
-      <c r="J403" s="50" t="s">
+      <c r="J403" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="K403" s="49"/>
-      <c r="L403" s="49"/>
-      <c r="M403" s="51"/>
-      <c r="N403" s="51"/>
-      <c r="O403" s="52" t="str">
+      <c r="O403" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P403" s="52" t="str">
+      <c r="P403" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67592,36 +67440,32 @@
       <c r="C404" t="s">
         <v>21</v>
       </c>
-      <c r="D404" s="49" t="s">
+      <c r="D404" t="s">
         <v>690</v>
       </c>
-      <c r="E404" s="49" t="s">
+      <c r="E404" t="s">
         <v>695</v>
       </c>
-      <c r="F404" s="49">
+      <c r="F404">
         <v>705791884</v>
       </c>
-      <c r="G404" s="49" t="s">
+      <c r="G404" t="s">
         <v>470</v>
       </c>
-      <c r="H404" s="49" t="s">
+      <c r="H404" t="s">
         <v>16</v>
       </c>
-      <c r="I404" s="49" t="s">
+      <c r="I404" t="s">
         <v>17</v>
       </c>
-      <c r="J404" s="50" t="s">
+      <c r="J404" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="K404" s="49"/>
-      <c r="L404" s="49"/>
-      <c r="M404" s="51"/>
-      <c r="N404" s="51"/>
-      <c r="O404" s="52" t="str">
+      <c r="O404" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P404" s="52" t="str">
+      <c r="P404" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67636,36 +67480,32 @@
       <c r="C405" t="s">
         <v>21</v>
       </c>
-      <c r="D405" s="49" t="s">
+      <c r="D405" t="s">
         <v>690</v>
       </c>
-      <c r="E405" s="49" t="s">
+      <c r="E405" t="s">
         <v>557</v>
       </c>
-      <c r="F405" s="49">
+      <c r="F405">
         <v>778037533</v>
       </c>
-      <c r="G405" s="49" t="s">
+      <c r="G405" t="s">
         <v>470</v>
       </c>
-      <c r="H405" s="49" t="s">
+      <c r="H405" t="s">
         <v>16</v>
       </c>
-      <c r="I405" s="49" t="s">
+      <c r="I405" t="s">
         <v>17</v>
       </c>
-      <c r="J405" s="50" t="s">
+      <c r="J405" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="K405" s="49"/>
-      <c r="L405" s="49"/>
-      <c r="M405" s="51"/>
-      <c r="N405" s="51"/>
-      <c r="O405" s="52" t="str">
+      <c r="O405" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P405" s="52" t="str">
+      <c r="P405" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67680,36 +67520,32 @@
       <c r="C406" t="s">
         <v>21</v>
       </c>
-      <c r="D406" s="49" t="s">
+      <c r="D406" t="s">
         <v>690</v>
       </c>
-      <c r="E406" s="49" t="s">
+      <c r="E406" t="s">
         <v>697</v>
       </c>
-      <c r="F406" s="49">
+      <c r="F406">
         <v>778272783</v>
       </c>
-      <c r="G406" s="49" t="s">
+      <c r="G406" t="s">
         <v>22</v>
       </c>
-      <c r="H406" s="49" t="s">
+      <c r="H406" t="s">
         <v>16</v>
       </c>
-      <c r="I406" s="49" t="s">
+      <c r="I406" t="s">
         <v>17</v>
       </c>
-      <c r="J406" s="50" t="s">
+      <c r="J406" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="K406" s="49"/>
-      <c r="L406" s="49"/>
-      <c r="M406" s="51"/>
-      <c r="N406" s="51"/>
-      <c r="O406" s="52" t="str">
+      <c r="O406" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P406" s="52" t="str">
+      <c r="P406" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67724,36 +67560,32 @@
       <c r="C407" t="s">
         <v>21</v>
       </c>
-      <c r="D407" s="49" t="s">
+      <c r="D407" t="s">
         <v>690</v>
       </c>
-      <c r="E407" s="49" t="s">
+      <c r="E407" t="s">
         <v>473</v>
       </c>
-      <c r="F407" s="49">
+      <c r="F407">
         <v>779083030</v>
       </c>
-      <c r="G407" s="49" t="s">
+      <c r="G407" t="s">
         <v>18</v>
       </c>
-      <c r="H407" s="49" t="s">
+      <c r="H407" t="s">
         <v>19</v>
       </c>
-      <c r="I407" s="49" t="s">
+      <c r="I407" t="s">
         <v>17</v>
       </c>
-      <c r="J407" s="50" t="s">
+      <c r="J407" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="K407" s="49"/>
-      <c r="L407" s="49"/>
-      <c r="M407" s="51"/>
-      <c r="N407" s="51"/>
-      <c r="O407" s="52" t="str">
+      <c r="O407" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P407" s="52" t="str">
+      <c r="P407" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67768,44 +67600,44 @@
       <c r="C408" t="s">
         <v>21</v>
       </c>
-      <c r="D408" s="49" t="s">
+      <c r="D408" t="s">
         <v>690</v>
       </c>
-      <c r="E408" s="49" t="s">
+      <c r="E408" t="s">
         <v>700</v>
       </c>
-      <c r="F408" s="49">
+      <c r="F408">
         <v>779362821</v>
       </c>
-      <c r="G408" s="49" t="s">
+      <c r="G408" t="s">
         <v>15</v>
       </c>
-      <c r="H408" s="49" t="s">
+      <c r="H408" t="s">
         <v>16</v>
       </c>
-      <c r="I408" s="49" t="s">
+      <c r="I408" t="s">
         <v>28</v>
       </c>
-      <c r="J408" s="50" t="s">
+      <c r="J408" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="K408" s="49" t="s">
+      <c r="K408" t="s">
         <v>91</v>
       </c>
-      <c r="L408" s="49">
+      <c r="L408">
         <v>25</v>
       </c>
-      <c r="M408" s="51">
+      <c r="M408" s="5">
         <v>9750</v>
       </c>
-      <c r="N408" s="51">
+      <c r="N408" s="5">
         <v>243750</v>
       </c>
-      <c r="O408" s="52" t="str">
+      <c r="O408" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P408" s="52" t="str">
+      <c r="P408" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67820,36 +67652,32 @@
       <c r="C409" t="s">
         <v>21</v>
       </c>
-      <c r="D409" s="49" t="s">
+      <c r="D409" t="s">
         <v>690</v>
       </c>
-      <c r="E409" s="49" t="s">
+      <c r="E409" t="s">
         <v>228</v>
       </c>
-      <c r="F409" s="49">
+      <c r="F409">
         <v>779759210</v>
       </c>
-      <c r="G409" s="49" t="s">
+      <c r="G409" t="s">
         <v>22</v>
       </c>
-      <c r="H409" s="49" t="s">
+      <c r="H409" t="s">
         <v>16</v>
       </c>
-      <c r="I409" s="49" t="s">
+      <c r="I409" t="s">
         <v>17</v>
       </c>
-      <c r="J409" s="50" t="s">
+      <c r="J409" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="K409" s="49"/>
-      <c r="L409" s="49"/>
-      <c r="M409" s="51"/>
-      <c r="N409" s="51"/>
-      <c r="O409" s="52" t="str">
+      <c r="O409" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P409" s="52" t="str">
+      <c r="P409" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67864,36 +67692,32 @@
       <c r="C410" t="s">
         <v>21</v>
       </c>
-      <c r="D410" s="49" t="s">
+      <c r="D410" t="s">
         <v>690</v>
       </c>
-      <c r="E410" s="49" t="s">
+      <c r="E410" t="s">
         <v>182</v>
       </c>
-      <c r="F410" s="49">
+      <c r="F410">
         <v>338201907</v>
       </c>
-      <c r="G410" s="49" t="s">
+      <c r="G410" t="s">
         <v>22</v>
       </c>
-      <c r="H410" s="49" t="s">
+      <c r="H410" t="s">
         <v>16</v>
       </c>
-      <c r="I410" s="49" t="s">
+      <c r="I410" t="s">
         <v>17</v>
       </c>
-      <c r="J410" s="50" t="s">
+      <c r="J410" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="K410" s="49"/>
-      <c r="L410" s="49"/>
-      <c r="M410" s="51"/>
-      <c r="N410" s="51"/>
-      <c r="O410" s="52" t="str">
+      <c r="O410" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P410" s="52" t="str">
+      <c r="P410" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67908,44 +67732,44 @@
       <c r="C411" t="s">
         <v>25</v>
       </c>
-      <c r="D411" s="49" t="s">
+      <c r="D411" t="s">
         <v>105</v>
       </c>
-      <c r="E411" s="49" t="s">
+      <c r="E411" t="s">
         <v>152</v>
       </c>
-      <c r="F411" s="49">
+      <c r="F411">
         <v>773546192</v>
       </c>
-      <c r="G411" s="49" t="s">
+      <c r="G411" t="s">
         <v>15</v>
       </c>
-      <c r="H411" s="49" t="s">
+      <c r="H411" t="s">
         <v>19</v>
       </c>
-      <c r="I411" s="49" t="s">
+      <c r="I411" t="s">
         <v>23</v>
       </c>
-      <c r="J411" s="50" t="s">
+      <c r="J411" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K411" s="49" t="s">
+      <c r="K411" t="s">
         <v>703</v>
       </c>
-      <c r="L411" s="49">
+      <c r="L411">
         <v>2</v>
       </c>
-      <c r="M411" s="51">
+      <c r="M411" s="5">
         <v>12250</v>
       </c>
-      <c r="N411" s="51">
+      <c r="N411" s="5">
         <v>24500</v>
       </c>
-      <c r="O411" s="52" t="str">
+      <c r="O411" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P411" s="52" t="str">
+      <c r="P411" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -67960,36 +67784,32 @@
       <c r="C412" t="s">
         <v>25</v>
       </c>
-      <c r="D412" s="49" t="s">
+      <c r="D412" t="s">
         <v>634</v>
       </c>
-      <c r="E412" s="49" t="s">
+      <c r="E412" t="s">
         <v>704</v>
       </c>
-      <c r="F412" s="49">
+      <c r="F412">
         <v>773750007</v>
       </c>
-      <c r="G412" s="49" t="s">
+      <c r="G412" t="s">
         <v>18</v>
       </c>
-      <c r="H412" s="49" t="s">
+      <c r="H412" t="s">
         <v>16</v>
       </c>
-      <c r="I412" s="49" t="s">
+      <c r="I412" t="s">
         <v>17</v>
       </c>
-      <c r="J412" s="50" t="s">
+      <c r="J412" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="K412" s="49"/>
-      <c r="L412" s="49"/>
-      <c r="M412" s="51"/>
-      <c r="N412" s="51"/>
-      <c r="O412" s="52" t="str">
+      <c r="O412" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P412" s="52" t="str">
+      <c r="P412" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68004,36 +67824,32 @@
       <c r="C413" t="s">
         <v>25</v>
       </c>
-      <c r="D413" s="49" t="s">
+      <c r="D413" t="s">
         <v>634</v>
       </c>
-      <c r="E413" s="49" t="s">
+      <c r="E413" t="s">
         <v>706</v>
       </c>
-      <c r="F413" s="49">
+      <c r="F413">
         <v>781240407</v>
       </c>
-      <c r="G413" s="49" t="s">
+      <c r="G413" t="s">
         <v>18</v>
       </c>
-      <c r="H413" s="49" t="s">
+      <c r="H413" t="s">
         <v>16</v>
       </c>
-      <c r="I413" s="49" t="s">
+      <c r="I413" t="s">
         <v>17</v>
       </c>
-      <c r="J413" s="50" t="s">
+      <c r="J413" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="K413" s="49"/>
-      <c r="L413" s="49"/>
-      <c r="M413" s="51"/>
-      <c r="N413" s="51"/>
-      <c r="O413" s="52" t="str">
+      <c r="O413" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P413" s="52" t="str">
+      <c r="P413" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68048,36 +67864,32 @@
       <c r="C414" t="s">
         <v>31</v>
       </c>
-      <c r="D414" s="49" t="s">
+      <c r="D414" t="s">
         <v>647</v>
       </c>
-      <c r="E414" s="49" t="s">
+      <c r="E414" t="s">
         <v>344</v>
       </c>
-      <c r="F414" s="49">
+      <c r="F414">
         <v>774685418</v>
       </c>
-      <c r="G414" s="49" t="s">
+      <c r="G414" t="s">
         <v>15</v>
       </c>
-      <c r="H414" s="49" t="s">
+      <c r="H414" t="s">
         <v>16</v>
       </c>
-      <c r="I414" s="49" t="s">
+      <c r="I414" t="s">
         <v>17</v>
       </c>
-      <c r="J414" s="50" t="s">
+      <c r="J414" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="K414" s="49"/>
-      <c r="L414" s="49"/>
-      <c r="M414" s="51"/>
-      <c r="N414" s="51"/>
-      <c r="O414" s="52" t="str">
+      <c r="O414" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P414" s="52" t="str">
+      <c r="P414" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68092,36 +67904,32 @@
       <c r="C415" t="s">
         <v>25</v>
       </c>
-      <c r="D415" s="49" t="s">
+      <c r="D415" t="s">
         <v>634</v>
       </c>
-      <c r="E415" s="49" t="s">
+      <c r="E415" t="s">
         <v>709</v>
       </c>
-      <c r="F415" s="49">
+      <c r="F415">
         <v>774085200</v>
       </c>
-      <c r="G415" s="49" t="s">
+      <c r="G415" t="s">
         <v>22</v>
       </c>
-      <c r="H415" s="49" t="s">
+      <c r="H415" t="s">
         <v>16</v>
       </c>
-      <c r="I415" s="49" t="s">
+      <c r="I415" t="s">
         <v>17</v>
       </c>
-      <c r="J415" s="50" t="s">
+      <c r="J415" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="K415" s="49"/>
-      <c r="L415" s="49"/>
-      <c r="M415" s="51"/>
-      <c r="N415" s="51"/>
-      <c r="O415" s="52" t="str">
+      <c r="O415" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P415" s="52" t="str">
+      <c r="P415" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68136,36 +67944,32 @@
       <c r="C416" t="s">
         <v>25</v>
       </c>
-      <c r="D416" s="49" t="s">
+      <c r="D416" t="s">
         <v>634</v>
       </c>
-      <c r="E416" s="49" t="s">
+      <c r="E416" t="s">
         <v>711</v>
       </c>
-      <c r="F416" s="49">
+      <c r="F416">
         <v>774756755</v>
       </c>
-      <c r="G416" s="49" t="s">
+      <c r="G416" t="s">
         <v>22</v>
       </c>
-      <c r="H416" s="49" t="s">
+      <c r="H416" t="s">
         <v>16</v>
       </c>
-      <c r="I416" s="49" t="s">
+      <c r="I416" t="s">
         <v>17</v>
       </c>
-      <c r="J416" s="50" t="s">
+      <c r="J416" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="K416" s="49"/>
-      <c r="L416" s="49"/>
-      <c r="M416" s="51"/>
-      <c r="N416" s="51"/>
-      <c r="O416" s="52" t="str">
+      <c r="O416" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P416" s="52" t="str">
+      <c r="P416" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68180,36 +67984,32 @@
       <c r="C417" t="s">
         <v>21</v>
       </c>
-      <c r="D417" s="49" t="s">
+      <c r="D417" t="s">
         <v>690</v>
       </c>
-      <c r="E417" s="49" t="s">
+      <c r="E417" t="s">
         <v>597</v>
       </c>
-      <c r="F417" s="49">
+      <c r="F417">
         <v>771247171</v>
       </c>
-      <c r="G417" s="49" t="s">
+      <c r="G417" t="s">
         <v>15</v>
       </c>
-      <c r="H417" s="49" t="s">
+      <c r="H417" t="s">
         <v>16</v>
       </c>
-      <c r="I417" s="49" t="s">
+      <c r="I417" t="s">
         <v>17</v>
       </c>
-      <c r="J417" s="50" t="s">
+      <c r="J417" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="K417" s="49"/>
-      <c r="L417" s="49"/>
-      <c r="M417" s="51"/>
-      <c r="N417" s="51"/>
-      <c r="O417" s="52" t="str">
+      <c r="O417" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P417" s="52" t="str">
+      <c r="P417" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68224,36 +68024,32 @@
       <c r="C418" t="s">
         <v>25</v>
       </c>
-      <c r="D418" s="49" t="s">
+      <c r="D418" t="s">
         <v>634</v>
       </c>
-      <c r="E418" s="49" t="s">
+      <c r="E418" t="s">
         <v>714</v>
       </c>
-      <c r="F418" s="49">
+      <c r="F418">
         <v>771952926</v>
       </c>
-      <c r="G418" s="49" t="s">
+      <c r="G418" t="s">
         <v>15</v>
       </c>
-      <c r="H418" s="49" t="s">
+      <c r="H418" t="s">
         <v>19</v>
       </c>
-      <c r="I418" s="49" t="s">
+      <c r="I418" t="s">
         <v>17</v>
       </c>
-      <c r="J418" s="50" t="s">
+      <c r="J418" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="K418" s="49"/>
-      <c r="L418" s="49"/>
-      <c r="M418" s="51"/>
-      <c r="N418" s="51"/>
-      <c r="O418" s="52" t="str">
+      <c r="O418" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P418" s="52" t="str">
+      <c r="P418" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68268,36 +68064,32 @@
       <c r="C419" t="s">
         <v>21</v>
       </c>
-      <c r="D419" s="49" t="s">
+      <c r="D419" t="s">
         <v>690</v>
       </c>
-      <c r="E419" s="49" t="s">
+      <c r="E419" t="s">
         <v>716</v>
       </c>
-      <c r="F419" s="49">
+      <c r="F419">
         <v>772345161</v>
       </c>
-      <c r="G419" s="49" t="s">
+      <c r="G419" t="s">
         <v>15</v>
       </c>
-      <c r="H419" s="49" t="s">
+      <c r="H419" t="s">
         <v>16</v>
       </c>
-      <c r="I419" s="49" t="s">
+      <c r="I419" t="s">
         <v>17</v>
       </c>
-      <c r="J419" s="50" t="s">
+      <c r="J419" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="K419" s="49"/>
-      <c r="L419" s="49"/>
-      <c r="M419" s="51"/>
-      <c r="N419" s="51"/>
-      <c r="O419" s="52" t="str">
+      <c r="O419" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P419" s="52" t="str">
+      <c r="P419" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68312,36 +68104,32 @@
       <c r="C420" t="s">
         <v>21</v>
       </c>
-      <c r="D420" s="49" t="s">
+      <c r="D420" t="s">
         <v>690</v>
       </c>
-      <c r="E420" s="49" t="s">
+      <c r="E420" t="s">
         <v>718</v>
       </c>
-      <c r="F420" s="49">
+      <c r="F420">
         <v>775623289</v>
       </c>
-      <c r="G420" s="49" t="s">
+      <c r="G420" t="s">
         <v>22</v>
       </c>
-      <c r="H420" s="49" t="s">
+      <c r="H420" t="s">
         <v>19</v>
       </c>
-      <c r="I420" s="49" t="s">
+      <c r="I420" t="s">
         <v>17</v>
       </c>
-      <c r="J420" s="50" t="s">
+      <c r="J420" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K420" s="49"/>
-      <c r="L420" s="49"/>
-      <c r="M420" s="51"/>
-      <c r="N420" s="51"/>
-      <c r="O420" s="52" t="str">
+      <c r="O420" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P420" s="52" t="str">
+      <c r="P420" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68356,36 +68144,32 @@
       <c r="C421" t="s">
         <v>21</v>
       </c>
-      <c r="D421" s="49" t="s">
+      <c r="D421" t="s">
         <v>690</v>
       </c>
-      <c r="E421" s="49" t="s">
+      <c r="E421" t="s">
         <v>719</v>
       </c>
-      <c r="F421" s="49">
+      <c r="F421">
         <v>773273433</v>
       </c>
-      <c r="G421" s="49" t="s">
+      <c r="G421" t="s">
         <v>15</v>
       </c>
-      <c r="H421" s="49" t="s">
+      <c r="H421" t="s">
         <v>16</v>
       </c>
-      <c r="I421" s="49" t="s">
+      <c r="I421" t="s">
         <v>17</v>
       </c>
-      <c r="J421" s="50" t="s">
+      <c r="J421" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="K421" s="49"/>
-      <c r="L421" s="49"/>
-      <c r="M421" s="51"/>
-      <c r="N421" s="51"/>
-      <c r="O421" s="52" t="str">
+      <c r="O421" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P421" s="52" t="str">
+      <c r="P421" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68400,36 +68184,32 @@
       <c r="C422" t="s">
         <v>31</v>
       </c>
-      <c r="D422" s="49" t="s">
+      <c r="D422" t="s">
         <v>647</v>
       </c>
-      <c r="E422" s="49" t="s">
+      <c r="E422" t="s">
         <v>243</v>
       </c>
-      <c r="F422" s="49">
+      <c r="F422">
         <v>775249776</v>
       </c>
-      <c r="G422" s="49" t="s">
+      <c r="G422" t="s">
         <v>15</v>
       </c>
-      <c r="H422" s="49" t="s">
+      <c r="H422" t="s">
         <v>16</v>
       </c>
-      <c r="I422" s="49" t="s">
+      <c r="I422" t="s">
         <v>17</v>
       </c>
-      <c r="J422" s="50" t="s">
+      <c r="J422" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="K422" s="49"/>
-      <c r="L422" s="49"/>
-      <c r="M422" s="51"/>
-      <c r="N422" s="51"/>
-      <c r="O422" s="52" t="str">
+      <c r="O422" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P422" s="52" t="str">
+      <c r="P422" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68444,36 +68224,32 @@
       <c r="C423" t="s">
         <v>31</v>
       </c>
-      <c r="D423" s="49" t="s">
+      <c r="D423" t="s">
         <v>647</v>
       </c>
-      <c r="E423" s="49" t="s">
+      <c r="E423" t="s">
         <v>586</v>
       </c>
-      <c r="F423" s="49">
+      <c r="F423">
         <v>784518710</v>
       </c>
-      <c r="G423" s="49" t="s">
+      <c r="G423" t="s">
         <v>15</v>
       </c>
-      <c r="H423" s="49" t="s">
+      <c r="H423" t="s">
         <v>16</v>
       </c>
-      <c r="I423" s="49" t="s">
+      <c r="I423" t="s">
         <v>17</v>
       </c>
-      <c r="J423" s="50" t="s">
+      <c r="J423" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K423" s="49"/>
-      <c r="L423" s="49"/>
-      <c r="M423" s="51"/>
-      <c r="N423" s="51"/>
-      <c r="O423" s="52" t="str">
+      <c r="O423" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P423" s="52" t="str">
+      <c r="P423" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68488,36 +68264,32 @@
       <c r="C424" t="s">
         <v>21</v>
       </c>
-      <c r="D424" s="49" t="s">
+      <c r="D424" t="s">
         <v>690</v>
       </c>
-      <c r="E424" s="49" t="s">
+      <c r="E424" t="s">
         <v>80</v>
       </c>
-      <c r="F424" s="49">
+      <c r="F424">
         <v>777093511</v>
       </c>
-      <c r="G424" s="49" t="s">
+      <c r="G424" t="s">
         <v>470</v>
       </c>
-      <c r="H424" s="49" t="s">
+      <c r="H424" t="s">
         <v>19</v>
       </c>
-      <c r="I424" s="49" t="s">
+      <c r="I424" t="s">
         <v>17</v>
       </c>
-      <c r="J424" s="50" t="s">
+      <c r="J424" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K424" s="49"/>
-      <c r="L424" s="49"/>
-      <c r="M424" s="51"/>
-      <c r="N424" s="51"/>
-      <c r="O424" s="52" t="str">
+      <c r="O424" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P424" s="52" t="str">
+      <c r="P424" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68532,44 +68304,44 @@
       <c r="C425" t="s">
         <v>21</v>
       </c>
-      <c r="D425" s="49" t="s">
+      <c r="D425" t="s">
         <v>690</v>
       </c>
-      <c r="E425" s="49" t="s">
+      <c r="E425" t="s">
         <v>278</v>
       </c>
-      <c r="F425" s="49">
+      <c r="F425">
         <v>776546598</v>
       </c>
-      <c r="G425" s="49" t="s">
+      <c r="G425" t="s">
         <v>18</v>
       </c>
-      <c r="H425" s="49" t="s">
+      <c r="H425" t="s">
         <v>16</v>
       </c>
-      <c r="I425" s="49" t="s">
+      <c r="I425" t="s">
         <v>28</v>
       </c>
-      <c r="J425" s="50" t="s">
+      <c r="J425" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="K425" s="49" t="s">
+      <c r="K425" t="s">
         <v>723</v>
       </c>
-      <c r="L425" s="49">
+      <c r="L425">
         <v>1</v>
       </c>
-      <c r="M425" s="51">
+      <c r="M425" s="5">
         <v>33500</v>
       </c>
-      <c r="N425" s="51">
+      <c r="N425" s="5">
         <v>33500</v>
       </c>
-      <c r="O425" s="52" t="str">
+      <c r="O425" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P425" s="52" t="str">
+      <c r="P425" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68581,47 +68353,47 @@
       <c r="B426" t="s">
         <v>20</v>
       </c>
-      <c r="C426" s="48" t="s">
+      <c r="C426" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D426" s="49" t="s">
+      <c r="D426" t="s">
         <v>690</v>
       </c>
-      <c r="E426" s="49" t="s">
+      <c r="E426" t="s">
         <v>278</v>
       </c>
-      <c r="F426" s="49">
+      <c r="F426">
         <v>776546598</v>
       </c>
-      <c r="G426" s="49" t="s">
+      <c r="G426" t="s">
         <v>18</v>
       </c>
-      <c r="H426" s="49" t="s">
+      <c r="H426" t="s">
         <v>16</v>
       </c>
-      <c r="I426" s="49" t="s">
+      <c r="I426" t="s">
         <v>28</v>
       </c>
-      <c r="J426" s="50" t="s">
+      <c r="J426" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="K426" s="49" t="s">
+      <c r="K426" t="s">
         <v>27</v>
       </c>
-      <c r="L426" s="49">
+      <c r="L426">
         <v>1</v>
       </c>
-      <c r="M426" s="51">
+      <c r="M426" s="5">
         <v>26000</v>
       </c>
-      <c r="N426" s="51">
+      <c r="N426" s="5">
         <v>26000</v>
       </c>
-      <c r="O426" s="52" t="str">
+      <c r="O426" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P426" s="52" t="str">
+      <c r="P426" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68636,36 +68408,32 @@
       <c r="C427" t="s">
         <v>21</v>
       </c>
-      <c r="D427" s="49" t="s">
+      <c r="D427" t="s">
         <v>690</v>
       </c>
-      <c r="E427" s="49" t="s">
+      <c r="E427" t="s">
         <v>724</v>
       </c>
-      <c r="F427" s="49">
+      <c r="F427">
         <v>776458744</v>
       </c>
-      <c r="G427" s="49" t="s">
+      <c r="G427" t="s">
         <v>15</v>
       </c>
-      <c r="H427" s="49" t="s">
+      <c r="H427" t="s">
         <v>16</v>
       </c>
-      <c r="I427" s="49" t="s">
+      <c r="I427" t="s">
         <v>17</v>
       </c>
-      <c r="J427" s="50" t="s">
+      <c r="J427" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K427" s="49"/>
-      <c r="L427" s="49"/>
-      <c r="M427" s="51"/>
-      <c r="N427" s="51"/>
-      <c r="O427" s="52" t="str">
+      <c r="O427" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P427" s="52" t="str">
+      <c r="P427" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68680,36 +68448,32 @@
       <c r="C428" t="s">
         <v>31</v>
       </c>
-      <c r="D428" s="49" t="s">
+      <c r="D428" t="s">
         <v>647</v>
       </c>
-      <c r="E428" s="49" t="s">
+      <c r="E428" t="s">
         <v>725</v>
       </c>
-      <c r="F428" s="49">
+      <c r="F428">
         <v>775319143</v>
       </c>
-      <c r="G428" s="49" t="s">
+      <c r="G428" t="s">
         <v>15</v>
       </c>
-      <c r="H428" s="49" t="s">
+      <c r="H428" t="s">
         <v>16</v>
       </c>
-      <c r="I428" s="49" t="s">
+      <c r="I428" t="s">
         <v>17</v>
       </c>
-      <c r="J428" s="50" t="s">
+      <c r="J428" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="K428" s="49"/>
-      <c r="L428" s="49"/>
-      <c r="M428" s="51"/>
-      <c r="N428" s="51"/>
-      <c r="O428" s="52" t="str">
+      <c r="O428" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P428" s="52" t="str">
+      <c r="P428" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68724,44 +68488,44 @@
       <c r="C429" t="s">
         <v>21</v>
       </c>
-      <c r="D429" s="49" t="s">
+      <c r="D429" t="s">
         <v>690</v>
       </c>
-      <c r="E429" s="49" t="s">
+      <c r="E429" t="s">
         <v>727</v>
       </c>
-      <c r="F429" s="49">
+      <c r="F429">
         <v>775398902</v>
       </c>
-      <c r="G429" s="49" t="s">
+      <c r="G429" t="s">
         <v>22</v>
       </c>
-      <c r="H429" s="49" t="s">
+      <c r="H429" t="s">
         <v>16</v>
       </c>
-      <c r="I429" s="49" t="s">
+      <c r="I429" t="s">
         <v>28</v>
       </c>
-      <c r="J429" s="50" t="s">
+      <c r="J429" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="K429" s="49" t="s">
+      <c r="K429" t="s">
         <v>27</v>
       </c>
-      <c r="L429" s="49">
+      <c r="L429">
         <v>1</v>
       </c>
-      <c r="M429" s="51">
+      <c r="M429" s="5">
         <v>26000</v>
       </c>
-      <c r="N429" s="51">
+      <c r="N429" s="5">
         <v>26000</v>
       </c>
-      <c r="O429" s="52" t="str">
+      <c r="O429" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P429" s="52" t="str">
+      <c r="P429" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68773,39 +68537,35 @@
       <c r="B430" t="s">
         <v>20</v>
       </c>
-      <c r="C430" s="48" t="s">
+      <c r="C430" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D430" s="49" t="s">
+      <c r="D430" t="s">
         <v>690</v>
       </c>
-      <c r="E430" s="49" t="s">
+      <c r="E430" t="s">
         <v>729</v>
       </c>
-      <c r="F430" s="49">
+      <c r="F430">
         <v>773415748</v>
       </c>
-      <c r="G430" s="49" t="s">
+      <c r="G430" t="s">
         <v>15</v>
       </c>
-      <c r="H430" s="49" t="s">
+      <c r="H430" t="s">
         <v>19</v>
       </c>
-      <c r="I430" s="49" t="s">
+      <c r="I430" t="s">
         <v>17</v>
       </c>
-      <c r="J430" s="50" t="s">
+      <c r="J430" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="K430" s="49"/>
-      <c r="L430" s="49"/>
-      <c r="M430" s="51"/>
-      <c r="N430" s="51"/>
-      <c r="O430" s="52" t="str">
+      <c r="O430" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P430" s="52" t="str">
+      <c r="P430" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68820,36 +68580,32 @@
       <c r="C431" t="s">
         <v>21</v>
       </c>
-      <c r="D431" s="49" t="s">
+      <c r="D431" t="s">
         <v>690</v>
       </c>
-      <c r="E431" s="49" t="s">
+      <c r="E431" t="s">
         <v>473</v>
       </c>
-      <c r="F431" s="49">
+      <c r="F431">
         <v>777671841</v>
       </c>
-      <c r="G431" s="49" t="s">
+      <c r="G431" t="s">
         <v>22</v>
       </c>
-      <c r="H431" s="49" t="s">
+      <c r="H431" t="s">
         <v>16</v>
       </c>
-      <c r="I431" s="49" t="s">
+      <c r="I431" t="s">
         <v>17</v>
       </c>
-      <c r="J431" s="50" t="s">
+      <c r="J431" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K431" s="49"/>
-      <c r="L431" s="49"/>
-      <c r="M431" s="51"/>
-      <c r="N431" s="51"/>
-      <c r="O431" s="52" t="str">
+      <c r="O431" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P431" s="52" t="str">
+      <c r="P431" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68864,44 +68620,44 @@
       <c r="C432" t="s">
         <v>21</v>
       </c>
-      <c r="D432" s="49" t="s">
+      <c r="D432" t="s">
         <v>690</v>
       </c>
-      <c r="E432" s="49" t="s">
+      <c r="E432" t="s">
         <v>98</v>
       </c>
-      <c r="F432" s="49">
+      <c r="F432">
         <v>774782155</v>
       </c>
-      <c r="G432" s="49" t="s">
+      <c r="G432" t="s">
         <v>470</v>
       </c>
-      <c r="H432" s="49" t="s">
+      <c r="H432" t="s">
         <v>16</v>
       </c>
-      <c r="I432" s="49" t="s">
+      <c r="I432" t="s">
         <v>28</v>
       </c>
-      <c r="J432" s="50" t="s">
+      <c r="J432" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="K432" s="49" t="s">
+      <c r="K432" t="s">
         <v>27</v>
       </c>
-      <c r="L432" s="49">
+      <c r="L432">
         <v>1</v>
       </c>
-      <c r="M432" s="51">
+      <c r="M432" s="5">
         <v>26000</v>
       </c>
-      <c r="N432" s="51">
+      <c r="N432" s="5">
         <v>26000</v>
       </c>
-      <c r="O432" s="52" t="str">
+      <c r="O432" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P432" s="52" t="str">
+      <c r="P432" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68916,36 +68672,32 @@
       <c r="C433" t="s">
         <v>21</v>
       </c>
-      <c r="D433" s="49" t="s">
+      <c r="D433" t="s">
         <v>690</v>
       </c>
-      <c r="E433" s="49" t="s">
+      <c r="E433" t="s">
         <v>622</v>
       </c>
-      <c r="F433" s="49">
+      <c r="F433">
         <v>773678975</v>
       </c>
-      <c r="G433" s="49" t="s">
+      <c r="G433" t="s">
         <v>18</v>
       </c>
-      <c r="H433" s="49" t="s">
+      <c r="H433" t="s">
         <v>16</v>
       </c>
-      <c r="I433" s="49" t="s">
+      <c r="I433" t="s">
         <v>17</v>
       </c>
-      <c r="J433" s="50" t="s">
+      <c r="J433" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="K433" s="49"/>
-      <c r="L433" s="49"/>
-      <c r="M433" s="51"/>
-      <c r="N433" s="51"/>
-      <c r="O433" s="52" t="str">
+      <c r="O433" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P433" s="52" t="str">
+      <c r="P433" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -68960,44 +68712,44 @@
       <c r="C434" t="s">
         <v>21</v>
       </c>
-      <c r="D434" s="49" t="s">
+      <c r="D434" t="s">
         <v>690</v>
       </c>
-      <c r="E434" s="49" t="s">
+      <c r="E434" t="s">
         <v>727</v>
       </c>
-      <c r="F434" s="49">
+      <c r="F434">
         <v>775398902</v>
       </c>
-      <c r="G434" s="49" t="s">
+      <c r="G434" t="s">
         <v>22</v>
       </c>
-      <c r="H434" s="49" t="s">
+      <c r="H434" t="s">
         <v>16</v>
       </c>
-      <c r="I434" s="49" t="s">
+      <c r="I434" t="s">
         <v>28</v>
       </c>
-      <c r="J434" s="50" t="s">
+      <c r="J434" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="K434" s="49" t="s">
+      <c r="K434" t="s">
         <v>91</v>
       </c>
-      <c r="L434" s="49">
+      <c r="L434">
         <v>1</v>
       </c>
-      <c r="M434" s="51">
+      <c r="M434" s="5">
         <v>10250</v>
       </c>
-      <c r="N434" s="51">
+      <c r="N434" s="5">
         <v>10250</v>
       </c>
-      <c r="O434" s="52" t="str">
+      <c r="O434" s="35" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S34</v>
       </c>
-      <c r="P434" s="52" t="str">
+      <c r="P434" s="35" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -69047,71 +68799,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="40" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="38" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
@@ -69140,10 +68892,10 @@
         <v>44</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
@@ -69189,11 +68941,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="27"/>
-      <c r="K5" s="37">
+      <c r="K5" s="38">
         <f>IFERROR(GETPIVOTDATA("Prix Total",#REF!,"Operation","Commande"),0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="28">
         <f>IFERROR(H5/K5,0)</f>
         <v>0</v>
@@ -70301,72 +70053,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
@@ -70397,10 +70149,10 @@
         <v>44</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
@@ -70451,11 +70203,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="27"/>
-      <c r="K5" s="37">
+      <c r="K5" s="38">
         <f>IFERROR(GETPIVOTDATA("Prix Total",#REF!,"Operation","Commande"),0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="28" t="e">
         <f>H5/K5</f>
         <v>#DIV/0!</v>
@@ -71288,10 +71040,10 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C5F5F-E353-469E-B3A3-7418FE910AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE95A0-17A8-40FE-8AE2-8BDB1135B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="0" r:id="rId5"/>
+        <pivotCache cacheId="40" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="739">
   <si>
     <t>Date</t>
   </si>
@@ -2261,6 +2261,27 @@
   </si>
   <si>
     <t>Demande de revenir une prochaine fois</t>
+  </si>
+  <si>
+    <t>Khar Yalla</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Mbaye sey</t>
+  </si>
+  <si>
+    <t>Mouhem Diallo</t>
+  </si>
+  <si>
+    <t>Seydou Diallo</t>
+  </si>
+  <si>
+    <t>Il connaît non produit de bonnes qualités</t>
+  </si>
+  <si>
+    <t>Alimentation Générale</t>
   </si>
 </sst>
 </file>
@@ -2486,7 +2507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2608,6 +2629,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -50075,8 +50104,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P434" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:P434" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P442" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:P442" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -50475,10 +50504,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P434"/>
+  <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80:I81"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:N442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -68750,6 +68779,366 @@
         <v>S34</v>
       </c>
       <c r="P434" s="35" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A435" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B435" t="s">
+        <v>33</v>
+      </c>
+      <c r="C435" t="s">
+        <v>34</v>
+      </c>
+      <c r="D435" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E435" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="F435" s="49">
+        <v>784071086</v>
+      </c>
+      <c r="G435" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="H435" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I435" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J435" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K435" s="49"/>
+      <c r="L435" s="49"/>
+      <c r="M435" s="51"/>
+      <c r="N435" s="51"/>
+      <c r="O435" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P435" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A436" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B436" t="s">
+        <v>33</v>
+      </c>
+      <c r="C436" t="s">
+        <v>34</v>
+      </c>
+      <c r="D436" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E436" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="F436" s="49">
+        <v>774540017</v>
+      </c>
+      <c r="G436" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="H436" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I436" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J436" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K436" s="49"/>
+      <c r="L436" s="49"/>
+      <c r="M436" s="51"/>
+      <c r="N436" s="51"/>
+      <c r="O436" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P436" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A437" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B437" t="s">
+        <v>33</v>
+      </c>
+      <c r="C437" t="s">
+        <v>34</v>
+      </c>
+      <c r="D437" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E437" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="F437" s="49">
+        <v>773140899</v>
+      </c>
+      <c r="G437" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="H437" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I437" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J437" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K437" s="49"/>
+      <c r="L437" s="49"/>
+      <c r="M437" s="51"/>
+      <c r="N437" s="51"/>
+      <c r="O437" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P437" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A438" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B438" t="s">
+        <v>33</v>
+      </c>
+      <c r="C438" t="s">
+        <v>34</v>
+      </c>
+      <c r="D438" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E438" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="F438" s="49">
+        <v>780137992</v>
+      </c>
+      <c r="G438" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H438" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I438" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J438" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="K438" s="49"/>
+      <c r="L438" s="49"/>
+      <c r="M438" s="51"/>
+      <c r="N438" s="51"/>
+      <c r="O438" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P438" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A439" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B439" t="s">
+        <v>33</v>
+      </c>
+      <c r="C439" t="s">
+        <v>34</v>
+      </c>
+      <c r="D439" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E439" s="49" t="s">
+        <v>585</v>
+      </c>
+      <c r="F439" s="49">
+        <v>778066928</v>
+      </c>
+      <c r="G439" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H439" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I439" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J439" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K439" s="49"/>
+      <c r="L439" s="49"/>
+      <c r="M439" s="51"/>
+      <c r="N439" s="51"/>
+      <c r="O439" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P439" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A440" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B440" t="s">
+        <v>33</v>
+      </c>
+      <c r="C440" t="s">
+        <v>34</v>
+      </c>
+      <c r="D440" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E440" s="49" t="s">
+        <v>738</v>
+      </c>
+      <c r="F440" s="49">
+        <v>779072194</v>
+      </c>
+      <c r="G440" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H440" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I440" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J440" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K440" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L440" s="49">
+        <v>1</v>
+      </c>
+      <c r="M440" s="51">
+        <v>26000</v>
+      </c>
+      <c r="N440" s="51">
+        <v>26000</v>
+      </c>
+      <c r="O440" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P440" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A441" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B441" t="s">
+        <v>33</v>
+      </c>
+      <c r="C441" t="s">
+        <v>34</v>
+      </c>
+      <c r="D441" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E441" s="49" t="s">
+        <v>585</v>
+      </c>
+      <c r="F441" s="49">
+        <v>778066928</v>
+      </c>
+      <c r="G441" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H441" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I441" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J441" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K441" s="49"/>
+      <c r="L441" s="49"/>
+      <c r="M441" s="51"/>
+      <c r="N441" s="51"/>
+      <c r="O441" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P441" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A442" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B442" t="s">
+        <v>33</v>
+      </c>
+      <c r="C442" t="s">
+        <v>34</v>
+      </c>
+      <c r="D442" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E442" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F442" s="49">
+        <v>777427919</v>
+      </c>
+      <c r="G442" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="H442" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I442" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J442" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K442" s="49"/>
+      <c r="L442" s="49"/>
+      <c r="M442" s="51"/>
+      <c r="N442" s="51"/>
+      <c r="O442" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S34</v>
+      </c>
+      <c r="P442" s="52" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>

--- a/Tableau_bord_23_au_26_07.xlsx
+++ b/Tableau_bord_23_au_26_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDAO ABDOULAYE\Desktop\AFRIKA LEYRI\Rapport\Appli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AE49C-4ECE-4B93-82F6-69C4AAC66D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EA58A7-C17A-459A-A5C1-C53456E7F50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="814" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="64" r:id="rId5"/>
+        <pivotCache cacheId="40" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5988" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6410" uniqueCount="1016">
   <si>
     <t>Date</t>
   </si>
@@ -3014,6 +3014,108 @@
   </si>
   <si>
     <t xml:space="preserve">Il avait commender 2 cartons de refraich 50g que j'ai donné à un promoteur </t>
+  </si>
+  <si>
+    <t>Mbao</t>
+  </si>
+  <si>
+    <t>AZIZ</t>
+  </si>
+  <si>
+    <t>Absent aujourd'hui</t>
+  </si>
+  <si>
+    <t>Zac Mbao</t>
+  </si>
+  <si>
+    <t>DJIBRIL Traoré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il lui reste des café altimo pots </t>
+  </si>
+  <si>
+    <t>Momodou Diallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a acheté 1/2 cartons de 100g </t>
+  </si>
+  <si>
+    <t>Madame Barry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle n'est pas présent </t>
+  </si>
+  <si>
+    <t>AMADOU Bâ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il a acheté avec les promoteurs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il dit qu'il a mon numéro il va m'appeler en cas de besoin </t>
+  </si>
+  <si>
+    <t>Thierno Diallo</t>
+  </si>
+  <si>
+    <t>Rad</t>
+  </si>
+  <si>
+    <t>Dis qu'il va essayer une foi que les clients autont demandé</t>
+  </si>
+  <si>
+    <t>Yamal</t>
+  </si>
+  <si>
+    <t>Il veut essayer 1carton altimo stick</t>
+  </si>
+  <si>
+    <t>Il a arrêté de vendre les cafés et laits</t>
+  </si>
+  <si>
+    <t>Khadim Bamba</t>
+  </si>
+  <si>
+    <t>Il a le stick refraish acheté au magasin</t>
+  </si>
+  <si>
+    <t>Il veut 5cartons refraish</t>
+  </si>
+  <si>
+    <t>Le patron qui passe les commandes n'était pas présent</t>
+  </si>
+  <si>
+    <t>Mohamed Saliou</t>
+  </si>
+  <si>
+    <t>Veut 1carton altimo</t>
+  </si>
+  <si>
+    <t>Il lui reste quelques cartons refraish.demande de revenir la semaine prochaine pour voir si c'est fini</t>
+  </si>
+  <si>
+    <t>Il lui reste 31 cartons café stick Altimo et a fini son stock de stick Refraish</t>
+  </si>
+  <si>
+    <t>Une autre personne lui avait vendu nos produits et c'est pas encore fini</t>
+  </si>
+  <si>
+    <t>Il a d'autres marques actuellement.il demande de revenir une prochaine fois</t>
+  </si>
+  <si>
+    <t>Il est toujours en réflexion sur nos produits</t>
+  </si>
+  <si>
+    <t>Le patron voudrait essayer le refraish mais actuellement il est en voyage</t>
+  </si>
+  <si>
+    <t>Ils ont acheté les produits au magasin.il leur reste du stock</t>
+  </si>
+  <si>
+    <t>La boutique n'était pas encore ouverte</t>
+  </si>
+  <si>
+    <t>Ibrahima Fall</t>
   </si>
 </sst>
 </file>
@@ -50836,8 +50938,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P728" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:P728" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}" name="Semaine_1" displayName="Semaine_1" ref="A1:P780" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:P780" xr:uid="{FC757211-1341-459A-BE29-FAC5D7146FA5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2">
     <sortCondition descending="1" ref="A1:A2"/>
   </sortState>
@@ -51236,10 +51338,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P728"/>
+  <dimension ref="A1:P780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I569" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A581" sqref="A581:N728"/>
+    <sheetView tabSelected="1" topLeftCell="C723" zoomScale="106" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="H731" sqref="H731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -75699,36 +75801,32 @@
       <c r="C581" t="s">
         <v>25</v>
       </c>
-      <c r="D581" s="49" t="s">
+      <c r="D581" t="s">
         <v>162</v>
       </c>
-      <c r="E581" s="49" t="s">
+      <c r="E581" t="s">
         <v>872</v>
       </c>
-      <c r="F581" s="49">
+      <c r="F581">
         <v>781164945</v>
       </c>
-      <c r="G581" s="49" t="s">
+      <c r="G581" t="s">
         <v>15</v>
       </c>
-      <c r="H581" s="49" t="s">
+      <c r="H581" t="s">
         <v>16</v>
       </c>
-      <c r="I581" s="49" t="s">
+      <c r="I581" t="s">
         <v>17</v>
       </c>
-      <c r="J581" s="50" t="s">
+      <c r="J581" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="K581" s="49"/>
-      <c r="L581" s="49"/>
-      <c r="M581" s="51"/>
-      <c r="N581" s="51"/>
-      <c r="O581" s="52" t="str">
+      <c r="O581" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P581" s="52" t="str">
+      <c r="P581" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -75743,44 +75841,44 @@
       <c r="C582" t="s">
         <v>25</v>
       </c>
-      <c r="D582" s="49" t="s">
+      <c r="D582" t="s">
         <v>79</v>
       </c>
-      <c r="E582" s="49" t="s">
+      <c r="E582" t="s">
         <v>86</v>
       </c>
-      <c r="F582" s="49">
+      <c r="F582">
         <v>786323232</v>
       </c>
-      <c r="G582" s="49" t="s">
+      <c r="G582" t="s">
         <v>22</v>
       </c>
-      <c r="H582" s="49" t="s">
+      <c r="H582" t="s">
         <v>19</v>
       </c>
-      <c r="I582" s="49" t="s">
+      <c r="I582" t="s">
         <v>28</v>
       </c>
-      <c r="J582" s="50" t="s">
+      <c r="J582" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K582" s="49" t="s">
+      <c r="K582" t="s">
         <v>27</v>
       </c>
-      <c r="L582" s="49">
+      <c r="L582">
         <v>50</v>
       </c>
-      <c r="M582" s="51">
+      <c r="M582" s="5">
         <v>26000</v>
       </c>
-      <c r="N582" s="51">
+      <c r="N582" s="5">
         <v>1300000</v>
       </c>
-      <c r="O582" s="52" t="str">
+      <c r="O582" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P582" s="52" t="str">
+      <c r="P582" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -75795,36 +75893,32 @@
       <c r="C583" t="s">
         <v>25</v>
       </c>
-      <c r="D583" s="49" t="s">
+      <c r="D583" t="s">
         <v>162</v>
       </c>
-      <c r="E583" s="49" t="s">
+      <c r="E583" t="s">
         <v>874</v>
       </c>
-      <c r="F583" s="49">
+      <c r="F583">
         <v>338729194</v>
       </c>
-      <c r="G583" s="49" t="s">
+      <c r="G583" t="s">
         <v>15</v>
       </c>
-      <c r="H583" s="49" t="s">
+      <c r="H583" t="s">
         <v>16</v>
       </c>
-      <c r="I583" s="49" t="s">
+      <c r="I583" t="s">
         <v>17</v>
       </c>
-      <c r="J583" s="50" t="s">
+      <c r="J583" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="K583" s="49"/>
-      <c r="L583" s="49"/>
-      <c r="M583" s="51"/>
-      <c r="N583" s="51"/>
-      <c r="O583" s="52" t="str">
+      <c r="O583" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P583" s="52" t="str">
+      <c r="P583" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -75839,36 +75933,32 @@
       <c r="C584" t="s">
         <v>25</v>
       </c>
-      <c r="D584" s="49" t="s">
+      <c r="D584" t="s">
         <v>162</v>
       </c>
-      <c r="E584" s="49" t="s">
+      <c r="E584" t="s">
         <v>876</v>
       </c>
-      <c r="F584" s="49">
+      <c r="F584">
         <v>764631568</v>
       </c>
-      <c r="G584" s="49" t="s">
+      <c r="G584" t="s">
         <v>15</v>
       </c>
-      <c r="H584" s="49" t="s">
+      <c r="H584" t="s">
         <v>16</v>
       </c>
-      <c r="I584" s="49" t="s">
+      <c r="I584" t="s">
         <v>17</v>
       </c>
-      <c r="J584" s="50" t="s">
+      <c r="J584" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="K584" s="49"/>
-      <c r="L584" s="49"/>
-      <c r="M584" s="51"/>
-      <c r="N584" s="51"/>
-      <c r="O584" s="52" t="str">
+      <c r="O584" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P584" s="52" t="str">
+      <c r="P584" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -75883,36 +75973,32 @@
       <c r="C585" t="s">
         <v>25</v>
       </c>
-      <c r="D585" s="49" t="s">
+      <c r="D585" t="s">
         <v>162</v>
       </c>
-      <c r="E585" s="49" t="s">
+      <c r="E585" t="s">
         <v>878</v>
       </c>
-      <c r="F585" s="49">
+      <c r="F585">
         <v>775513483</v>
       </c>
-      <c r="G585" s="49" t="s">
+      <c r="G585" t="s">
         <v>15</v>
       </c>
-      <c r="H585" s="49" t="s">
+      <c r="H585" t="s">
         <v>16</v>
       </c>
-      <c r="I585" s="49" t="s">
+      <c r="I585" t="s">
         <v>17</v>
       </c>
-      <c r="J585" s="50" t="s">
+      <c r="J585" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="K585" s="49"/>
-      <c r="L585" s="49"/>
-      <c r="M585" s="51"/>
-      <c r="N585" s="51"/>
-      <c r="O585" s="52" t="str">
+      <c r="O585" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P585" s="52" t="str">
+      <c r="P585" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -75927,36 +76013,32 @@
       <c r="C586" t="s">
         <v>25</v>
       </c>
-      <c r="D586" s="49" t="s">
+      <c r="D586" t="s">
         <v>162</v>
       </c>
-      <c r="E586" s="49" t="s">
+      <c r="E586" t="s">
         <v>880</v>
       </c>
-      <c r="F586" s="49">
+      <c r="F586">
         <v>776156393</v>
       </c>
-      <c r="G586" s="49" t="s">
+      <c r="G586" t="s">
         <v>15</v>
       </c>
-      <c r="H586" s="49" t="s">
+      <c r="H586" t="s">
         <v>16</v>
       </c>
-      <c r="I586" s="49" t="s">
+      <c r="I586" t="s">
         <v>17</v>
       </c>
-      <c r="J586" s="50" t="s">
+      <c r="J586" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="K586" s="49"/>
-      <c r="L586" s="49"/>
-      <c r="M586" s="51"/>
-      <c r="N586" s="51"/>
-      <c r="O586" s="52" t="str">
+      <c r="O586" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P586" s="52" t="str">
+      <c r="P586" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -75971,36 +76053,32 @@
       <c r="C587" t="s">
         <v>25</v>
       </c>
-      <c r="D587" s="49" t="s">
+      <c r="D587" t="s">
         <v>162</v>
       </c>
-      <c r="E587" s="49" t="s">
+      <c r="E587" t="s">
         <v>882</v>
       </c>
-      <c r="F587" s="49">
+      <c r="F587">
         <v>778368282</v>
       </c>
-      <c r="G587" s="49" t="s">
+      <c r="G587" t="s">
         <v>15</v>
       </c>
-      <c r="H587" s="49" t="s">
+      <c r="H587" t="s">
         <v>16</v>
       </c>
-      <c r="I587" s="49" t="s">
+      <c r="I587" t="s">
         <v>17</v>
       </c>
-      <c r="J587" s="50" t="s">
+      <c r="J587" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="K587" s="49"/>
-      <c r="L587" s="49"/>
-      <c r="M587" s="51"/>
-      <c r="N587" s="51"/>
-      <c r="O587" s="52" t="str">
+      <c r="O587" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P587" s="52" t="str">
+      <c r="P587" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76015,36 +76093,32 @@
       <c r="C588" t="s">
         <v>25</v>
       </c>
-      <c r="D588" s="49" t="s">
+      <c r="D588" t="s">
         <v>162</v>
       </c>
-      <c r="E588" s="49" t="s">
+      <c r="E588" t="s">
         <v>882</v>
       </c>
-      <c r="F588" s="49">
+      <c r="F588">
         <v>778368284</v>
       </c>
-      <c r="G588" s="49" t="s">
+      <c r="G588" t="s">
         <v>15</v>
       </c>
-      <c r="H588" s="49" t="s">
+      <c r="H588" t="s">
         <v>16</v>
       </c>
-      <c r="I588" s="49" t="s">
+      <c r="I588" t="s">
         <v>17</v>
       </c>
-      <c r="J588" s="50" t="s">
+      <c r="J588" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="K588" s="49"/>
-      <c r="L588" s="49"/>
-      <c r="M588" s="51"/>
-      <c r="N588" s="51"/>
-      <c r="O588" s="52" t="str">
+      <c r="O588" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P588" s="52" t="str">
+      <c r="P588" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76059,36 +76133,32 @@
       <c r="C589" t="s">
         <v>31</v>
       </c>
-      <c r="D589" s="49" t="s">
+      <c r="D589" t="s">
         <v>582</v>
       </c>
-      <c r="E589" s="49" t="s">
+      <c r="E589" t="s">
         <v>584</v>
       </c>
-      <c r="F589" s="49">
+      <c r="F589">
         <v>775586253</v>
       </c>
-      <c r="G589" s="49" t="s">
+      <c r="G589" t="s">
         <v>22</v>
       </c>
-      <c r="H589" s="49" t="s">
+      <c r="H589" t="s">
         <v>16</v>
       </c>
-      <c r="I589" s="49" t="s">
+      <c r="I589" t="s">
         <v>17</v>
       </c>
-      <c r="J589" s="50" t="s">
+      <c r="J589" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="K589" s="49"/>
-      <c r="L589" s="49"/>
-      <c r="M589" s="51"/>
-      <c r="N589" s="51"/>
-      <c r="O589" s="52" t="str">
+      <c r="O589" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P589" s="52" t="str">
+      <c r="P589" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76103,36 +76173,32 @@
       <c r="C590" t="s">
         <v>25</v>
       </c>
-      <c r="D590" s="49" t="s">
+      <c r="D590" t="s">
         <v>162</v>
       </c>
-      <c r="E590" s="49" t="s">
+      <c r="E590" t="s">
         <v>886</v>
       </c>
-      <c r="F590" s="49">
+      <c r="F590">
         <v>785158696</v>
       </c>
-      <c r="G590" s="49" t="s">
+      <c r="G590" t="s">
         <v>15</v>
       </c>
-      <c r="H590" s="49" t="s">
+      <c r="H590" t="s">
         <v>16</v>
       </c>
-      <c r="I590" s="49" t="s">
+      <c r="I590" t="s">
         <v>17</v>
       </c>
-      <c r="J590" s="50" t="s">
+      <c r="J590" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="K590" s="49"/>
-      <c r="L590" s="49"/>
-      <c r="M590" s="51"/>
-      <c r="N590" s="51"/>
-      <c r="O590" s="52" t="str">
+      <c r="O590" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P590" s="52" t="str">
+      <c r="P590" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76147,36 +76213,32 @@
       <c r="C591" t="s">
         <v>25</v>
       </c>
-      <c r="D591" s="49" t="s">
+      <c r="D591" t="s">
         <v>162</v>
       </c>
-      <c r="E591" s="49" t="s">
+      <c r="E591" t="s">
         <v>888</v>
       </c>
-      <c r="F591" s="49">
+      <c r="F591">
         <v>773633030</v>
       </c>
-      <c r="G591" s="49" t="s">
+      <c r="G591" t="s">
         <v>22</v>
       </c>
-      <c r="H591" s="49" t="s">
+      <c r="H591" t="s">
         <v>16</v>
       </c>
-      <c r="I591" s="49" t="s">
+      <c r="I591" t="s">
         <v>17</v>
       </c>
-      <c r="J591" s="50" t="s">
+      <c r="J591" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="K591" s="49"/>
-      <c r="L591" s="49"/>
-      <c r="M591" s="51"/>
-      <c r="N591" s="51"/>
-      <c r="O591" s="52" t="str">
+      <c r="O591" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P591" s="52" t="str">
+      <c r="P591" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76191,36 +76253,32 @@
       <c r="C592" t="s">
         <v>25</v>
       </c>
-      <c r="D592" s="49" t="s">
+      <c r="D592" t="s">
         <v>162</v>
       </c>
-      <c r="E592" s="49" t="s">
+      <c r="E592" t="s">
         <v>890</v>
       </c>
-      <c r="F592" s="49">
+      <c r="F592">
         <v>775376783</v>
       </c>
-      <c r="G592" s="49" t="s">
+      <c r="G592" t="s">
         <v>22</v>
       </c>
-      <c r="H592" s="49" t="s">
+      <c r="H592" t="s">
         <v>16</v>
       </c>
-      <c r="I592" s="49" t="s">
+      <c r="I592" t="s">
         <v>17</v>
       </c>
-      <c r="J592" s="50" t="s">
+      <c r="J592" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="K592" s="49"/>
-      <c r="L592" s="49"/>
-      <c r="M592" s="51"/>
-      <c r="N592" s="51"/>
-      <c r="O592" s="52" t="str">
+      <c r="O592" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P592" s="52" t="str">
+      <c r="P592" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76235,36 +76293,32 @@
       <c r="C593" t="s">
         <v>25</v>
       </c>
-      <c r="D593" s="49" t="s">
+      <c r="D593" t="s">
         <v>162</v>
       </c>
-      <c r="E593" s="49" t="s">
+      <c r="E593" t="s">
         <v>90</v>
       </c>
-      <c r="F593" s="49">
+      <c r="F593">
         <v>778056161</v>
       </c>
-      <c r="G593" s="49" t="s">
+      <c r="G593" t="s">
         <v>22</v>
       </c>
-      <c r="H593" s="49" t="s">
+      <c r="H593" t="s">
         <v>19</v>
       </c>
-      <c r="I593" s="49" t="s">
+      <c r="I593" t="s">
         <v>17</v>
       </c>
-      <c r="J593" s="50" t="s">
+      <c r="J593" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="K593" s="49"/>
-      <c r="L593" s="49"/>
-      <c r="M593" s="51"/>
-      <c r="N593" s="51"/>
-      <c r="O593" s="52" t="str">
+      <c r="O593" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P593" s="52" t="str">
+      <c r="P593" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76279,36 +76333,32 @@
       <c r="C594" t="s">
         <v>82</v>
       </c>
-      <c r="D594" s="49" t="s">
+      <c r="D594" t="s">
         <v>893</v>
       </c>
-      <c r="E594" s="49" t="s">
+      <c r="E594" t="s">
         <v>317</v>
       </c>
-      <c r="F594" s="49">
+      <c r="F594">
         <v>779110400</v>
       </c>
-      <c r="G594" s="49" t="s">
+      <c r="G594" t="s">
         <v>22</v>
       </c>
-      <c r="H594" s="49" t="s">
+      <c r="H594" t="s">
         <v>16</v>
       </c>
-      <c r="I594" s="49" t="s">
+      <c r="I594" t="s">
         <v>17</v>
       </c>
-      <c r="J594" s="50" t="s">
+      <c r="J594" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="K594" s="49"/>
-      <c r="L594" s="49"/>
-      <c r="M594" s="51"/>
-      <c r="N594" s="51"/>
-      <c r="O594" s="52" t="str">
+      <c r="O594" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P594" s="52" t="str">
+      <c r="P594" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76323,36 +76373,32 @@
       <c r="C595" t="s">
         <v>31</v>
       </c>
-      <c r="D595" s="49" t="s">
+      <c r="D595" t="s">
         <v>582</v>
       </c>
-      <c r="E595" s="49" t="s">
+      <c r="E595" t="s">
         <v>584</v>
       </c>
-      <c r="F595" s="49">
+      <c r="F595">
         <v>775586253</v>
       </c>
-      <c r="G595" s="49" t="s">
+      <c r="G595" t="s">
         <v>22</v>
       </c>
-      <c r="H595" s="49" t="s">
+      <c r="H595" t="s">
         <v>16</v>
       </c>
-      <c r="I595" s="49" t="s">
+      <c r="I595" t="s">
         <v>17</v>
       </c>
-      <c r="J595" s="50" t="s">
+      <c r="J595" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="K595" s="49"/>
-      <c r="L595" s="49"/>
-      <c r="M595" s="51"/>
-      <c r="N595" s="51"/>
-      <c r="O595" s="52" t="str">
+      <c r="O595" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P595" s="52" t="str">
+      <c r="P595" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76367,36 +76413,32 @@
       <c r="C596" t="s">
         <v>31</v>
       </c>
-      <c r="D596" s="49" t="s">
+      <c r="D596" t="s">
         <v>582</v>
       </c>
-      <c r="E596" s="49" t="s">
+      <c r="E596" t="s">
         <v>896</v>
       </c>
-      <c r="F596" s="49">
+      <c r="F596">
         <v>771165277</v>
       </c>
-      <c r="G596" s="49" t="s">
+      <c r="G596" t="s">
         <v>22</v>
       </c>
-      <c r="H596" s="49" t="s">
+      <c r="H596" t="s">
         <v>19</v>
       </c>
-      <c r="I596" s="49" t="s">
+      <c r="I596" t="s">
         <v>17</v>
       </c>
-      <c r="J596" s="50" t="s">
+      <c r="J596" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="K596" s="49"/>
-      <c r="L596" s="49"/>
-      <c r="M596" s="51"/>
-      <c r="N596" s="51"/>
-      <c r="O596" s="52" t="str">
+      <c r="O596" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P596" s="52" t="str">
+      <c r="P596" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76411,36 +76453,32 @@
       <c r="C597" t="s">
         <v>82</v>
       </c>
-      <c r="D597" s="49" t="s">
+      <c r="D597" t="s">
         <v>893</v>
       </c>
-      <c r="E597" s="49" t="s">
+      <c r="E597" t="s">
         <v>898</v>
       </c>
-      <c r="F597" s="49">
+      <c r="F597">
         <v>772810635</v>
       </c>
-      <c r="G597" s="49" t="s">
+      <c r="G597" t="s">
         <v>15</v>
       </c>
-      <c r="H597" s="49" t="s">
+      <c r="H597" t="s">
         <v>16</v>
       </c>
-      <c r="I597" s="49" t="s">
+      <c r="I597" t="s">
         <v>17</v>
       </c>
-      <c r="J597" s="50" t="s">
+      <c r="J597" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="K597" s="49"/>
-      <c r="L597" s="49"/>
-      <c r="M597" s="51"/>
-      <c r="N597" s="51"/>
-      <c r="O597" s="52" t="str">
+      <c r="O597" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P597" s="52" t="str">
+      <c r="P597" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76455,36 +76493,32 @@
       <c r="C598" t="s">
         <v>82</v>
       </c>
-      <c r="D598" s="49" t="s">
+      <c r="D598" t="s">
         <v>893</v>
       </c>
-      <c r="E598" s="49" t="s">
+      <c r="E598" t="s">
         <v>355</v>
       </c>
-      <c r="F598" s="49">
+      <c r="F598">
         <v>781350615</v>
       </c>
-      <c r="G598" s="49" t="s">
+      <c r="G598" t="s">
         <v>22</v>
       </c>
-      <c r="H598" s="49" t="s">
+      <c r="H598" t="s">
         <v>16</v>
       </c>
-      <c r="I598" s="49" t="s">
+      <c r="I598" t="s">
         <v>17</v>
       </c>
-      <c r="J598" s="50" t="s">
+      <c r="J598" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="K598" s="49"/>
-      <c r="L598" s="49"/>
-      <c r="M598" s="51"/>
-      <c r="N598" s="51"/>
-      <c r="O598" s="52" t="str">
+      <c r="O598" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P598" s="52" t="str">
+      <c r="P598" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76499,36 +76533,32 @@
       <c r="C599" t="s">
         <v>82</v>
       </c>
-      <c r="D599" s="49" t="s">
+      <c r="D599" t="s">
         <v>893</v>
       </c>
-      <c r="E599" s="49" t="s">
+      <c r="E599" t="s">
         <v>347</v>
       </c>
-      <c r="F599" s="49">
+      <c r="F599">
         <v>772595320</v>
       </c>
-      <c r="G599" s="49" t="s">
+      <c r="G599" t="s">
         <v>15</v>
       </c>
-      <c r="H599" s="49" t="s">
+      <c r="H599" t="s">
         <v>16</v>
       </c>
-      <c r="I599" s="49" t="s">
+      <c r="I599" t="s">
         <v>17</v>
       </c>
-      <c r="J599" s="50" t="s">
+      <c r="J599" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="K599" s="49"/>
-      <c r="L599" s="49"/>
-      <c r="M599" s="51"/>
-      <c r="N599" s="51"/>
-      <c r="O599" s="52" t="str">
+      <c r="O599" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P599" s="52" t="str">
+      <c r="P599" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76543,36 +76573,32 @@
       <c r="C600" t="s">
         <v>14</v>
       </c>
-      <c r="D600" s="49" t="s">
+      <c r="D600" t="s">
         <v>902</v>
       </c>
-      <c r="E600" s="49" t="s">
+      <c r="E600" t="s">
         <v>718</v>
       </c>
-      <c r="F600" s="49">
+      <c r="F600">
         <v>773247171</v>
       </c>
-      <c r="G600" s="49" t="s">
+      <c r="G600" t="s">
         <v>22</v>
       </c>
-      <c r="H600" s="49" t="s">
+      <c r="H600" t="s">
         <v>16</v>
       </c>
-      <c r="I600" s="49" t="s">
+      <c r="I600" t="s">
         <v>17</v>
       </c>
-      <c r="J600" s="50" t="s">
+      <c r="J600" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="K600" s="49"/>
-      <c r="L600" s="49"/>
-      <c r="M600" s="51"/>
-      <c r="N600" s="51"/>
-      <c r="O600" s="52" t="str">
+      <c r="O600" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P600" s="52" t="str">
+      <c r="P600" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76587,36 +76613,32 @@
       <c r="C601" t="s">
         <v>14</v>
       </c>
-      <c r="D601" s="49" t="s">
+      <c r="D601" t="s">
         <v>902</v>
       </c>
-      <c r="E601" s="49" t="s">
+      <c r="E601" t="s">
         <v>904</v>
       </c>
-      <c r="F601" s="49">
+      <c r="F601">
         <v>785529269</v>
       </c>
-      <c r="G601" s="49" t="s">
+      <c r="G601" t="s">
         <v>15</v>
       </c>
-      <c r="H601" s="49" t="s">
+      <c r="H601" t="s">
         <v>16</v>
       </c>
-      <c r="I601" s="49" t="s">
+      <c r="I601" t="s">
         <v>17</v>
       </c>
-      <c r="J601" s="50" t="s">
+      <c r="J601" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K601" s="49"/>
-      <c r="L601" s="49"/>
-      <c r="M601" s="51"/>
-      <c r="N601" s="51"/>
-      <c r="O601" s="52" t="str">
+      <c r="O601" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P601" s="52" t="str">
+      <c r="P601" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76631,36 +76653,32 @@
       <c r="C602" t="s">
         <v>14</v>
       </c>
-      <c r="D602" s="49" t="s">
+      <c r="D602" t="s">
         <v>902</v>
       </c>
-      <c r="E602" s="49" t="s">
+      <c r="E602" t="s">
         <v>905</v>
       </c>
-      <c r="F602" s="49">
+      <c r="F602">
         <v>781208128</v>
       </c>
-      <c r="G602" s="49" t="s">
+      <c r="G602" t="s">
         <v>15</v>
       </c>
-      <c r="H602" s="49" t="s">
+      <c r="H602" t="s">
         <v>16</v>
       </c>
-      <c r="I602" s="49" t="s">
+      <c r="I602" t="s">
         <v>17</v>
       </c>
-      <c r="J602" s="50" t="s">
+      <c r="J602" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K602" s="49"/>
-      <c r="L602" s="49"/>
-      <c r="M602" s="51"/>
-      <c r="N602" s="51"/>
-      <c r="O602" s="52" t="str">
+      <c r="O602" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P602" s="52" t="str">
+      <c r="P602" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76675,36 +76693,32 @@
       <c r="C603" t="s">
         <v>14</v>
       </c>
-      <c r="D603" s="49" t="s">
+      <c r="D603" t="s">
         <v>902</v>
       </c>
-      <c r="E603" s="49" t="s">
+      <c r="E603" t="s">
         <v>906</v>
       </c>
-      <c r="F603" s="49">
+      <c r="F603">
         <v>775079426</v>
       </c>
-      <c r="G603" s="49" t="s">
+      <c r="G603" t="s">
         <v>15</v>
       </c>
-      <c r="H603" s="49" t="s">
+      <c r="H603" t="s">
         <v>16</v>
       </c>
-      <c r="I603" s="49" t="s">
+      <c r="I603" t="s">
         <v>17</v>
       </c>
-      <c r="J603" s="50" t="s">
+      <c r="J603" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K603" s="49"/>
-      <c r="L603" s="49"/>
-      <c r="M603" s="51"/>
-      <c r="N603" s="51"/>
-      <c r="O603" s="52" t="str">
+      <c r="O603" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P603" s="52" t="str">
+      <c r="P603" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76719,36 +76733,32 @@
       <c r="C604" t="s">
         <v>14</v>
       </c>
-      <c r="D604" s="49" t="s">
+      <c r="D604" t="s">
         <v>902</v>
       </c>
-      <c r="E604" s="49" t="s">
+      <c r="E604" t="s">
         <v>606</v>
       </c>
-      <c r="F604" s="49">
+      <c r="F604">
         <v>776548448</v>
       </c>
-      <c r="G604" s="49" t="s">
+      <c r="G604" t="s">
         <v>22</v>
       </c>
-      <c r="H604" s="49" t="s">
+      <c r="H604" t="s">
         <v>16</v>
       </c>
-      <c r="I604" s="49" t="s">
+      <c r="I604" t="s">
         <v>17</v>
       </c>
-      <c r="J604" s="50" t="s">
+      <c r="J604" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K604" s="49"/>
-      <c r="L604" s="49"/>
-      <c r="M604" s="51"/>
-      <c r="N604" s="51"/>
-      <c r="O604" s="52" t="str">
+      <c r="O604" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P604" s="52" t="str">
+      <c r="P604" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76763,36 +76773,32 @@
       <c r="C605" t="s">
         <v>14</v>
       </c>
-      <c r="D605" s="49" t="s">
+      <c r="D605" t="s">
         <v>902</v>
       </c>
-      <c r="E605" s="49" t="s">
+      <c r="E605" t="s">
         <v>716</v>
       </c>
-      <c r="F605" s="49">
+      <c r="F605">
         <v>771327935</v>
       </c>
-      <c r="G605" s="49" t="s">
+      <c r="G605" t="s">
         <v>18</v>
       </c>
-      <c r="H605" s="49" t="s">
+      <c r="H605" t="s">
         <v>16</v>
       </c>
-      <c r="I605" s="49" t="s">
+      <c r="I605" t="s">
         <v>17</v>
       </c>
-      <c r="J605" s="50" t="s">
+      <c r="J605" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K605" s="49"/>
-      <c r="L605" s="49"/>
-      <c r="M605" s="51"/>
-      <c r="N605" s="51"/>
-      <c r="O605" s="52" t="str">
+      <c r="O605" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P605" s="52" t="str">
+      <c r="P605" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76807,36 +76813,32 @@
       <c r="C606" t="s">
         <v>14</v>
       </c>
-      <c r="D606" s="49" t="s">
+      <c r="D606" t="s">
         <v>902</v>
       </c>
-      <c r="E606" s="49" t="s">
+      <c r="E606" t="s">
         <v>907</v>
       </c>
-      <c r="F606" s="49">
+      <c r="F606">
         <v>338643675</v>
       </c>
-      <c r="G606" s="49" t="s">
+      <c r="G606" t="s">
         <v>22</v>
       </c>
-      <c r="H606" s="49" t="s">
+      <c r="H606" t="s">
         <v>16</v>
       </c>
-      <c r="I606" s="49" t="s">
+      <c r="I606" t="s">
         <v>17</v>
       </c>
-      <c r="J606" s="50" t="s">
+      <c r="J606" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="K606" s="49"/>
-      <c r="L606" s="49"/>
-      <c r="M606" s="51"/>
-      <c r="N606" s="51"/>
-      <c r="O606" s="52" t="str">
+      <c r="O606" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P606" s="52" t="str">
+      <c r="P606" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76851,36 +76853,32 @@
       <c r="C607" t="s">
         <v>14</v>
       </c>
-      <c r="D607" s="49" t="s">
+      <c r="D607" t="s">
         <v>902</v>
       </c>
-      <c r="E607" s="49" t="s">
+      <c r="E607" t="s">
         <v>736</v>
       </c>
-      <c r="F607" s="49">
+      <c r="F607">
         <v>781400202</v>
       </c>
-      <c r="G607" s="49" t="s">
+      <c r="G607" t="s">
         <v>22</v>
       </c>
-      <c r="H607" s="49" t="s">
+      <c r="H607" t="s">
         <v>16</v>
       </c>
-      <c r="I607" s="49" t="s">
+      <c r="I607" t="s">
         <v>17</v>
       </c>
-      <c r="J607" s="50" t="s">
+      <c r="J607" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="K607" s="49"/>
-      <c r="L607" s="49"/>
-      <c r="M607" s="51"/>
-      <c r="N607" s="51"/>
-      <c r="O607" s="52" t="str">
+      <c r="O607" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P607" s="52" t="str">
+      <c r="P607" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76895,36 +76893,32 @@
       <c r="C608" t="s">
         <v>82</v>
       </c>
-      <c r="D608" s="49" t="s">
+      <c r="D608" t="s">
         <v>893</v>
       </c>
-      <c r="E608" s="49" t="s">
+      <c r="E608" t="s">
         <v>898</v>
       </c>
-      <c r="F608" s="49">
+      <c r="F608">
         <v>772810635</v>
       </c>
-      <c r="G608" s="49" t="s">
+      <c r="G608" t="s">
         <v>15</v>
       </c>
-      <c r="H608" s="49" t="s">
+      <c r="H608" t="s">
         <v>16</v>
       </c>
-      <c r="I608" s="49" t="s">
+      <c r="I608" t="s">
         <v>17</v>
       </c>
-      <c r="J608" s="50" t="s">
+      <c r="J608" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="K608" s="49"/>
-      <c r="L608" s="49"/>
-      <c r="M608" s="51"/>
-      <c r="N608" s="51"/>
-      <c r="O608" s="52" t="str">
+      <c r="O608" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P608" s="52" t="str">
+      <c r="P608" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76939,36 +76933,32 @@
       <c r="C609" t="s">
         <v>14</v>
       </c>
-      <c r="D609" s="49" t="s">
+      <c r="D609" t="s">
         <v>902</v>
       </c>
-      <c r="E609" s="49" t="s">
+      <c r="E609" t="s">
         <v>429</v>
       </c>
-      <c r="F609" s="49">
+      <c r="F609">
         <v>773170826</v>
       </c>
-      <c r="G609" s="49" t="s">
+      <c r="G609" t="s">
         <v>15</v>
       </c>
-      <c r="H609" s="49" t="s">
+      <c r="H609" t="s">
         <v>16</v>
       </c>
-      <c r="I609" s="49" t="s">
+      <c r="I609" t="s">
         <v>17</v>
       </c>
-      <c r="J609" s="50" t="s">
+      <c r="J609" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="K609" s="49"/>
-      <c r="L609" s="49"/>
-      <c r="M609" s="51"/>
-      <c r="N609" s="51"/>
-      <c r="O609" s="52" t="str">
+      <c r="O609" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P609" s="52" t="str">
+      <c r="P609" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -76983,36 +76973,32 @@
       <c r="C610" t="s">
         <v>14</v>
       </c>
-      <c r="D610" s="49" t="s">
+      <c r="D610" t="s">
         <v>902</v>
       </c>
-      <c r="E610" s="49" t="s">
+      <c r="E610" t="s">
         <v>735</v>
       </c>
-      <c r="F610" s="49">
+      <c r="F610">
         <v>771837885</v>
       </c>
-      <c r="G610" s="49" t="s">
+      <c r="G610" t="s">
         <v>15</v>
       </c>
-      <c r="H610" s="49" t="s">
+      <c r="H610" t="s">
         <v>19</v>
       </c>
-      <c r="I610" s="49" t="s">
+      <c r="I610" t="s">
         <v>17</v>
       </c>
-      <c r="J610" s="50" t="s">
+      <c r="J610" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="K610" s="49"/>
-      <c r="L610" s="49"/>
-      <c r="M610" s="51"/>
-      <c r="N610" s="51"/>
-      <c r="O610" s="52" t="str">
+      <c r="O610" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P610" s="52" t="str">
+      <c r="P610" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77027,36 +77013,32 @@
       <c r="C611" t="s">
         <v>82</v>
       </c>
-      <c r="D611" s="49" t="s">
+      <c r="D611" t="s">
         <v>893</v>
       </c>
-      <c r="E611" s="49" t="s">
+      <c r="E611" t="s">
         <v>352</v>
       </c>
-      <c r="F611" s="49">
+      <c r="F611">
         <v>776491918</v>
       </c>
-      <c r="G611" s="49" t="s">
+      <c r="G611" t="s">
         <v>15</v>
       </c>
-      <c r="H611" s="49" t="s">
+      <c r="H611" t="s">
         <v>16</v>
       </c>
-      <c r="I611" s="49" t="s">
+      <c r="I611" t="s">
         <v>17</v>
       </c>
-      <c r="J611" s="50" t="s">
+      <c r="J611" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="K611" s="49"/>
-      <c r="L611" s="49"/>
-      <c r="M611" s="51"/>
-      <c r="N611" s="51"/>
-      <c r="O611" s="52" t="str">
+      <c r="O611" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P611" s="52" t="str">
+      <c r="P611" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77071,36 +77053,32 @@
       <c r="C612" t="s">
         <v>31</v>
       </c>
-      <c r="D612" s="49" t="s">
+      <c r="D612" t="s">
         <v>582</v>
       </c>
-      <c r="E612" s="49" t="s">
+      <c r="E612" t="s">
         <v>586</v>
       </c>
-      <c r="F612" s="49">
+      <c r="F612">
         <v>773708303</v>
       </c>
-      <c r="G612" s="49" t="s">
+      <c r="G612" t="s">
         <v>22</v>
       </c>
-      <c r="H612" s="49" t="s">
+      <c r="H612" t="s">
         <v>19</v>
       </c>
-      <c r="I612" s="49" t="s">
+      <c r="I612" t="s">
         <v>17</v>
       </c>
-      <c r="J612" s="50" t="s">
+      <c r="J612" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="K612" s="49"/>
-      <c r="L612" s="49"/>
-      <c r="M612" s="51"/>
-      <c r="N612" s="51"/>
-      <c r="O612" s="52" t="str">
+      <c r="O612" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P612" s="52" t="str">
+      <c r="P612" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77115,36 +77093,32 @@
       <c r="C613" t="s">
         <v>82</v>
       </c>
-      <c r="D613" s="49" t="s">
+      <c r="D613" t="s">
         <v>893</v>
       </c>
-      <c r="E613" s="49" t="s">
+      <c r="E613" t="s">
         <v>349</v>
       </c>
-      <c r="F613" s="49">
+      <c r="F613">
         <v>783751627</v>
       </c>
-      <c r="G613" s="49" t="s">
+      <c r="G613" t="s">
         <v>22</v>
       </c>
-      <c r="H613" s="49" t="s">
+      <c r="H613" t="s">
         <v>16</v>
       </c>
-      <c r="I613" s="49" t="s">
+      <c r="I613" t="s">
         <v>17</v>
       </c>
-      <c r="J613" s="50" t="s">
+      <c r="J613" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="K613" s="49"/>
-      <c r="L613" s="49"/>
-      <c r="M613" s="51"/>
-      <c r="N613" s="51"/>
-      <c r="O613" s="52" t="str">
+      <c r="O613" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P613" s="52" t="str">
+      <c r="P613" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77159,36 +77133,32 @@
       <c r="C614" t="s">
         <v>82</v>
       </c>
-      <c r="D614" s="49" t="s">
+      <c r="D614" t="s">
         <v>893</v>
       </c>
-      <c r="E614" s="49" t="s">
+      <c r="E614" t="s">
         <v>356</v>
       </c>
-      <c r="F614" s="49">
+      <c r="F614">
         <v>772403781</v>
       </c>
-      <c r="G614" s="49" t="s">
+      <c r="G614" t="s">
         <v>22</v>
       </c>
-      <c r="H614" s="49" t="s">
+      <c r="H614" t="s">
         <v>19</v>
       </c>
-      <c r="I614" s="49" t="s">
+      <c r="I614" t="s">
         <v>17</v>
       </c>
-      <c r="J614" s="50" t="s">
+      <c r="J614" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="K614" s="49"/>
-      <c r="L614" s="49"/>
-      <c r="M614" s="51"/>
-      <c r="N614" s="51"/>
-      <c r="O614" s="52" t="str">
+      <c r="O614" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P614" s="52" t="str">
+      <c r="P614" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77203,36 +77173,32 @@
       <c r="C615" t="s">
         <v>31</v>
       </c>
-      <c r="D615" s="49" t="s">
+      <c r="D615" t="s">
         <v>582</v>
       </c>
-      <c r="E615" s="49" t="s">
+      <c r="E615" t="s">
         <v>585</v>
       </c>
-      <c r="F615" s="49">
+      <c r="F615">
         <v>772131614</v>
       </c>
-      <c r="G615" s="49" t="s">
+      <c r="G615" t="s">
         <v>22</v>
       </c>
-      <c r="H615" s="49" t="s">
+      <c r="H615" t="s">
         <v>19</v>
       </c>
-      <c r="I615" s="49" t="s">
+      <c r="I615" t="s">
         <v>17</v>
       </c>
-      <c r="J615" s="50" t="s">
+      <c r="J615" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="K615" s="49"/>
-      <c r="L615" s="49"/>
-      <c r="M615" s="51"/>
-      <c r="N615" s="51"/>
-      <c r="O615" s="52" t="str">
+      <c r="O615" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P615" s="52" t="str">
+      <c r="P615" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77247,36 +77213,32 @@
       <c r="C616" t="s">
         <v>25</v>
       </c>
-      <c r="D616" s="49" t="s">
+      <c r="D616" t="s">
         <v>162</v>
       </c>
-      <c r="E616" s="49" t="s">
+      <c r="E616" t="s">
         <v>918</v>
       </c>
-      <c r="F616" s="49">
+      <c r="F616">
         <v>774381151</v>
       </c>
-      <c r="G616" s="49" t="s">
+      <c r="G616" t="s">
         <v>15</v>
       </c>
-      <c r="H616" s="49" t="s">
+      <c r="H616" t="s">
         <v>16</v>
       </c>
-      <c r="I616" s="49" t="s">
+      <c r="I616" t="s">
         <v>17</v>
       </c>
-      <c r="J616" s="50" t="s">
+      <c r="J616" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="K616" s="49"/>
-      <c r="L616" s="49"/>
-      <c r="M616" s="51"/>
-      <c r="N616" s="51"/>
-      <c r="O616" s="52" t="str">
+      <c r="O616" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P616" s="52" t="str">
+      <c r="P616" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77291,36 +77253,32 @@
       <c r="C617" t="s">
         <v>31</v>
       </c>
-      <c r="D617" s="49" t="s">
+      <c r="D617" t="s">
         <v>582</v>
       </c>
-      <c r="E617" s="49" t="s">
+      <c r="E617" t="s">
         <v>588</v>
       </c>
-      <c r="F617" s="49">
+      <c r="F617">
         <v>774483791</v>
       </c>
-      <c r="G617" s="49" t="s">
+      <c r="G617" t="s">
         <v>22</v>
       </c>
-      <c r="H617" s="49" t="s">
+      <c r="H617" t="s">
         <v>19</v>
       </c>
-      <c r="I617" s="49" t="s">
+      <c r="I617" t="s">
         <v>17</v>
       </c>
-      <c r="J617" s="50" t="s">
+      <c r="J617" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="K617" s="49"/>
-      <c r="L617" s="49"/>
-      <c r="M617" s="51"/>
-      <c r="N617" s="51"/>
-      <c r="O617" s="52" t="str">
+      <c r="O617" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P617" s="52" t="str">
+      <c r="P617" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77335,36 +77293,32 @@
       <c r="C618" t="s">
         <v>33</v>
       </c>
-      <c r="D618" s="49" t="s">
+      <c r="D618" t="s">
         <v>167</v>
       </c>
-      <c r="E618" s="49" t="s">
+      <c r="E618" t="s">
         <v>169</v>
       </c>
-      <c r="F618" s="49">
+      <c r="F618">
         <v>775250570</v>
       </c>
-      <c r="G618" s="49" t="s">
+      <c r="G618" t="s">
         <v>22</v>
       </c>
-      <c r="H618" s="49" t="s">
+      <c r="H618" t="s">
         <v>19</v>
       </c>
-      <c r="I618" s="49" t="s">
+      <c r="I618" t="s">
         <v>17</v>
       </c>
-      <c r="J618" s="50" t="s">
+      <c r="J618" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K618" s="49"/>
-      <c r="L618" s="49"/>
-      <c r="M618" s="51"/>
-      <c r="N618" s="51"/>
-      <c r="O618" s="52" t="str">
+      <c r="O618" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P618" s="52" t="str">
+      <c r="P618" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77379,36 +77333,32 @@
       <c r="C619" t="s">
         <v>33</v>
       </c>
-      <c r="D619" s="49" t="s">
+      <c r="D619" t="s">
         <v>571</v>
       </c>
-      <c r="E619" s="49" t="s">
+      <c r="E619" t="s">
         <v>506</v>
       </c>
-      <c r="F619" s="49">
+      <c r="F619">
         <v>786352424</v>
       </c>
-      <c r="G619" s="49" t="s">
+      <c r="G619" t="s">
         <v>22</v>
       </c>
-      <c r="H619" s="49" t="s">
+      <c r="H619" t="s">
         <v>19</v>
       </c>
-      <c r="I619" s="49" t="s">
+      <c r="I619" t="s">
         <v>17</v>
       </c>
-      <c r="J619" s="50" t="s">
+      <c r="J619" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K619" s="49"/>
-      <c r="L619" s="49"/>
-      <c r="M619" s="51"/>
-      <c r="N619" s="51"/>
-      <c r="O619" s="52" t="str">
+      <c r="O619" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P619" s="52" t="str">
+      <c r="P619" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77423,44 +77373,44 @@
       <c r="C620" t="s">
         <v>33</v>
       </c>
-      <c r="D620" s="49" t="s">
+      <c r="D620" t="s">
         <v>571</v>
       </c>
-      <c r="E620" s="49" t="s">
+      <c r="E620" t="s">
         <v>635</v>
       </c>
-      <c r="F620" s="49">
+      <c r="F620">
         <v>772361840</v>
       </c>
-      <c r="G620" s="49" t="s">
+      <c r="G620" t="s">
         <v>22</v>
       </c>
-      <c r="H620" s="49" t="s">
+      <c r="H620" t="s">
         <v>19</v>
       </c>
-      <c r="I620" s="49" t="s">
+      <c r="I620" t="s">
         <v>28</v>
       </c>
-      <c r="J620" s="50" t="s">
+      <c r="J620" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="K620" s="49" t="s">
+      <c r="K620" t="s">
         <v>27</v>
       </c>
-      <c r="L620" s="49">
+      <c r="L620">
         <v>25</v>
       </c>
-      <c r="M620" s="51">
+      <c r="M620" s="5">
         <v>26000</v>
       </c>
-      <c r="N620" s="51">
+      <c r="N620" s="5">
         <v>650000</v>
       </c>
-      <c r="O620" s="52" t="str">
+      <c r="O620" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P620" s="52" t="str">
+      <c r="P620" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77475,36 +77425,32 @@
       <c r="C621" t="s">
         <v>33</v>
       </c>
-      <c r="D621" s="49" t="s">
+      <c r="D621" t="s">
         <v>571</v>
       </c>
-      <c r="E621" s="49" t="s">
+      <c r="E621" t="s">
         <v>135</v>
       </c>
-      <c r="F621" s="49">
+      <c r="F621">
         <v>772257934</v>
       </c>
-      <c r="G621" s="49" t="s">
+      <c r="G621" t="s">
         <v>22</v>
       </c>
-      <c r="H621" s="49" t="s">
+      <c r="H621" t="s">
         <v>19</v>
       </c>
-      <c r="I621" s="49" t="s">
+      <c r="I621" t="s">
         <v>17</v>
       </c>
-      <c r="J621" s="50" t="s">
+      <c r="J621" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K621" s="49"/>
-      <c r="L621" s="49"/>
-      <c r="M621" s="51"/>
-      <c r="N621" s="51"/>
-      <c r="O621" s="52" t="str">
+      <c r="O621" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P621" s="52" t="str">
+      <c r="P621" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77519,36 +77465,32 @@
       <c r="C622" t="s">
         <v>33</v>
       </c>
-      <c r="D622" s="49" t="s">
+      <c r="D622" t="s">
         <v>571</v>
       </c>
-      <c r="E622" s="49" t="s">
+      <c r="E622" t="s">
         <v>921</v>
       </c>
-      <c r="F622" s="49">
+      <c r="F622">
         <v>771681949</v>
       </c>
-      <c r="G622" s="49" t="s">
+      <c r="G622" t="s">
         <v>22</v>
       </c>
-      <c r="H622" s="49" t="s">
+      <c r="H622" t="s">
         <v>19</v>
       </c>
-      <c r="I622" s="49" t="s">
+      <c r="I622" t="s">
         <v>17</v>
       </c>
-      <c r="J622" s="50" t="s">
+      <c r="J622" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K622" s="49"/>
-      <c r="L622" s="49"/>
-      <c r="M622" s="51"/>
-      <c r="N622" s="51"/>
-      <c r="O622" s="52" t="str">
+      <c r="O622" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P622" s="52" t="str">
+      <c r="P622" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77563,36 +77505,32 @@
       <c r="C623" t="s">
         <v>33</v>
       </c>
-      <c r="D623" s="49" t="s">
+      <c r="D623" t="s">
         <v>571</v>
       </c>
-      <c r="E623" s="49" t="s">
+      <c r="E623" t="s">
         <v>370</v>
       </c>
-      <c r="F623" s="49">
+      <c r="F623">
         <v>763888972</v>
       </c>
-      <c r="G623" s="49" t="s">
+      <c r="G623" t="s">
         <v>22</v>
       </c>
-      <c r="H623" s="49" t="s">
+      <c r="H623" t="s">
         <v>19</v>
       </c>
-      <c r="I623" s="49" t="s">
+      <c r="I623" t="s">
         <v>17</v>
       </c>
-      <c r="J623" s="50" t="s">
+      <c r="J623" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K623" s="49"/>
-      <c r="L623" s="49"/>
-      <c r="M623" s="51"/>
-      <c r="N623" s="51"/>
-      <c r="O623" s="52" t="str">
+      <c r="O623" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P623" s="52" t="str">
+      <c r="P623" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77607,44 +77545,44 @@
       <c r="C624" t="s">
         <v>33</v>
       </c>
-      <c r="D624" s="49" t="s">
+      <c r="D624" t="s">
         <v>571</v>
       </c>
-      <c r="E624" s="49" t="s">
+      <c r="E624" t="s">
         <v>640</v>
       </c>
-      <c r="F624" s="49">
+      <c r="F624">
         <v>763469670</v>
       </c>
-      <c r="G624" s="49" t="s">
+      <c r="G624" t="s">
         <v>22</v>
       </c>
-      <c r="H624" s="49" t="s">
+      <c r="H624" t="s">
         <v>19</v>
       </c>
-      <c r="I624" s="49" t="s">
+      <c r="I624" t="s">
         <v>23</v>
       </c>
-      <c r="J624" s="50" t="s">
+      <c r="J624" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K624" s="49" t="s">
+      <c r="K624" t="s">
         <v>27</v>
       </c>
-      <c r="L624" s="49">
+      <c r="L624">
         <v>50</v>
       </c>
-      <c r="M624" s="51">
+      <c r="M624" s="5">
         <v>26000</v>
       </c>
-      <c r="N624" s="51">
+      <c r="N624" s="5">
         <v>1300000</v>
       </c>
-      <c r="O624" s="52" t="str">
+      <c r="O624" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P624" s="52" t="str">
+      <c r="P624" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77659,36 +77597,32 @@
       <c r="C625" t="s">
         <v>33</v>
       </c>
-      <c r="D625" s="49" t="s">
+      <c r="D625" t="s">
         <v>571</v>
       </c>
-      <c r="E625" s="49" t="s">
+      <c r="E625" t="s">
         <v>922</v>
       </c>
-      <c r="F625" s="49">
+      <c r="F625">
         <v>782353502</v>
       </c>
-      <c r="G625" s="49" t="s">
+      <c r="G625" t="s">
         <v>22</v>
       </c>
-      <c r="H625" s="49" t="s">
+      <c r="H625" t="s">
         <v>16</v>
       </c>
-      <c r="I625" s="49" t="s">
+      <c r="I625" t="s">
         <v>17</v>
       </c>
-      <c r="J625" s="50" t="s">
+      <c r="J625" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K625" s="49"/>
-      <c r="L625" s="49"/>
-      <c r="M625" s="51"/>
-      <c r="N625" s="51"/>
-      <c r="O625" s="52" t="str">
+      <c r="O625" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P625" s="52" t="str">
+      <c r="P625" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77703,36 +77637,32 @@
       <c r="C626" t="s">
         <v>33</v>
       </c>
-      <c r="D626" s="49" t="s">
+      <c r="D626" t="s">
         <v>571</v>
       </c>
-      <c r="E626" s="49" t="s">
+      <c r="E626" t="s">
         <v>633</v>
       </c>
-      <c r="F626" s="49">
+      <c r="F626">
         <v>779585990</v>
       </c>
-      <c r="G626" s="49" t="s">
+      <c r="G626" t="s">
         <v>22</v>
       </c>
-      <c r="H626" s="49" t="s">
+      <c r="H626" t="s">
         <v>16</v>
       </c>
-      <c r="I626" s="49" t="s">
+      <c r="I626" t="s">
         <v>17</v>
       </c>
-      <c r="J626" s="50" t="s">
+      <c r="J626" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K626" s="49"/>
-      <c r="L626" s="49"/>
-      <c r="M626" s="51"/>
-      <c r="N626" s="51"/>
-      <c r="O626" s="52" t="str">
+      <c r="O626" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P626" s="52" t="str">
+      <c r="P626" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77747,36 +77677,32 @@
       <c r="C627" t="s">
         <v>33</v>
       </c>
-      <c r="D627" s="49" t="s">
+      <c r="D627" t="s">
         <v>571</v>
       </c>
-      <c r="E627" s="49" t="s">
+      <c r="E627" t="s">
         <v>923</v>
       </c>
-      <c r="F627" s="49">
+      <c r="F627">
         <v>775944647</v>
       </c>
-      <c r="G627" s="49" t="s">
+      <c r="G627" t="s">
         <v>22</v>
       </c>
-      <c r="H627" s="49" t="s">
+      <c r="H627" t="s">
         <v>16</v>
       </c>
-      <c r="I627" s="49" t="s">
+      <c r="I627" t="s">
         <v>17</v>
       </c>
-      <c r="J627" s="50" t="s">
+      <c r="J627" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K627" s="49"/>
-      <c r="L627" s="49"/>
-      <c r="M627" s="51"/>
-      <c r="N627" s="51"/>
-      <c r="O627" s="52" t="str">
+      <c r="O627" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P627" s="52" t="str">
+      <c r="P627" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77791,36 +77717,32 @@
       <c r="C628" t="s">
         <v>33</v>
       </c>
-      <c r="D628" s="49" t="s">
+      <c r="D628" t="s">
         <v>571</v>
       </c>
-      <c r="E628" s="49" t="s">
+      <c r="E628" t="s">
         <v>924</v>
       </c>
-      <c r="F628" s="49">
+      <c r="F628">
         <v>775513903</v>
       </c>
-      <c r="G628" s="49" t="s">
+      <c r="G628" t="s">
         <v>22</v>
       </c>
-      <c r="H628" s="49" t="s">
+      <c r="H628" t="s">
         <v>16</v>
       </c>
-      <c r="I628" s="49" t="s">
+      <c r="I628" t="s">
         <v>17</v>
       </c>
-      <c r="J628" s="50" t="s">
+      <c r="J628" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K628" s="49"/>
-      <c r="L628" s="49"/>
-      <c r="M628" s="51"/>
-      <c r="N628" s="51"/>
-      <c r="O628" s="52" t="str">
+      <c r="O628" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P628" s="52" t="str">
+      <c r="P628" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77835,36 +77757,32 @@
       <c r="C629" t="s">
         <v>33</v>
       </c>
-      <c r="D629" s="49" t="s">
+      <c r="D629" t="s">
         <v>571</v>
       </c>
-      <c r="E629" s="49" t="s">
+      <c r="E629" t="s">
         <v>364</v>
       </c>
-      <c r="F629" s="49">
+      <c r="F629">
         <v>774445089</v>
       </c>
-      <c r="G629" s="49" t="s">
+      <c r="G629" t="s">
         <v>22</v>
       </c>
-      <c r="H629" s="49" t="s">
+      <c r="H629" t="s">
         <v>16</v>
       </c>
-      <c r="I629" s="49" t="s">
+      <c r="I629" t="s">
         <v>17</v>
       </c>
-      <c r="J629" s="50" t="s">
+      <c r="J629" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K629" s="49"/>
-      <c r="L629" s="49"/>
-      <c r="M629" s="51"/>
-      <c r="N629" s="51"/>
-      <c r="O629" s="52" t="str">
+      <c r="O629" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P629" s="52" t="str">
+      <c r="P629" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77879,36 +77797,32 @@
       <c r="C630" t="s">
         <v>33</v>
       </c>
-      <c r="D630" s="49" t="s">
+      <c r="D630" t="s">
         <v>571</v>
       </c>
-      <c r="E630" s="49" t="s">
+      <c r="E630" t="s">
         <v>921</v>
       </c>
-      <c r="F630" s="49">
+      <c r="F630">
         <v>706994949</v>
       </c>
-      <c r="G630" s="49" t="s">
+      <c r="G630" t="s">
         <v>22</v>
       </c>
-      <c r="H630" s="49" t="s">
+      <c r="H630" t="s">
         <v>16</v>
       </c>
-      <c r="I630" s="49" t="s">
+      <c r="I630" t="s">
         <v>17</v>
       </c>
-      <c r="J630" s="50" t="s">
+      <c r="J630" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K630" s="49"/>
-      <c r="L630" s="49"/>
-      <c r="M630" s="51"/>
-      <c r="N630" s="51"/>
-      <c r="O630" s="52" t="str">
+      <c r="O630" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P630" s="52" t="str">
+      <c r="P630" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77923,36 +77837,32 @@
       <c r="C631" t="s">
         <v>33</v>
       </c>
-      <c r="D631" s="49" t="s">
+      <c r="D631" t="s">
         <v>571</v>
       </c>
-      <c r="E631" s="49" t="s">
+      <c r="E631" t="s">
         <v>925</v>
       </c>
-      <c r="F631" s="49">
+      <c r="F631">
         <v>775518292</v>
       </c>
-      <c r="G631" s="49" t="s">
+      <c r="G631" t="s">
         <v>18</v>
       </c>
-      <c r="H631" s="49" t="s">
+      <c r="H631" t="s">
         <v>19</v>
       </c>
-      <c r="I631" s="49" t="s">
+      <c r="I631" t="s">
         <v>17</v>
       </c>
-      <c r="J631" s="50" t="s">
+      <c r="J631" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="K631" s="49"/>
-      <c r="L631" s="49"/>
-      <c r="M631" s="51"/>
-      <c r="N631" s="51"/>
-      <c r="O631" s="52" t="str">
+      <c r="O631" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P631" s="52" t="str">
+      <c r="P631" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -77967,36 +77877,32 @@
       <c r="C632" t="s">
         <v>33</v>
       </c>
-      <c r="D632" s="49" t="s">
+      <c r="D632" t="s">
         <v>571</v>
       </c>
-      <c r="E632" s="49" t="s">
+      <c r="E632" t="s">
         <v>927</v>
       </c>
-      <c r="F632" s="49">
+      <c r="F632">
         <v>707396415</v>
       </c>
-      <c r="G632" s="49" t="s">
+      <c r="G632" t="s">
         <v>15</v>
       </c>
-      <c r="H632" s="49" t="s">
+      <c r="H632" t="s">
         <v>19</v>
       </c>
-      <c r="I632" s="49" t="s">
+      <c r="I632" t="s">
         <v>17</v>
       </c>
-      <c r="J632" s="50" t="s">
+      <c r="J632" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K632" s="49"/>
-      <c r="L632" s="49"/>
-      <c r="M632" s="51"/>
-      <c r="N632" s="51"/>
-      <c r="O632" s="52" t="str">
+      <c r="O632" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P632" s="52" t="str">
+      <c r="P632" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78011,36 +77917,32 @@
       <c r="C633" t="s">
         <v>31</v>
       </c>
-      <c r="D633" s="49" t="s">
+      <c r="D633" t="s">
         <v>582</v>
       </c>
-      <c r="E633" s="49" t="s">
+      <c r="E633" t="s">
         <v>118</v>
       </c>
-      <c r="F633" s="49">
+      <c r="F633">
         <v>774849293</v>
       </c>
-      <c r="G633" s="49" t="s">
+      <c r="G633" t="s">
         <v>22</v>
       </c>
-      <c r="H633" s="49" t="s">
+      <c r="H633" t="s">
         <v>19</v>
       </c>
-      <c r="I633" s="49" t="s">
+      <c r="I633" t="s">
         <v>17</v>
       </c>
-      <c r="J633" s="50" t="s">
+      <c r="J633" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="K633" s="49"/>
-      <c r="L633" s="49"/>
-      <c r="M633" s="51"/>
-      <c r="N633" s="51"/>
-      <c r="O633" s="52" t="str">
+      <c r="O633" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P633" s="52" t="str">
+      <c r="P633" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78055,36 +77957,32 @@
       <c r="C634" t="s">
         <v>33</v>
       </c>
-      <c r="D634" s="49" t="s">
+      <c r="D634" t="s">
         <v>571</v>
       </c>
-      <c r="E634" s="49" t="s">
+      <c r="E634" t="s">
         <v>645</v>
       </c>
-      <c r="F634" s="49">
+      <c r="F634">
         <v>782340433</v>
       </c>
-      <c r="G634" s="49" t="s">
+      <c r="G634" t="s">
         <v>22</v>
       </c>
-      <c r="H634" s="49" t="s">
+      <c r="H634" t="s">
         <v>19</v>
       </c>
-      <c r="I634" s="49" t="s">
+      <c r="I634" t="s">
         <v>17</v>
       </c>
-      <c r="J634" s="50" t="s">
+      <c r="J634" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K634" s="49"/>
-      <c r="L634" s="49"/>
-      <c r="M634" s="51"/>
-      <c r="N634" s="51"/>
-      <c r="O634" s="52" t="str">
+      <c r="O634" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P634" s="52" t="str">
+      <c r="P634" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78099,36 +77997,32 @@
       <c r="C635" t="s">
         <v>33</v>
       </c>
-      <c r="D635" s="49" t="s">
+      <c r="D635" t="s">
         <v>571</v>
       </c>
-      <c r="E635" s="49" t="s">
+      <c r="E635" t="s">
         <v>642</v>
       </c>
-      <c r="F635" s="49">
+      <c r="F635">
         <v>763809306</v>
       </c>
-      <c r="G635" s="49" t="s">
+      <c r="G635" t="s">
         <v>22</v>
       </c>
-      <c r="H635" s="49" t="s">
+      <c r="H635" t="s">
         <v>19</v>
       </c>
-      <c r="I635" s="49" t="s">
+      <c r="I635" t="s">
         <v>17</v>
       </c>
-      <c r="J635" s="50" t="s">
+      <c r="J635" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K635" s="49"/>
-      <c r="L635" s="49"/>
-      <c r="M635" s="51"/>
-      <c r="N635" s="51"/>
-      <c r="O635" s="52" t="str">
+      <c r="O635" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P635" s="52" t="str">
+      <c r="P635" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78143,36 +78037,32 @@
       <c r="C636" t="s">
         <v>21</v>
       </c>
-      <c r="D636" s="49" t="s">
+      <c r="D636" t="s">
         <v>929</v>
       </c>
-      <c r="E636" s="49" t="s">
+      <c r="E636" t="s">
         <v>363</v>
       </c>
-      <c r="F636" s="49">
+      <c r="F636">
         <v>773125434</v>
       </c>
-      <c r="G636" s="49" t="s">
+      <c r="G636" t="s">
         <v>22</v>
       </c>
-      <c r="H636" s="49" t="s">
+      <c r="H636" t="s">
         <v>19</v>
       </c>
-      <c r="I636" s="49" t="s">
+      <c r="I636" t="s">
         <v>17</v>
       </c>
-      <c r="J636" s="50" t="s">
+      <c r="J636" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="K636" s="49"/>
-      <c r="L636" s="49"/>
-      <c r="M636" s="51"/>
-      <c r="N636" s="51"/>
-      <c r="O636" s="52" t="str">
+      <c r="O636" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P636" s="52" t="str">
+      <c r="P636" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78187,36 +78077,32 @@
       <c r="C637" t="s">
         <v>21</v>
       </c>
-      <c r="D637" s="49" t="s">
+      <c r="D637" t="s">
         <v>625</v>
       </c>
-      <c r="E637" s="49" t="s">
+      <c r="E637" t="s">
         <v>606</v>
       </c>
-      <c r="F637" s="49">
+      <c r="F637">
         <v>781468744</v>
       </c>
-      <c r="G637" s="49" t="s">
+      <c r="G637" t="s">
         <v>22</v>
       </c>
-      <c r="H637" s="49" t="s">
+      <c r="H637" t="s">
         <v>16</v>
       </c>
-      <c r="I637" s="49" t="s">
+      <c r="I637" t="s">
         <v>17</v>
       </c>
-      <c r="J637" s="50" t="s">
+      <c r="J637" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="K637" s="49"/>
-      <c r="L637" s="49"/>
-      <c r="M637" s="51"/>
-      <c r="N637" s="51"/>
-      <c r="O637" s="52" t="str">
+      <c r="O637" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P637" s="52" t="str">
+      <c r="P637" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78231,36 +78117,32 @@
       <c r="C638" t="s">
         <v>21</v>
       </c>
-      <c r="D638" s="49" t="s">
+      <c r="D638" t="s">
         <v>929</v>
       </c>
-      <c r="E638" s="49" t="s">
+      <c r="E638" t="s">
         <v>362</v>
       </c>
-      <c r="F638" s="49">
+      <c r="F638">
         <v>773199049</v>
       </c>
-      <c r="G638" s="49" t="s">
+      <c r="G638" t="s">
         <v>22</v>
       </c>
-      <c r="H638" s="49" t="s">
+      <c r="H638" t="s">
         <v>19</v>
       </c>
-      <c r="I638" s="49" t="s">
+      <c r="I638" t="s">
         <v>17</v>
       </c>
-      <c r="J638" s="50" t="s">
+      <c r="J638" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="K638" s="49"/>
-      <c r="L638" s="49"/>
-      <c r="M638" s="51"/>
-      <c r="N638" s="51"/>
-      <c r="O638" s="52" t="str">
+      <c r="O638" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P638" s="52" t="str">
+      <c r="P638" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78275,36 +78157,32 @@
       <c r="C639" t="s">
         <v>31</v>
       </c>
-      <c r="D639" s="49" t="s">
+      <c r="D639" t="s">
         <v>582</v>
       </c>
-      <c r="E639" s="49" t="s">
+      <c r="E639" t="s">
         <v>592</v>
       </c>
-      <c r="F639" s="49">
+      <c r="F639">
         <v>778291515</v>
       </c>
-      <c r="G639" s="49" t="s">
+      <c r="G639" t="s">
         <v>22</v>
       </c>
-      <c r="H639" s="49" t="s">
+      <c r="H639" t="s">
         <v>19</v>
       </c>
-      <c r="I639" s="49" t="s">
+      <c r="I639" t="s">
         <v>17</v>
       </c>
-      <c r="J639" s="50" t="s">
+      <c r="J639" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="K639" s="49"/>
-      <c r="L639" s="49"/>
-      <c r="M639" s="51"/>
-      <c r="N639" s="51"/>
-      <c r="O639" s="52" t="str">
+      <c r="O639" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P639" s="52" t="str">
+      <c r="P639" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78319,44 +78197,44 @@
       <c r="C640" t="s">
         <v>31</v>
       </c>
-      <c r="D640" s="49" t="s">
+      <c r="D640" t="s">
         <v>582</v>
       </c>
-      <c r="E640" s="49" t="s">
+      <c r="E640" t="s">
         <v>593</v>
       </c>
-      <c r="F640" s="49">
+      <c r="F640">
         <v>781985160</v>
       </c>
-      <c r="G640" s="49" t="s">
+      <c r="G640" t="s">
         <v>22</v>
       </c>
-      <c r="H640" s="49" t="s">
+      <c r="H640" t="s">
         <v>19</v>
       </c>
-      <c r="I640" s="49" t="s">
+      <c r="I640" t="s">
         <v>28</v>
       </c>
-      <c r="J640" s="50" t="s">
+      <c r="J640" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="K640" s="49" t="s">
+      <c r="K640" t="s">
         <v>115</v>
       </c>
-      <c r="L640" s="49">
+      <c r="L640">
         <v>1</v>
       </c>
-      <c r="M640" s="51">
+      <c r="M640" s="5">
         <v>19500</v>
       </c>
-      <c r="N640" s="51">
+      <c r="N640" s="5">
         <v>19500</v>
       </c>
-      <c r="O640" s="52" t="str">
+      <c r="O640" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P640" s="52" t="str">
+      <c r="P640" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78371,44 +78249,44 @@
       <c r="C641" t="s">
         <v>31</v>
       </c>
-      <c r="D641" s="49" t="s">
+      <c r="D641" t="s">
         <v>582</v>
       </c>
-      <c r="E641" s="49" t="s">
+      <c r="E641" t="s">
         <v>593</v>
       </c>
-      <c r="F641" s="49">
+      <c r="F641">
         <v>781985160</v>
       </c>
-      <c r="G641" s="49" t="s">
+      <c r="G641" t="s">
         <v>22</v>
       </c>
-      <c r="H641" s="49" t="s">
+      <c r="H641" t="s">
         <v>19</v>
       </c>
-      <c r="I641" s="49" t="s">
+      <c r="I641" t="s">
         <v>28</v>
       </c>
-      <c r="J641" s="50" t="s">
+      <c r="J641" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="K641" s="49" t="s">
+      <c r="K641" t="s">
         <v>27</v>
       </c>
-      <c r="L641" s="49">
+      <c r="L641">
         <v>5</v>
       </c>
-      <c r="M641" s="51">
+      <c r="M641" s="5">
         <v>26000</v>
       </c>
-      <c r="N641" s="51">
+      <c r="N641" s="5">
         <v>130000</v>
       </c>
-      <c r="O641" s="52" t="str">
+      <c r="O641" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P641" s="52" t="str">
+      <c r="P641" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78423,36 +78301,32 @@
       <c r="C642" t="s">
         <v>31</v>
       </c>
-      <c r="D642" s="49" t="s">
+      <c r="D642" t="s">
         <v>582</v>
       </c>
-      <c r="E642" s="49" t="s">
+      <c r="E642" t="s">
         <v>933</v>
       </c>
-      <c r="F642" s="49">
+      <c r="F642">
         <v>705677612</v>
       </c>
-      <c r="G642" s="49" t="s">
+      <c r="G642" t="s">
         <v>15</v>
       </c>
-      <c r="H642" s="49" t="s">
+      <c r="H642" t="s">
         <v>16</v>
       </c>
-      <c r="I642" s="49" t="s">
+      <c r="I642" t="s">
         <v>17</v>
       </c>
-      <c r="J642" s="50" t="s">
+      <c r="J642" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="K642" s="49"/>
-      <c r="L642" s="49"/>
-      <c r="M642" s="51"/>
-      <c r="N642" s="51"/>
-      <c r="O642" s="52" t="str">
+      <c r="O642" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P642" s="52" t="str">
+      <c r="P642" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78467,44 +78341,44 @@
       <c r="C643" t="s">
         <v>31</v>
       </c>
-      <c r="D643" s="49" t="s">
+      <c r="D643" t="s">
         <v>582</v>
       </c>
-      <c r="E643" s="49" t="s">
+      <c r="E643" t="s">
         <v>595</v>
       </c>
-      <c r="F643" s="49">
+      <c r="F643">
         <v>779117562</v>
       </c>
-      <c r="G643" s="49" t="s">
+      <c r="G643" t="s">
         <v>15</v>
       </c>
-      <c r="H643" s="49" t="s">
+      <c r="H643" t="s">
         <v>19</v>
       </c>
-      <c r="I643" s="49" t="s">
+      <c r="I643" t="s">
         <v>28</v>
       </c>
-      <c r="J643" s="50" t="s">
+      <c r="J643" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="K643" s="49" t="s">
+      <c r="K643" t="s">
         <v>27</v>
       </c>
-      <c r="L643" s="49">
+      <c r="L643">
         <v>5</v>
       </c>
-      <c r="M643" s="51">
+      <c r="M643" s="5">
         <v>26000</v>
       </c>
-      <c r="N643" s="51">
+      <c r="N643" s="5">
         <v>130000</v>
       </c>
-      <c r="O643" s="52" t="str">
+      <c r="O643" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P643" s="52" t="str">
+      <c r="P643" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78519,44 +78393,44 @@
       <c r="C644" t="s">
         <v>21</v>
       </c>
-      <c r="D644" s="49" t="s">
+      <c r="D644" t="s">
         <v>256</v>
       </c>
-      <c r="E644" s="49" t="s">
+      <c r="E644" t="s">
         <v>270</v>
       </c>
-      <c r="F644" s="49">
+      <c r="F644">
         <v>776169696</v>
       </c>
-      <c r="G644" s="49" t="s">
+      <c r="G644" t="s">
         <v>22</v>
       </c>
-      <c r="H644" s="49" t="s">
+      <c r="H644" t="s">
         <v>19</v>
       </c>
-      <c r="I644" s="49" t="s">
+      <c r="I644" t="s">
         <v>23</v>
       </c>
-      <c r="J644" s="50" t="s">
+      <c r="J644" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K644" s="49" t="s">
+      <c r="K644" t="s">
         <v>189</v>
       </c>
-      <c r="L644" s="49">
+      <c r="L644">
         <v>25</v>
       </c>
-      <c r="M644" s="51">
+      <c r="M644" s="5">
         <v>6000</v>
       </c>
-      <c r="N644" s="51">
+      <c r="N644" s="5">
         <v>150000</v>
       </c>
-      <c r="O644" s="52" t="str">
+      <c r="O644" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P644" s="52" t="str">
+      <c r="P644" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78571,36 +78445,32 @@
       <c r="C645" t="s">
         <v>31</v>
       </c>
-      <c r="D645" s="49" t="s">
+      <c r="D645" t="s">
         <v>582</v>
       </c>
-      <c r="E645" s="49" t="s">
+      <c r="E645" t="s">
         <v>590</v>
       </c>
-      <c r="F645" s="49">
+      <c r="F645">
         <v>775630094</v>
       </c>
-      <c r="G645" s="49" t="s">
+      <c r="G645" t="s">
         <v>22</v>
       </c>
-      <c r="H645" s="49" t="s">
+      <c r="H645" t="s">
         <v>19</v>
       </c>
-      <c r="I645" s="49" t="s">
+      <c r="I645" t="s">
         <v>17</v>
       </c>
-      <c r="J645" s="50" t="s">
+      <c r="J645" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="K645" s="49"/>
-      <c r="L645" s="49"/>
-      <c r="M645" s="51"/>
-      <c r="N645" s="51"/>
-      <c r="O645" s="52" t="str">
+      <c r="O645" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P645" s="52" t="str">
+      <c r="P645" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78615,36 +78485,32 @@
       <c r="C646" t="s">
         <v>21</v>
       </c>
-      <c r="D646" s="49" t="s">
+      <c r="D646" t="s">
         <v>625</v>
       </c>
-      <c r="E646" s="49" t="s">
+      <c r="E646" t="s">
         <v>628</v>
       </c>
-      <c r="F646" s="49">
+      <c r="F646">
         <v>776893330</v>
       </c>
-      <c r="G646" s="49" t="s">
+      <c r="G646" t="s">
         <v>629</v>
       </c>
-      <c r="H646" s="49" t="s">
+      <c r="H646" t="s">
         <v>16</v>
       </c>
-      <c r="I646" s="49" t="s">
+      <c r="I646" t="s">
         <v>17</v>
       </c>
-      <c r="J646" s="50" t="s">
+      <c r="J646" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K646" s="49"/>
-      <c r="L646" s="49"/>
-      <c r="M646" s="51"/>
-      <c r="N646" s="51"/>
-      <c r="O646" s="52" t="str">
+      <c r="O646" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P646" s="52" t="str">
+      <c r="P646" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78659,36 +78525,32 @@
       <c r="C647" t="s">
         <v>21</v>
       </c>
-      <c r="D647" s="49" t="s">
+      <c r="D647" t="s">
         <v>625</v>
       </c>
-      <c r="E647" s="49" t="s">
+      <c r="E647" t="s">
         <v>643</v>
       </c>
-      <c r="F647" s="49">
+      <c r="F647">
         <v>774452553</v>
       </c>
-      <c r="G647" s="49" t="s">
+      <c r="G647" t="s">
         <v>15</v>
       </c>
-      <c r="H647" s="49" t="s">
+      <c r="H647" t="s">
         <v>16</v>
       </c>
-      <c r="I647" s="49" t="s">
+      <c r="I647" t="s">
         <v>17</v>
       </c>
-      <c r="J647" s="50" t="s">
+      <c r="J647" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K647" s="49"/>
-      <c r="L647" s="49"/>
-      <c r="M647" s="51"/>
-      <c r="N647" s="51"/>
-      <c r="O647" s="52" t="str">
+      <c r="O647" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P647" s="52" t="str">
+      <c r="P647" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78703,36 +78565,32 @@
       <c r="C648" t="s">
         <v>21</v>
       </c>
-      <c r="D648" s="49" t="s">
+      <c r="D648" t="s">
         <v>625</v>
       </c>
-      <c r="E648" s="49" t="s">
+      <c r="E648" t="s">
         <v>637</v>
       </c>
-      <c r="F648" s="49">
+      <c r="F648">
         <v>772555234</v>
       </c>
-      <c r="G648" s="49" t="s">
+      <c r="G648" t="s">
         <v>15</v>
       </c>
-      <c r="H648" s="49" t="s">
+      <c r="H648" t="s">
         <v>16</v>
       </c>
-      <c r="I648" s="49" t="s">
+      <c r="I648" t="s">
         <v>17</v>
       </c>
-      <c r="J648" s="50" t="s">
+      <c r="J648" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="K648" s="49"/>
-      <c r="L648" s="49"/>
-      <c r="M648" s="51"/>
-      <c r="N648" s="51"/>
-      <c r="O648" s="52" t="str">
+      <c r="O648" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P648" s="52" t="str">
+      <c r="P648" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78747,36 +78605,32 @@
       <c r="C649" t="s">
         <v>21</v>
       </c>
-      <c r="D649" s="49" t="s">
+      <c r="D649" t="s">
         <v>929</v>
       </c>
-      <c r="E649" s="49" t="s">
+      <c r="E649" t="s">
         <v>366</v>
       </c>
-      <c r="F649" s="49">
+      <c r="F649">
         <v>778096419</v>
       </c>
-      <c r="G649" s="49" t="s">
+      <c r="G649" t="s">
         <v>15</v>
       </c>
-      <c r="H649" s="49" t="s">
+      <c r="H649" t="s">
         <v>19</v>
       </c>
-      <c r="I649" s="49" t="s">
+      <c r="I649" t="s">
         <v>17</v>
       </c>
-      <c r="J649" s="50" t="s">
+      <c r="J649" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="K649" s="49"/>
-      <c r="L649" s="49"/>
-      <c r="M649" s="51"/>
-      <c r="N649" s="51"/>
-      <c r="O649" s="52" t="str">
+      <c r="O649" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P649" s="52" t="str">
+      <c r="P649" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78791,36 +78645,32 @@
       <c r="C650" t="s">
         <v>21</v>
       </c>
-      <c r="D650" s="49" t="s">
+      <c r="D650" t="s">
         <v>929</v>
       </c>
-      <c r="E650" s="49" t="s">
+      <c r="E650" t="s">
         <v>360</v>
       </c>
-      <c r="F650" s="49">
+      <c r="F650">
         <v>773661109</v>
       </c>
-      <c r="G650" s="49" t="s">
+      <c r="G650" t="s">
         <v>22</v>
       </c>
-      <c r="H650" s="49" t="s">
+      <c r="H650" t="s">
         <v>19</v>
       </c>
-      <c r="I650" s="49" t="s">
+      <c r="I650" t="s">
         <v>17</v>
       </c>
-      <c r="J650" s="50" t="s">
+      <c r="J650" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="K650" s="49"/>
-      <c r="L650" s="49"/>
-      <c r="M650" s="51"/>
-      <c r="N650" s="51"/>
-      <c r="O650" s="52" t="str">
+      <c r="O650" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P650" s="52" t="str">
+      <c r="P650" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78835,36 +78685,32 @@
       <c r="C651" t="s">
         <v>21</v>
       </c>
-      <c r="D651" s="49" t="s">
+      <c r="D651" t="s">
         <v>625</v>
       </c>
-      <c r="E651" s="49" t="s">
+      <c r="E651" t="s">
         <v>626</v>
       </c>
-      <c r="F651" s="49">
+      <c r="F651">
         <v>775653543</v>
       </c>
-      <c r="G651" s="49" t="s">
+      <c r="G651" t="s">
         <v>22</v>
       </c>
-      <c r="H651" s="49" t="s">
+      <c r="H651" t="s">
         <v>19</v>
       </c>
-      <c r="I651" s="49" t="s">
+      <c r="I651" t="s">
         <v>17</v>
       </c>
-      <c r="J651" s="50" t="s">
+      <c r="J651" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="K651" s="49"/>
-      <c r="L651" s="49"/>
-      <c r="M651" s="51"/>
-      <c r="N651" s="51"/>
-      <c r="O651" s="52" t="str">
+      <c r="O651" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P651" s="52" t="str">
+      <c r="P651" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78879,36 +78725,32 @@
       <c r="C652" t="s">
         <v>31</v>
       </c>
-      <c r="D652" s="49" t="s">
+      <c r="D652" t="s">
         <v>465</v>
       </c>
-      <c r="E652" s="49" t="s">
+      <c r="E652" t="s">
         <v>472</v>
       </c>
-      <c r="F652" s="49">
+      <c r="F652">
         <v>775724732</v>
       </c>
-      <c r="G652" s="49" t="s">
+      <c r="G652" t="s">
         <v>22</v>
       </c>
-      <c r="H652" s="49" t="s">
+      <c r="H652" t="s">
         <v>19</v>
       </c>
-      <c r="I652" s="49" t="s">
+      <c r="I652" t="s">
         <v>17</v>
       </c>
-      <c r="J652" s="50" t="s">
+      <c r="J652" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="K652" s="49"/>
-      <c r="L652" s="49"/>
-      <c r="M652" s="51"/>
-      <c r="N652" s="51"/>
-      <c r="O652" s="52" t="str">
+      <c r="O652" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P652" s="52" t="str">
+      <c r="P652" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78923,36 +78765,32 @@
       <c r="C653" t="s">
         <v>31</v>
       </c>
-      <c r="D653" s="49" t="s">
+      <c r="D653" t="s">
         <v>465</v>
       </c>
-      <c r="E653" s="49" t="s">
+      <c r="E653" t="s">
         <v>355</v>
       </c>
-      <c r="F653" s="49">
+      <c r="F653">
         <v>779117863</v>
       </c>
-      <c r="G653" s="49" t="s">
+      <c r="G653" t="s">
         <v>22</v>
       </c>
-      <c r="H653" s="49" t="s">
+      <c r="H653" t="s">
         <v>16</v>
       </c>
-      <c r="I653" s="49" t="s">
+      <c r="I653" t="s">
         <v>17</v>
       </c>
-      <c r="J653" s="50" t="s">
+      <c r="J653" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K653" s="49"/>
-      <c r="L653" s="49"/>
-      <c r="M653" s="51"/>
-      <c r="N653" s="51"/>
-      <c r="O653" s="52" t="str">
+      <c r="O653" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P653" s="52" t="str">
+      <c r="P653" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -78967,44 +78805,44 @@
       <c r="C654" t="s">
         <v>31</v>
       </c>
-      <c r="D654" s="49" t="s">
+      <c r="D654" t="s">
         <v>465</v>
       </c>
-      <c r="E654" s="49" t="s">
+      <c r="E654" t="s">
         <v>479</v>
       </c>
-      <c r="F654" s="49">
+      <c r="F654">
         <v>775942864</v>
       </c>
-      <c r="G654" s="49" t="s">
+      <c r="G654" t="s">
         <v>22</v>
       </c>
-      <c r="H654" s="49" t="s">
+      <c r="H654" t="s">
         <v>16</v>
       </c>
-      <c r="I654" s="49" t="s">
+      <c r="I654" t="s">
         <v>28</v>
       </c>
-      <c r="J654" s="50" t="s">
+      <c r="J654" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="K654" s="49" t="s">
+      <c r="K654" t="s">
         <v>27</v>
       </c>
-      <c r="L654" s="49">
+      <c r="L654">
         <v>1</v>
       </c>
-      <c r="M654" s="51">
+      <c r="M654" s="5">
         <v>26000</v>
       </c>
-      <c r="N654" s="51">
+      <c r="N654" s="5">
         <v>26000</v>
       </c>
-      <c r="O654" s="52" t="str">
+      <c r="O654" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P654" s="52" t="str">
+      <c r="P654" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79019,36 +78857,32 @@
       <c r="C655" t="s">
         <v>31</v>
       </c>
-      <c r="D655" s="49" t="s">
+      <c r="D655" t="s">
         <v>465</v>
       </c>
-      <c r="E655" s="49" t="s">
+      <c r="E655" t="s">
         <v>941</v>
       </c>
-      <c r="F655" s="49">
+      <c r="F655">
         <v>777829130</v>
       </c>
-      <c r="G655" s="49" t="s">
+      <c r="G655" t="s">
         <v>22</v>
       </c>
-      <c r="H655" s="49" t="s">
+      <c r="H655" t="s">
         <v>16</v>
       </c>
-      <c r="I655" s="49" t="s">
+      <c r="I655" t="s">
         <v>17</v>
       </c>
-      <c r="J655" s="50" t="s">
+      <c r="J655" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="K655" s="49"/>
-      <c r="L655" s="49"/>
-      <c r="M655" s="51"/>
-      <c r="N655" s="51"/>
-      <c r="O655" s="52" t="str">
+      <c r="O655" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P655" s="52" t="str">
+      <c r="P655" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79063,36 +78897,32 @@
       <c r="C656" t="s">
         <v>31</v>
       </c>
-      <c r="D656" s="49" t="s">
+      <c r="D656" t="s">
         <v>465</v>
       </c>
-      <c r="E656" s="49" t="s">
+      <c r="E656" t="s">
         <v>355</v>
       </c>
-      <c r="F656" s="49">
+      <c r="F656">
         <v>779117863</v>
       </c>
-      <c r="G656" s="49" t="s">
+      <c r="G656" t="s">
         <v>22</v>
       </c>
-      <c r="H656" s="49" t="s">
+      <c r="H656" t="s">
         <v>16</v>
       </c>
-      <c r="I656" s="49" t="s">
+      <c r="I656" t="s">
         <v>17</v>
       </c>
-      <c r="J656" s="50" t="s">
+      <c r="J656" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="K656" s="49"/>
-      <c r="L656" s="49"/>
-      <c r="M656" s="51"/>
-      <c r="N656" s="51"/>
-      <c r="O656" s="52" t="str">
+      <c r="O656" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P656" s="52" t="str">
+      <c r="P656" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79107,36 +78937,32 @@
       <c r="C657" t="s">
         <v>31</v>
       </c>
-      <c r="D657" s="49" t="s">
+      <c r="D657" t="s">
         <v>465</v>
       </c>
-      <c r="E657" s="49" t="s">
+      <c r="E657" t="s">
         <v>477</v>
       </c>
-      <c r="F657" s="49">
+      <c r="F657">
         <v>338347554</v>
       </c>
-      <c r="G657" s="49" t="s">
+      <c r="G657" t="s">
         <v>22</v>
       </c>
-      <c r="H657" s="49" t="s">
+      <c r="H657" t="s">
         <v>19</v>
       </c>
-      <c r="I657" s="49" t="s">
+      <c r="I657" t="s">
         <v>17</v>
       </c>
-      <c r="J657" s="50" t="s">
+      <c r="J657" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="K657" s="49"/>
-      <c r="L657" s="49"/>
-      <c r="M657" s="51"/>
-      <c r="N657" s="51"/>
-      <c r="O657" s="52" t="str">
+      <c r="O657" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P657" s="52" t="str">
+      <c r="P657" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79151,36 +78977,32 @@
       <c r="C658" t="s">
         <v>31</v>
       </c>
-      <c r="D658" s="49" t="s">
+      <c r="D658" t="s">
         <v>465</v>
       </c>
-      <c r="E658" s="49" t="s">
+      <c r="E658" t="s">
         <v>475</v>
       </c>
-      <c r="F658" s="49">
+      <c r="F658">
         <v>707523461</v>
       </c>
-      <c r="G658" s="49" t="s">
+      <c r="G658" t="s">
         <v>22</v>
       </c>
-      <c r="H658" s="49" t="s">
+      <c r="H658" t="s">
         <v>19</v>
       </c>
-      <c r="I658" s="49" t="s">
+      <c r="I658" t="s">
         <v>17</v>
       </c>
-      <c r="J658" s="50" t="s">
+      <c r="J658" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="K658" s="49"/>
-      <c r="L658" s="49"/>
-      <c r="M658" s="51"/>
-      <c r="N658" s="51"/>
-      <c r="O658" s="52" t="str">
+      <c r="O658" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P658" s="52" t="str">
+      <c r="P658" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79195,36 +79017,32 @@
       <c r="C659" t="s">
         <v>31</v>
       </c>
-      <c r="D659" s="49" t="s">
+      <c r="D659" t="s">
         <v>465</v>
       </c>
-      <c r="E659" s="49" t="s">
+      <c r="E659" t="s">
         <v>363</v>
       </c>
-      <c r="F659" s="49">
+      <c r="F659">
         <v>774580822</v>
       </c>
-      <c r="G659" s="49" t="s">
+      <c r="G659" t="s">
         <v>22</v>
       </c>
-      <c r="H659" s="49" t="s">
+      <c r="H659" t="s">
         <v>19</v>
       </c>
-      <c r="I659" s="49" t="s">
+      <c r="I659" t="s">
         <v>17</v>
       </c>
-      <c r="J659" s="50" t="s">
+      <c r="J659" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="K659" s="49"/>
-      <c r="L659" s="49"/>
-      <c r="M659" s="51"/>
-      <c r="N659" s="51"/>
-      <c r="O659" s="52" t="str">
+      <c r="O659" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P659" s="52" t="str">
+      <c r="P659" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79239,36 +79057,32 @@
       <c r="C660" t="s">
         <v>31</v>
       </c>
-      <c r="D660" s="49" t="s">
+      <c r="D660" t="s">
         <v>465</v>
       </c>
-      <c r="E660" s="49" t="s">
+      <c r="E660" t="s">
         <v>468</v>
       </c>
-      <c r="F660" s="49">
+      <c r="F660">
         <v>784872626</v>
       </c>
-      <c r="G660" s="49" t="s">
+      <c r="G660" t="s">
         <v>22</v>
       </c>
-      <c r="H660" s="49" t="s">
+      <c r="H660" t="s">
         <v>19</v>
       </c>
-      <c r="I660" s="49" t="s">
+      <c r="I660" t="s">
         <v>17</v>
       </c>
-      <c r="J660" s="50" t="s">
+      <c r="J660" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="K660" s="49"/>
-      <c r="L660" s="49"/>
-      <c r="M660" s="51"/>
-      <c r="N660" s="51"/>
-      <c r="O660" s="52" t="str">
+      <c r="O660" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P660" s="52" t="str">
+      <c r="P660" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79283,36 +79097,32 @@
       <c r="C661" t="s">
         <v>31</v>
       </c>
-      <c r="D661" s="49" t="s">
+      <c r="D661" t="s">
         <v>465</v>
       </c>
-      <c r="E661" s="49" t="s">
+      <c r="E661" t="s">
         <v>470</v>
       </c>
-      <c r="F661" s="49">
+      <c r="F661">
         <v>778080493</v>
       </c>
-      <c r="G661" s="49" t="s">
+      <c r="G661" t="s">
         <v>22</v>
       </c>
-      <c r="H661" s="49" t="s">
+      <c r="H661" t="s">
         <v>19</v>
       </c>
-      <c r="I661" s="49" t="s">
+      <c r="I661" t="s">
         <v>17</v>
       </c>
-      <c r="J661" s="50" t="s">
+      <c r="J661" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="K661" s="49"/>
-      <c r="L661" s="49"/>
-      <c r="M661" s="51"/>
-      <c r="N661" s="51"/>
-      <c r="O661" s="52" t="str">
+      <c r="O661" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P661" s="52" t="str">
+      <c r="P661" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79327,34 +79137,29 @@
       <c r="C662" t="s">
         <v>31</v>
       </c>
-      <c r="D662" s="49" t="s">
+      <c r="D662" t="s">
         <v>465</v>
       </c>
-      <c r="E662" s="49" t="s">
+      <c r="E662" t="s">
         <v>470</v>
       </c>
-      <c r="F662" s="49">
+      <c r="F662">
         <v>778080493</v>
       </c>
-      <c r="G662" s="49" t="s">
+      <c r="G662" t="s">
         <v>22</v>
       </c>
-      <c r="H662" s="49" t="s">
+      <c r="H662" t="s">
         <v>19</v>
       </c>
-      <c r="I662" s="49" t="s">
+      <c r="I662" t="s">
         <v>17</v>
       </c>
-      <c r="J662" s="50"/>
-      <c r="K662" s="49"/>
-      <c r="L662" s="49"/>
-      <c r="M662" s="51"/>
-      <c r="N662" s="51"/>
-      <c r="O662" s="52" t="str">
+      <c r="O662" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P662" s="52" t="str">
+      <c r="P662" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79369,36 +79174,32 @@
       <c r="C663" t="s">
         <v>31</v>
       </c>
-      <c r="D663" s="49" t="s">
+      <c r="D663" t="s">
         <v>465</v>
       </c>
-      <c r="E663" s="49" t="s">
+      <c r="E663" t="s">
         <v>502</v>
       </c>
-      <c r="F663" s="49">
+      <c r="F663">
         <v>772401517</v>
       </c>
-      <c r="G663" s="49" t="s">
+      <c r="G663" t="s">
         <v>15</v>
       </c>
-      <c r="H663" s="49" t="s">
+      <c r="H663" t="s">
         <v>19</v>
       </c>
-      <c r="I663" s="49" t="s">
+      <c r="I663" t="s">
         <v>17</v>
       </c>
-      <c r="J663" s="50" t="s">
+      <c r="J663" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="K663" s="49"/>
-      <c r="L663" s="49"/>
-      <c r="M663" s="51"/>
-      <c r="N663" s="51"/>
-      <c r="O663" s="52" t="str">
+      <c r="O663" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P663" s="52" t="str">
+      <c r="P663" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79413,36 +79214,32 @@
       <c r="C664" t="s">
         <v>31</v>
       </c>
-      <c r="D664" s="49" t="s">
+      <c r="D664" t="s">
         <v>465</v>
       </c>
-      <c r="E664" s="49" t="s">
+      <c r="E664" t="s">
         <v>466</v>
       </c>
-      <c r="F664" s="49">
+      <c r="F664">
         <v>774230518</v>
       </c>
-      <c r="G664" s="49" t="s">
+      <c r="G664" t="s">
         <v>15</v>
       </c>
-      <c r="H664" s="49" t="s">
+      <c r="H664" t="s">
         <v>19</v>
       </c>
-      <c r="I664" s="49" t="s">
+      <c r="I664" t="s">
         <v>17</v>
       </c>
-      <c r="J664" s="50" t="s">
+      <c r="J664" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="K664" s="49"/>
-      <c r="L664" s="49"/>
-      <c r="M664" s="51"/>
-      <c r="N664" s="51"/>
-      <c r="O664" s="52" t="str">
+      <c r="O664" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P664" s="52" t="str">
+      <c r="P664" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79457,36 +79254,32 @@
       <c r="C665" t="s">
         <v>31</v>
       </c>
-      <c r="D665" s="49" t="s">
+      <c r="D665" t="s">
         <v>465</v>
       </c>
-      <c r="E665" s="49" t="s">
+      <c r="E665" t="s">
         <v>506</v>
       </c>
-      <c r="F665" s="49">
+      <c r="F665">
         <v>779274722</v>
       </c>
-      <c r="G665" s="49" t="s">
+      <c r="G665" t="s">
         <v>15</v>
       </c>
-      <c r="H665" s="49" t="s">
+      <c r="H665" t="s">
         <v>19</v>
       </c>
-      <c r="I665" s="49" t="s">
+      <c r="I665" t="s">
         <v>17</v>
       </c>
-      <c r="J665" s="50" t="s">
+      <c r="J665" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="K665" s="49"/>
-      <c r="L665" s="49"/>
-      <c r="M665" s="51"/>
-      <c r="N665" s="51"/>
-      <c r="O665" s="52" t="str">
+      <c r="O665" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P665" s="52" t="str">
+      <c r="P665" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79501,36 +79294,32 @@
       <c r="C666" t="s">
         <v>31</v>
       </c>
-      <c r="D666" s="49" t="s">
+      <c r="D666" t="s">
         <v>465</v>
       </c>
-      <c r="E666" s="49" t="s">
+      <c r="E666" t="s">
         <v>509</v>
       </c>
-      <c r="F666" s="49">
+      <c r="F666">
         <v>788260947</v>
       </c>
-      <c r="G666" s="49" t="s">
+      <c r="G666" t="s">
         <v>15</v>
       </c>
-      <c r="H666" s="49" t="s">
+      <c r="H666" t="s">
         <v>19</v>
       </c>
-      <c r="I666" s="49" t="s">
+      <c r="I666" t="s">
         <v>17</v>
       </c>
-      <c r="J666" s="50" t="s">
+      <c r="J666" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="K666" s="49"/>
-      <c r="L666" s="49"/>
-      <c r="M666" s="51"/>
-      <c r="N666" s="51"/>
-      <c r="O666" s="52" t="str">
+      <c r="O666" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P666" s="52" t="str">
+      <c r="P666" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79545,36 +79334,32 @@
       <c r="C667" t="s">
         <v>33</v>
       </c>
-      <c r="D667" s="49" t="s">
+      <c r="D667" t="s">
         <v>35</v>
       </c>
-      <c r="E667" s="49" t="s">
+      <c r="E667" t="s">
         <v>858</v>
       </c>
-      <c r="F667" s="49">
+      <c r="F667">
         <v>771108484</v>
       </c>
-      <c r="G667" s="49" t="s">
+      <c r="G667" t="s">
         <v>22</v>
       </c>
-      <c r="H667" s="49" t="s">
+      <c r="H667" t="s">
         <v>16</v>
       </c>
-      <c r="I667" s="49" t="s">
+      <c r="I667" t="s">
         <v>17</v>
       </c>
-      <c r="J667" s="50" t="s">
+      <c r="J667" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K667" s="49"/>
-      <c r="L667" s="49"/>
-      <c r="M667" s="51"/>
-      <c r="N667" s="51"/>
-      <c r="O667" s="52" t="str">
+      <c r="O667" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P667" s="52" t="str">
+      <c r="P667" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79589,36 +79374,32 @@
       <c r="C668" t="s">
         <v>82</v>
       </c>
-      <c r="D668" s="49" t="s">
+      <c r="D668" t="s">
         <v>952</v>
       </c>
-      <c r="E668" s="49" t="s">
+      <c r="E668" t="s">
         <v>953</v>
       </c>
-      <c r="F668" s="49">
+      <c r="F668">
         <v>784063374</v>
       </c>
-      <c r="G668" s="49" t="s">
+      <c r="G668" t="s">
         <v>22</v>
       </c>
-      <c r="H668" s="49" t="s">
+      <c r="H668" t="s">
         <v>19</v>
       </c>
-      <c r="I668" s="49" t="s">
+      <c r="I668" t="s">
         <v>17</v>
       </c>
-      <c r="J668" s="50" t="s">
+      <c r="J668" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="K668" s="49"/>
-      <c r="L668" s="49"/>
-      <c r="M668" s="51"/>
-      <c r="N668" s="51"/>
-      <c r="O668" s="52" t="str">
+      <c r="O668" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P668" s="52" t="str">
+      <c r="P668" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79633,36 +79414,32 @@
       <c r="C669" t="s">
         <v>82</v>
       </c>
-      <c r="D669" s="49" t="s">
+      <c r="D669" t="s">
         <v>952</v>
       </c>
-      <c r="E669" s="49" t="s">
+      <c r="E669" t="s">
         <v>955</v>
       </c>
-      <c r="F669" s="49">
+      <c r="F669">
         <v>784362607</v>
       </c>
-      <c r="G669" s="49" t="s">
+      <c r="G669" t="s">
         <v>22</v>
       </c>
-      <c r="H669" s="49" t="s">
+      <c r="H669" t="s">
         <v>19</v>
       </c>
-      <c r="I669" s="49" t="s">
+      <c r="I669" t="s">
         <v>17</v>
       </c>
-      <c r="J669" s="50" t="s">
+      <c r="J669" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="K669" s="49"/>
-      <c r="L669" s="49"/>
-      <c r="M669" s="51"/>
-      <c r="N669" s="51"/>
-      <c r="O669" s="52" t="str">
+      <c r="O669" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P669" s="52" t="str">
+      <c r="P669" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79677,36 +79454,32 @@
       <c r="C670" t="s">
         <v>82</v>
       </c>
-      <c r="D670" s="49" t="s">
+      <c r="D670" t="s">
         <v>952</v>
       </c>
-      <c r="E670" s="49" t="s">
+      <c r="E670" t="s">
         <v>957</v>
       </c>
-      <c r="F670" s="49">
+      <c r="F670">
         <v>771368327</v>
       </c>
-      <c r="G670" s="49" t="s">
+      <c r="G670" t="s">
         <v>22</v>
       </c>
-      <c r="H670" s="49" t="s">
+      <c r="H670" t="s">
         <v>16</v>
       </c>
-      <c r="I670" s="49" t="s">
+      <c r="I670" t="s">
         <v>17</v>
       </c>
-      <c r="J670" s="50" t="s">
+      <c r="J670" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K670" s="49"/>
-      <c r="L670" s="49"/>
-      <c r="M670" s="51"/>
-      <c r="N670" s="51"/>
-      <c r="O670" s="52" t="str">
+      <c r="O670" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P670" s="52" t="str">
+      <c r="P670" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79721,36 +79494,32 @@
       <c r="C671" t="s">
         <v>82</v>
       </c>
-      <c r="D671" s="49" t="s">
+      <c r="D671" t="s">
         <v>952</v>
       </c>
-      <c r="E671" s="49" t="s">
+      <c r="E671" t="s">
         <v>958</v>
       </c>
-      <c r="F671" s="49">
+      <c r="F671">
         <v>779650702</v>
       </c>
-      <c r="G671" s="49" t="s">
+      <c r="G671" t="s">
         <v>22</v>
       </c>
-      <c r="H671" s="49" t="s">
+      <c r="H671" t="s">
         <v>19</v>
       </c>
-      <c r="I671" s="49" t="s">
+      <c r="I671" t="s">
         <v>17</v>
       </c>
-      <c r="J671" s="50" t="s">
+      <c r="J671" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="K671" s="49"/>
-      <c r="L671" s="49"/>
-      <c r="M671" s="51"/>
-      <c r="N671" s="51"/>
-      <c r="O671" s="52" t="str">
+      <c r="O671" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P671" s="52" t="str">
+      <c r="P671" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79765,36 +79534,32 @@
       <c r="C672" t="s">
         <v>82</v>
       </c>
-      <c r="D672" s="49" t="s">
+      <c r="D672" t="s">
         <v>952</v>
       </c>
-      <c r="E672" s="49" t="s">
+      <c r="E672" t="s">
         <v>514</v>
       </c>
-      <c r="F672" s="49">
+      <c r="F672">
         <v>771630365</v>
       </c>
-      <c r="G672" s="49" t="s">
+      <c r="G672" t="s">
         <v>22</v>
       </c>
-      <c r="H672" s="49" t="s">
+      <c r="H672" t="s">
         <v>16</v>
       </c>
-      <c r="I672" s="49" t="s">
+      <c r="I672" t="s">
         <v>17</v>
       </c>
-      <c r="J672" s="50" t="s">
+      <c r="J672" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="K672" s="49"/>
-      <c r="L672" s="49"/>
-      <c r="M672" s="51"/>
-      <c r="N672" s="51"/>
-      <c r="O672" s="52" t="str">
+      <c r="O672" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P672" s="52" t="str">
+      <c r="P672" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79809,36 +79574,32 @@
       <c r="C673" t="s">
         <v>33</v>
       </c>
-      <c r="D673" s="49" t="s">
+      <c r="D673" t="s">
         <v>35</v>
       </c>
-      <c r="E673" s="49" t="s">
+      <c r="E673" t="s">
         <v>857</v>
       </c>
-      <c r="F673" s="49">
+      <c r="F673">
         <v>763500909</v>
       </c>
-      <c r="G673" s="49" t="s">
+      <c r="G673" t="s">
         <v>22</v>
       </c>
-      <c r="H673" s="49" t="s">
+      <c r="H673" t="s">
         <v>16</v>
       </c>
-      <c r="I673" s="49" t="s">
+      <c r="I673" t="s">
         <v>17</v>
       </c>
-      <c r="J673" s="50" t="s">
+      <c r="J673" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K673" s="49"/>
-      <c r="L673" s="49"/>
-      <c r="M673" s="51"/>
-      <c r="N673" s="51"/>
-      <c r="O673" s="52" t="str">
+      <c r="O673" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P673" s="52" t="str">
+      <c r="P673" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79853,36 +79614,32 @@
       <c r="C674" t="s">
         <v>82</v>
       </c>
-      <c r="D674" s="49" t="s">
+      <c r="D674" t="s">
         <v>952</v>
       </c>
-      <c r="E674" s="49" t="s">
+      <c r="E674" t="s">
         <v>961</v>
       </c>
-      <c r="F674" s="49">
+      <c r="F674">
         <v>773068732</v>
       </c>
-      <c r="G674" s="49" t="s">
+      <c r="G674" t="s">
         <v>15</v>
       </c>
-      <c r="H674" s="49" t="s">
+      <c r="H674" t="s">
         <v>19</v>
       </c>
-      <c r="I674" s="49" t="s">
+      <c r="I674" t="s">
         <v>17</v>
       </c>
-      <c r="J674" s="50" t="s">
+      <c r="J674" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="K674" s="49"/>
-      <c r="L674" s="49"/>
-      <c r="M674" s="51"/>
-      <c r="N674" s="51"/>
-      <c r="O674" s="52" t="str">
+      <c r="O674" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P674" s="52" t="str">
+      <c r="P674" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79897,36 +79654,32 @@
       <c r="C675" t="s">
         <v>82</v>
       </c>
-      <c r="D675" s="49" t="s">
+      <c r="D675" t="s">
         <v>952</v>
       </c>
-      <c r="E675" s="49" t="s">
+      <c r="E675" t="s">
         <v>963</v>
       </c>
-      <c r="F675" s="49">
+      <c r="F675">
         <v>776994558</v>
       </c>
-      <c r="G675" s="49" t="s">
+      <c r="G675" t="s">
         <v>15</v>
       </c>
-      <c r="H675" s="49" t="s">
+      <c r="H675" t="s">
         <v>16</v>
       </c>
-      <c r="I675" s="49" t="s">
+      <c r="I675" t="s">
         <v>17</v>
       </c>
-      <c r="J675" s="50" t="s">
+      <c r="J675" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K675" s="49"/>
-      <c r="L675" s="49"/>
-      <c r="M675" s="51"/>
-      <c r="N675" s="51"/>
-      <c r="O675" s="52" t="str">
+      <c r="O675" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P675" s="52" t="str">
+      <c r="P675" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79941,36 +79694,32 @@
       <c r="C676" t="s">
         <v>82</v>
       </c>
-      <c r="D676" s="49" t="s">
+      <c r="D676" t="s">
         <v>952</v>
       </c>
-      <c r="E676" s="49" t="s">
+      <c r="E676" t="s">
         <v>964</v>
       </c>
-      <c r="F676" s="49">
+      <c r="F676">
         <v>775215135</v>
       </c>
-      <c r="G676" s="49" t="s">
+      <c r="G676" t="s">
         <v>15</v>
       </c>
-      <c r="H676" s="49" t="s">
+      <c r="H676" t="s">
         <v>16</v>
       </c>
-      <c r="I676" s="49" t="s">
+      <c r="I676" t="s">
         <v>17</v>
       </c>
-      <c r="J676" s="50" t="s">
+      <c r="J676" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K676" s="49"/>
-      <c r="L676" s="49"/>
-      <c r="M676" s="51"/>
-      <c r="N676" s="51"/>
-      <c r="O676" s="52" t="str">
+      <c r="O676" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P676" s="52" t="str">
+      <c r="P676" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -79985,36 +79734,32 @@
       <c r="C677" t="s">
         <v>82</v>
       </c>
-      <c r="D677" s="49" t="s">
+      <c r="D677" t="s">
         <v>952</v>
       </c>
-      <c r="E677" s="49" t="s">
+      <c r="E677" t="s">
         <v>965</v>
       </c>
-      <c r="F677" s="49">
+      <c r="F677">
         <v>775060715</v>
       </c>
-      <c r="G677" s="49" t="s">
+      <c r="G677" t="s">
         <v>15</v>
       </c>
-      <c r="H677" s="49" t="s">
+      <c r="H677" t="s">
         <v>16</v>
       </c>
-      <c r="I677" s="49" t="s">
+      <c r="I677" t="s">
         <v>17</v>
       </c>
-      <c r="J677" s="50" t="s">
+      <c r="J677" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="K677" s="49"/>
-      <c r="L677" s="49"/>
-      <c r="M677" s="51"/>
-      <c r="N677" s="51"/>
-      <c r="O677" s="52" t="str">
+      <c r="O677" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P677" s="52" t="str">
+      <c r="P677" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80029,36 +79774,32 @@
       <c r="C678" t="s">
         <v>82</v>
       </c>
-      <c r="D678" s="49" t="s">
+      <c r="D678" t="s">
         <v>952</v>
       </c>
-      <c r="E678" s="49" t="s">
+      <c r="E678" t="s">
         <v>967</v>
       </c>
-      <c r="F678" s="49">
+      <c r="F678">
         <v>763376724</v>
       </c>
-      <c r="G678" s="49" t="s">
+      <c r="G678" t="s">
         <v>15</v>
       </c>
-      <c r="H678" s="49" t="s">
+      <c r="H678" t="s">
         <v>16</v>
       </c>
-      <c r="I678" s="49" t="s">
+      <c r="I678" t="s">
         <v>17</v>
       </c>
-      <c r="J678" s="50" t="s">
+      <c r="J678" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K678" s="49"/>
-      <c r="L678" s="49"/>
-      <c r="M678" s="51"/>
-      <c r="N678" s="51"/>
-      <c r="O678" s="52" t="str">
+      <c r="O678" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P678" s="52" t="str">
+      <c r="P678" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80073,36 +79814,32 @@
       <c r="C679" t="s">
         <v>82</v>
       </c>
-      <c r="D679" s="49" t="s">
+      <c r="D679" t="s">
         <v>952</v>
       </c>
-      <c r="E679" s="49" t="s">
+      <c r="E679" t="s">
         <v>651</v>
       </c>
-      <c r="F679" s="49">
+      <c r="F679">
         <v>777236558</v>
       </c>
-      <c r="G679" s="49" t="s">
+      <c r="G679" t="s">
         <v>15</v>
       </c>
-      <c r="H679" s="49" t="s">
+      <c r="H679" t="s">
         <v>16</v>
       </c>
-      <c r="I679" s="49" t="s">
+      <c r="I679" t="s">
         <v>17</v>
       </c>
-      <c r="J679" s="50" t="s">
+      <c r="J679" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="K679" s="49"/>
-      <c r="L679" s="49"/>
-      <c r="M679" s="51"/>
-      <c r="N679" s="51"/>
-      <c r="O679" s="52" t="str">
+      <c r="O679" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P679" s="52" t="str">
+      <c r="P679" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80117,36 +79854,32 @@
       <c r="C680" t="s">
         <v>82</v>
       </c>
-      <c r="D680" s="49" t="s">
+      <c r="D680" t="s">
         <v>952</v>
       </c>
-      <c r="E680" s="49" t="s">
+      <c r="E680" t="s">
         <v>969</v>
       </c>
-      <c r="F680" s="49">
+      <c r="F680">
         <v>775216418</v>
       </c>
-      <c r="G680" s="49" t="s">
+      <c r="G680" t="s">
         <v>22</v>
       </c>
-      <c r="H680" s="49" t="s">
+      <c r="H680" t="s">
         <v>16</v>
       </c>
-      <c r="I680" s="49" t="s">
+      <c r="I680" t="s">
         <v>17</v>
       </c>
-      <c r="J680" s="50" t="s">
+      <c r="J680" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="K680" s="49"/>
-      <c r="L680" s="49"/>
-      <c r="M680" s="51"/>
-      <c r="N680" s="51"/>
-      <c r="O680" s="52" t="str">
+      <c r="O680" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P680" s="52" t="str">
+      <c r="P680" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80161,44 +79894,44 @@
       <c r="C681" t="s">
         <v>82</v>
       </c>
-      <c r="D681" s="49" t="s">
+      <c r="D681" t="s">
         <v>952</v>
       </c>
-      <c r="E681" s="49" t="s">
+      <c r="E681" t="s">
         <v>970</v>
       </c>
-      <c r="F681" s="49">
+      <c r="F681">
         <v>774249184</v>
       </c>
-      <c r="G681" s="49" t="s">
+      <c r="G681" t="s">
         <v>22</v>
       </c>
-      <c r="H681" s="49" t="s">
+      <c r="H681" t="s">
         <v>19</v>
       </c>
-      <c r="I681" s="49" t="s">
+      <c r="I681" t="s">
         <v>28</v>
       </c>
-      <c r="J681" s="50" t="s">
+      <c r="J681" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="K681" s="49" t="s">
+      <c r="K681" t="s">
         <v>27</v>
       </c>
-      <c r="L681" s="49">
+      <c r="L681">
         <v>5</v>
       </c>
-      <c r="M681" s="51">
+      <c r="M681" s="5">
         <v>26000</v>
       </c>
-      <c r="N681" s="51">
+      <c r="N681" s="5">
         <v>130000</v>
       </c>
-      <c r="O681" s="52" t="str">
+      <c r="O681" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P681" s="52" t="str">
+      <c r="P681" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80213,36 +79946,32 @@
       <c r="C682" t="s">
         <v>82</v>
       </c>
-      <c r="D682" s="49" t="s">
+      <c r="D682" t="s">
         <v>952</v>
       </c>
-      <c r="E682" s="49" t="s">
+      <c r="E682" t="s">
         <v>972</v>
       </c>
-      <c r="F682" s="49">
+      <c r="F682">
         <v>775420354</v>
       </c>
-      <c r="G682" s="49" t="s">
+      <c r="G682" t="s">
         <v>22</v>
       </c>
-      <c r="H682" s="49" t="s">
+      <c r="H682" t="s">
         <v>16</v>
       </c>
-      <c r="I682" s="49" t="s">
+      <c r="I682" t="s">
         <v>17</v>
       </c>
-      <c r="J682" s="50" t="s">
+      <c r="J682" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="K682" s="49"/>
-      <c r="L682" s="49"/>
-      <c r="M682" s="51"/>
-      <c r="N682" s="51"/>
-      <c r="O682" s="52" t="str">
+      <c r="O682" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P682" s="52" t="str">
+      <c r="P682" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80257,36 +79986,32 @@
       <c r="C683" t="s">
         <v>82</v>
       </c>
-      <c r="D683" s="49" t="s">
+      <c r="D683" t="s">
         <v>952</v>
       </c>
-      <c r="E683" s="49" t="s">
+      <c r="E683" t="s">
         <v>974</v>
       </c>
-      <c r="F683" s="49">
+      <c r="F683">
         <v>781230417</v>
       </c>
-      <c r="G683" s="49" t="s">
+      <c r="G683" t="s">
         <v>22</v>
       </c>
-      <c r="H683" s="49" t="s">
+      <c r="H683" t="s">
         <v>16</v>
       </c>
-      <c r="I683" s="49" t="s">
+      <c r="I683" t="s">
         <v>17</v>
       </c>
-      <c r="J683" s="50" t="s">
+      <c r="J683" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K683" s="49"/>
-      <c r="L683" s="49"/>
-      <c r="M683" s="51"/>
-      <c r="N683" s="51"/>
-      <c r="O683" s="52" t="str">
+      <c r="O683" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P683" s="52" t="str">
+      <c r="P683" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80301,36 +80026,32 @@
       <c r="C684" t="s">
         <v>82</v>
       </c>
-      <c r="D684" s="49" t="s">
+      <c r="D684" t="s">
         <v>952</v>
       </c>
-      <c r="E684" s="49" t="s">
+      <c r="E684" t="s">
         <v>768</v>
       </c>
-      <c r="F684" s="49">
+      <c r="F684">
         <v>787025496</v>
       </c>
-      <c r="G684" s="49" t="s">
+      <c r="G684" t="s">
         <v>22</v>
       </c>
-      <c r="H684" s="49" t="s">
+      <c r="H684" t="s">
         <v>16</v>
       </c>
-      <c r="I684" s="49" t="s">
+      <c r="I684" t="s">
         <v>17</v>
       </c>
-      <c r="J684" s="50" t="s">
+      <c r="J684" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K684" s="49"/>
-      <c r="L684" s="49"/>
-      <c r="M684" s="51"/>
-      <c r="N684" s="51"/>
-      <c r="O684" s="52" t="str">
+      <c r="O684" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P684" s="52" t="str">
+      <c r="P684" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80345,36 +80066,32 @@
       <c r="C685" t="s">
         <v>82</v>
       </c>
-      <c r="D685" s="49" t="s">
+      <c r="D685" t="s">
         <v>952</v>
       </c>
-      <c r="E685" s="49" t="s">
+      <c r="E685" t="s">
         <v>975</v>
       </c>
-      <c r="F685" s="49">
+      <c r="F685">
         <v>766174009</v>
       </c>
-      <c r="G685" s="49" t="s">
+      <c r="G685" t="s">
         <v>22</v>
       </c>
-      <c r="H685" s="49" t="s">
+      <c r="H685" t="s">
         <v>19</v>
       </c>
-      <c r="I685" s="49" t="s">
+      <c r="I685" t="s">
         <v>17</v>
       </c>
-      <c r="J685" s="50" t="s">
+      <c r="J685" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="K685" s="49"/>
-      <c r="L685" s="49"/>
-      <c r="M685" s="51"/>
-      <c r="N685" s="51"/>
-      <c r="O685" s="52" t="str">
+      <c r="O685" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P685" s="52" t="str">
+      <c r="P685" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80389,44 +80106,44 @@
       <c r="C686" t="s">
         <v>82</v>
       </c>
-      <c r="D686" s="49" t="s">
+      <c r="D686" t="s">
         <v>952</v>
       </c>
-      <c r="E686" s="49" t="s">
+      <c r="E686" t="s">
         <v>976</v>
       </c>
-      <c r="F686" s="49">
+      <c r="F686">
         <v>766657313</v>
       </c>
-      <c r="G686" s="49" t="s">
+      <c r="G686" t="s">
         <v>22</v>
       </c>
-      <c r="H686" s="49" t="s">
+      <c r="H686" t="s">
         <v>19</v>
       </c>
-      <c r="I686" s="49" t="s">
+      <c r="I686" t="s">
         <v>28</v>
       </c>
-      <c r="J686" s="50" t="s">
+      <c r="J686" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="K686" s="49" t="s">
+      <c r="K686" t="s">
         <v>27</v>
       </c>
-      <c r="L686" s="49">
+      <c r="L686">
         <v>25</v>
       </c>
-      <c r="M686" s="51">
+      <c r="M686" s="5">
         <v>26000</v>
       </c>
-      <c r="N686" s="51">
+      <c r="N686" s="5">
         <v>650000</v>
       </c>
-      <c r="O686" s="52" t="str">
+      <c r="O686" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P686" s="52" t="str">
+      <c r="P686" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80441,36 +80158,32 @@
       <c r="C687" t="s">
         <v>82</v>
       </c>
-      <c r="D687" s="49" t="s">
+      <c r="D687" t="s">
         <v>952</v>
       </c>
-      <c r="E687" s="49" t="s">
+      <c r="E687" t="s">
         <v>978</v>
       </c>
-      <c r="F687" s="49">
+      <c r="F687">
         <v>770706706</v>
       </c>
-      <c r="G687" s="49" t="s">
+      <c r="G687" t="s">
         <v>22</v>
       </c>
-      <c r="H687" s="49" t="s">
+      <c r="H687" t="s">
         <v>19</v>
       </c>
-      <c r="I687" s="49" t="s">
+      <c r="I687" t="s">
         <v>17</v>
       </c>
-      <c r="J687" s="50" t="s">
+      <c r="J687" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="K687" s="49"/>
-      <c r="L687" s="49"/>
-      <c r="M687" s="51"/>
-      <c r="N687" s="51"/>
-      <c r="O687" s="52" t="str">
+      <c r="O687" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P687" s="52" t="str">
+      <c r="P687" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80485,36 +80198,32 @@
       <c r="C688" t="s">
         <v>82</v>
       </c>
-      <c r="D688" s="49" t="s">
+      <c r="D688" t="s">
         <v>952</v>
       </c>
-      <c r="E688" s="49" t="s">
+      <c r="E688" t="s">
         <v>980</v>
       </c>
-      <c r="F688" s="49">
+      <c r="F688">
         <v>772921235</v>
       </c>
-      <c r="G688" s="49" t="s">
+      <c r="G688" t="s">
         <v>22</v>
       </c>
-      <c r="H688" s="49" t="s">
+      <c r="H688" t="s">
         <v>19</v>
       </c>
-      <c r="I688" s="49" t="s">
+      <c r="I688" t="s">
         <v>17</v>
       </c>
-      <c r="J688" s="50" t="s">
+      <c r="J688" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="K688" s="49"/>
-      <c r="L688" s="49"/>
-      <c r="M688" s="51"/>
-      <c r="N688" s="51"/>
-      <c r="O688" s="52" t="str">
+      <c r="O688" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P688" s="52" t="str">
+      <c r="P688" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80529,36 +80238,32 @@
       <c r="C689" t="s">
         <v>33</v>
       </c>
-      <c r="D689" s="49" t="s">
+      <c r="D689" t="s">
         <v>35</v>
       </c>
-      <c r="E689" s="49" t="s">
+      <c r="E689" t="s">
         <v>129</v>
       </c>
-      <c r="F689" s="49">
+      <c r="F689">
         <v>771020606</v>
       </c>
-      <c r="G689" s="49" t="s">
+      <c r="G689" t="s">
         <v>22</v>
       </c>
-      <c r="H689" s="49" t="s">
+      <c r="H689" t="s">
         <v>16</v>
       </c>
-      <c r="I689" s="49" t="s">
+      <c r="I689" t="s">
         <v>17</v>
       </c>
-      <c r="J689" s="50" t="s">
+      <c r="J689" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K689" s="49"/>
-      <c r="L689" s="49"/>
-      <c r="M689" s="51"/>
-      <c r="N689" s="51"/>
-      <c r="O689" s="52" t="str">
+      <c r="O689" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P689" s="52" t="str">
+      <c r="P689" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80573,36 +80278,32 @@
       <c r="C690" t="s">
         <v>25</v>
       </c>
-      <c r="D690" s="49" t="s">
+      <c r="D690" t="s">
         <v>646</v>
       </c>
-      <c r="E690" s="49" t="s">
+      <c r="E690" t="s">
         <v>656</v>
       </c>
-      <c r="F690" s="49">
+      <c r="F690">
         <v>775213948</v>
       </c>
-      <c r="G690" s="49" t="s">
+      <c r="G690" t="s">
         <v>15</v>
       </c>
-      <c r="H690" s="49" t="s">
+      <c r="H690" t="s">
         <v>19</v>
       </c>
-      <c r="I690" s="49" t="s">
+      <c r="I690" t="s">
         <v>17</v>
       </c>
-      <c r="J690" s="50" t="s">
+      <c r="J690" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="K690" s="49"/>
-      <c r="L690" s="49"/>
-      <c r="M690" s="51"/>
-      <c r="N690" s="51"/>
-      <c r="O690" s="52" t="str">
+      <c r="O690" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P690" s="52" t="str">
+      <c r="P690" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80617,36 +80318,32 @@
       <c r="C691" t="s">
         <v>33</v>
       </c>
-      <c r="D691" s="49" t="s">
+      <c r="D691" t="s">
         <v>35</v>
       </c>
-      <c r="E691" s="49" t="s">
+      <c r="E691" t="s">
         <v>856</v>
       </c>
-      <c r="F691" s="49">
+      <c r="F691">
         <v>760289192</v>
       </c>
-      <c r="G691" s="49" t="s">
+      <c r="G691" t="s">
         <v>22</v>
       </c>
-      <c r="H691" s="49" t="s">
+      <c r="H691" t="s">
         <v>16</v>
       </c>
-      <c r="I691" s="49" t="s">
+      <c r="I691" t="s">
         <v>17</v>
       </c>
-      <c r="J691" s="50" t="s">
+      <c r="J691" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K691" s="49"/>
-      <c r="L691" s="49"/>
-      <c r="M691" s="51"/>
-      <c r="N691" s="51"/>
-      <c r="O691" s="52" t="str">
+      <c r="O691" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P691" s="52" t="str">
+      <c r="P691" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80661,36 +80358,32 @@
       <c r="C692" t="s">
         <v>21</v>
       </c>
-      <c r="D692" s="49" t="s">
+      <c r="D692" t="s">
         <v>463</v>
       </c>
-      <c r="E692" s="49" t="s">
+      <c r="E692" t="s">
         <v>464</v>
       </c>
-      <c r="F692" s="49">
+      <c r="F692">
         <v>771923397</v>
       </c>
-      <c r="G692" s="49" t="s">
+      <c r="G692" t="s">
         <v>15</v>
       </c>
-      <c r="H692" s="49" t="s">
+      <c r="H692" t="s">
         <v>19</v>
       </c>
-      <c r="I692" s="49" t="s">
+      <c r="I692" t="s">
         <v>17</v>
       </c>
-      <c r="J692" s="50" t="s">
+      <c r="J692" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="K692" s="49"/>
-      <c r="L692" s="49"/>
-      <c r="M692" s="51"/>
-      <c r="N692" s="51"/>
-      <c r="O692" s="52" t="str">
+      <c r="O692" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P692" s="52" t="str">
+      <c r="P692" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80705,36 +80398,32 @@
       <c r="C693" t="s">
         <v>25</v>
       </c>
-      <c r="D693" s="49" t="s">
+      <c r="D693" t="s">
         <v>646</v>
       </c>
-      <c r="E693" s="49" t="s">
+      <c r="E693" t="s">
         <v>664</v>
       </c>
-      <c r="F693" s="49">
+      <c r="F693">
         <v>775792864</v>
       </c>
-      <c r="G693" s="49" t="s">
+      <c r="G693" t="s">
         <v>15</v>
       </c>
-      <c r="H693" s="49" t="s">
+      <c r="H693" t="s">
         <v>19</v>
       </c>
-      <c r="I693" s="49" t="s">
+      <c r="I693" t="s">
         <v>17</v>
       </c>
-      <c r="J693" s="50" t="s">
+      <c r="J693" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="K693" s="49"/>
-      <c r="L693" s="49"/>
-      <c r="M693" s="51"/>
-      <c r="N693" s="51"/>
-      <c r="O693" s="52" t="str">
+      <c r="O693" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P693" s="52" t="str">
+      <c r="P693" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80749,36 +80438,32 @@
       <c r="C694" t="s">
         <v>25</v>
       </c>
-      <c r="D694" s="49" t="s">
+      <c r="D694" t="s">
         <v>646</v>
       </c>
-      <c r="E694" s="49" t="s">
+      <c r="E694" t="s">
         <v>658</v>
       </c>
-      <c r="F694" s="49">
+      <c r="F694">
         <v>779420909</v>
       </c>
-      <c r="G694" s="49" t="s">
+      <c r="G694" t="s">
         <v>15</v>
       </c>
-      <c r="H694" s="49" t="s">
+      <c r="H694" t="s">
         <v>19</v>
       </c>
-      <c r="I694" s="49" t="s">
+      <c r="I694" t="s">
         <v>17</v>
       </c>
-      <c r="J694" s="50" t="s">
+      <c r="J694" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="K694" s="49"/>
-      <c r="L694" s="49"/>
-      <c r="M694" s="51"/>
-      <c r="N694" s="51"/>
-      <c r="O694" s="52" t="str">
+      <c r="O694" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P694" s="52" t="str">
+      <c r="P694" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80793,36 +80478,32 @@
       <c r="C695" t="s">
         <v>25</v>
       </c>
-      <c r="D695" s="49" t="s">
+      <c r="D695" t="s">
         <v>646</v>
       </c>
-      <c r="E695" s="49" t="s">
+      <c r="E695" t="s">
         <v>660</v>
       </c>
-      <c r="F695" s="49">
+      <c r="F695">
         <v>781532059</v>
       </c>
-      <c r="G695" s="49" t="s">
+      <c r="G695" t="s">
         <v>15</v>
       </c>
-      <c r="H695" s="49" t="s">
+      <c r="H695" t="s">
         <v>19</v>
       </c>
-      <c r="I695" s="49" t="s">
+      <c r="I695" t="s">
         <v>17</v>
       </c>
-      <c r="J695" s="50" t="s">
+      <c r="J695" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="K695" s="49"/>
-      <c r="L695" s="49"/>
-      <c r="M695" s="51"/>
-      <c r="N695" s="51"/>
-      <c r="O695" s="52" t="str">
+      <c r="O695" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P695" s="52" t="str">
+      <c r="P695" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80837,36 +80518,32 @@
       <c r="C696" t="s">
         <v>25</v>
       </c>
-      <c r="D696" s="49" t="s">
+      <c r="D696" t="s">
         <v>646</v>
       </c>
-      <c r="E696" s="49" t="s">
+      <c r="E696" t="s">
         <v>662</v>
       </c>
-      <c r="F696" s="49">
+      <c r="F696">
         <v>762974040</v>
       </c>
-      <c r="G696" s="49" t="s">
+      <c r="G696" t="s">
         <v>22</v>
       </c>
-      <c r="H696" s="49" t="s">
+      <c r="H696" t="s">
         <v>19</v>
       </c>
-      <c r="I696" s="49" t="s">
+      <c r="I696" t="s">
         <v>17</v>
       </c>
-      <c r="J696" s="50" t="s">
+      <c r="J696" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="K696" s="49"/>
-      <c r="L696" s="49"/>
-      <c r="M696" s="51"/>
-      <c r="N696" s="51"/>
-      <c r="O696" s="52" t="str">
+      <c r="O696" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P696" s="52" t="str">
+      <c r="P696" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80881,36 +80558,32 @@
       <c r="C697" t="s">
         <v>25</v>
       </c>
-      <c r="D697" s="49" t="s">
+      <c r="D697" t="s">
         <v>646</v>
       </c>
-      <c r="E697" s="49" t="s">
+      <c r="E697" t="s">
         <v>666</v>
       </c>
-      <c r="F697" s="49">
+      <c r="F697">
         <v>768059355</v>
       </c>
-      <c r="G697" s="49" t="s">
+      <c r="G697" t="s">
         <v>22</v>
       </c>
-      <c r="H697" s="49" t="s">
+      <c r="H697" t="s">
         <v>19</v>
       </c>
-      <c r="I697" s="49" t="s">
+      <c r="I697" t="s">
         <v>17</v>
       </c>
-      <c r="J697" s="50" t="s">
+      <c r="J697" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="K697" s="49"/>
-      <c r="L697" s="49"/>
-      <c r="M697" s="51"/>
-      <c r="N697" s="51"/>
-      <c r="O697" s="52" t="str">
+      <c r="O697" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P697" s="52" t="str">
+      <c r="P697" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80925,36 +80598,32 @@
       <c r="C698" t="s">
         <v>25</v>
       </c>
-      <c r="D698" s="49" t="s">
+      <c r="D698" t="s">
         <v>646</v>
       </c>
-      <c r="E698" s="49" t="s">
+      <c r="E698" t="s">
         <v>647</v>
       </c>
-      <c r="F698" s="49">
+      <c r="F698">
         <v>778380324</v>
       </c>
-      <c r="G698" s="49" t="s">
+      <c r="G698" t="s">
         <v>22</v>
       </c>
-      <c r="H698" s="49" t="s">
+      <c r="H698" t="s">
         <v>19</v>
       </c>
-      <c r="I698" s="49" t="s">
+      <c r="I698" t="s">
         <v>17</v>
       </c>
-      <c r="J698" s="50" t="s">
+      <c r="J698" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="K698" s="49"/>
-      <c r="L698" s="49"/>
-      <c r="M698" s="51"/>
-      <c r="N698" s="51"/>
-      <c r="O698" s="52" t="str">
+      <c r="O698" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P698" s="52" t="str">
+      <c r="P698" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -80969,44 +80638,44 @@
       <c r="C699" t="s">
         <v>21</v>
       </c>
-      <c r="D699" s="49" t="s">
+      <c r="D699" t="s">
         <v>256</v>
       </c>
-      <c r="E699" s="49" t="s">
+      <c r="E699" t="s">
         <v>270</v>
       </c>
-      <c r="F699" s="49">
+      <c r="F699">
         <v>776169696</v>
       </c>
-      <c r="G699" s="49" t="s">
+      <c r="G699" t="s">
         <v>22</v>
       </c>
-      <c r="H699" s="49" t="s">
+      <c r="H699" t="s">
         <v>19</v>
       </c>
-      <c r="I699" s="49" t="s">
+      <c r="I699" t="s">
         <v>28</v>
       </c>
-      <c r="J699" s="50" t="s">
+      <c r="J699" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="K699" s="49" t="s">
+      <c r="K699" t="s">
         <v>189</v>
       </c>
-      <c r="L699" s="49">
+      <c r="L699">
         <v>25</v>
       </c>
-      <c r="M699" s="51">
+      <c r="M699" s="5">
         <v>6000</v>
       </c>
-      <c r="N699" s="51">
+      <c r="N699" s="5">
         <v>150000</v>
       </c>
-      <c r="O699" s="52" t="str">
+      <c r="O699" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P699" s="52" t="str">
+      <c r="P699" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81021,36 +80690,32 @@
       <c r="C700" t="s">
         <v>21</v>
       </c>
-      <c r="D700" s="49" t="s">
+      <c r="D700" t="s">
         <v>463</v>
       </c>
-      <c r="E700" s="49" t="s">
+      <c r="E700" t="s">
         <v>501</v>
       </c>
-      <c r="F700" s="49">
+      <c r="F700">
         <v>757454545</v>
       </c>
-      <c r="G700" s="49" t="s">
+      <c r="G700" t="s">
         <v>15</v>
       </c>
-      <c r="H700" s="49" t="s">
+      <c r="H700" t="s">
         <v>19</v>
       </c>
-      <c r="I700" s="49" t="s">
+      <c r="I700" t="s">
         <v>17</v>
       </c>
-      <c r="J700" s="50" t="s">
+      <c r="J700" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K700" s="49"/>
-      <c r="L700" s="49"/>
-      <c r="M700" s="51"/>
-      <c r="N700" s="51"/>
-      <c r="O700" s="52" t="str">
+      <c r="O700" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P700" s="52" t="str">
+      <c r="P700" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81065,44 +80730,44 @@
       <c r="C701" t="s">
         <v>25</v>
       </c>
-      <c r="D701" s="49" t="s">
+      <c r="D701" t="s">
         <v>119</v>
       </c>
-      <c r="E701" s="49" t="s">
+      <c r="E701" t="s">
         <v>192</v>
       </c>
-      <c r="F701" s="49">
+      <c r="F701">
         <v>786312198</v>
       </c>
-      <c r="G701" s="49" t="s">
+      <c r="G701" t="s">
         <v>22</v>
       </c>
-      <c r="H701" s="49" t="s">
+      <c r="H701" t="s">
         <v>19</v>
       </c>
-      <c r="I701" s="49" t="s">
+      <c r="I701" t="s">
         <v>23</v>
       </c>
-      <c r="J701" s="50" t="s">
+      <c r="J701" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K701" s="49" t="s">
+      <c r="K701" t="s">
         <v>77</v>
       </c>
-      <c r="L701" s="49">
+      <c r="L701">
         <v>25</v>
       </c>
-      <c r="M701" s="51">
+      <c r="M701" s="5">
         <v>9750</v>
       </c>
-      <c r="N701" s="51">
+      <c r="N701" s="5">
         <v>243750</v>
       </c>
-      <c r="O701" s="52" t="str">
+      <c r="O701" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P701" s="52" t="str">
+      <c r="P701" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81117,36 +80782,32 @@
       <c r="C702" t="s">
         <v>21</v>
       </c>
-      <c r="D702" s="49" t="s">
+      <c r="D702" t="s">
         <v>463</v>
       </c>
-      <c r="E702" s="49" t="s">
+      <c r="E702" t="s">
         <v>511</v>
       </c>
-      <c r="F702" s="49">
+      <c r="F702">
         <v>776347177</v>
       </c>
-      <c r="G702" s="49" t="s">
+      <c r="G702" t="s">
         <v>22</v>
       </c>
-      <c r="H702" s="49" t="s">
+      <c r="H702" t="s">
         <v>16</v>
       </c>
-      <c r="I702" s="49" t="s">
+      <c r="I702" t="s">
         <v>17</v>
       </c>
-      <c r="J702" s="50" t="s">
+      <c r="J702" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K702" s="49"/>
-      <c r="L702" s="49"/>
-      <c r="M702" s="51"/>
-      <c r="N702" s="51"/>
-      <c r="O702" s="52" t="str">
+      <c r="O702" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P702" s="52" t="str">
+      <c r="P702" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81161,36 +80822,32 @@
       <c r="C703" t="s">
         <v>21</v>
       </c>
-      <c r="D703" s="49" t="s">
+      <c r="D703" t="s">
         <v>463</v>
       </c>
-      <c r="E703" s="49" t="s">
+      <c r="E703" t="s">
         <v>512</v>
       </c>
-      <c r="F703" s="49">
+      <c r="F703">
         <v>776345625</v>
       </c>
-      <c r="G703" s="49" t="s">
+      <c r="G703" t="s">
         <v>22</v>
       </c>
-      <c r="H703" s="49" t="s">
+      <c r="H703" t="s">
         <v>19</v>
       </c>
-      <c r="I703" s="49" t="s">
+      <c r="I703" t="s">
         <v>17</v>
       </c>
-      <c r="J703" s="50" t="s">
+      <c r="J703" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="K703" s="49"/>
-      <c r="L703" s="49"/>
-      <c r="M703" s="51"/>
-      <c r="N703" s="51"/>
-      <c r="O703" s="52" t="str">
+      <c r="O703" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P703" s="52" t="str">
+      <c r="P703" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81205,36 +80862,32 @@
       <c r="C704" t="s">
         <v>21</v>
       </c>
-      <c r="D704" s="49" t="s">
+      <c r="D704" t="s">
         <v>463</v>
       </c>
-      <c r="E704" s="49" t="s">
+      <c r="E704" t="s">
         <v>139</v>
       </c>
-      <c r="F704" s="49">
+      <c r="F704">
         <v>776256670</v>
       </c>
-      <c r="G704" s="49" t="s">
+      <c r="G704" t="s">
         <v>22</v>
       </c>
-      <c r="H704" s="49" t="s">
+      <c r="H704" t="s">
         <v>19</v>
       </c>
-      <c r="I704" s="49" t="s">
+      <c r="I704" t="s">
         <v>17</v>
       </c>
-      <c r="J704" s="50" t="s">
+      <c r="J704" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K704" s="49"/>
-      <c r="L704" s="49"/>
-      <c r="M704" s="51"/>
-      <c r="N704" s="51"/>
-      <c r="O704" s="52" t="str">
+      <c r="O704" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P704" s="52" t="str">
+      <c r="P704" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81249,36 +80902,32 @@
       <c r="C705" t="s">
         <v>21</v>
       </c>
-      <c r="D705" s="49" t="s">
+      <c r="D705" t="s">
         <v>463</v>
       </c>
-      <c r="E705" s="49" t="s">
+      <c r="E705" t="s">
         <v>514</v>
       </c>
-      <c r="F705" s="49">
+      <c r="F705">
         <v>775742357</v>
       </c>
-      <c r="G705" s="49" t="s">
+      <c r="G705" t="s">
         <v>22</v>
       </c>
-      <c r="H705" s="49" t="s">
+      <c r="H705" t="s">
         <v>19</v>
       </c>
-      <c r="I705" s="49" t="s">
+      <c r="I705" t="s">
         <v>17</v>
       </c>
-      <c r="J705" s="50" t="s">
+      <c r="J705" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K705" s="49"/>
-      <c r="L705" s="49"/>
-      <c r="M705" s="51"/>
-      <c r="N705" s="51"/>
-      <c r="O705" s="52" t="str">
+      <c r="O705" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P705" s="52" t="str">
+      <c r="P705" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81293,36 +80942,32 @@
       <c r="C706" t="s">
         <v>21</v>
       </c>
-      <c r="D706" s="49" t="s">
+      <c r="D706" t="s">
         <v>463</v>
       </c>
-      <c r="E706" s="49" t="s">
+      <c r="E706" t="s">
         <v>864</v>
       </c>
-      <c r="F706" s="49">
+      <c r="F706">
         <v>775661455</v>
       </c>
-      <c r="G706" s="49" t="s">
+      <c r="G706" t="s">
         <v>22</v>
       </c>
-      <c r="H706" s="49" t="s">
+      <c r="H706" t="s">
         <v>19</v>
       </c>
-      <c r="I706" s="49" t="s">
+      <c r="I706" t="s">
         <v>17</v>
       </c>
-      <c r="J706" s="50" t="s">
+      <c r="J706" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="K706" s="49"/>
-      <c r="L706" s="49"/>
-      <c r="M706" s="51"/>
-      <c r="N706" s="51"/>
-      <c r="O706" s="52" t="str">
+      <c r="O706" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P706" s="52" t="str">
+      <c r="P706" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81337,36 +80982,32 @@
       <c r="C707" t="s">
         <v>33</v>
       </c>
-      <c r="D707" s="49" t="s">
+      <c r="D707" t="s">
         <v>35</v>
       </c>
-      <c r="E707" s="49" t="s">
+      <c r="E707" t="s">
         <v>283</v>
       </c>
-      <c r="F707" s="49">
+      <c r="F707">
         <v>704917338</v>
       </c>
-      <c r="G707" s="49" t="s">
+      <c r="G707" t="s">
         <v>22</v>
       </c>
-      <c r="H707" s="49" t="s">
+      <c r="H707" t="s">
         <v>16</v>
       </c>
-      <c r="I707" s="49" t="s">
+      <c r="I707" t="s">
         <v>17</v>
       </c>
-      <c r="J707" s="50" t="s">
+      <c r="J707" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K707" s="49"/>
-      <c r="L707" s="49"/>
-      <c r="M707" s="51"/>
-      <c r="N707" s="51"/>
-      <c r="O707" s="52" t="str">
+      <c r="O707" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P707" s="52" t="str">
+      <c r="P707" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81381,36 +81022,32 @@
       <c r="C708" t="s">
         <v>21</v>
       </c>
-      <c r="D708" s="49" t="s">
+      <c r="D708" t="s">
         <v>463</v>
       </c>
-      <c r="E708" s="49" t="s">
+      <c r="E708" t="s">
         <v>518</v>
       </c>
-      <c r="F708" s="49">
+      <c r="F708">
         <v>708418609</v>
       </c>
-      <c r="G708" s="49" t="s">
+      <c r="G708" t="s">
         <v>22</v>
       </c>
-      <c r="H708" s="49" t="s">
+      <c r="H708" t="s">
         <v>19</v>
       </c>
-      <c r="I708" s="49" t="s">
+      <c r="I708" t="s">
         <v>17</v>
       </c>
-      <c r="J708" s="50" t="s">
+      <c r="J708" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="K708" s="49"/>
-      <c r="L708" s="49"/>
-      <c r="M708" s="51"/>
-      <c r="N708" s="51"/>
-      <c r="O708" s="52" t="str">
+      <c r="O708" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P708" s="52" t="str">
+      <c r="P708" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81425,36 +81062,32 @@
       <c r="C709" t="s">
         <v>25</v>
       </c>
-      <c r="D709" s="49" t="s">
+      <c r="D709" t="s">
         <v>646</v>
       </c>
-      <c r="E709" s="49" t="s">
+      <c r="E709" t="s">
         <v>656</v>
       </c>
-      <c r="F709" s="49">
+      <c r="F709">
         <v>775213948</v>
       </c>
-      <c r="G709" s="49" t="s">
+      <c r="G709" t="s">
         <v>15</v>
       </c>
-      <c r="H709" s="49" t="s">
+      <c r="H709" t="s">
         <v>19</v>
       </c>
-      <c r="I709" s="49" t="s">
+      <c r="I709" t="s">
         <v>17</v>
       </c>
-      <c r="J709" s="50" t="s">
+      <c r="J709" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="K709" s="49"/>
-      <c r="L709" s="49"/>
-      <c r="M709" s="51"/>
-      <c r="N709" s="51"/>
-      <c r="O709" s="52" t="str">
+      <c r="O709" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P709" s="52" t="str">
+      <c r="P709" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81469,36 +81102,32 @@
       <c r="C710" t="s">
         <v>21</v>
       </c>
-      <c r="D710" s="49" t="s">
+      <c r="D710" t="s">
         <v>463</v>
       </c>
-      <c r="E710" s="49" t="s">
+      <c r="E710" t="s">
         <v>516</v>
       </c>
-      <c r="F710" s="49">
+      <c r="F710">
         <v>774388361</v>
       </c>
-      <c r="G710" s="49" t="s">
+      <c r="G710" t="s">
         <v>22</v>
       </c>
-      <c r="H710" s="49" t="s">
+      <c r="H710" t="s">
         <v>16</v>
       </c>
-      <c r="I710" s="49" t="s">
+      <c r="I710" t="s">
         <v>17</v>
       </c>
-      <c r="J710" s="50" t="s">
+      <c r="J710" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="K710" s="49"/>
-      <c r="L710" s="49"/>
-      <c r="M710" s="51"/>
-      <c r="N710" s="51"/>
-      <c r="O710" s="52" t="str">
+      <c r="O710" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P710" s="52" t="str">
+      <c r="P710" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81513,44 +81142,44 @@
       <c r="C711" t="s">
         <v>25</v>
       </c>
-      <c r="D711" s="49" t="s">
+      <c r="D711" t="s">
         <v>119</v>
       </c>
-      <c r="E711" s="49" t="s">
+      <c r="E711" t="s">
         <v>192</v>
       </c>
-      <c r="F711" s="49">
+      <c r="F711">
         <v>786312198</v>
       </c>
-      <c r="G711" s="49" t="s">
+      <c r="G711" t="s">
         <v>22</v>
       </c>
-      <c r="H711" s="49" t="s">
+      <c r="H711" t="s">
         <v>19</v>
       </c>
-      <c r="I711" s="49" t="s">
+      <c r="I711" t="s">
         <v>23</v>
       </c>
-      <c r="J711" s="50" t="s">
+      <c r="J711" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K711" s="49" t="s">
+      <c r="K711" t="s">
         <v>115</v>
       </c>
-      <c r="L711" s="49">
+      <c r="L711">
         <v>25</v>
       </c>
-      <c r="M711" s="51">
+      <c r="M711" s="5">
         <v>19500</v>
       </c>
-      <c r="N711" s="51">
+      <c r="N711" s="5">
         <v>487500</v>
       </c>
-      <c r="O711" s="52" t="str">
+      <c r="O711" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P711" s="52" t="str">
+      <c r="P711" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81565,36 +81194,32 @@
       <c r="C712" t="s">
         <v>14</v>
       </c>
-      <c r="D712" s="49" t="s">
+      <c r="D712" t="s">
         <v>313</v>
       </c>
-      <c r="E712" s="49" t="s">
+      <c r="E712" t="s">
         <v>316</v>
       </c>
-      <c r="F712" s="49">
+      <c r="F712">
         <v>777772248</v>
       </c>
-      <c r="G712" s="49" t="s">
+      <c r="G712" t="s">
         <v>15</v>
       </c>
-      <c r="H712" s="49" t="s">
+      <c r="H712" t="s">
         <v>16</v>
       </c>
-      <c r="I712" s="49" t="s">
+      <c r="I712" t="s">
         <v>17</v>
       </c>
-      <c r="J712" s="50" t="s">
+      <c r="J712" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="K712" s="49"/>
-      <c r="L712" s="49"/>
-      <c r="M712" s="51"/>
-      <c r="N712" s="51"/>
-      <c r="O712" s="52" t="str">
+      <c r="O712" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P712" s="52" t="str">
+      <c r="P712" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81609,44 +81234,44 @@
       <c r="C713" t="s">
         <v>25</v>
       </c>
-      <c r="D713" s="49" t="s">
+      <c r="D713" t="s">
         <v>119</v>
       </c>
-      <c r="E713" s="49" t="s">
+      <c r="E713" t="s">
         <v>123</v>
       </c>
-      <c r="F713" s="49">
+      <c r="F713">
         <v>777132186</v>
       </c>
-      <c r="G713" s="49" t="s">
+      <c r="G713" t="s">
         <v>22</v>
       </c>
-      <c r="H713" s="49" t="s">
+      <c r="H713" t="s">
         <v>19</v>
       </c>
-      <c r="I713" s="49" t="s">
+      <c r="I713" t="s">
         <v>23</v>
       </c>
-      <c r="J713" s="50" t="s">
+      <c r="J713" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K713" s="49" t="s">
+      <c r="K713" t="s">
         <v>27</v>
       </c>
-      <c r="L713" s="49">
+      <c r="L713">
         <v>5</v>
       </c>
-      <c r="M713" s="51">
+      <c r="M713" s="5">
         <v>26000</v>
       </c>
-      <c r="N713" s="51">
+      <c r="N713" s="5">
         <v>130000</v>
       </c>
-      <c r="O713" s="52" t="str">
+      <c r="O713" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P713" s="52" t="str">
+      <c r="P713" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81661,36 +81286,32 @@
       <c r="C714" t="s">
         <v>33</v>
       </c>
-      <c r="D714" s="49" t="s">
+      <c r="D714" t="s">
         <v>35</v>
       </c>
-      <c r="E714" s="49" t="s">
+      <c r="E714" t="s">
         <v>255</v>
       </c>
-      <c r="F714" s="49">
+      <c r="F714">
         <v>708066928</v>
       </c>
-      <c r="G714" s="49" t="s">
+      <c r="G714" t="s">
         <v>603</v>
       </c>
-      <c r="H714" s="49" t="s">
+      <c r="H714" t="s">
         <v>19</v>
       </c>
-      <c r="I714" s="49" t="s">
+      <c r="I714" t="s">
         <v>17</v>
       </c>
-      <c r="J714" s="50" t="s">
+      <c r="J714" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K714" s="49"/>
-      <c r="L714" s="49"/>
-      <c r="M714" s="51"/>
-      <c r="N714" s="51"/>
-      <c r="O714" s="52" t="str">
+      <c r="O714" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P714" s="52" t="str">
+      <c r="P714" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81705,36 +81326,32 @@
       <c r="C715" t="s">
         <v>33</v>
       </c>
-      <c r="D715" s="49" t="s">
+      <c r="D715" t="s">
         <v>35</v>
       </c>
-      <c r="E715" s="49" t="s">
+      <c r="E715" t="s">
         <v>169</v>
       </c>
-      <c r="F715" s="49">
+      <c r="F715">
         <v>781566500</v>
       </c>
-      <c r="G715" s="49" t="s">
+      <c r="G715" t="s">
         <v>603</v>
       </c>
-      <c r="H715" s="49" t="s">
+      <c r="H715" t="s">
         <v>16</v>
       </c>
-      <c r="I715" s="49" t="s">
+      <c r="I715" t="s">
         <v>17</v>
       </c>
-      <c r="J715" s="50" t="s">
+      <c r="J715" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K715" s="49"/>
-      <c r="L715" s="49"/>
-      <c r="M715" s="51"/>
-      <c r="N715" s="51"/>
-      <c r="O715" s="52" t="str">
+      <c r="O715" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P715" s="52" t="str">
+      <c r="P715" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81749,36 +81366,32 @@
       <c r="C716" t="s">
         <v>33</v>
       </c>
-      <c r="D716" s="49" t="s">
+      <c r="D716" t="s">
         <v>35</v>
       </c>
-      <c r="E716" s="49" t="s">
+      <c r="E716" t="s">
         <v>853</v>
       </c>
-      <c r="F716" s="49">
+      <c r="F716">
         <v>707788922</v>
       </c>
-      <c r="G716" s="49" t="s">
+      <c r="G716" t="s">
         <v>603</v>
       </c>
-      <c r="H716" s="49" t="s">
+      <c r="H716" t="s">
         <v>16</v>
       </c>
-      <c r="I716" s="49" t="s">
+      <c r="I716" t="s">
         <v>17</v>
       </c>
-      <c r="J716" s="50" t="s">
+      <c r="J716" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K716" s="49"/>
-      <c r="L716" s="49"/>
-      <c r="M716" s="51"/>
-      <c r="N716" s="51"/>
-      <c r="O716" s="52" t="str">
+      <c r="O716" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P716" s="52" t="str">
+      <c r="P716" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81793,44 +81406,44 @@
       <c r="C717" t="s">
         <v>33</v>
       </c>
-      <c r="D717" s="49" t="s">
+      <c r="D717" t="s">
         <v>571</v>
       </c>
-      <c r="E717" s="49" t="s">
+      <c r="E717" t="s">
         <v>640</v>
       </c>
-      <c r="F717" s="49">
+      <c r="F717">
         <v>763469670</v>
       </c>
-      <c r="G717" s="49" t="s">
+      <c r="G717" t="s">
         <v>22</v>
       </c>
-      <c r="H717" s="49" t="s">
+      <c r="H717" t="s">
         <v>19</v>
       </c>
-      <c r="I717" s="49" t="s">
+      <c r="I717" t="s">
         <v>23</v>
       </c>
-      <c r="J717" s="50" t="s">
+      <c r="J717" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K717" s="49" t="s">
+      <c r="K717" t="s">
         <v>847</v>
       </c>
-      <c r="L717" s="49">
+      <c r="L717">
         <v>50</v>
       </c>
-      <c r="M717" s="51">
+      <c r="M717" s="5">
         <v>31000</v>
       </c>
-      <c r="N717" s="51">
+      <c r="N717" s="5">
         <v>1550000</v>
       </c>
-      <c r="O717" s="52" t="str">
+      <c r="O717" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P717" s="52" t="str">
+      <c r="P717" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81845,44 +81458,44 @@
       <c r="C718" t="s">
         <v>33</v>
       </c>
-      <c r="D718" s="49" t="s">
+      <c r="D718" t="s">
         <v>571</v>
       </c>
-      <c r="E718" s="49" t="s">
+      <c r="E718" t="s">
         <v>640</v>
       </c>
-      <c r="F718" s="49">
+      <c r="F718">
         <v>763469670</v>
       </c>
-      <c r="G718" s="49" t="s">
+      <c r="G718" t="s">
         <v>22</v>
       </c>
-      <c r="H718" s="49" t="s">
+      <c r="H718" t="s">
         <v>19</v>
       </c>
-      <c r="I718" s="49" t="s">
+      <c r="I718" t="s">
         <v>23</v>
       </c>
-      <c r="J718" s="50" t="s">
+      <c r="J718" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K718" s="49" t="s">
+      <c r="K718" t="s">
         <v>27</v>
       </c>
-      <c r="L718" s="49">
+      <c r="L718">
         <v>50</v>
       </c>
-      <c r="M718" s="51">
+      <c r="M718" s="5">
         <v>26000</v>
       </c>
-      <c r="N718" s="51">
+      <c r="N718" s="5">
         <v>1300000</v>
       </c>
-      <c r="O718" s="52" t="str">
+      <c r="O718" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P718" s="52" t="str">
+      <c r="P718" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81897,44 +81510,44 @@
       <c r="C719" t="s">
         <v>31</v>
       </c>
-      <c r="D719" s="49" t="s">
+      <c r="D719" t="s">
         <v>582</v>
       </c>
-      <c r="E719" s="49" t="s">
+      <c r="E719" t="s">
         <v>586</v>
       </c>
-      <c r="F719" s="49">
+      <c r="F719">
         <v>773708303</v>
       </c>
-      <c r="G719" s="49" t="s">
+      <c r="G719" t="s">
         <v>22</v>
       </c>
-      <c r="H719" s="49" t="s">
+      <c r="H719" t="s">
         <v>19</v>
       </c>
-      <c r="I719" s="49" t="s">
+      <c r="I719" t="s">
         <v>23</v>
       </c>
-      <c r="J719" s="50" t="s">
+      <c r="J719" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="K719" s="49" t="s">
+      <c r="K719" t="s">
         <v>610</v>
       </c>
-      <c r="L719" s="49">
+      <c r="L719">
         <v>50</v>
       </c>
-      <c r="M719" s="51">
+      <c r="M719" s="5">
         <v>7000</v>
       </c>
-      <c r="N719" s="51">
+      <c r="N719" s="5">
         <v>350000</v>
       </c>
-      <c r="O719" s="52" t="str">
+      <c r="O719" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P719" s="52" t="str">
+      <c r="P719" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81949,36 +81562,32 @@
       <c r="C720" t="s">
         <v>14</v>
       </c>
-      <c r="D720" s="49" t="s">
+      <c r="D720" t="s">
         <v>313</v>
       </c>
-      <c r="E720" s="49" t="s">
+      <c r="E720" t="s">
         <v>314</v>
       </c>
-      <c r="F720" s="49">
+      <c r="F720">
         <v>775884054</v>
       </c>
-      <c r="G720" s="49" t="s">
+      <c r="G720" t="s">
         <v>15</v>
       </c>
-      <c r="H720" s="49" t="s">
+      <c r="H720" t="s">
         <v>16</v>
       </c>
-      <c r="I720" s="49" t="s">
+      <c r="I720" t="s">
         <v>17</v>
       </c>
-      <c r="J720" s="50" t="s">
+      <c r="J720" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K720" s="49"/>
-      <c r="L720" s="49"/>
-      <c r="M720" s="51"/>
-      <c r="N720" s="51"/>
-      <c r="O720" s="52" t="str">
+      <c r="O720" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P720" s="52" t="str">
+      <c r="P720" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -81993,36 +81602,32 @@
       <c r="C721" t="s">
         <v>33</v>
       </c>
-      <c r="D721" s="49" t="s">
+      <c r="D721" t="s">
         <v>35</v>
       </c>
-      <c r="E721" s="49" t="s">
+      <c r="E721" t="s">
         <v>855</v>
       </c>
-      <c r="F721" s="49">
+      <c r="F721">
         <v>775904086</v>
       </c>
-      <c r="G721" s="49" t="s">
+      <c r="G721" t="s">
         <v>603</v>
       </c>
-      <c r="H721" s="49" t="s">
+      <c r="H721" t="s">
         <v>19</v>
       </c>
-      <c r="I721" s="49" t="s">
+      <c r="I721" t="s">
         <v>17</v>
       </c>
-      <c r="J721" s="50" t="s">
+      <c r="J721" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K721" s="49"/>
-      <c r="L721" s="49"/>
-      <c r="M721" s="51"/>
-      <c r="N721" s="51"/>
-      <c r="O721" s="52" t="str">
+      <c r="O721" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P721" s="52" t="str">
+      <c r="P721" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82037,36 +81642,32 @@
       <c r="C722" t="s">
         <v>14</v>
       </c>
-      <c r="D722" s="49" t="s">
+      <c r="D722" t="s">
         <v>313</v>
       </c>
-      <c r="E722" s="49" t="s">
+      <c r="E722" t="s">
         <v>319</v>
       </c>
-      <c r="F722" s="49">
+      <c r="F722">
         <v>772900705</v>
       </c>
-      <c r="G722" s="49" t="s">
+      <c r="G722" t="s">
         <v>22</v>
       </c>
-      <c r="H722" s="49" t="s">
+      <c r="H722" t="s">
         <v>16</v>
       </c>
-      <c r="I722" s="49" t="s">
+      <c r="I722" t="s">
         <v>17</v>
       </c>
-      <c r="J722" s="50" t="s">
+      <c r="J722" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="K722" s="49"/>
-      <c r="L722" s="49"/>
-      <c r="M722" s="51"/>
-      <c r="N722" s="51"/>
-      <c r="O722" s="52" t="str">
+      <c r="O722" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P722" s="52" t="str">
+      <c r="P722" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82081,36 +81682,32 @@
       <c r="C723" t="s">
         <v>14</v>
       </c>
-      <c r="D723" s="49" t="s">
+      <c r="D723" t="s">
         <v>313</v>
       </c>
-      <c r="E723" s="49" t="s">
+      <c r="E723" t="s">
         <v>382</v>
       </c>
-      <c r="F723" s="49">
+      <c r="F723">
         <v>775538380</v>
       </c>
-      <c r="G723" s="49" t="s">
+      <c r="G723" t="s">
         <v>22</v>
       </c>
-      <c r="H723" s="49" t="s">
+      <c r="H723" t="s">
         <v>16</v>
       </c>
-      <c r="I723" s="49" t="s">
+      <c r="I723" t="s">
         <v>17</v>
       </c>
-      <c r="J723" s="50" t="s">
+      <c r="J723" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="K723" s="49"/>
-      <c r="L723" s="49"/>
-      <c r="M723" s="51"/>
-      <c r="N723" s="51"/>
-      <c r="O723" s="52" t="str">
+      <c r="O723" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P723" s="52" t="str">
+      <c r="P723" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82125,36 +81722,32 @@
       <c r="C724" t="s">
         <v>14</v>
       </c>
-      <c r="D724" s="49" t="s">
+      <c r="D724" t="s">
         <v>313</v>
       </c>
-      <c r="E724" s="49" t="s">
+      <c r="E724" t="s">
         <v>370</v>
       </c>
-      <c r="F724" s="49">
+      <c r="F724">
         <v>776582607</v>
       </c>
-      <c r="G724" s="49" t="s">
+      <c r="G724" t="s">
         <v>22</v>
       </c>
-      <c r="H724" s="49" t="s">
+      <c r="H724" t="s">
         <v>16</v>
       </c>
-      <c r="I724" s="49" t="s">
+      <c r="I724" t="s">
         <v>17</v>
       </c>
-      <c r="J724" s="50" t="s">
+      <c r="J724" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="K724" s="49"/>
-      <c r="L724" s="49"/>
-      <c r="M724" s="51"/>
-      <c r="N724" s="51"/>
-      <c r="O724" s="52" t="str">
+      <c r="O724" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P724" s="52" t="str">
+      <c r="P724" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82169,36 +81762,32 @@
       <c r="C725" t="s">
         <v>14</v>
       </c>
-      <c r="D725" s="49" t="s">
+      <c r="D725" t="s">
         <v>313</v>
       </c>
-      <c r="E725" s="49" t="s">
+      <c r="E725" t="s">
         <v>371</v>
       </c>
-      <c r="F725" s="49">
+      <c r="F725">
         <v>777262311</v>
       </c>
-      <c r="G725" s="49" t="s">
+      <c r="G725" t="s">
         <v>22</v>
       </c>
-      <c r="H725" s="49" t="s">
+      <c r="H725" t="s">
         <v>16</v>
       </c>
-      <c r="I725" s="49" t="s">
+      <c r="I725" t="s">
         <v>17</v>
       </c>
-      <c r="J725" s="50" t="s">
+      <c r="J725" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="K725" s="49"/>
-      <c r="L725" s="49"/>
-      <c r="M725" s="51"/>
-      <c r="N725" s="51"/>
-      <c r="O725" s="52" t="str">
+      <c r="O725" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P725" s="52" t="str">
+      <c r="P725" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82213,36 +81802,32 @@
       <c r="C726" t="s">
         <v>14</v>
       </c>
-      <c r="D726" s="49" t="s">
+      <c r="D726" t="s">
         <v>313</v>
       </c>
-      <c r="E726" s="49" t="s">
+      <c r="E726" t="s">
         <v>374</v>
       </c>
-      <c r="F726" s="49">
+      <c r="F726">
         <v>776634479</v>
       </c>
-      <c r="G726" s="49" t="s">
+      <c r="G726" t="s">
         <v>22</v>
       </c>
-      <c r="H726" s="49" t="s">
+      <c r="H726" t="s">
         <v>19</v>
       </c>
-      <c r="I726" s="49" t="s">
+      <c r="I726" t="s">
         <v>17</v>
       </c>
-      <c r="J726" s="50" t="s">
+      <c r="J726" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="K726" s="49"/>
-      <c r="L726" s="49"/>
-      <c r="M726" s="51"/>
-      <c r="N726" s="51"/>
-      <c r="O726" s="52" t="str">
+      <c r="O726" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P726" s="52" t="str">
+      <c r="P726" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82257,36 +81842,32 @@
       <c r="C727" t="s">
         <v>14</v>
       </c>
-      <c r="D727" s="49" t="s">
+      <c r="D727" t="s">
         <v>313</v>
       </c>
-      <c r="E727" s="49" t="s">
+      <c r="E727" t="s">
         <v>375</v>
       </c>
-      <c r="F727" s="49">
+      <c r="F727">
         <v>773248259</v>
       </c>
-      <c r="G727" s="49" t="s">
+      <c r="G727" t="s">
         <v>18</v>
       </c>
-      <c r="H727" s="49" t="s">
+      <c r="H727" t="s">
         <v>19</v>
       </c>
-      <c r="I727" s="49" t="s">
+      <c r="I727" t="s">
         <v>17</v>
       </c>
-      <c r="J727" s="50" t="s">
+      <c r="J727" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="K727" s="49"/>
-      <c r="L727" s="49"/>
-      <c r="M727" s="51"/>
-      <c r="N727" s="51"/>
-      <c r="O727" s="52" t="str">
+      <c r="O727" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P727" s="52" t="str">
+      <c r="P727" s="36" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
@@ -82301,36 +81882,2368 @@
       <c r="C728" t="s">
         <v>14</v>
       </c>
-      <c r="D728" s="49" t="s">
+      <c r="D728" t="s">
         <v>313</v>
       </c>
-      <c r="E728" s="49" t="s">
+      <c r="E728" t="s">
         <v>342</v>
       </c>
-      <c r="F728" s="49">
+      <c r="F728">
         <v>772957336</v>
       </c>
-      <c r="G728" s="49" t="s">
+      <c r="G728" t="s">
         <v>22</v>
       </c>
-      <c r="H728" s="49" t="s">
+      <c r="H728" t="s">
         <v>16</v>
       </c>
-      <c r="I728" s="49" t="s">
+      <c r="I728" t="s">
         <v>17</v>
       </c>
-      <c r="J728" s="50" t="s">
+      <c r="J728" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K728" s="49"/>
-      <c r="L728" s="49"/>
-      <c r="M728" s="51"/>
-      <c r="N728" s="51"/>
-      <c r="O728" s="52" t="str">
+      <c r="O728" s="36" t="str">
         <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
         <v>S35</v>
       </c>
-      <c r="P728" s="52" t="str">
+      <c r="P728" s="36" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A729" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B729" t="s">
+        <v>20</v>
+      </c>
+      <c r="C729" t="s">
+        <v>21</v>
+      </c>
+      <c r="D729" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E729" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="F729" s="49">
+        <v>779344631</v>
+      </c>
+      <c r="G729" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H729" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I729" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J729" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K729" s="49"/>
+      <c r="L729" s="49"/>
+      <c r="M729" s="51"/>
+      <c r="N729" s="51"/>
+      <c r="O729" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P729" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A730" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B730" t="s">
+        <v>24</v>
+      </c>
+      <c r="C730" t="s">
+        <v>25</v>
+      </c>
+      <c r="D730" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E730" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="F730" s="49">
+        <v>774085200</v>
+      </c>
+      <c r="G730" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H730" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I730" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J730" s="50" t="s">
+        <v>984</v>
+      </c>
+      <c r="K730" s="49"/>
+      <c r="L730" s="49"/>
+      <c r="M730" s="51"/>
+      <c r="N730" s="51"/>
+      <c r="O730" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P730" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A731" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B731" t="s">
+        <v>24</v>
+      </c>
+      <c r="C731" t="s">
+        <v>25</v>
+      </c>
+      <c r="D731" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E731" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="F731" s="49">
+        <v>775582583</v>
+      </c>
+      <c r="G731" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H731" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I731" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J731" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K731" s="49" t="s">
+        <v>847</v>
+      </c>
+      <c r="L731" s="49">
+        <v>25</v>
+      </c>
+      <c r="M731" s="51">
+        <v>31000</v>
+      </c>
+      <c r="N731" s="51">
+        <v>775000</v>
+      </c>
+      <c r="O731" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P731" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A732" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B732" t="s">
+        <v>24</v>
+      </c>
+      <c r="C732" t="s">
+        <v>25</v>
+      </c>
+      <c r="D732" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E732" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F732" s="49">
+        <v>786323232</v>
+      </c>
+      <c r="G732" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H732" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I732" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J732" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K732" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L732" s="49">
+        <v>25</v>
+      </c>
+      <c r="M732" s="51">
+        <v>26000</v>
+      </c>
+      <c r="N732" s="51">
+        <v>650000</v>
+      </c>
+      <c r="O732" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P732" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A733" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B733" t="s">
+        <v>81</v>
+      </c>
+      <c r="C733" t="s">
+        <v>82</v>
+      </c>
+      <c r="D733" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="E733" s="49" t="s">
+        <v>986</v>
+      </c>
+      <c r="F733" s="49">
+        <v>775262371</v>
+      </c>
+      <c r="G733" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H733" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I733" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J733" s="50" t="s">
+        <v>987</v>
+      </c>
+      <c r="K733" s="49"/>
+      <c r="L733" s="49"/>
+      <c r="M733" s="51"/>
+      <c r="N733" s="51"/>
+      <c r="O733" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P733" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A734" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B734" t="s">
+        <v>81</v>
+      </c>
+      <c r="C734" t="s">
+        <v>82</v>
+      </c>
+      <c r="D734" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="E734" s="49" t="s">
+        <v>988</v>
+      </c>
+      <c r="F734" s="49">
+        <v>700607009</v>
+      </c>
+      <c r="G734" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H734" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I734" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J734" s="50" t="s">
+        <v>989</v>
+      </c>
+      <c r="K734" s="49"/>
+      <c r="L734" s="49"/>
+      <c r="M734" s="51"/>
+      <c r="N734" s="51"/>
+      <c r="O734" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P734" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A735" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B735" t="s">
+        <v>81</v>
+      </c>
+      <c r="C735" t="s">
+        <v>82</v>
+      </c>
+      <c r="D735" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="E735" s="49" t="s">
+        <v>990</v>
+      </c>
+      <c r="F735" s="49">
+        <v>761509551</v>
+      </c>
+      <c r="G735" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H735" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I735" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J735" s="50" t="s">
+        <v>991</v>
+      </c>
+      <c r="K735" s="49"/>
+      <c r="L735" s="49"/>
+      <c r="M735" s="51"/>
+      <c r="N735" s="51"/>
+      <c r="O735" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P735" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A736" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B736" t="s">
+        <v>81</v>
+      </c>
+      <c r="C736" t="s">
+        <v>82</v>
+      </c>
+      <c r="D736" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="E736" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="F736" s="49">
+        <v>789659235</v>
+      </c>
+      <c r="G736" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H736" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I736" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J736" s="50" t="s">
+        <v>993</v>
+      </c>
+      <c r="K736" s="49"/>
+      <c r="L736" s="49"/>
+      <c r="M736" s="51"/>
+      <c r="N736" s="51"/>
+      <c r="O736" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P736" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A737" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B737" t="s">
+        <v>81</v>
+      </c>
+      <c r="C737" t="s">
+        <v>82</v>
+      </c>
+      <c r="D737" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="E737" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F737" s="49">
+        <v>762735182</v>
+      </c>
+      <c r="G737" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H737" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I737" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J737" s="50" t="s">
+        <v>994</v>
+      </c>
+      <c r="K737" s="49"/>
+      <c r="L737" s="49"/>
+      <c r="M737" s="51"/>
+      <c r="N737" s="51"/>
+      <c r="O737" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P737" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A738" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B738" t="s">
+        <v>81</v>
+      </c>
+      <c r="C738" t="s">
+        <v>82</v>
+      </c>
+      <c r="D738" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="E738" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="F738" s="49">
+        <v>776413480</v>
+      </c>
+      <c r="G738" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H738" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I738" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J738" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="K738" s="49"/>
+      <c r="L738" s="49"/>
+      <c r="M738" s="51"/>
+      <c r="N738" s="51"/>
+      <c r="O738" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P738" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A739" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B739" t="s">
+        <v>32</v>
+      </c>
+      <c r="C739" t="s">
+        <v>33</v>
+      </c>
+      <c r="D739" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E739" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="F739" s="49">
+        <v>785180746</v>
+      </c>
+      <c r="G739" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H739" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I739" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J739" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K739" s="49"/>
+      <c r="L739" s="49"/>
+      <c r="M739" s="51"/>
+      <c r="N739" s="51"/>
+      <c r="O739" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P739" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A740" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B740" t="s">
+        <v>32</v>
+      </c>
+      <c r="C740" t="s">
+        <v>33</v>
+      </c>
+      <c r="D740" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E740" s="49" t="s">
+        <v>742</v>
+      </c>
+      <c r="F740" s="49">
+        <v>774820232</v>
+      </c>
+      <c r="G740" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H740" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I740" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J740" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K740" s="49"/>
+      <c r="L740" s="49"/>
+      <c r="M740" s="51"/>
+      <c r="N740" s="51"/>
+      <c r="O740" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P740" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A741" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B741" t="s">
+        <v>32</v>
+      </c>
+      <c r="C741" t="s">
+        <v>33</v>
+      </c>
+      <c r="D741" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E741" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="F741" s="49">
+        <v>705121758</v>
+      </c>
+      <c r="G741" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H741" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I741" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J741" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K741" s="49"/>
+      <c r="L741" s="49"/>
+      <c r="M741" s="51"/>
+      <c r="N741" s="51"/>
+      <c r="O741" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P741" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A742" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B742" t="s">
+        <v>32</v>
+      </c>
+      <c r="C742" t="s">
+        <v>33</v>
+      </c>
+      <c r="D742" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E742" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="F742" s="49">
+        <v>764071546</v>
+      </c>
+      <c r="G742" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H742" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I742" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J742" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K742" s="49"/>
+      <c r="L742" s="49"/>
+      <c r="M742" s="51"/>
+      <c r="N742" s="51"/>
+      <c r="O742" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P742" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A743" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B743" t="s">
+        <v>32</v>
+      </c>
+      <c r="C743" t="s">
+        <v>33</v>
+      </c>
+      <c r="D743" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E743" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="F743" s="49">
+        <v>770338306</v>
+      </c>
+      <c r="G743" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H743" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I743" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J743" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K743" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="L743" s="49">
+        <v>1</v>
+      </c>
+      <c r="M743" s="51">
+        <v>19500</v>
+      </c>
+      <c r="N743" s="51">
+        <v>19500</v>
+      </c>
+      <c r="O743" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P743" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A744" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B744" t="s">
+        <v>32</v>
+      </c>
+      <c r="C744" t="s">
+        <v>33</v>
+      </c>
+      <c r="D744" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E744" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="F744" s="49">
+        <v>781297575</v>
+      </c>
+      <c r="G744" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H744" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I744" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J744" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K744" s="49"/>
+      <c r="L744" s="49"/>
+      <c r="M744" s="51"/>
+      <c r="N744" s="51"/>
+      <c r="O744" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P744" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A745" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B745" t="s">
+        <v>32</v>
+      </c>
+      <c r="C745" t="s">
+        <v>33</v>
+      </c>
+      <c r="D745" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E745" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="F745" s="49">
+        <v>781280978</v>
+      </c>
+      <c r="G745" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H745" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I745" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J745" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K745" s="49"/>
+      <c r="L745" s="49"/>
+      <c r="M745" s="51"/>
+      <c r="N745" s="51"/>
+      <c r="O745" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P745" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A746" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B746" t="s">
+        <v>32</v>
+      </c>
+      <c r="C746" t="s">
+        <v>33</v>
+      </c>
+      <c r="D746" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E746" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="F746" s="49">
+        <v>779987747</v>
+      </c>
+      <c r="G746" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H746" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I746" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J746" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K746" s="49"/>
+      <c r="L746" s="49"/>
+      <c r="M746" s="51"/>
+      <c r="N746" s="51"/>
+      <c r="O746" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P746" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A747" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B747" t="s">
+        <v>32</v>
+      </c>
+      <c r="C747" t="s">
+        <v>33</v>
+      </c>
+      <c r="D747" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E747" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="F747" s="49">
+        <v>777748618</v>
+      </c>
+      <c r="G747" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H747" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I747" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J747" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K747" s="49"/>
+      <c r="L747" s="49"/>
+      <c r="M747" s="51"/>
+      <c r="N747" s="51"/>
+      <c r="O747" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P747" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A748" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B748" t="s">
+        <v>32</v>
+      </c>
+      <c r="C748" t="s">
+        <v>33</v>
+      </c>
+      <c r="D748" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E748" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="F748" s="49">
+        <v>777748610</v>
+      </c>
+      <c r="G748" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H748" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I748" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J748" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K748" s="49"/>
+      <c r="L748" s="49"/>
+      <c r="M748" s="51"/>
+      <c r="N748" s="51"/>
+      <c r="O748" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P748" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A749" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B749" t="s">
+        <v>32</v>
+      </c>
+      <c r="C749" t="s">
+        <v>33</v>
+      </c>
+      <c r="D749" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E749" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="F749" s="49">
+        <v>777748610</v>
+      </c>
+      <c r="G749" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H749" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I749" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J749" s="50" t="s">
+        <v>996</v>
+      </c>
+      <c r="K749" s="49"/>
+      <c r="L749" s="49"/>
+      <c r="M749" s="51"/>
+      <c r="N749" s="51"/>
+      <c r="O749" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P749" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A750" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B750" t="s">
+        <v>32</v>
+      </c>
+      <c r="C750" t="s">
+        <v>33</v>
+      </c>
+      <c r="D750" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E750" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F750" s="49">
+        <v>775784714</v>
+      </c>
+      <c r="G750" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H750" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I750" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J750" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K750" s="49"/>
+      <c r="L750" s="49"/>
+      <c r="M750" s="51"/>
+      <c r="N750" s="51"/>
+      <c r="O750" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P750" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A751" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B751" t="s">
+        <v>32</v>
+      </c>
+      <c r="C751" t="s">
+        <v>33</v>
+      </c>
+      <c r="D751" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E751" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F751" s="49">
+        <v>775250570</v>
+      </c>
+      <c r="G751" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H751" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I751" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J751" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K751" s="49"/>
+      <c r="L751" s="49"/>
+      <c r="M751" s="51"/>
+      <c r="N751" s="51"/>
+      <c r="O751" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P751" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A752" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B752" t="s">
+        <v>32</v>
+      </c>
+      <c r="C752" t="s">
+        <v>33</v>
+      </c>
+      <c r="D752" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E752" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="F752" s="49">
+        <v>774886110</v>
+      </c>
+      <c r="G752" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H752" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I752" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J752" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K752" s="49"/>
+      <c r="L752" s="49"/>
+      <c r="M752" s="51"/>
+      <c r="N752" s="51"/>
+      <c r="O752" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P752" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A753" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B753" t="s">
+        <v>32</v>
+      </c>
+      <c r="C753" t="s">
+        <v>33</v>
+      </c>
+      <c r="D753" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E753" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F753" s="49">
+        <v>774216339</v>
+      </c>
+      <c r="G753" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H753" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I753" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J753" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K753" s="49"/>
+      <c r="L753" s="49"/>
+      <c r="M753" s="51"/>
+      <c r="N753" s="51"/>
+      <c r="O753" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P753" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A754" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B754" t="s">
+        <v>24</v>
+      </c>
+      <c r="C754" t="s">
+        <v>25</v>
+      </c>
+      <c r="D754" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E754" s="49" t="s">
+        <v>814</v>
+      </c>
+      <c r="F754" s="49">
+        <v>773750007</v>
+      </c>
+      <c r="G754" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H754" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I754" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J754" s="50" t="s">
+        <v>997</v>
+      </c>
+      <c r="K754" s="49"/>
+      <c r="L754" s="49"/>
+      <c r="M754" s="51"/>
+      <c r="N754" s="51"/>
+      <c r="O754" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P754" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A755" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B755" t="s">
+        <v>20</v>
+      </c>
+      <c r="C755" t="s">
+        <v>21</v>
+      </c>
+      <c r="D755" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E755" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="F755" s="49">
+        <v>775564841</v>
+      </c>
+      <c r="G755" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H755" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I755" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J755" s="50" t="s">
+        <v>999</v>
+      </c>
+      <c r="K755" s="49" t="s">
+        <v>847</v>
+      </c>
+      <c r="L755" s="49">
+        <v>1</v>
+      </c>
+      <c r="M755" s="51">
+        <v>31000</v>
+      </c>
+      <c r="N755" s="51">
+        <v>31000</v>
+      </c>
+      <c r="O755" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P755" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A756" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B756" t="s">
+        <v>24</v>
+      </c>
+      <c r="C756" t="s">
+        <v>25</v>
+      </c>
+      <c r="D756" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E756" s="49" t="s">
+        <v>821</v>
+      </c>
+      <c r="F756" s="49">
+        <v>774756755</v>
+      </c>
+      <c r="G756" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H756" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I756" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J756" s="50" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K756" s="49"/>
+      <c r="L756" s="49"/>
+      <c r="M756" s="51"/>
+      <c r="N756" s="51"/>
+      <c r="O756" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P756" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A757" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B757" t="s">
+        <v>20</v>
+      </c>
+      <c r="C757" t="s">
+        <v>21</v>
+      </c>
+      <c r="D757" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E757" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="F757" s="49">
+        <v>773641828</v>
+      </c>
+      <c r="G757" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H757" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I757" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J757" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="K757" s="49"/>
+      <c r="L757" s="49"/>
+      <c r="M757" s="51"/>
+      <c r="N757" s="51"/>
+      <c r="O757" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P757" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="758" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A758" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B758" t="s">
+        <v>20</v>
+      </c>
+      <c r="C758" t="s">
+        <v>21</v>
+      </c>
+      <c r="D758" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E758" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F758" s="49">
+        <v>762317306</v>
+      </c>
+      <c r="G758" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H758" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I758" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J758" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K758" s="49"/>
+      <c r="L758" s="49"/>
+      <c r="M758" s="51"/>
+      <c r="N758" s="51"/>
+      <c r="O758" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P758" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="759" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A759" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B759" t="s">
+        <v>20</v>
+      </c>
+      <c r="C759" t="s">
+        <v>21</v>
+      </c>
+      <c r="D759" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E759" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="F759" s="49">
+        <v>770392582</v>
+      </c>
+      <c r="G759" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H759" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I759" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J759" s="50" t="s">
+        <v>672</v>
+      </c>
+      <c r="K759" s="49"/>
+      <c r="L759" s="49"/>
+      <c r="M759" s="51"/>
+      <c r="N759" s="51"/>
+      <c r="O759" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P759" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="760" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A760" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B760" t="s">
+        <v>20</v>
+      </c>
+      <c r="C760" t="s">
+        <v>21</v>
+      </c>
+      <c r="D760" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E760" s="49" t="s">
+        <v>712</v>
+      </c>
+      <c r="F760" s="49">
+        <v>770933357</v>
+      </c>
+      <c r="G760" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H760" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I760" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J760" s="50" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K760" s="49"/>
+      <c r="L760" s="49"/>
+      <c r="M760" s="51"/>
+      <c r="N760" s="51"/>
+      <c r="O760" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P760" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="761" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A761" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B761" t="s">
+        <v>20</v>
+      </c>
+      <c r="C761" t="s">
+        <v>21</v>
+      </c>
+      <c r="D761" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E761" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="F761" s="49">
+        <v>771207041</v>
+      </c>
+      <c r="G761" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H761" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I761" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J761" s="50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K761" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L761" s="49">
+        <v>5</v>
+      </c>
+      <c r="M761" s="51">
+        <v>26000</v>
+      </c>
+      <c r="N761" s="51">
+        <v>130000</v>
+      </c>
+      <c r="O761" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P761" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="762" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A762" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B762" t="s">
+        <v>20</v>
+      </c>
+      <c r="C762" t="s">
+        <v>21</v>
+      </c>
+      <c r="D762" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E762" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="F762" s="49">
+        <v>774266172</v>
+      </c>
+      <c r="G762" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="H762" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I762" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J762" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K762" s="49"/>
+      <c r="L762" s="49"/>
+      <c r="M762" s="51"/>
+      <c r="N762" s="51"/>
+      <c r="O762" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P762" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="763" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A763" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B763" t="s">
+        <v>20</v>
+      </c>
+      <c r="C763" t="s">
+        <v>21</v>
+      </c>
+      <c r="D763" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E763" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="F763" s="49">
+        <v>776327767</v>
+      </c>
+      <c r="G763" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H763" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I763" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J763" s="50" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K763" s="49"/>
+      <c r="L763" s="49"/>
+      <c r="M763" s="51"/>
+      <c r="N763" s="51"/>
+      <c r="O763" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P763" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="764" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A764" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B764" t="s">
+        <v>20</v>
+      </c>
+      <c r="C764" t="s">
+        <v>21</v>
+      </c>
+      <c r="D764" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E764" s="49" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F764" s="49">
+        <v>779773605</v>
+      </c>
+      <c r="G764" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H764" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I764" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J764" s="50" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K764" s="49" t="s">
+        <v>847</v>
+      </c>
+      <c r="L764" s="49">
+        <v>1</v>
+      </c>
+      <c r="M764" s="51">
+        <v>31000</v>
+      </c>
+      <c r="N764" s="51">
+        <v>31000</v>
+      </c>
+      <c r="O764" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P764" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="765" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A765" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B765" t="s">
+        <v>20</v>
+      </c>
+      <c r="C765" t="s">
+        <v>21</v>
+      </c>
+      <c r="D765" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E765" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="F765" s="49">
+        <v>781681572</v>
+      </c>
+      <c r="G765" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="H765" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I765" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J765" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K765" s="49"/>
+      <c r="L765" s="49"/>
+      <c r="M765" s="51"/>
+      <c r="N765" s="51"/>
+      <c r="O765" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P765" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="766" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A766" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B766" t="s">
+        <v>20</v>
+      </c>
+      <c r="C766" t="s">
+        <v>21</v>
+      </c>
+      <c r="D766" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E766" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="F766" s="49">
+        <v>784551637</v>
+      </c>
+      <c r="G766" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H766" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I766" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J766" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K766" s="49"/>
+      <c r="L766" s="49"/>
+      <c r="M766" s="51"/>
+      <c r="N766" s="51"/>
+      <c r="O766" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P766" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="767" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A767" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B767" t="s">
+        <v>20</v>
+      </c>
+      <c r="C767" t="s">
+        <v>21</v>
+      </c>
+      <c r="D767" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E767" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F767" s="49">
+        <v>787487293</v>
+      </c>
+      <c r="G767" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H767" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I767" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J767" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K767" s="49"/>
+      <c r="L767" s="49"/>
+      <c r="M767" s="51"/>
+      <c r="N767" s="51"/>
+      <c r="O767" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P767" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="768" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A768" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B768" t="s">
+        <v>20</v>
+      </c>
+      <c r="C768" t="s">
+        <v>21</v>
+      </c>
+      <c r="D768" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E768" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="F768" s="49">
+        <v>763198632</v>
+      </c>
+      <c r="G768" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H768" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I768" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J768" s="50" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K768" s="49"/>
+      <c r="L768" s="49"/>
+      <c r="M768" s="51"/>
+      <c r="N768" s="51"/>
+      <c r="O768" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P768" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="769" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A769" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B769" t="s">
+        <v>24</v>
+      </c>
+      <c r="C769" t="s">
+        <v>25</v>
+      </c>
+      <c r="D769" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E769" s="49" t="s">
+        <v>821</v>
+      </c>
+      <c r="F769" s="49">
+        <v>774756755</v>
+      </c>
+      <c r="G769" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H769" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I769" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J769" s="50" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K769" s="49"/>
+      <c r="L769" s="49"/>
+      <c r="M769" s="51"/>
+      <c r="N769" s="51"/>
+      <c r="O769" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P769" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="770" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A770" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B770" t="s">
+        <v>20</v>
+      </c>
+      <c r="C770" t="s">
+        <v>21</v>
+      </c>
+      <c r="D770" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E770" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="F770" s="49">
+        <v>775038524</v>
+      </c>
+      <c r="G770" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H770" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I770" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J770" s="50" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K770" s="49"/>
+      <c r="L770" s="49"/>
+      <c r="M770" s="51"/>
+      <c r="N770" s="51"/>
+      <c r="O770" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P770" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="771" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A771" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B771" t="s">
+        <v>20</v>
+      </c>
+      <c r="C771" t="s">
+        <v>21</v>
+      </c>
+      <c r="D771" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E771" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="F771" s="49">
+        <v>770509812</v>
+      </c>
+      <c r="G771" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H771" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I771" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J771" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K771" s="49"/>
+      <c r="L771" s="49"/>
+      <c r="M771" s="51"/>
+      <c r="N771" s="51"/>
+      <c r="O771" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P771" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="772" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A772" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B772" t="s">
+        <v>20</v>
+      </c>
+      <c r="C772" t="s">
+        <v>21</v>
+      </c>
+      <c r="D772" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E772" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="F772" s="49">
+        <v>772304013</v>
+      </c>
+      <c r="G772" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="H772" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I772" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J772" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K772" s="49"/>
+      <c r="L772" s="49"/>
+      <c r="M772" s="51"/>
+      <c r="N772" s="51"/>
+      <c r="O772" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P772" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="773" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A773" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B773" t="s">
+        <v>20</v>
+      </c>
+      <c r="C773" t="s">
+        <v>21</v>
+      </c>
+      <c r="D773" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E773" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F773" s="49">
+        <v>783731627</v>
+      </c>
+      <c r="G773" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H773" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I773" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J773" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K773" s="49"/>
+      <c r="L773" s="49"/>
+      <c r="M773" s="51"/>
+      <c r="N773" s="51"/>
+      <c r="O773" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P773" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="774" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A774" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B774" t="s">
+        <v>20</v>
+      </c>
+      <c r="C774" t="s">
+        <v>21</v>
+      </c>
+      <c r="D774" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E774" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F774" s="49">
+        <v>787554231</v>
+      </c>
+      <c r="G774" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H774" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I774" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J774" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K774" s="49"/>
+      <c r="L774" s="49"/>
+      <c r="M774" s="51"/>
+      <c r="N774" s="51"/>
+      <c r="O774" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P774" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A775" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B775" t="s">
+        <v>20</v>
+      </c>
+      <c r="C775" t="s">
+        <v>21</v>
+      </c>
+      <c r="D775" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E775" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F775" s="49">
+        <v>775649041</v>
+      </c>
+      <c r="G775" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H775" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I775" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J775" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K775" s="49"/>
+      <c r="L775" s="49"/>
+      <c r="M775" s="51"/>
+      <c r="N775" s="51"/>
+      <c r="O775" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P775" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A776" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B776" t="s">
+        <v>20</v>
+      </c>
+      <c r="C776" t="s">
+        <v>21</v>
+      </c>
+      <c r="D776" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E776" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="F776" s="49">
+        <v>778267079</v>
+      </c>
+      <c r="G776" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H776" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I776" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J776" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K776" s="49"/>
+      <c r="L776" s="49"/>
+      <c r="M776" s="51"/>
+      <c r="N776" s="51"/>
+      <c r="O776" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P776" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="777" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A777" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B777" t="s">
+        <v>20</v>
+      </c>
+      <c r="C777" t="s">
+        <v>21</v>
+      </c>
+      <c r="D777" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E777" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F777" s="49">
+        <v>777929047</v>
+      </c>
+      <c r="G777" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H777" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I777" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J777" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K777" s="49"/>
+      <c r="L777" s="49"/>
+      <c r="M777" s="51"/>
+      <c r="N777" s="51"/>
+      <c r="O777" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P777" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="778" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A778" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B778" t="s">
+        <v>20</v>
+      </c>
+      <c r="C778" t="s">
+        <v>21</v>
+      </c>
+      <c r="D778" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E778" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F778" s="49">
+        <v>781627979</v>
+      </c>
+      <c r="G778" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H778" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I778" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J778" s="50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K778" s="49"/>
+      <c r="L778" s="49"/>
+      <c r="M778" s="51"/>
+      <c r="N778" s="51"/>
+      <c r="O778" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P778" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="779" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A779" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B779" t="s">
+        <v>20</v>
+      </c>
+      <c r="C779" t="s">
+        <v>21</v>
+      </c>
+      <c r="D779" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E779" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="F779" s="49">
+        <v>784364814</v>
+      </c>
+      <c r="G779" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H779" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I779" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J779" s="50" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K779" s="49"/>
+      <c r="L779" s="49"/>
+      <c r="M779" s="51"/>
+      <c r="N779" s="51"/>
+      <c r="O779" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P779" s="52" t="str">
+        <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
+        <v>août</v>
+      </c>
+    </row>
+    <row r="780" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A780" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B780" t="s">
+        <v>20</v>
+      </c>
+      <c r="C780" t="s">
+        <v>21</v>
+      </c>
+      <c r="D780" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E780" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F780" s="49">
+        <v>784520555</v>
+      </c>
+      <c r="G780" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="H780" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I780" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J780" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="K780" s="49"/>
+      <c r="L780" s="49"/>
+      <c r="M780" s="51"/>
+      <c r="N780" s="51"/>
+      <c r="O780" s="52" t="str">
+        <f>"S"&amp;_xlfn.ISOWEEKNUM(Semaine_1[[#This Row],[Date]])</f>
+        <v>S35</v>
+      </c>
+      <c r="P780" s="52" t="str">
         <f>TEXT(Semaine_1[[#This Row],[Date]],"MMMM")</f>
         <v>août</v>
       </c>
